--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="28695" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>Character Weight</t>
   </si>
@@ -110,6 +111,93 @@
   </si>
   <si>
     <t>1-3</t>
+  </si>
+  <si>
+    <t>Weapon Type</t>
+  </si>
+  <si>
+    <t>Manual Allowed</t>
+  </si>
+  <si>
+    <t>Base Stats</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Fire Rate</t>
+  </si>
+  <si>
+    <t>Handling</t>
+  </si>
+  <si>
+    <t>Reload Speed</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Critical Chance</t>
+  </si>
+  <si>
+    <t>Pellets</t>
+  </si>
+  <si>
+    <t>Magazine Time</t>
+  </si>
+  <si>
+    <t>Magazine Damage</t>
+  </si>
+  <si>
+    <t>DPS</t>
+  </si>
+  <si>
+    <t>DPS No Reload</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Rusty</t>
+  </si>
+  <si>
+    <t>Tarnished</t>
+  </si>
+  <si>
+    <t>Shiny</t>
+  </si>
+  <si>
+    <t>Gleaming</t>
+  </si>
+  <si>
+    <t>Radiant</t>
+  </si>
+  <si>
+    <t>Rifle</t>
+  </si>
+  <si>
+    <t>Shotgun</t>
+  </si>
+  <si>
+    <t>SMG</t>
+  </si>
+  <si>
+    <t>LMG</t>
+  </si>
+  <si>
+    <t>Explosive</t>
+  </si>
+  <si>
+    <t>Power Comparison</t>
   </si>
 </sst>
 </file>
@@ -117,15 +205,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -138,8 +255,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,9 +278,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,22 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -193,53 +341,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,7 +371,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,9 +379,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,13 +393,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,31 +408,241 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,158 +652,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -486,10 +663,139 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,16 +804,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,21 +819,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -569,16 +851,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,7 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,138 +905,255 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1066,7 +1483,7 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1098,7 +1515,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="40" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1107,10 +1524,10 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
@@ -1127,13 +1544,13 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="42">
         <v>0.25</v>
       </c>
     </row>
@@ -1147,13 +1564,13 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="42">
         <v>0.5</v>
       </c>
     </row>
@@ -1167,18 +1584,18 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="42">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="40" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
@@ -1187,10 +1604,10 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="41" t="s">
         <v>31</v>
       </c>
       <c r="F6" t="s">
@@ -1201,4 +1618,2237 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:V74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.7142857142857" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="19.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="10.4285714285714" customWidth="1"/>
+    <col min="4" max="17" width="10.7142857142857" customWidth="1"/>
+    <col min="19" max="19" width="15.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="30"/>
+      <c r="U2" s="31"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>30</v>
+      </c>
+      <c r="G3" s="7">
+        <v>50</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3</v>
+      </c>
+      <c r="J3" s="6">
+        <v>70</v>
+      </c>
+      <c r="K3" s="7">
+        <v>80</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="M3" s="7">
+        <v>3</v>
+      </c>
+      <c r="N3" s="6">
+        <v>2</v>
+      </c>
+      <c r="O3" s="24">
+        <v>10</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="32">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f>AVERAGE(N3:O3)/AVERAGE(H3:I3)+AVERAGE(L3:M3)</f>
+        <v>5.25</v>
+      </c>
+      <c r="T3">
+        <f>AVERAGE(D3:E3)*AVERAGE(N3:O3)</f>
+        <v>10.5</v>
+      </c>
+      <c r="U3" s="33">
+        <f>T3/S3*R3</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f>AVERAGE(H3:I3)*AVERAGE(D3:E3)*R3</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>40</v>
+      </c>
+      <c r="G4" s="10">
+        <v>55</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>4</v>
+      </c>
+      <c r="J4" s="9">
+        <v>75</v>
+      </c>
+      <c r="K4" s="10">
+        <v>85</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2</v>
+      </c>
+      <c r="M4" s="10">
+        <v>4</v>
+      </c>
+      <c r="N4" s="9">
+        <v>2</v>
+      </c>
+      <c r="O4" s="25">
+        <v>12</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="34">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f>AVERAGE(N4:O4)/AVERAGE(H4:I4)+AVERAGE(L4:M4)</f>
+        <v>5.8</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T37" si="0">AVERAGE(D4:E4)*AVERAGE(N4:O4)</f>
+        <v>24.5</v>
+      </c>
+      <c r="U4" s="33">
+        <f t="shared" ref="U4:U37" si="1">T4/S4*R4</f>
+        <v>4.22413793103448</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V37" si="2">AVERAGE(H4:I4)*AVERAGE(D4:E4)*R4</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="12">
+        <v>4</v>
+      </c>
+      <c r="E5" s="13">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12">
+        <v>50</v>
+      </c>
+      <c r="G5" s="13">
+        <v>60</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2</v>
+      </c>
+      <c r="I5" s="13">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12">
+        <v>80</v>
+      </c>
+      <c r="K5" s="13">
+        <v>90</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="M5" s="13">
+        <v>3</v>
+      </c>
+      <c r="N5" s="12">
+        <v>3</v>
+      </c>
+      <c r="O5" s="26">
+        <v>14</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="35">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f>AVERAGE(N5:O5)/AVERAGE(H5:I5)+AVERAGE(L5:M5)</f>
+        <v>4.67857142857143</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>59.5</v>
+      </c>
+      <c r="U5" s="33">
+        <f t="shared" si="1"/>
+        <v>12.7175572519084</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="15">
+        <v>8</v>
+      </c>
+      <c r="E6" s="16">
+        <v>20</v>
+      </c>
+      <c r="F6" s="15">
+        <v>60</v>
+      </c>
+      <c r="G6" s="16">
+        <v>70</v>
+      </c>
+      <c r="H6" s="15">
+        <v>3</v>
+      </c>
+      <c r="I6" s="16">
+        <v>6</v>
+      </c>
+      <c r="J6" s="15">
+        <v>85</v>
+      </c>
+      <c r="K6" s="16">
+        <v>95</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1</v>
+      </c>
+      <c r="M6" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="N6" s="15">
+        <v>4</v>
+      </c>
+      <c r="O6" s="27">
+        <v>16</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="36">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f>AVERAGE(N6:O6)/AVERAGE(H6:I6)+AVERAGE(L6:M6)</f>
+        <v>3.97222222222222</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="U6" s="33">
+        <f t="shared" si="1"/>
+        <v>35.2447552447552</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="18">
+        <v>16</v>
+      </c>
+      <c r="E7" s="19">
+        <v>40</v>
+      </c>
+      <c r="F7" s="18">
+        <v>70</v>
+      </c>
+      <c r="G7" s="19">
+        <v>80</v>
+      </c>
+      <c r="H7" s="18">
+        <v>5</v>
+      </c>
+      <c r="I7" s="19">
+        <v>8</v>
+      </c>
+      <c r="J7" s="18">
+        <v>95</v>
+      </c>
+      <c r="K7" s="19">
+        <v>100</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="19">
+        <v>2</v>
+      </c>
+      <c r="N7" s="18">
+        <v>6</v>
+      </c>
+      <c r="O7" s="28">
+        <v>20</v>
+      </c>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="37">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f>AVERAGE(N7:O7)/AVERAGE(H7:I7)+AVERAGE(L7:M7)</f>
+        <v>3.25</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="U7" s="33">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="21"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8" s="33"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7">
+        <v>80</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="M9" s="7">
+        <v>5</v>
+      </c>
+      <c r="N9" s="6">
+        <v>4</v>
+      </c>
+      <c r="O9" s="24">
+        <v>6</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="32">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ref="S8:S37" si="3">AVERAGE(N9:O9)/AVERAGE(H9:I9)+AVERAGE(L9:M9)</f>
+        <v>14.25</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="U9" s="33">
+        <f t="shared" si="1"/>
+        <v>5.26315789473684</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="9">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10">
+        <v>50</v>
+      </c>
+      <c r="F10" s="9">
+        <v>60</v>
+      </c>
+      <c r="G10" s="10">
+        <v>85</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="9">
+        <v>3</v>
+      </c>
+      <c r="M10" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="N10" s="9">
+        <v>4</v>
+      </c>
+      <c r="O10" s="25">
+        <v>7</v>
+      </c>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="34">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>12.55</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>178.75</v>
+      </c>
+      <c r="U10" s="33">
+        <f t="shared" si="1"/>
+        <v>14.2430278884462</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>20.3125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="12">
+        <v>30</v>
+      </c>
+      <c r="E11" s="13">
+        <v>75</v>
+      </c>
+      <c r="F11" s="12">
+        <v>70</v>
+      </c>
+      <c r="G11" s="13">
+        <v>90</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="M11" s="13">
+        <v>4</v>
+      </c>
+      <c r="N11" s="12">
+        <v>5</v>
+      </c>
+      <c r="O11" s="26">
+        <v>8</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="35">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>11.9166666666667</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>341.25</v>
+      </c>
+      <c r="U11" s="33">
+        <f t="shared" si="1"/>
+        <v>28.6363636363636</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>39.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="15">
+        <v>60</v>
+      </c>
+      <c r="E12" s="16">
+        <v>125</v>
+      </c>
+      <c r="F12" s="15">
+        <v>80</v>
+      </c>
+      <c r="G12" s="16">
+        <v>95</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="15">
+        <v>2</v>
+      </c>
+      <c r="M12" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="N12" s="15">
+        <v>5</v>
+      </c>
+      <c r="O12" s="27">
+        <v>9</v>
+      </c>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="36">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>9.75</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>647.5</v>
+      </c>
+      <c r="U12" s="33">
+        <f t="shared" si="1"/>
+        <v>66.4102564102564</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="18">
+        <v>120</v>
+      </c>
+      <c r="E13" s="19">
+        <v>200</v>
+      </c>
+      <c r="F13" s="18">
+        <v>90</v>
+      </c>
+      <c r="G13" s="19">
+        <v>100</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>2</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18">
+        <v>1</v>
+      </c>
+      <c r="M13" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="N13" s="18">
+        <v>8</v>
+      </c>
+      <c r="O13" s="28">
+        <v>12</v>
+      </c>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="37">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>8.41666666666667</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="U13" s="33">
+        <f t="shared" si="1"/>
+        <v>190.09900990099</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="21"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14" s="33"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>30</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="6">
+        <v>2</v>
+      </c>
+      <c r="M15" s="7">
+        <v>3</v>
+      </c>
+      <c r="N15" s="6">
+        <v>2</v>
+      </c>
+      <c r="O15" s="24">
+        <v>6</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="32">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="U15" s="33">
+        <f t="shared" si="1"/>
+        <v>3.69230769230769</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="9">
+        <v>10</v>
+      </c>
+      <c r="G16" s="10">
+        <v>30</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="34">
+        <v>6</v>
+      </c>
+      <c r="S16" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2</v>
+      </c>
+      <c r="E17" s="13">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12">
+        <v>10</v>
+      </c>
+      <c r="G17" s="13">
+        <v>40</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="35">
+        <v>8</v>
+      </c>
+      <c r="S17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="15">
+        <v>4</v>
+      </c>
+      <c r="E18" s="16">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15">
+        <v>20</v>
+      </c>
+      <c r="G18" s="16">
+        <v>40</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="36">
+        <v>10</v>
+      </c>
+      <c r="S18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="18">
+        <v>8</v>
+      </c>
+      <c r="E19" s="19">
+        <v>15</v>
+      </c>
+      <c r="F19" s="18">
+        <v>30</v>
+      </c>
+      <c r="G19" s="19">
+        <v>50</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="37">
+        <v>12</v>
+      </c>
+      <c r="S19" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="21"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20" s="33"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="F21" s="6">
+        <v>20</v>
+      </c>
+      <c r="G21" s="7">
+        <v>50</v>
+      </c>
+      <c r="H21" s="6">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7">
+        <v>6</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="6">
+        <v>2</v>
+      </c>
+      <c r="M21" s="7">
+        <v>3</v>
+      </c>
+      <c r="N21" s="6">
+        <v>10</v>
+      </c>
+      <c r="O21" s="24">
+        <v>20</v>
+      </c>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="32">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>5.83333333333333</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="U21" s="33">
+        <f t="shared" si="1"/>
+        <v>2.57142857142857</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="9">
+        <v>25</v>
+      </c>
+      <c r="G22" s="10">
+        <v>55</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="34">
+        <v>1</v>
+      </c>
+      <c r="S22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12">
+        <v>30</v>
+      </c>
+      <c r="G23" s="13">
+        <v>60</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="35">
+        <v>1</v>
+      </c>
+      <c r="S23" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15">
+        <v>35</v>
+      </c>
+      <c r="G24" s="16">
+        <v>65</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="36">
+        <v>1</v>
+      </c>
+      <c r="S24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="18">
+        <v>50</v>
+      </c>
+      <c r="G25" s="19">
+        <v>70</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="37">
+        <v>1</v>
+      </c>
+      <c r="S25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="21"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26" s="33"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7">
+        <v>4</v>
+      </c>
+      <c r="F27" s="6">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7">
+        <v>40</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="7">
+        <v>4</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="6">
+        <v>5</v>
+      </c>
+      <c r="M27" s="7">
+        <v>7</v>
+      </c>
+      <c r="N27" s="6">
+        <v>20</v>
+      </c>
+      <c r="O27" s="24">
+        <v>30</v>
+      </c>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="32">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>15.0909090909091</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="U27" s="33">
+        <f t="shared" si="1"/>
+        <v>4.96987951807229</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="2"/>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9">
+        <v>35</v>
+      </c>
+      <c r="G28" s="10">
+        <v>45</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="9">
+        <v>5</v>
+      </c>
+      <c r="M28" s="10">
+        <v>9</v>
+      </c>
+      <c r="N28" s="9">
+        <v>30</v>
+      </c>
+      <c r="O28" s="25">
+        <v>40</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="34">
+        <v>1</v>
+      </c>
+      <c r="S28" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12">
+        <v>40</v>
+      </c>
+      <c r="G29" s="13">
+        <v>50</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="12">
+        <v>7</v>
+      </c>
+      <c r="M29" s="13">
+        <v>9</v>
+      </c>
+      <c r="N29" s="12">
+        <v>40</v>
+      </c>
+      <c r="O29" s="26">
+        <v>60</v>
+      </c>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="35">
+        <v>1</v>
+      </c>
+      <c r="S29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15">
+        <v>45</v>
+      </c>
+      <c r="G30" s="16">
+        <v>55</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="15">
+        <v>9</v>
+      </c>
+      <c r="M30" s="16">
+        <v>11</v>
+      </c>
+      <c r="N30" s="15">
+        <v>60</v>
+      </c>
+      <c r="O30" s="27">
+        <v>80</v>
+      </c>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="36">
+        <v>1</v>
+      </c>
+      <c r="S30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="18">
+        <v>50</v>
+      </c>
+      <c r="G31" s="19">
+        <v>70</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="18">
+        <v>11</v>
+      </c>
+      <c r="M31" s="19">
+        <v>16</v>
+      </c>
+      <c r="N31" s="18">
+        <v>80</v>
+      </c>
+      <c r="O31" s="28">
+        <v>120</v>
+      </c>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="37">
+        <v>1</v>
+      </c>
+      <c r="S31" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="21"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32" s="33"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="6">
+        <v>10</v>
+      </c>
+      <c r="E33" s="7">
+        <v>40</v>
+      </c>
+      <c r="F33" s="6">
+        <v>100</v>
+      </c>
+      <c r="G33" s="7">
+        <v>100</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="6">
+        <v>5</v>
+      </c>
+      <c r="M33" s="7">
+        <v>5</v>
+      </c>
+      <c r="N33" s="6">
+        <v>1</v>
+      </c>
+      <c r="O33" s="24">
+        <v>1</v>
+      </c>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="32">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="U33" s="33">
+        <f t="shared" si="1"/>
+        <v>4.16666666666667</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9">
+        <v>100</v>
+      </c>
+      <c r="G34" s="10">
+        <v>100</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="9">
+        <v>1</v>
+      </c>
+      <c r="O34" s="25">
+        <v>1</v>
+      </c>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="34">
+        <v>1</v>
+      </c>
+      <c r="S34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U34" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V34" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12">
+        <v>100</v>
+      </c>
+      <c r="G35" s="13">
+        <v>100</v>
+      </c>
+      <c r="H35" s="12">
+        <v>1</v>
+      </c>
+      <c r="I35" s="13">
+        <v>1</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="12">
+        <v>1</v>
+      </c>
+      <c r="O35" s="26">
+        <v>1</v>
+      </c>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="35">
+        <v>1</v>
+      </c>
+      <c r="S35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U35" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="15">
+        <v>100</v>
+      </c>
+      <c r="G36" s="16">
+        <v>100</v>
+      </c>
+      <c r="H36" s="15">
+        <v>1</v>
+      </c>
+      <c r="I36" s="16">
+        <v>1</v>
+      </c>
+      <c r="J36" s="15"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="15">
+        <v>1</v>
+      </c>
+      <c r="O36" s="27">
+        <v>1</v>
+      </c>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="36">
+        <v>1</v>
+      </c>
+      <c r="S36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U36" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V36" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="18">
+        <v>100</v>
+      </c>
+      <c r="G37" s="19">
+        <v>100</v>
+      </c>
+      <c r="H37" s="18">
+        <v>1</v>
+      </c>
+      <c r="I37" s="19">
+        <v>1</v>
+      </c>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="18">
+        <v>1</v>
+      </c>
+      <c r="O37" s="28">
+        <v>1</v>
+      </c>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="37">
+        <v>1</v>
+      </c>
+      <c r="S37" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U37" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V37" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="21:21">
+      <c r="U38" s="39"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <f>U3/U9</f>
+        <v>0.38</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <f>U3/U15</f>
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44">
+        <f>U3/U21</f>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <f>U3/U27</f>
+        <v>0.402424242424242</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46">
+        <f>U3/U33</f>
+        <v>0.48</v>
+      </c>
+      <c r="I46" s="22"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -12,13 +12,14 @@
     <sheet name="WeaponDataForExport" sheetId="3" r:id="rId3"/>
     <sheet name="Weather" sheetId="4" r:id="rId4"/>
     <sheet name="WeatherDataForExport" sheetId="5" r:id="rId5"/>
+    <sheet name="Traits" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
   <si>
     <t>Character Weight</t>
   </si>
@@ -426,6 +427,72 @@
   </si>
   <si>
     <t>Freq2</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Modifiers</t>
+  </si>
+  <si>
+    <t>Intelligence</t>
+  </si>
+  <si>
+    <t>Stability</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Dehydration Tolerance</t>
+  </si>
+  <si>
+    <t>Starvation Tolerance</t>
+  </si>
+  <si>
+    <t>Sight</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Aim Speed</t>
+  </si>
+  <si>
+    <t>Scavenger</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Wanderer</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Ravager</t>
+  </si>
+  <si>
+    <t>Conqueror</t>
+  </si>
+  <si>
+    <t>Survivor</t>
+  </si>
+  <si>
+    <t>Nomadic</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Goliath</t>
+  </si>
+  <si>
+    <t>Nimble</t>
+  </si>
+  <si>
+    <t>Delicate</t>
   </si>
 </sst>
 </file>
@@ -433,11 +500,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -505,8 +572,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,15 +590,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,16 +649,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,23 +665,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,13 +687,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -612,30 +695,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,6 +718,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,13 +789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,7 +843,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,19 +933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,73 +957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,9 +1220,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,6 +1234,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,41 +1258,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,6 +1278,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1242,157 +1306,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1402,12 +1475,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1438,8 +1505,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1447,40 +1526,22 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
@@ -1513,19 +1574,34 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1549,16 +1625,10 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1573,25 +1643,28 @@
     <xf numFmtId="2" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1600,7 +1673,10 @@
     <xf numFmtId="2" fontId="3" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1609,7 +1685,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1618,7 +1694,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1986,7 +2062,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1995,10 +2071,10 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="79" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
@@ -2015,13 +2091,13 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="79">
+      <c r="F3" s="80">
         <v>0.25</v>
       </c>
     </row>
@@ -2035,13 +2111,13 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="80">
         <v>0.5</v>
       </c>
     </row>
@@ -2055,18 +2131,18 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="80">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
@@ -2075,10 +2151,10 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="79" t="s">
         <v>31</v>
       </c>
       <c r="F6" t="s">
@@ -2125,41 +2201,41 @@
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18" t="s">
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
       <c r="Y1" s="1" t="s">
         <v>42</v>
       </c>
@@ -2169,22 +2245,22 @@
       <c r="AA1" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="72" t="s">
+      <c r="AB1" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="72" t="s">
+      <c r="AC1" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72" t="s">
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="72" t="s">
+      <c r="AG1" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
       <c r="AJ1" t="s">
         <v>49</v>
       </c>
@@ -2193,40 +2269,40 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -2235,207 +2311,207 @@
       <c r="Q2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Y2" s="1"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72" t="s">
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="72" t="s">
+      <c r="AD2" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="72" t="s">
+      <c r="AE2" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72" t="s">
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="72" t="s">
+      <c r="AH2" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="72" t="s">
+      <c r="AI2" s="73" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="70" t="s">
+      <c r="B3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
     </row>
     <row r="4" spans="1:36">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="22">
         <v>2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <v>4.5</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="24">
         <f>AVERAGE(D4:E4)</f>
         <v>3.25</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="25">
         <v>45</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="23">
         <v>55</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="24">
         <f>AVERAGE(G4:H4)</f>
         <v>50</v>
       </c>
-      <c r="J4" s="24">
-        <v>1</v>
-      </c>
-      <c r="K4" s="22">
+      <c r="J4" s="25">
+        <v>1</v>
+      </c>
+      <c r="K4" s="23">
         <v>3</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="24">
         <f>AVERAGE(J4:K4)</f>
         <v>2</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="25">
         <v>70</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="23">
         <v>80</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="24">
         <f>AVERAGE(M4:N4)</f>
         <v>75</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="25">
         <v>1.75</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="23">
         <v>3.25</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="24">
         <f>AVERAGE(P4:Q4)</f>
         <v>2.5</v>
       </c>
-      <c r="S4" s="52">
+      <c r="S4" s="53">
         <v>6</v>
       </c>
-      <c r="T4" s="53">
+      <c r="T4" s="54">
         <v>12</v>
       </c>
-      <c r="U4" s="23">
+      <c r="U4" s="24">
         <f>AVERAGE(S4:T4)</f>
         <v>9</v>
       </c>
-      <c r="V4" s="24">
+      <c r="V4" s="25">
         <v>3</v>
       </c>
-      <c r="W4" s="22">
+      <c r="W4" s="23">
         <v>4</v>
       </c>
-      <c r="X4" s="23">
+      <c r="X4" s="24">
         <f>AVERAGE(V4:W4)</f>
         <v>3.5</v>
       </c>
-      <c r="Y4" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="74">
+      <c r="Y4" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="75">
         <f>U4/L4+R4</f>
         <v>7</v>
       </c>
-      <c r="AA4" s="74">
+      <c r="AA4" s="75">
         <f>U4*(X4/100*F4*2+((1-X4/100)*F4))</f>
         <v>30.27375</v>
       </c>
-      <c r="AB4" s="75">
+      <c r="AB4" s="76">
         <f>AA4/Z4*Y4</f>
         <v>4.32482142857143</v>
       </c>
-      <c r="AC4" s="75">
+      <c r="AC4" s="76">
         <f>($Y4*D4*G4/100*S4*((V4/100*D4*2)+((1-V4/100)*D4))/(S4/J4+P4))</f>
         <v>1.43535483870968</v>
       </c>
-      <c r="AD4" s="75">
+      <c r="AD4" s="76">
         <f>($Y4*E4*H4/100*T4*((W4/100*E4*2)+((1-W4/100)*E4))/(T4/K4+Q4))</f>
         <v>19.1718620689655</v>
       </c>
-      <c r="AE4" s="75">
+      <c r="AE4" s="76">
         <f>AVERAGE(AC4:AD4)</f>
         <v>10.3036084538376</v>
       </c>
-      <c r="AF4" s="75">
+      <c r="AF4" s="76">
         <v>10</v>
       </c>
-      <c r="AG4" s="75">
+      <c r="AG4" s="76">
         <f>D4*G4/100</f>
         <v>0.9</v>
       </c>
-      <c r="AH4" s="75">
+      <c r="AH4" s="76">
         <f>E4*H4/100*2</f>
         <v>4.95</v>
       </c>
-      <c r="AI4" s="75">
+      <c r="AI4" s="76">
         <f>AVERAGE(AG4:AH4)</f>
         <v>2.925</v>
       </c>
@@ -2445,120 +2521,120 @@
       </c>
     </row>
     <row r="5" spans="1:36">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="27">
         <v>2.5</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="28">
         <v>5</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="29">
         <f t="shared" ref="F5:F38" si="0">AVERAGE(D5:E5)</f>
         <v>3.75</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="30">
         <v>50</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="28">
         <v>60</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="29">
         <f t="shared" ref="I5:I38" si="1">AVERAGE(G5:H5)</f>
         <v>55</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="30">
         <v>1.25</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="28">
         <v>3</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="29">
         <f t="shared" ref="L5:L38" si="2">AVERAGE(J5:K5)</f>
         <v>2.125</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="30">
         <v>75</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="28">
         <v>85</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="29">
         <f t="shared" ref="O5:O38" si="3">AVERAGE(M5:N5)</f>
         <v>80</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="30">
         <v>1.5</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="28">
         <v>3</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="29">
         <f t="shared" ref="R5:R38" si="4">AVERAGE(P5:Q5)</f>
         <v>2.25</v>
       </c>
-      <c r="S5" s="54">
+      <c r="S5" s="55">
         <v>6</v>
       </c>
-      <c r="T5" s="55">
+      <c r="T5" s="56">
         <v>12</v>
       </c>
-      <c r="U5" s="66">
+      <c r="U5" s="67">
         <f t="shared" ref="U5:U38" si="5">AVERAGE(S5:T5)</f>
         <v>9</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="30">
         <v>4</v>
       </c>
-      <c r="W5" s="27">
+      <c r="W5" s="28">
         <v>5</v>
       </c>
-      <c r="X5" s="28">
+      <c r="X5" s="29">
         <f t="shared" ref="X5:X38" si="6">AVERAGE(V5:W5)</f>
         <v>4.5</v>
       </c>
-      <c r="Y5" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="74">
+      <c r="Y5" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="75">
         <f t="shared" ref="Z5:Z38" si="7">U5/L5+R5</f>
         <v>6.48529411764706</v>
       </c>
-      <c r="AA5" s="74">
+      <c r="AA5" s="75">
         <f t="shared" ref="AA5:AA38" si="8">U5*(X5/100*F5*2+((1-X5/100)*F5))</f>
         <v>35.26875</v>
       </c>
-      <c r="AB5" s="75">
+      <c r="AB5" s="76">
         <f t="shared" ref="AB5:AB38" si="9">AA5/Z5*Y5</f>
         <v>5.43826530612245</v>
       </c>
-      <c r="AC5" s="75">
+      <c r="AC5" s="76">
         <f t="shared" ref="AC5:AC38" si="10">($Y5*D5*G5/100*S5*((V5/100*D5*2)+((1-V5/100)*D5))/(S5/J5+P5))</f>
         <v>3.0952380952381</v>
       </c>
-      <c r="AD5" s="75">
+      <c r="AD5" s="76">
         <f t="shared" ref="AD5:AD38" si="11">($Y5*E5*H5/100*T5*((W5/100*E5*2)+((1-W5/100)*E5))/(T5/K5+Q5))</f>
         <v>27</v>
       </c>
-      <c r="AE5" s="75">
+      <c r="AE5" s="76">
         <f t="shared" ref="AE5:AE38" si="12">AVERAGE(AC5:AD5)</f>
         <v>15.047619047619</v>
       </c>
-      <c r="AF5" s="75">
+      <c r="AF5" s="76">
         <v>15</v>
       </c>
-      <c r="AG5" s="75">
+      <c r="AG5" s="76">
         <f t="shared" ref="AG5:AG38" si="13">D5*G5/100</f>
         <v>1.25</v>
       </c>
-      <c r="AH5" s="75">
+      <c r="AH5" s="76">
         <f t="shared" ref="AH5:AH38" si="14">E5*H5/100*2</f>
         <v>6</v>
       </c>
-      <c r="AI5" s="75">
+      <c r="AI5" s="76">
         <f t="shared" ref="AI5:AI38" si="15">AVERAGE(AG5:AH5)</f>
         <v>3.625</v>
       </c>
@@ -2568,120 +2644,120 @@
       </c>
     </row>
     <row r="6" spans="1:36">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="30" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="32">
         <v>3</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="33">
         <v>5.5</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="34">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="35">
         <v>55</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="33">
         <v>65</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="34">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="35">
         <v>1.5</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="33">
         <v>3</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="34">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="35">
         <v>80</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="33">
         <v>90</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="34">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="35">
         <v>1.25</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="33">
         <v>2.75</v>
       </c>
-      <c r="R6" s="33">
+      <c r="R6" s="34">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="S6" s="56">
+      <c r="S6" s="57">
         <v>6</v>
       </c>
-      <c r="T6" s="57">
+      <c r="T6" s="58">
         <v>12</v>
       </c>
-      <c r="U6" s="67">
+      <c r="U6" s="68">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="V6" s="34">
+      <c r="V6" s="35">
         <v>5</v>
       </c>
-      <c r="W6" s="32">
+      <c r="W6" s="33">
         <v>6</v>
       </c>
-      <c r="X6" s="33">
+      <c r="X6" s="34">
         <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
-      <c r="Y6" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="74">
+      <c r="Y6" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="75">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="AA6" s="74">
+      <c r="AA6" s="75">
         <f t="shared" si="8"/>
         <v>40.35375</v>
       </c>
-      <c r="AB6" s="75">
+      <c r="AB6" s="76">
         <f t="shared" si="9"/>
         <v>6.725625</v>
       </c>
-      <c r="AC6" s="75">
+      <c r="AC6" s="76">
         <f t="shared" si="10"/>
         <v>5.94</v>
       </c>
-      <c r="AD6" s="75">
+      <c r="AD6" s="76">
         <f t="shared" si="11"/>
         <v>37.0528888888889</v>
       </c>
-      <c r="AE6" s="75">
+      <c r="AE6" s="76">
         <f t="shared" si="12"/>
         <v>21.4964444444444</v>
       </c>
-      <c r="AF6" s="75">
+      <c r="AF6" s="76">
         <v>20</v>
       </c>
-      <c r="AG6" s="75">
+      <c r="AG6" s="76">
         <f t="shared" si="13"/>
         <v>1.65</v>
       </c>
-      <c r="AH6" s="75">
+      <c r="AH6" s="76">
         <f t="shared" si="14"/>
         <v>7.15</v>
       </c>
-      <c r="AI6" s="75">
+      <c r="AI6" s="76">
         <f t="shared" si="15"/>
         <v>4.4</v>
       </c>
@@ -2691,120 +2767,120 @@
       </c>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="35" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="37">
         <v>3.25</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="38">
         <v>5.5</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="39">
         <f t="shared" si="0"/>
         <v>4.375</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="40">
         <v>60</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="38">
         <v>70</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="39">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="40">
         <v>1.75</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="38">
         <v>3</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="39">
         <f t="shared" si="2"/>
         <v>2.375</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="40">
         <v>85</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="38">
         <v>95</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="39">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="P7" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="37">
+      <c r="P7" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="38">
         <v>2.5</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R7" s="39">
         <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-      <c r="S7" s="58">
+      <c r="S7" s="59">
         <v>6</v>
       </c>
-      <c r="T7" s="59">
+      <c r="T7" s="60">
         <v>12</v>
       </c>
-      <c r="U7" s="68">
+      <c r="U7" s="69">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="V7" s="39">
+      <c r="V7" s="40">
         <v>6</v>
       </c>
-      <c r="W7" s="37">
+      <c r="W7" s="38">
         <v>7</v>
       </c>
-      <c r="X7" s="38">
+      <c r="X7" s="39">
         <f t="shared" si="6"/>
         <v>6.5</v>
       </c>
-      <c r="Y7" s="37">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="74">
+      <c r="Y7" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="75">
         <f t="shared" si="7"/>
         <v>5.53947368421053</v>
       </c>
-      <c r="AA7" s="74">
+      <c r="AA7" s="75">
         <f t="shared" si="8"/>
         <v>41.934375</v>
       </c>
-      <c r="AB7" s="75">
+      <c r="AB7" s="76">
         <f t="shared" si="9"/>
         <v>7.57010095011877</v>
       </c>
-      <c r="AC7" s="75">
+      <c r="AC7" s="76">
         <f t="shared" si="10"/>
         <v>9.10146774193548</v>
       </c>
-      <c r="AD7" s="75">
+      <c r="AD7" s="76">
         <f t="shared" si="11"/>
         <v>41.8287692307692</v>
       </c>
-      <c r="AE7" s="75">
+      <c r="AE7" s="76">
         <f t="shared" si="12"/>
         <v>25.4651184863524</v>
       </c>
-      <c r="AF7" s="75">
+      <c r="AF7" s="76">
         <v>25</v>
       </c>
-      <c r="AG7" s="75">
+      <c r="AG7" s="76">
         <f t="shared" si="13"/>
         <v>1.95</v>
       </c>
-      <c r="AH7" s="75">
+      <c r="AH7" s="76">
         <f t="shared" si="14"/>
         <v>7.7</v>
       </c>
-      <c r="AI7" s="75">
+      <c r="AI7" s="76">
         <f t="shared" si="15"/>
         <v>4.825</v>
       </c>
@@ -2814,120 +2890,120 @@
       </c>
     </row>
     <row r="8" spans="1:36">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="40" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="42">
         <v>3.5</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="43">
         <v>5.5</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="44">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="45">
         <v>65</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="43">
         <v>75</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="44">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="45">
         <v>2</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="43">
         <v>3</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="44">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="M8" s="44">
+      <c r="M8" s="45">
         <v>90</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="43">
         <v>100</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="44">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="P8" s="44">
+      <c r="P8" s="45">
         <v>0.75</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="Q8" s="43">
         <v>2.25</v>
       </c>
-      <c r="R8" s="43">
+      <c r="R8" s="44">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="S8" s="60">
+      <c r="S8" s="61">
         <v>6</v>
       </c>
-      <c r="T8" s="61">
+      <c r="T8" s="62">
         <v>12</v>
       </c>
-      <c r="U8" s="69">
+      <c r="U8" s="70">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="V8" s="44">
+      <c r="V8" s="45">
         <v>7</v>
       </c>
-      <c r="W8" s="42">
+      <c r="W8" s="43">
         <v>8</v>
       </c>
-      <c r="X8" s="43">
+      <c r="X8" s="44">
         <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
-      <c r="Y8" s="42">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="74">
+      <c r="Y8" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="75">
         <f t="shared" si="7"/>
         <v>5.1</v>
       </c>
-      <c r="AA8" s="74">
+      <c r="AA8" s="75">
         <f t="shared" si="8"/>
         <v>43.5375</v>
       </c>
-      <c r="AB8" s="75">
+      <c r="AB8" s="76">
         <f t="shared" si="9"/>
         <v>8.53676470588235</v>
       </c>
-      <c r="AC8" s="75">
+      <c r="AC8" s="76">
         <f t="shared" si="10"/>
         <v>13.6318</v>
       </c>
-      <c r="AD8" s="75">
+      <c r="AD8" s="76">
         <f t="shared" si="11"/>
         <v>47.0448</v>
       </c>
-      <c r="AE8" s="75">
+      <c r="AE8" s="76">
         <f t="shared" si="12"/>
         <v>30.3383</v>
       </c>
-      <c r="AF8" s="75">
+      <c r="AF8" s="76">
         <v>30</v>
       </c>
-      <c r="AG8" s="75">
+      <c r="AG8" s="76">
         <f t="shared" si="13"/>
         <v>2.275</v>
       </c>
-      <c r="AH8" s="75">
+      <c r="AH8" s="76">
         <f t="shared" si="14"/>
         <v>8.25</v>
       </c>
-      <c r="AI8" s="75">
+      <c r="AI8" s="76">
         <f t="shared" si="15"/>
         <v>5.2625</v>
       </c>
@@ -2937,164 +3013,164 @@
       </c>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="51" t="s">
+      <c r="B9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="51"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
     </row>
     <row r="10" spans="1:36">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>5</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="23">
         <v>8.5</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="24">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="25">
         <v>60</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="23">
         <v>80</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="24">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="53">
         <v>0.2</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="54">
         <v>0.5</v>
       </c>
-      <c r="L10" s="65">
+      <c r="L10" s="66">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="25">
         <v>30</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="23">
         <v>40</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="24">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="25">
         <v>3.5</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="23">
         <v>5</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="24">
         <f t="shared" si="4"/>
         <v>4.25</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S10" s="25">
         <v>4</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="23">
         <v>4</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="24">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="V10" s="24">
+      <c r="V10" s="25">
         <v>5</v>
       </c>
-      <c r="W10" s="22">
+      <c r="W10" s="23">
         <v>6</v>
       </c>
-      <c r="X10" s="23">
+      <c r="X10" s="24">
         <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
-      <c r="Y10" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="74">
+      <c r="Y10" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="75">
         <f t="shared" si="7"/>
         <v>15.6785714285714</v>
       </c>
-      <c r="AA10" s="74">
+      <c r="AA10" s="75">
         <f t="shared" si="8"/>
         <v>28.485</v>
       </c>
-      <c r="AB10" s="75">
+      <c r="AB10" s="76">
         <f t="shared" si="9"/>
         <v>1.81681093394077</v>
       </c>
-      <c r="AC10" s="75">
+      <c r="AC10" s="76">
         <f t="shared" si="10"/>
         <v>2.68085106382979</v>
       </c>
-      <c r="AD10" s="75">
+      <c r="AD10" s="76">
         <f t="shared" si="11"/>
         <v>18.8516923076923</v>
       </c>
-      <c r="AE10" s="75">
+      <c r="AE10" s="76">
         <f t="shared" si="12"/>
         <v>10.766271685761</v>
       </c>
-      <c r="AF10" s="75">
+      <c r="AF10" s="76">
         <f>AF4</f>
         <v>10</v>
       </c>
-      <c r="AG10" s="75">
+      <c r="AG10" s="76">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AH10" s="75">
+      <c r="AH10" s="76">
         <f t="shared" si="14"/>
         <v>13.6</v>
       </c>
-      <c r="AI10" s="75">
+      <c r="AI10" s="76">
         <f t="shared" si="15"/>
         <v>8.3</v>
       </c>
@@ -3104,121 +3180,121 @@
       </c>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="27">
         <v>5</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="28">
         <v>9.5</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="29">
         <f t="shared" si="0"/>
         <v>7.25</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="30">
         <v>67.5</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="28">
         <v>85</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="29">
         <f t="shared" si="1"/>
         <v>76.25</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="55">
         <v>0.2</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11" s="56">
         <v>0.5</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="67">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="30">
         <v>35</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="28">
         <v>45</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="29">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="30">
         <v>3.75</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="28">
         <v>5.25</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="29">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="30">
         <v>4</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T11" s="28">
         <v>5</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="29">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="V11" s="29">
+      <c r="V11" s="30">
         <v>6.25</v>
       </c>
-      <c r="W11" s="27">
+      <c r="W11" s="28">
         <v>8</v>
       </c>
-      <c r="X11" s="28">
+      <c r="X11" s="29">
         <f t="shared" si="6"/>
         <v>7.125</v>
       </c>
-      <c r="Y11" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="74">
+      <c r="Y11" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="75">
         <f t="shared" si="7"/>
         <v>17.3571428571429</v>
       </c>
-      <c r="AA11" s="74">
+      <c r="AA11" s="75">
         <f t="shared" si="8"/>
         <v>34.94953125</v>
       </c>
-      <c r="AB11" s="75">
+      <c r="AB11" s="76">
         <f t="shared" si="9"/>
         <v>2.01355324074074</v>
       </c>
-      <c r="AC11" s="75">
+      <c r="AC11" s="76">
         <f t="shared" si="10"/>
         <v>3.01973684210526</v>
       </c>
-      <c r="AD11" s="75">
+      <c r="AD11" s="76">
         <f t="shared" si="11"/>
         <v>27.1637704918033</v>
       </c>
-      <c r="AE11" s="75">
+      <c r="AE11" s="76">
         <f t="shared" si="12"/>
         <v>15.0917536669543</v>
       </c>
-      <c r="AF11" s="75">
+      <c r="AF11" s="76">
         <f t="shared" ref="AF11:AF20" si="17">AF5</f>
         <v>15</v>
       </c>
-      <c r="AG11" s="75">
+      <c r="AG11" s="76">
         <f t="shared" si="13"/>
         <v>3.375</v>
       </c>
-      <c r="AH11" s="75">
+      <c r="AH11" s="76">
         <f t="shared" si="14"/>
         <v>16.15</v>
       </c>
-      <c r="AI11" s="75">
+      <c r="AI11" s="76">
         <f t="shared" si="15"/>
         <v>9.7625</v>
       </c>
@@ -3228,121 +3304,121 @@
       </c>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="30" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="32">
         <v>7</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="33">
         <v>10</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="34">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="35">
         <v>75</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="33">
         <v>90</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="34">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="57">
         <v>0.2</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="58">
         <v>0.5</v>
       </c>
-      <c r="L12" s="67">
+      <c r="L12" s="68">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="35">
         <v>40</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="33">
         <v>50</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="34">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="35">
         <v>4</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="33">
         <v>5.5</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="34">
         <f t="shared" si="4"/>
         <v>4.75</v>
       </c>
-      <c r="S12" s="34">
+      <c r="S12" s="35">
         <v>5</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="33">
         <v>6</v>
       </c>
-      <c r="U12" s="33">
+      <c r="U12" s="34">
         <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-      <c r="V12" s="34">
+      <c r="V12" s="35">
         <v>7.5</v>
       </c>
-      <c r="W12" s="32">
+      <c r="W12" s="33">
         <v>10</v>
       </c>
-      <c r="X12" s="33">
+      <c r="X12" s="34">
         <f t="shared" si="6"/>
         <v>8.75</v>
       </c>
-      <c r="Y12" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="74">
+      <c r="Y12" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="75">
         <f t="shared" si="7"/>
         <v>20.4642857142857</v>
       </c>
-      <c r="AA12" s="74">
+      <c r="AA12" s="75">
         <f t="shared" si="8"/>
         <v>50.840625</v>
       </c>
-      <c r="AB12" s="75">
+      <c r="AB12" s="76">
         <f t="shared" si="9"/>
         <v>2.48435863874345</v>
       </c>
-      <c r="AC12" s="75">
+      <c r="AC12" s="76">
         <f t="shared" si="10"/>
         <v>6.8114224137931</v>
       </c>
-      <c r="AD12" s="75">
+      <c r="AD12" s="76">
         <f t="shared" si="11"/>
         <v>33.9428571428571</v>
       </c>
-      <c r="AE12" s="75">
+      <c r="AE12" s="76">
         <f t="shared" si="12"/>
         <v>20.3771397783251</v>
       </c>
-      <c r="AF12" s="75">
+      <c r="AF12" s="76">
         <f t="shared" si="17"/>
         <v>20</v>
       </c>
-      <c r="AG12" s="75">
+      <c r="AG12" s="76">
         <f t="shared" si="13"/>
         <v>5.25</v>
       </c>
-      <c r="AH12" s="75">
+      <c r="AH12" s="76">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="AI12" s="75">
+      <c r="AI12" s="76">
         <f t="shared" si="15"/>
         <v>11.625</v>
       </c>
@@ -3352,121 +3428,121 @@
       </c>
     </row>
     <row r="13" spans="1:36">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="35" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="37">
         <v>7</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="38">
         <v>11</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="39">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="40">
         <v>82.5</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="38">
         <v>95</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="39">
         <f t="shared" si="1"/>
         <v>88.75</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="59">
         <v>0.2</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="60">
         <v>0.5</v>
       </c>
-      <c r="L13" s="68">
+      <c r="L13" s="69">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="40">
         <v>45</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="38">
         <v>55</v>
       </c>
-      <c r="O13" s="38">
+      <c r="O13" s="39">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="40">
         <v>4.25</v>
       </c>
-      <c r="Q13" s="37">
+      <c r="Q13" s="38">
         <v>5.75</v>
       </c>
-      <c r="R13" s="38">
+      <c r="R13" s="39">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="S13" s="39">
+      <c r="S13" s="40">
         <v>5</v>
       </c>
-      <c r="T13" s="37">
+      <c r="T13" s="38">
         <v>7</v>
       </c>
-      <c r="U13" s="38">
+      <c r="U13" s="39">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="V13" s="39">
+      <c r="V13" s="40">
         <v>8.75</v>
       </c>
-      <c r="W13" s="37">
+      <c r="W13" s="38">
         <v>12</v>
       </c>
-      <c r="X13" s="38">
+      <c r="X13" s="39">
         <f t="shared" si="6"/>
         <v>10.375</v>
       </c>
-      <c r="Y13" s="37">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="74">
+      <c r="Y13" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="75">
         <f t="shared" si="7"/>
         <v>22.1428571428571</v>
       </c>
-      <c r="AA13" s="74">
+      <c r="AA13" s="75">
         <f t="shared" si="8"/>
         <v>59.6025</v>
       </c>
-      <c r="AB13" s="75">
+      <c r="AB13" s="76">
         <f t="shared" si="9"/>
         <v>2.69172580645161</v>
       </c>
-      <c r="AC13" s="75">
+      <c r="AC13" s="76">
         <f t="shared" si="10"/>
         <v>7.51490384615385</v>
       </c>
-      <c r="AD13" s="75">
+      <c r="AD13" s="76">
         <f t="shared" si="11"/>
         <v>45.6307848101266</v>
       </c>
-      <c r="AE13" s="75">
+      <c r="AE13" s="76">
         <f t="shared" si="12"/>
         <v>26.5728443281402</v>
       </c>
-      <c r="AF13" s="75">
+      <c r="AF13" s="76">
         <f t="shared" si="17"/>
         <v>25</v>
       </c>
-      <c r="AG13" s="75">
+      <c r="AG13" s="76">
         <f t="shared" si="13"/>
         <v>5.775</v>
       </c>
-      <c r="AH13" s="75">
+      <c r="AH13" s="76">
         <f t="shared" si="14"/>
         <v>20.9</v>
       </c>
-      <c r="AI13" s="75">
+      <c r="AI13" s="76">
         <f t="shared" si="15"/>
         <v>13.3375</v>
       </c>
@@ -3476,121 +3552,121 @@
       </c>
     </row>
     <row r="14" spans="1:36">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="40" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="42">
         <v>7.5</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="43">
         <v>11</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="44">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="45">
         <v>90</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="43">
         <v>100</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="44">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="61">
         <v>0.2</v>
       </c>
-      <c r="K14" s="61">
+      <c r="K14" s="62">
         <v>0.5</v>
       </c>
-      <c r="L14" s="69">
+      <c r="L14" s="70">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="M14" s="44">
+      <c r="M14" s="45">
         <v>50</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="43">
         <v>60</v>
       </c>
-      <c r="O14" s="43">
+      <c r="O14" s="44">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="45">
         <v>4.5</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="43">
         <v>6</v>
       </c>
-      <c r="R14" s="43">
+      <c r="R14" s="44">
         <f t="shared" si="4"/>
         <v>5.25</v>
       </c>
-      <c r="S14" s="44">
+      <c r="S14" s="45">
         <v>6</v>
       </c>
-      <c r="T14" s="42">
+      <c r="T14" s="43">
         <v>8</v>
       </c>
-      <c r="U14" s="43">
+      <c r="U14" s="44">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="V14" s="44">
+      <c r="V14" s="45">
         <v>10</v>
       </c>
-      <c r="W14" s="42">
+      <c r="W14" s="43">
         <v>14</v>
       </c>
-      <c r="X14" s="43">
+      <c r="X14" s="44">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="Y14" s="42">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="74">
+      <c r="Y14" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="75">
         <f t="shared" si="7"/>
         <v>25.25</v>
       </c>
-      <c r="AA14" s="74">
+      <c r="AA14" s="75">
         <f t="shared" si="8"/>
         <v>72.52</v>
       </c>
-      <c r="AB14" s="75">
+      <c r="AB14" s="76">
         <f t="shared" si="9"/>
         <v>2.87207920792079</v>
       </c>
-      <c r="AC14" s="75">
+      <c r="AC14" s="76">
         <f t="shared" si="10"/>
         <v>9.68478260869565</v>
       </c>
-      <c r="AD14" s="75">
+      <c r="AD14" s="76">
         <f t="shared" si="11"/>
         <v>50.16</v>
       </c>
-      <c r="AE14" s="75">
+      <c r="AE14" s="76">
         <f t="shared" si="12"/>
         <v>29.9223913043478</v>
       </c>
-      <c r="AF14" s="75">
+      <c r="AF14" s="76">
         <f t="shared" si="17"/>
         <v>30</v>
       </c>
-      <c r="AG14" s="75">
+      <c r="AG14" s="76">
         <f t="shared" si="13"/>
         <v>6.75</v>
       </c>
-      <c r="AH14" s="75">
+      <c r="AH14" s="76">
         <f t="shared" si="14"/>
         <v>22</v>
       </c>
-      <c r="AI14" s="75">
+      <c r="AI14" s="76">
         <f t="shared" si="15"/>
         <v>14.375</v>
       </c>
@@ -3600,164 +3676,164 @@
       </c>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="51" t="s">
+      <c r="B15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="W15" s="51"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="75"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="75"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="76"/>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="76"/>
+      <c r="AH15" s="76"/>
+      <c r="AI15" s="76"/>
     </row>
     <row r="16" spans="1:36">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="22">
         <v>1.5</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="23">
         <v>3</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="24">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="25">
         <v>25</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="23">
         <v>35</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="24">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="25">
         <v>0.5</v>
       </c>
-      <c r="K16" s="22">
-        <v>1</v>
-      </c>
-      <c r="L16" s="23">
+      <c r="K16" s="23">
+        <v>1</v>
+      </c>
+      <c r="L16" s="24">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="25">
         <v>40</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="23">
         <v>60</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="24">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="25">
         <v>2</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="Q16" s="23">
         <v>3.5</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="24">
         <f t="shared" si="4"/>
         <v>2.75</v>
       </c>
-      <c r="S16" s="24">
+      <c r="S16" s="25">
         <v>2</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="23">
         <v>6</v>
       </c>
-      <c r="U16" s="23">
+      <c r="U16" s="24">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="V16" s="52">
+      <c r="V16" s="53">
         <v>2</v>
       </c>
-      <c r="W16" s="53">
+      <c r="W16" s="54">
         <v>2.5</v>
       </c>
-      <c r="X16" s="65">
+      <c r="X16" s="66">
         <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
-      <c r="Y16" s="22">
+      <c r="Y16" s="23">
         <v>10</v>
       </c>
-      <c r="Z16" s="74">
+      <c r="Z16" s="75">
         <f t="shared" si="7"/>
         <v>8.08333333333333</v>
       </c>
-      <c r="AA16" s="74">
+      <c r="AA16" s="75">
         <f t="shared" si="8"/>
         <v>9.2025</v>
       </c>
-      <c r="AB16" s="75">
+      <c r="AB16" s="76">
         <f t="shared" si="9"/>
         <v>11.3845360824742</v>
       </c>
-      <c r="AC16" s="75">
+      <c r="AC16" s="76">
         <f t="shared" si="10"/>
         <v>1.9125</v>
       </c>
-      <c r="AD16" s="75">
+      <c r="AD16" s="76">
         <f t="shared" si="11"/>
         <v>20.3921052631579</v>
       </c>
-      <c r="AE16" s="75">
+      <c r="AE16" s="76">
         <f t="shared" si="12"/>
         <v>11.1523026315789</v>
       </c>
-      <c r="AF16" s="75">
+      <c r="AF16" s="76">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="AG16" s="75">
+      <c r="AG16" s="76">
         <f t="shared" si="13"/>
         <v>0.375</v>
       </c>
-      <c r="AH16" s="75">
+      <c r="AH16" s="76">
         <f t="shared" si="14"/>
         <v>2.1</v>
       </c>
-      <c r="AI16" s="75">
+      <c r="AI16" s="76">
         <f t="shared" si="15"/>
         <v>1.2375</v>
       </c>
@@ -3767,121 +3843,121 @@
       </c>
     </row>
     <row r="17" spans="1:36">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="25" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="27">
         <v>1.5</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="28">
         <v>3</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="29">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="30">
         <v>27.5</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="28">
         <v>35</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="29">
         <f t="shared" si="1"/>
         <v>31.25</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="30">
         <v>0.625</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="28">
         <v>1.125</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="29">
         <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="30">
         <v>45</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="28">
         <v>62.5</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O17" s="29">
         <f t="shared" si="3"/>
         <v>53.75</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="30">
         <v>2</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="28">
         <v>3.25</v>
       </c>
-      <c r="R17" s="28">
+      <c r="R17" s="29">
         <f t="shared" si="4"/>
         <v>2.625</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="30">
         <v>3</v>
       </c>
-      <c r="T17" s="27">
+      <c r="T17" s="28">
         <v>7</v>
       </c>
-      <c r="U17" s="28">
+      <c r="U17" s="29">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="V17" s="54">
+      <c r="V17" s="55">
         <v>2</v>
       </c>
-      <c r="W17" s="55">
+      <c r="W17" s="56">
         <v>2.5</v>
       </c>
-      <c r="X17" s="66">
+      <c r="X17" s="67">
         <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
-      <c r="Y17" s="27">
+      <c r="Y17" s="28">
         <v>11</v>
       </c>
-      <c r="Z17" s="74">
+      <c r="Z17" s="75">
         <f t="shared" si="7"/>
         <v>8.33928571428572</v>
       </c>
-      <c r="AA17" s="74">
+      <c r="AA17" s="75">
         <f t="shared" si="8"/>
         <v>11.503125</v>
       </c>
-      <c r="AB17" s="75">
+      <c r="AB17" s="76">
         <f t="shared" si="9"/>
         <v>15.1732869379015</v>
       </c>
-      <c r="AC17" s="75">
+      <c r="AC17" s="76">
         <f t="shared" si="10"/>
         <v>3.0628125</v>
       </c>
-      <c r="AD17" s="75">
+      <c r="AD17" s="76">
         <f t="shared" si="11"/>
         <v>26.2466129032258</v>
       </c>
-      <c r="AE17" s="75">
+      <c r="AE17" s="76">
         <f t="shared" si="12"/>
         <v>14.6547127016129</v>
       </c>
-      <c r="AF17" s="75">
+      <c r="AF17" s="76">
         <f t="shared" si="17"/>
         <v>15</v>
       </c>
-      <c r="AG17" s="75">
+      <c r="AG17" s="76">
         <f t="shared" si="13"/>
         <v>0.4125</v>
       </c>
-      <c r="AH17" s="75">
+      <c r="AH17" s="76">
         <f t="shared" si="14"/>
         <v>2.1</v>
       </c>
-      <c r="AI17" s="75">
+      <c r="AI17" s="76">
         <f t="shared" si="15"/>
         <v>1.25625</v>
       </c>
@@ -3891,121 +3967,121 @@
       </c>
     </row>
     <row r="18" spans="1:36">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="30" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="32">
         <v>1.5</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="33">
         <v>3</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="34">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="35">
         <v>27.5</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="33">
         <v>37.5</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="34">
         <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="35">
         <v>0.75</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="33">
         <v>1.25</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M18" s="35">
         <v>50</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="33">
         <v>65</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O18" s="34">
         <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18" s="35">
         <v>2</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="33">
         <v>3</v>
       </c>
-      <c r="R18" s="33">
+      <c r="R18" s="34">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="S18" s="34">
+      <c r="S18" s="35">
         <v>4</v>
       </c>
-      <c r="T18" s="32">
+      <c r="T18" s="33">
         <v>8</v>
       </c>
-      <c r="U18" s="33">
+      <c r="U18" s="34">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="V18" s="56">
+      <c r="V18" s="57">
         <v>2</v>
       </c>
-      <c r="W18" s="57">
+      <c r="W18" s="58">
         <v>2.5</v>
       </c>
-      <c r="X18" s="67">
+      <c r="X18" s="68">
         <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
-      <c r="Y18" s="32">
+      <c r="Y18" s="33">
         <v>12</v>
       </c>
-      <c r="Z18" s="74">
+      <c r="Z18" s="75">
         <f t="shared" si="7"/>
         <v>8.5</v>
       </c>
-      <c r="AA18" s="74">
+      <c r="AA18" s="75">
         <f t="shared" si="8"/>
         <v>13.80375</v>
       </c>
-      <c r="AB18" s="75">
+      <c r="AB18" s="76">
         <f t="shared" si="9"/>
         <v>19.4876470588235</v>
       </c>
-      <c r="AC18" s="75">
+      <c r="AC18" s="76">
         <f t="shared" si="10"/>
         <v>4.131</v>
       </c>
-      <c r="AD18" s="75">
+      <c r="AD18" s="76">
         <f t="shared" si="11"/>
         <v>35.3297872340425</v>
       </c>
-      <c r="AE18" s="75">
+      <c r="AE18" s="76">
         <f t="shared" si="12"/>
         <v>19.7303936170213</v>
       </c>
-      <c r="AF18" s="75">
+      <c r="AF18" s="76">
         <f t="shared" si="17"/>
         <v>20</v>
       </c>
-      <c r="AG18" s="75">
+      <c r="AG18" s="76">
         <f t="shared" si="13"/>
         <v>0.4125</v>
       </c>
-      <c r="AH18" s="75">
+      <c r="AH18" s="76">
         <f t="shared" si="14"/>
         <v>2.25</v>
       </c>
-      <c r="AI18" s="75">
+      <c r="AI18" s="76">
         <f t="shared" si="15"/>
         <v>1.33125</v>
       </c>
@@ -4015,121 +4091,121 @@
       </c>
     </row>
     <row r="19" spans="1:36">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="35" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="37">
         <v>1.5</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="38">
         <v>3</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="39">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="40">
         <v>30</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="38">
         <v>37.5</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="39">
         <f t="shared" si="1"/>
         <v>33.75</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="40">
         <v>0.875</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="38">
         <v>1.385</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="39">
         <f t="shared" si="2"/>
         <v>1.13</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="40">
         <v>55</v>
       </c>
-      <c r="N19" s="37">
+      <c r="N19" s="38">
         <v>67.5</v>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="39">
         <f t="shared" si="3"/>
         <v>61.25</v>
       </c>
-      <c r="P19" s="39">
+      <c r="P19" s="40">
         <v>2</v>
       </c>
-      <c r="Q19" s="37">
+      <c r="Q19" s="38">
         <v>2.75</v>
       </c>
-      <c r="R19" s="38">
+      <c r="R19" s="39">
         <f t="shared" si="4"/>
         <v>2.375</v>
       </c>
-      <c r="S19" s="39">
+      <c r="S19" s="40">
         <v>5</v>
       </c>
-      <c r="T19" s="37">
+      <c r="T19" s="38">
         <v>9</v>
       </c>
-      <c r="U19" s="38">
+      <c r="U19" s="39">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="V19" s="58">
+      <c r="V19" s="59">
         <v>2</v>
       </c>
-      <c r="W19" s="59">
+      <c r="W19" s="60">
         <v>2.5</v>
       </c>
-      <c r="X19" s="68">
+      <c r="X19" s="69">
         <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
-      <c r="Y19" s="37">
+      <c r="Y19" s="38">
         <v>14</v>
       </c>
-      <c r="Z19" s="74">
+      <c r="Z19" s="75">
         <f t="shared" si="7"/>
         <v>8.56969026548673</v>
       </c>
-      <c r="AA19" s="74">
+      <c r="AA19" s="75">
         <f t="shared" si="8"/>
         <v>16.104375</v>
       </c>
-      <c r="AB19" s="75">
+      <c r="AB19" s="76">
         <f t="shared" si="9"/>
         <v>26.3091480573125</v>
       </c>
-      <c r="AC19" s="75">
+      <c r="AC19" s="76">
         <f t="shared" si="10"/>
         <v>6.2475</v>
       </c>
-      <c r="AD19" s="75">
+      <c r="AD19" s="76">
         <f t="shared" si="11"/>
         <v>47.1314945837806</v>
       </c>
-      <c r="AE19" s="75">
+      <c r="AE19" s="76">
         <f t="shared" si="12"/>
         <v>26.6894972918903</v>
       </c>
-      <c r="AF19" s="75">
+      <c r="AF19" s="76">
         <f t="shared" si="17"/>
         <v>25</v>
       </c>
-      <c r="AG19" s="75">
+      <c r="AG19" s="76">
         <f t="shared" si="13"/>
         <v>0.45</v>
       </c>
-      <c r="AH19" s="75">
+      <c r="AH19" s="76">
         <f t="shared" si="14"/>
         <v>2.25</v>
       </c>
-      <c r="AI19" s="75">
+      <c r="AI19" s="76">
         <f t="shared" si="15"/>
         <v>1.35</v>
       </c>
@@ -4139,121 +4215,121 @@
       </c>
     </row>
     <row r="20" spans="1:36">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="40" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="42">
         <v>1.5</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="43">
         <v>3</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="44">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="45">
         <v>35</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="43">
         <v>40</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="44">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
-      <c r="J20" s="44">
-        <v>1</v>
-      </c>
-      <c r="K20" s="42">
+      <c r="J20" s="45">
+        <v>1</v>
+      </c>
+      <c r="K20" s="43">
         <v>1.5</v>
       </c>
-      <c r="L20" s="43">
+      <c r="L20" s="44">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
-      <c r="M20" s="44">
+      <c r="M20" s="45">
         <v>60</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="43">
         <v>70</v>
       </c>
-      <c r="O20" s="43">
+      <c r="O20" s="44">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="P20" s="44">
+      <c r="P20" s="45">
         <v>2</v>
       </c>
-      <c r="Q20" s="42">
+      <c r="Q20" s="43">
         <v>2.5</v>
       </c>
-      <c r="R20" s="43">
+      <c r="R20" s="44">
         <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
-      <c r="S20" s="44">
+      <c r="S20" s="45">
         <v>6</v>
       </c>
-      <c r="T20" s="42">
+      <c r="T20" s="43">
         <v>10</v>
       </c>
-      <c r="U20" s="43">
+      <c r="U20" s="44">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="V20" s="60">
+      <c r="V20" s="61">
         <v>2</v>
       </c>
-      <c r="W20" s="61">
+      <c r="W20" s="62">
         <v>2.5</v>
       </c>
-      <c r="X20" s="69">
+      <c r="X20" s="70">
         <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
-      <c r="Y20" s="42">
+      <c r="Y20" s="43">
         <v>15</v>
       </c>
-      <c r="Z20" s="74">
+      <c r="Z20" s="75">
         <f t="shared" si="7"/>
         <v>8.65</v>
       </c>
-      <c r="AA20" s="74">
+      <c r="AA20" s="75">
         <f t="shared" si="8"/>
         <v>18.405</v>
       </c>
-      <c r="AB20" s="75">
+      <c r="AB20" s="76">
         <f t="shared" si="9"/>
         <v>31.9161849710983</v>
       </c>
-      <c r="AC20" s="75">
+      <c r="AC20" s="76">
         <f t="shared" si="10"/>
         <v>9.0365625</v>
       </c>
-      <c r="AD20" s="75">
+      <c r="AD20" s="76">
         <f t="shared" si="11"/>
         <v>60.3818181818182</v>
       </c>
-      <c r="AE20" s="75">
+      <c r="AE20" s="76">
         <f t="shared" si="12"/>
         <v>34.7091903409091</v>
       </c>
-      <c r="AF20" s="75">
+      <c r="AF20" s="76">
         <f t="shared" si="17"/>
         <v>30</v>
       </c>
-      <c r="AG20" s="75">
+      <c r="AG20" s="76">
         <f t="shared" si="13"/>
         <v>0.525</v>
       </c>
-      <c r="AH20" s="75">
+      <c r="AH20" s="76">
         <f t="shared" si="14"/>
         <v>2.4</v>
       </c>
-      <c r="AI20" s="75">
+      <c r="AI20" s="76">
         <f t="shared" si="15"/>
         <v>1.4625</v>
       </c>
@@ -4263,164 +4339,164 @@
       </c>
     </row>
     <row r="21" spans="1:35">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51" t="s">
+      <c r="B21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="75"/>
-      <c r="AH21" s="75"/>
-      <c r="AI21" s="75"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="76"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="76"/>
+      <c r="AG21" s="76"/>
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="76"/>
     </row>
     <row r="22" spans="1:36">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="22">
         <v>1.5</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="23">
         <v>3.5</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="24">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="53">
         <v>50</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="54">
         <v>60</v>
       </c>
-      <c r="I22" s="65">
+      <c r="I22" s="66">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="25">
         <v>4</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="23">
         <v>7</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="24">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="25">
         <v>50</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="23">
         <v>65</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="24">
         <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
-      <c r="P22" s="24">
+      <c r="P22" s="25">
         <v>2</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="23">
         <v>3</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="24">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="S22" s="24">
+      <c r="S22" s="25">
         <v>10</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="23">
         <v>20</v>
       </c>
-      <c r="U22" s="23">
+      <c r="U22" s="24">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="V22" s="24">
-        <v>1</v>
-      </c>
-      <c r="W22" s="22">
+      <c r="V22" s="25">
+        <v>1</v>
+      </c>
+      <c r="W22" s="23">
         <v>2.5</v>
       </c>
-      <c r="X22" s="23">
+      <c r="X22" s="24">
         <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
-      <c r="Y22" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="74">
+      <c r="Y22" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="75">
         <f t="shared" si="7"/>
         <v>5.22727272727273</v>
       </c>
-      <c r="AA22" s="74">
+      <c r="AA22" s="75">
         <f t="shared" si="8"/>
         <v>38.15625</v>
       </c>
-      <c r="AB22" s="75">
+      <c r="AB22" s="76">
         <f t="shared" si="9"/>
         <v>7.29945652173913</v>
       </c>
-      <c r="AC22" s="75">
+      <c r="AC22" s="76">
         <f t="shared" si="10"/>
         <v>2.525</v>
       </c>
-      <c r="AD22" s="75">
+      <c r="AD22" s="76">
         <f t="shared" si="11"/>
         <v>25.725</v>
       </c>
-      <c r="AE22" s="75">
+      <c r="AE22" s="76">
         <f t="shared" si="12"/>
         <v>14.125</v>
       </c>
-      <c r="AF22" s="75">
+      <c r="AF22" s="76">
         <f t="shared" ref="AF22:AF26" si="18">AF16</f>
         <v>10</v>
       </c>
-      <c r="AG22" s="75">
+      <c r="AG22" s="76">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="AH22" s="75">
+      <c r="AH22" s="76">
         <f t="shared" si="14"/>
         <v>4.2</v>
       </c>
-      <c r="AI22" s="75">
+      <c r="AI22" s="76">
         <f t="shared" si="15"/>
         <v>2.475</v>
       </c>
@@ -4430,121 +4506,121 @@
       </c>
     </row>
     <row r="23" spans="1:36">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="25" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="27">
         <v>1.5</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="28">
         <v>3.5</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="29">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G23" s="54">
+      <c r="G23" s="55">
         <v>50</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="56">
         <v>60</v>
       </c>
-      <c r="I23" s="66">
+      <c r="I23" s="67">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="30">
         <v>5</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="28">
         <v>8</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="29">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="30">
         <v>55</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="28">
         <v>70</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="29">
         <f t="shared" si="3"/>
         <v>62.5</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P23" s="30">
         <v>1.75</v>
       </c>
-      <c r="Q23" s="27">
+      <c r="Q23" s="28">
         <v>2.75</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="29">
         <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
-      <c r="S23" s="29">
+      <c r="S23" s="30">
         <v>15</v>
       </c>
-      <c r="T23" s="27">
+      <c r="T23" s="28">
         <v>25</v>
       </c>
-      <c r="U23" s="28">
+      <c r="U23" s="29">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="V23" s="29">
+      <c r="V23" s="30">
         <v>1.25</v>
       </c>
-      <c r="W23" s="27">
+      <c r="W23" s="28">
         <v>2.75</v>
       </c>
-      <c r="X23" s="28">
+      <c r="X23" s="29">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="Y23" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="74">
+      <c r="Y23" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="75">
         <f t="shared" si="7"/>
         <v>5.32692307692308</v>
       </c>
-      <c r="AA23" s="74">
+      <c r="AA23" s="75">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
-      <c r="AB23" s="75">
+      <c r="AB23" s="76">
         <f t="shared" si="9"/>
         <v>9.57400722021661</v>
       </c>
-      <c r="AC23" s="75">
+      <c r="AC23" s="76">
         <f t="shared" si="10"/>
         <v>3.59703947368421</v>
       </c>
-      <c r="AD23" s="75">
+      <c r="AD23" s="76">
         <f t="shared" si="11"/>
         <v>32.1367021276596</v>
       </c>
-      <c r="AE23" s="75">
+      <c r="AE23" s="76">
         <f t="shared" si="12"/>
         <v>17.8668708006719</v>
       </c>
-      <c r="AF23" s="75">
+      <c r="AF23" s="76">
         <f t="shared" si="18"/>
         <v>15</v>
       </c>
-      <c r="AG23" s="75">
+      <c r="AG23" s="76">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="AH23" s="75">
+      <c r="AH23" s="76">
         <f t="shared" si="14"/>
         <v>4.2</v>
       </c>
-      <c r="AI23" s="75">
+      <c r="AI23" s="76">
         <f t="shared" si="15"/>
         <v>2.475</v>
       </c>
@@ -4554,121 +4630,121 @@
       </c>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="30" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="32">
         <v>1.5</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="33">
         <v>3.5</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="34">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="57">
         <v>50</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="58">
         <v>60</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="68">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="35">
         <v>6</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="33">
         <v>9</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="34">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="M24" s="34">
+      <c r="M24" s="35">
         <v>60</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="33">
         <v>75</v>
       </c>
-      <c r="O24" s="33">
+      <c r="O24" s="34">
         <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
-      <c r="P24" s="34">
+      <c r="P24" s="35">
         <v>1.5</v>
       </c>
-      <c r="Q24" s="32">
+      <c r="Q24" s="33">
         <v>2.5</v>
       </c>
-      <c r="R24" s="33">
+      <c r="R24" s="34">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="S24" s="34">
+      <c r="S24" s="35">
         <v>20</v>
       </c>
-      <c r="T24" s="32">
+      <c r="T24" s="33">
         <v>30</v>
       </c>
-      <c r="U24" s="33">
+      <c r="U24" s="34">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="V24" s="34">
+      <c r="V24" s="35">
         <v>1.5</v>
       </c>
-      <c r="W24" s="32">
+      <c r="W24" s="33">
         <v>3</v>
       </c>
-      <c r="X24" s="33">
+      <c r="X24" s="34">
         <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
-      <c r="Y24" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="74">
+      <c r="Y24" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="75">
         <f t="shared" si="7"/>
         <v>5.33333333333333</v>
       </c>
-      <c r="AA24" s="74">
+      <c r="AA24" s="75">
         <f t="shared" si="8"/>
         <v>63.90625</v>
       </c>
-      <c r="AB24" s="75">
+      <c r="AB24" s="76">
         <f t="shared" si="9"/>
         <v>11.982421875</v>
       </c>
-      <c r="AC24" s="75">
+      <c r="AC24" s="76">
         <f t="shared" si="10"/>
         <v>4.725</v>
       </c>
-      <c r="AD24" s="75">
+      <c r="AD24" s="76">
         <f t="shared" si="11"/>
         <v>38.934</v>
       </c>
-      <c r="AE24" s="75">
+      <c r="AE24" s="76">
         <f t="shared" si="12"/>
         <v>21.8295</v>
       </c>
-      <c r="AF24" s="75">
+      <c r="AF24" s="76">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="AG24" s="75">
+      <c r="AG24" s="76">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="AH24" s="75">
+      <c r="AH24" s="76">
         <f t="shared" si="14"/>
         <v>4.2</v>
       </c>
-      <c r="AI24" s="75">
+      <c r="AI24" s="76">
         <f t="shared" si="15"/>
         <v>2.475</v>
       </c>
@@ -4678,121 +4754,121 @@
       </c>
     </row>
     <row r="25" spans="1:36">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="35" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="37">
         <v>1.5</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="38">
         <v>3.5</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="39">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G25" s="58">
+      <c r="G25" s="59">
         <v>50</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="60">
         <v>60</v>
       </c>
-      <c r="I25" s="68">
+      <c r="I25" s="69">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="40">
         <v>7</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="38">
         <v>10</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="39">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="40">
         <v>65</v>
       </c>
-      <c r="N25" s="37">
+      <c r="N25" s="38">
         <v>80</v>
       </c>
-      <c r="O25" s="38">
+      <c r="O25" s="39">
         <f t="shared" si="3"/>
         <v>72.5</v>
       </c>
-      <c r="P25" s="39">
+      <c r="P25" s="40">
         <v>1.25</v>
       </c>
-      <c r="Q25" s="37">
+      <c r="Q25" s="38">
         <v>2.25</v>
       </c>
-      <c r="R25" s="38">
+      <c r="R25" s="39">
         <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-      <c r="S25" s="39">
+      <c r="S25" s="40">
         <v>25</v>
       </c>
-      <c r="T25" s="37">
+      <c r="T25" s="38">
         <v>35</v>
       </c>
-      <c r="U25" s="38">
+      <c r="U25" s="39">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="V25" s="39">
+      <c r="V25" s="40">
         <v>1.75</v>
       </c>
-      <c r="W25" s="37">
+      <c r="W25" s="38">
         <v>3.25</v>
       </c>
-      <c r="X25" s="38">
+      <c r="X25" s="39">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="Y25" s="37">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="74">
+      <c r="Y25" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="75">
         <f t="shared" si="7"/>
         <v>5.27941176470588</v>
       </c>
-      <c r="AA25" s="74">
+      <c r="AA25" s="75">
         <f t="shared" si="8"/>
         <v>76.875</v>
       </c>
-      <c r="AB25" s="75">
+      <c r="AB25" s="76">
         <f t="shared" si="9"/>
         <v>14.5612813370474</v>
       </c>
-      <c r="AC25" s="75">
+      <c r="AC25" s="76">
         <f t="shared" si="10"/>
         <v>5.93541666666667</v>
       </c>
-      <c r="AD25" s="75">
+      <c r="AD25" s="76">
         <f t="shared" si="11"/>
         <v>46.193152173913</v>
       </c>
-      <c r="AE25" s="75">
+      <c r="AE25" s="76">
         <f t="shared" si="12"/>
         <v>26.0642844202899</v>
       </c>
-      <c r="AF25" s="75">
+      <c r="AF25" s="76">
         <f t="shared" si="18"/>
         <v>25</v>
       </c>
-      <c r="AG25" s="75">
+      <c r="AG25" s="76">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="AH25" s="75">
+      <c r="AH25" s="76">
         <f t="shared" si="14"/>
         <v>4.2</v>
       </c>
-      <c r="AI25" s="75">
+      <c r="AI25" s="76">
         <f t="shared" si="15"/>
         <v>2.475</v>
       </c>
@@ -4802,121 +4878,121 @@
       </c>
     </row>
     <row r="26" spans="1:36">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="40" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="42">
         <v>1.5</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="43">
         <v>3.5</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="44">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="61">
         <v>50</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="62">
         <v>60</v>
       </c>
-      <c r="I26" s="69">
+      <c r="I26" s="70">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="45">
         <v>8</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="43">
         <v>11</v>
       </c>
-      <c r="L26" s="43">
+      <c r="L26" s="44">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
-      <c r="M26" s="44">
+      <c r="M26" s="45">
         <v>70</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="43">
         <v>85</v>
       </c>
-      <c r="O26" s="43">
+      <c r="O26" s="44">
         <f t="shared" si="3"/>
         <v>77.5</v>
       </c>
-      <c r="P26" s="44">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="42">
+      <c r="P26" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="43">
         <v>2</v>
       </c>
-      <c r="R26" s="43">
+      <c r="R26" s="44">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="S26" s="44">
+      <c r="S26" s="45">
         <v>30</v>
       </c>
-      <c r="T26" s="42">
+      <c r="T26" s="43">
         <v>40</v>
       </c>
-      <c r="U26" s="43">
+      <c r="U26" s="44">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="V26" s="44">
+      <c r="V26" s="45">
         <v>2</v>
       </c>
-      <c r="W26" s="42">
+      <c r="W26" s="43">
         <v>3.5</v>
       </c>
-      <c r="X26" s="43">
+      <c r="X26" s="44">
         <f t="shared" si="6"/>
         <v>2.75</v>
       </c>
-      <c r="Y26" s="42">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="74">
+      <c r="Y26" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="75">
         <f t="shared" si="7"/>
         <v>5.18421052631579</v>
       </c>
-      <c r="AA26" s="74">
+      <c r="AA26" s="75">
         <f t="shared" si="8"/>
         <v>89.90625</v>
       </c>
-      <c r="AB26" s="75">
+      <c r="AB26" s="76">
         <f t="shared" si="9"/>
         <v>17.3423223350254</v>
       </c>
-      <c r="AC26" s="75">
+      <c r="AC26" s="76">
         <f t="shared" si="10"/>
         <v>7.24736842105263</v>
       </c>
-      <c r="AD26" s="75">
+      <c r="AD26" s="76">
         <f t="shared" si="11"/>
         <v>53.986935483871</v>
       </c>
-      <c r="AE26" s="75">
+      <c r="AE26" s="76">
         <f t="shared" si="12"/>
         <v>30.6171519524618</v>
       </c>
-      <c r="AF26" s="75">
+      <c r="AF26" s="76">
         <f t="shared" si="18"/>
         <v>30</v>
       </c>
-      <c r="AG26" s="75">
+      <c r="AG26" s="76">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="AH26" s="75">
+      <c r="AH26" s="76">
         <f t="shared" si="14"/>
         <v>4.2</v>
       </c>
-      <c r="AI26" s="75">
+      <c r="AI26" s="76">
         <f t="shared" si="15"/>
         <v>2.475</v>
       </c>
@@ -4926,164 +5002,164 @@
       </c>
     </row>
     <row r="27" spans="1:35">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="51" t="s">
+      <c r="B27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N27" s="51"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="74"/>
-      <c r="AA27" s="74"/>
-      <c r="AB27" s="75"/>
-      <c r="AC27" s="75"/>
-      <c r="AD27" s="75"/>
-      <c r="AE27" s="75"/>
-      <c r="AF27" s="75"/>
-      <c r="AG27" s="75"/>
-      <c r="AH27" s="75"/>
-      <c r="AI27" s="75"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="76"/>
+      <c r="AG27" s="76"/>
+      <c r="AH27" s="76"/>
+      <c r="AI27" s="76"/>
     </row>
     <row r="28" spans="1:36">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="22">
         <v>2</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="23">
         <v>4.5</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="24">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="25">
         <v>30</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="23">
         <v>40</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="24">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="25">
         <v>1.5</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="23">
         <v>4</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L28" s="24">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
-      <c r="M28" s="52">
+      <c r="M28" s="53">
         <v>20</v>
       </c>
-      <c r="N28" s="53">
+      <c r="N28" s="54">
         <v>50</v>
       </c>
-      <c r="O28" s="65">
+      <c r="O28" s="66">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="P28" s="24">
+      <c r="P28" s="25">
         <v>8</v>
       </c>
-      <c r="Q28" s="22">
+      <c r="Q28" s="23">
         <v>12</v>
       </c>
-      <c r="R28" s="23">
+      <c r="R28" s="24">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="S28" s="24">
+      <c r="S28" s="25">
         <v>30</v>
       </c>
-      <c r="T28" s="22">
+      <c r="T28" s="23">
         <v>60</v>
       </c>
-      <c r="U28" s="23">
+      <c r="U28" s="24">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="V28" s="24">
+      <c r="V28" s="25">
         <v>2</v>
       </c>
-      <c r="W28" s="22">
+      <c r="W28" s="23">
         <v>4</v>
       </c>
-      <c r="X28" s="23">
+      <c r="X28" s="24">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="Y28" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="74">
+      <c r="Y28" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="75">
         <f t="shared" si="7"/>
         <v>26.3636363636364</v>
       </c>
-      <c r="AA28" s="74">
+      <c r="AA28" s="75">
         <f t="shared" si="8"/>
         <v>150.6375</v>
       </c>
-      <c r="AB28" s="75">
+      <c r="AB28" s="76">
         <f t="shared" si="9"/>
         <v>5.71383620689655</v>
       </c>
-      <c r="AC28" s="75">
+      <c r="AC28" s="76">
         <f t="shared" si="10"/>
         <v>1.31142857142857</v>
       </c>
-      <c r="AD28" s="75">
+      <c r="AD28" s="76">
         <f t="shared" si="11"/>
         <v>18.72</v>
       </c>
-      <c r="AE28" s="75">
+      <c r="AE28" s="76">
         <f t="shared" si="12"/>
         <v>10.0157142857143</v>
       </c>
-      <c r="AF28" s="75">
+      <c r="AF28" s="76">
         <f t="shared" ref="AF28:AF32" si="19">AF22</f>
         <v>10</v>
       </c>
-      <c r="AG28" s="75">
+      <c r="AG28" s="76">
         <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
-      <c r="AH28" s="75">
+      <c r="AH28" s="76">
         <f t="shared" si="14"/>
         <v>3.6</v>
       </c>
-      <c r="AI28" s="75">
+      <c r="AI28" s="76">
         <f t="shared" si="15"/>
         <v>2.1</v>
       </c>
@@ -5093,121 +5169,121 @@
       </c>
     </row>
     <row r="29" spans="1:36">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="25" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="27">
         <v>2</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="28">
         <v>5</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="29">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="30">
         <v>35</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="28">
         <v>45</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="29">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="30">
         <v>1.625</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="28">
         <v>4</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="29">
         <f t="shared" si="2"/>
         <v>2.8125</v>
       </c>
-      <c r="M29" s="54">
+      <c r="M29" s="55">
         <v>20</v>
       </c>
-      <c r="N29" s="55">
+      <c r="N29" s="56">
         <v>50</v>
       </c>
-      <c r="O29" s="66">
+      <c r="O29" s="67">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="P29" s="29">
+      <c r="P29" s="30">
         <v>8.5</v>
       </c>
-      <c r="Q29" s="27">
+      <c r="Q29" s="28">
         <v>14</v>
       </c>
-      <c r="R29" s="28">
+      <c r="R29" s="29">
         <f t="shared" si="4"/>
         <v>11.25</v>
       </c>
-      <c r="S29" s="29">
+      <c r="S29" s="30">
         <v>37</v>
       </c>
-      <c r="T29" s="27">
+      <c r="T29" s="28">
         <v>75</v>
       </c>
-      <c r="U29" s="28">
+      <c r="U29" s="29">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="V29" s="29">
+      <c r="V29" s="30">
         <v>3</v>
       </c>
-      <c r="W29" s="27">
+      <c r="W29" s="28">
         <v>5</v>
       </c>
-      <c r="X29" s="28">
+      <c r="X29" s="29">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="Y29" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="74">
+      <c r="Y29" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="75">
         <f t="shared" si="7"/>
         <v>31.1611111111111</v>
       </c>
-      <c r="AA29" s="74">
+      <c r="AA29" s="75">
         <f t="shared" si="8"/>
         <v>203.84</v>
       </c>
-      <c r="AB29" s="75">
+      <c r="AB29" s="76">
         <f t="shared" si="9"/>
         <v>6.5414868960599</v>
       </c>
-      <c r="AC29" s="75">
+      <c r="AC29" s="76">
         <f t="shared" si="10"/>
         <v>1.70627798277983</v>
       </c>
-      <c r="AD29" s="75">
+      <c r="AD29" s="76">
         <f t="shared" si="11"/>
         <v>27.0515267175573</v>
       </c>
-      <c r="AE29" s="75">
+      <c r="AE29" s="76">
         <f t="shared" si="12"/>
         <v>14.3789023501685</v>
       </c>
-      <c r="AF29" s="75">
+      <c r="AF29" s="76">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="AG29" s="75">
+      <c r="AG29" s="76">
         <f t="shared" si="13"/>
         <v>0.7</v>
       </c>
-      <c r="AH29" s="75">
+      <c r="AH29" s="76">
         <f t="shared" si="14"/>
         <v>4.5</v>
       </c>
-      <c r="AI29" s="75">
+      <c r="AI29" s="76">
         <f t="shared" si="15"/>
         <v>2.6</v>
       </c>
@@ -5217,121 +5293,121 @@
       </c>
     </row>
     <row r="30" spans="1:36">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="30" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="32">
         <v>2</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="33">
         <v>5.5</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="34">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="35">
         <v>40</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="33">
         <v>50</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="34">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="35">
         <v>1.75</v>
       </c>
-      <c r="K30" s="32">
+      <c r="K30" s="33">
         <v>4</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="34">
         <f t="shared" si="2"/>
         <v>2.875</v>
       </c>
-      <c r="M30" s="56">
+      <c r="M30" s="57">
         <v>20</v>
       </c>
-      <c r="N30" s="57">
+      <c r="N30" s="58">
         <v>50</v>
       </c>
-      <c r="O30" s="67">
+      <c r="O30" s="68">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="P30" s="34">
+      <c r="P30" s="35">
         <v>9</v>
       </c>
-      <c r="Q30" s="32">
+      <c r="Q30" s="33">
         <v>16</v>
       </c>
-      <c r="R30" s="33">
+      <c r="R30" s="34">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="S30" s="34">
+      <c r="S30" s="35">
         <v>45</v>
       </c>
-      <c r="T30" s="32">
+      <c r="T30" s="33">
         <v>90</v>
       </c>
-      <c r="U30" s="33">
+      <c r="U30" s="34">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="V30" s="34">
+      <c r="V30" s="35">
         <v>4</v>
       </c>
-      <c r="W30" s="32">
+      <c r="W30" s="33">
         <v>6</v>
       </c>
-      <c r="X30" s="33">
+      <c r="X30" s="34">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="Y30" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="74">
+      <c r="Y30" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="75">
         <f t="shared" si="7"/>
         <v>35.9782608695652</v>
       </c>
-      <c r="AA30" s="74">
+      <c r="AA30" s="75">
         <f t="shared" si="8"/>
         <v>265.78125</v>
       </c>
-      <c r="AB30" s="75">
+      <c r="AB30" s="76">
         <f t="shared" si="9"/>
         <v>7.38727341389728</v>
       </c>
-      <c r="AC30" s="75">
+      <c r="AC30" s="76">
         <f t="shared" si="10"/>
         <v>2.15703703703704</v>
       </c>
-      <c r="AD30" s="75">
+      <c r="AD30" s="76">
         <f t="shared" si="11"/>
         <v>37.4785714285714</v>
       </c>
-      <c r="AE30" s="75">
+      <c r="AE30" s="76">
         <f t="shared" si="12"/>
         <v>19.8178042328042</v>
       </c>
-      <c r="AF30" s="75">
+      <c r="AF30" s="76">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="AG30" s="75">
+      <c r="AG30" s="76">
         <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
-      <c r="AH30" s="75">
+      <c r="AH30" s="76">
         <f t="shared" si="14"/>
         <v>5.5</v>
       </c>
-      <c r="AI30" s="75">
+      <c r="AI30" s="76">
         <f t="shared" si="15"/>
         <v>3.15</v>
       </c>
@@ -5341,121 +5417,121 @@
       </c>
     </row>
     <row r="31" spans="1:36">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="35" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="37">
         <v>2</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="38">
         <v>6</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="40">
         <v>45</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="38">
         <v>55</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="39">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="40">
         <v>1.875</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="38">
         <v>4</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="39">
         <f t="shared" si="2"/>
         <v>2.9375</v>
       </c>
-      <c r="M31" s="58">
+      <c r="M31" s="59">
         <v>20</v>
       </c>
-      <c r="N31" s="59">
+      <c r="N31" s="60">
         <v>50</v>
       </c>
-      <c r="O31" s="68">
+      <c r="O31" s="69">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="P31" s="39">
+      <c r="P31" s="40">
         <v>9.5</v>
       </c>
-      <c r="Q31" s="37">
+      <c r="Q31" s="38">
         <v>18</v>
       </c>
-      <c r="R31" s="38">
+      <c r="R31" s="39">
         <f t="shared" si="4"/>
         <v>13.75</v>
       </c>
-      <c r="S31" s="39">
+      <c r="S31" s="40">
         <v>52</v>
       </c>
-      <c r="T31" s="37">
+      <c r="T31" s="38">
         <v>105</v>
       </c>
-      <c r="U31" s="38">
+      <c r="U31" s="39">
         <f t="shared" si="5"/>
         <v>78.5</v>
       </c>
-      <c r="V31" s="39">
+      <c r="V31" s="40">
         <v>5</v>
       </c>
-      <c r="W31" s="37">
+      <c r="W31" s="38">
         <v>7</v>
       </c>
-      <c r="X31" s="38">
+      <c r="X31" s="39">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="Y31" s="37">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="74">
+      <c r="Y31" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="75">
         <f t="shared" si="7"/>
         <v>40.4734042553192</v>
       </c>
-      <c r="AA31" s="74">
+      <c r="AA31" s="75">
         <f t="shared" si="8"/>
         <v>332.84</v>
       </c>
-      <c r="AB31" s="75">
+      <c r="AB31" s="76">
         <f t="shared" si="9"/>
         <v>8.22367196740702</v>
       </c>
-      <c r="AC31" s="75">
+      <c r="AC31" s="76">
         <f t="shared" si="10"/>
         <v>2.6395702775291</v>
       </c>
-      <c r="AD31" s="75">
+      <c r="AD31" s="76">
         <f t="shared" si="11"/>
         <v>50.2718644067797</v>
       </c>
-      <c r="AE31" s="75">
+      <c r="AE31" s="76">
         <f t="shared" si="12"/>
         <v>26.4557173421544</v>
       </c>
-      <c r="AF31" s="75">
+      <c r="AF31" s="76">
         <f t="shared" si="19"/>
         <v>25</v>
       </c>
-      <c r="AG31" s="75">
+      <c r="AG31" s="76">
         <f t="shared" si="13"/>
         <v>0.9</v>
       </c>
-      <c r="AH31" s="75">
+      <c r="AH31" s="76">
         <f t="shared" si="14"/>
         <v>6.6</v>
       </c>
-      <c r="AI31" s="75">
+      <c r="AI31" s="76">
         <f t="shared" si="15"/>
         <v>3.75</v>
       </c>
@@ -5465,121 +5541,121 @@
       </c>
     </row>
     <row r="32" spans="1:36">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="40" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="42">
         <v>2.5</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="43">
         <v>6</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="44">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="G32" s="44">
+      <c r="G32" s="45">
         <v>55</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="43">
         <v>60</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="44">
         <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
-      <c r="J32" s="44">
+      <c r="J32" s="45">
         <v>2</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="43">
         <v>4</v>
       </c>
-      <c r="L32" s="43">
+      <c r="L32" s="44">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M32" s="60">
+      <c r="M32" s="61">
         <v>20</v>
       </c>
-      <c r="N32" s="61">
+      <c r="N32" s="62">
         <v>50</v>
       </c>
-      <c r="O32" s="69">
+      <c r="O32" s="70">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="P32" s="44">
+      <c r="P32" s="45">
         <v>10</v>
       </c>
-      <c r="Q32" s="42">
+      <c r="Q32" s="43">
         <v>20</v>
       </c>
-      <c r="R32" s="43">
+      <c r="R32" s="44">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="S32" s="44">
+      <c r="S32" s="45">
         <v>60</v>
       </c>
-      <c r="T32" s="42">
+      <c r="T32" s="43">
         <v>120</v>
       </c>
-      <c r="U32" s="43">
+      <c r="U32" s="44">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="V32" s="44">
+      <c r="V32" s="45">
         <v>6</v>
       </c>
-      <c r="W32" s="42">
+      <c r="W32" s="43">
         <v>8</v>
       </c>
-      <c r="X32" s="43">
+      <c r="X32" s="44">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="Y32" s="42">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="74">
+      <c r="Y32" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="75">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="AA32" s="74">
+      <c r="AA32" s="75">
         <f t="shared" si="8"/>
         <v>409.275</v>
       </c>
-      <c r="AB32" s="75">
+      <c r="AB32" s="76">
         <f t="shared" si="9"/>
         <v>9.095</v>
       </c>
-      <c r="AC32" s="75">
+      <c r="AC32" s="76">
         <f t="shared" si="10"/>
         <v>5.465625</v>
       </c>
-      <c r="AD32" s="75">
+      <c r="AD32" s="76">
         <f t="shared" si="11"/>
         <v>55.9872</v>
       </c>
-      <c r="AE32" s="75">
+      <c r="AE32" s="76">
         <f t="shared" si="12"/>
         <v>30.7264125</v>
       </c>
-      <c r="AF32" s="75">
+      <c r="AF32" s="76">
         <f t="shared" si="19"/>
         <v>30</v>
       </c>
-      <c r="AG32" s="75">
+      <c r="AG32" s="76">
         <f t="shared" si="13"/>
         <v>1.375</v>
       </c>
-      <c r="AH32" s="75">
+      <c r="AH32" s="76">
         <f t="shared" si="14"/>
         <v>7.2</v>
       </c>
-      <c r="AI32" s="75">
+      <c r="AI32" s="76">
         <f t="shared" si="15"/>
         <v>4.2875</v>
       </c>
@@ -5589,162 +5665,162 @@
       </c>
     </row>
     <row r="33" spans="1:35">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="74"/>
-      <c r="AA33" s="74"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="75"/>
-      <c r="AD33" s="75"/>
-      <c r="AE33" s="75"/>
-      <c r="AF33" s="75"/>
-      <c r="AG33" s="75"/>
-      <c r="AH33" s="75"/>
-      <c r="AI33" s="75"/>
+      <c r="B33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="76"/>
+      <c r="AC33" s="76"/>
+      <c r="AD33" s="76"/>
+      <c r="AE33" s="76"/>
+      <c r="AF33" s="76"/>
+      <c r="AG33" s="76"/>
+      <c r="AH33" s="76"/>
+      <c r="AI33" s="76"/>
     </row>
     <row r="34" spans="1:36">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="22">
         <v>5</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="23">
         <v>10</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="24">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="25">
         <v>100</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="23">
         <v>100</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="24">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J34" s="24">
-        <v>1</v>
-      </c>
-      <c r="K34" s="22">
-        <v>1</v>
-      </c>
-      <c r="L34" s="23">
+      <c r="J34" s="25">
+        <v>1</v>
+      </c>
+      <c r="K34" s="23">
+        <v>1</v>
+      </c>
+      <c r="L34" s="24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M34" s="24">
+      <c r="M34" s="25">
         <v>50</v>
       </c>
-      <c r="N34" s="22">
+      <c r="N34" s="23">
         <v>50</v>
       </c>
-      <c r="O34" s="23">
+      <c r="O34" s="24">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="P34" s="24">
+      <c r="P34" s="25">
         <v>4</v>
       </c>
-      <c r="Q34" s="22">
+      <c r="Q34" s="23">
         <v>5</v>
       </c>
-      <c r="R34" s="23">
+      <c r="R34" s="24">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="S34" s="24">
-        <v>1</v>
-      </c>
-      <c r="T34" s="22">
-        <v>1</v>
-      </c>
-      <c r="U34" s="23">
+      <c r="S34" s="25">
+        <v>1</v>
+      </c>
+      <c r="T34" s="23">
+        <v>1</v>
+      </c>
+      <c r="U34" s="24">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V34" s="24">
-        <v>1</v>
-      </c>
-      <c r="W34" s="22">
-        <v>1</v>
-      </c>
-      <c r="X34" s="23">
+      <c r="V34" s="25">
+        <v>1</v>
+      </c>
+      <c r="W34" s="23">
+        <v>1</v>
+      </c>
+      <c r="X34" s="24">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Y34" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="74">
+      <c r="Y34" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="75">
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="AA34" s="74">
+      <c r="AA34" s="75">
         <f t="shared" si="8"/>
         <v>7.575</v>
       </c>
-      <c r="AB34" s="75">
+      <c r="AB34" s="76">
         <f t="shared" si="9"/>
         <v>1.37727272727273</v>
       </c>
-      <c r="AC34" s="75">
+      <c r="AC34" s="76">
         <f t="shared" si="10"/>
         <v>5.05</v>
       </c>
-      <c r="AD34" s="75">
+      <c r="AD34" s="76">
         <f t="shared" si="11"/>
         <v>16.8333333333333</v>
       </c>
-      <c r="AE34" s="75">
+      <c r="AE34" s="76">
         <f t="shared" si="12"/>
         <v>10.9416666666667</v>
       </c>
-      <c r="AF34" s="75">
+      <c r="AF34" s="76">
         <f t="shared" ref="AF34:AF38" si="20">AF28</f>
         <v>10</v>
       </c>
-      <c r="AG34" s="75">
+      <c r="AG34" s="76">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="AH34" s="75">
+      <c r="AH34" s="76">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="AI34" s="75">
+      <c r="AI34" s="76">
         <f t="shared" si="15"/>
         <v>12.5</v>
       </c>
@@ -5754,121 +5830,121 @@
       </c>
     </row>
     <row r="35" spans="1:36">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="25" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="27">
         <v>6</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="28">
         <v>12</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="29">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="30">
         <v>100</v>
       </c>
-      <c r="H35" s="27">
+      <c r="H35" s="28">
         <v>100</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J35" s="29">
-        <v>1</v>
-      </c>
-      <c r="K35" s="27">
-        <v>1</v>
-      </c>
-      <c r="L35" s="28">
+      <c r="J35" s="30">
+        <v>1</v>
+      </c>
+      <c r="K35" s="28">
+        <v>1</v>
+      </c>
+      <c r="L35" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M35" s="29">
+      <c r="M35" s="30">
         <v>50</v>
       </c>
-      <c r="N35" s="27">
+      <c r="N35" s="28">
         <v>50</v>
       </c>
-      <c r="O35" s="28">
+      <c r="O35" s="29">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="P35" s="29">
+      <c r="P35" s="30">
         <v>4</v>
       </c>
-      <c r="Q35" s="27">
+      <c r="Q35" s="28">
         <v>5</v>
       </c>
-      <c r="R35" s="28">
+      <c r="R35" s="29">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="S35" s="29">
-        <v>1</v>
-      </c>
-      <c r="T35" s="27">
-        <v>1</v>
-      </c>
-      <c r="U35" s="28">
+      <c r="S35" s="30">
+        <v>1</v>
+      </c>
+      <c r="T35" s="28">
+        <v>1</v>
+      </c>
+      <c r="U35" s="29">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V35" s="29">
-        <v>1</v>
-      </c>
-      <c r="W35" s="27">
-        <v>1</v>
-      </c>
-      <c r="X35" s="28">
+      <c r="V35" s="30">
+        <v>1</v>
+      </c>
+      <c r="W35" s="28">
+        <v>1</v>
+      </c>
+      <c r="X35" s="29">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Y35" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="74">
+      <c r="Y35" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="75">
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="AA35" s="74">
+      <c r="AA35" s="75">
         <f t="shared" si="8"/>
         <v>9.09</v>
       </c>
-      <c r="AB35" s="75">
+      <c r="AB35" s="76">
         <f t="shared" si="9"/>
         <v>1.65272727272727</v>
       </c>
-      <c r="AC35" s="75">
+      <c r="AC35" s="76">
         <f t="shared" si="10"/>
         <v>7.272</v>
       </c>
-      <c r="AD35" s="75">
+      <c r="AD35" s="76">
         <f t="shared" si="11"/>
         <v>24.24</v>
       </c>
-      <c r="AE35" s="75">
+      <c r="AE35" s="76">
         <f t="shared" si="12"/>
         <v>15.756</v>
       </c>
-      <c r="AF35" s="75">
+      <c r="AF35" s="76">
         <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="AG35" s="75">
+      <c r="AG35" s="76">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="AH35" s="75">
+      <c r="AH35" s="76">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
-      <c r="AI35" s="75">
+      <c r="AI35" s="76">
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
@@ -5878,121 +5954,121 @@
       </c>
     </row>
     <row r="36" spans="1:36">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="30" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="32">
         <v>7</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="33">
         <v>14</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="34">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="35">
         <v>100</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="33">
         <v>100</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="34">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J36" s="34">
-        <v>1</v>
-      </c>
-      <c r="K36" s="32">
-        <v>1</v>
-      </c>
-      <c r="L36" s="33">
+      <c r="J36" s="35">
+        <v>1</v>
+      </c>
+      <c r="K36" s="33">
+        <v>1</v>
+      </c>
+      <c r="L36" s="34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M36" s="34">
+      <c r="M36" s="35">
         <v>50</v>
       </c>
-      <c r="N36" s="32">
+      <c r="N36" s="33">
         <v>50</v>
       </c>
-      <c r="O36" s="33">
+      <c r="O36" s="34">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="P36" s="34">
+      <c r="P36" s="35">
         <v>4</v>
       </c>
-      <c r="Q36" s="32">
+      <c r="Q36" s="33">
         <v>5</v>
       </c>
-      <c r="R36" s="33">
+      <c r="R36" s="34">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="S36" s="34">
-        <v>1</v>
-      </c>
-      <c r="T36" s="32">
-        <v>1</v>
-      </c>
-      <c r="U36" s="33">
+      <c r="S36" s="35">
+        <v>1</v>
+      </c>
+      <c r="T36" s="33">
+        <v>1</v>
+      </c>
+      <c r="U36" s="34">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V36" s="34">
-        <v>1</v>
-      </c>
-      <c r="W36" s="32">
-        <v>1</v>
-      </c>
-      <c r="X36" s="33">
+      <c r="V36" s="35">
+        <v>1</v>
+      </c>
+      <c r="W36" s="33">
+        <v>1</v>
+      </c>
+      <c r="X36" s="34">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Y36" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="74">
+      <c r="Y36" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="75">
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="AA36" s="74">
+      <c r="AA36" s="75">
         <f t="shared" si="8"/>
         <v>10.605</v>
       </c>
-      <c r="AB36" s="75">
+      <c r="AB36" s="76">
         <f t="shared" si="9"/>
         <v>1.92818181818182</v>
       </c>
-      <c r="AC36" s="75">
+      <c r="AC36" s="76">
         <f t="shared" si="10"/>
         <v>9.898</v>
       </c>
-      <c r="AD36" s="75">
+      <c r="AD36" s="76">
         <f t="shared" si="11"/>
         <v>32.9933333333333</v>
       </c>
-      <c r="AE36" s="75">
+      <c r="AE36" s="76">
         <f t="shared" si="12"/>
         <v>21.4456666666667</v>
       </c>
-      <c r="AF36" s="75">
+      <c r="AF36" s="76">
         <f t="shared" si="20"/>
         <v>20</v>
       </c>
-      <c r="AG36" s="75">
+      <c r="AG36" s="76">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="AH36" s="75">
+      <c r="AH36" s="76">
         <f t="shared" si="14"/>
         <v>28</v>
       </c>
-      <c r="AI36" s="75">
+      <c r="AI36" s="76">
         <f t="shared" si="15"/>
         <v>17.5</v>
       </c>
@@ -6002,121 +6078,121 @@
       </c>
     </row>
     <row r="37" spans="1:36">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="35" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="37">
         <v>8</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="38">
         <v>15</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="39">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="40">
         <v>100</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="38">
         <v>100</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I37" s="39">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J37" s="39">
-        <v>1</v>
-      </c>
-      <c r="K37" s="37">
-        <v>1</v>
-      </c>
-      <c r="L37" s="38">
+      <c r="J37" s="40">
+        <v>1</v>
+      </c>
+      <c r="K37" s="38">
+        <v>1</v>
+      </c>
+      <c r="L37" s="39">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M37" s="39">
+      <c r="M37" s="40">
         <v>50</v>
       </c>
-      <c r="N37" s="37">
+      <c r="N37" s="38">
         <v>50</v>
       </c>
-      <c r="O37" s="38">
+      <c r="O37" s="39">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="P37" s="39">
+      <c r="P37" s="40">
         <v>4</v>
       </c>
-      <c r="Q37" s="37">
+      <c r="Q37" s="38">
         <v>5</v>
       </c>
-      <c r="R37" s="38">
+      <c r="R37" s="39">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="S37" s="39">
-        <v>1</v>
-      </c>
-      <c r="T37" s="37">
-        <v>1</v>
-      </c>
-      <c r="U37" s="38">
+      <c r="S37" s="40">
+        <v>1</v>
+      </c>
+      <c r="T37" s="38">
+        <v>1</v>
+      </c>
+      <c r="U37" s="39">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V37" s="39">
-        <v>1</v>
-      </c>
-      <c r="W37" s="37">
-        <v>1</v>
-      </c>
-      <c r="X37" s="38">
+      <c r="V37" s="40">
+        <v>1</v>
+      </c>
+      <c r="W37" s="38">
+        <v>1</v>
+      </c>
+      <c r="X37" s="39">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Y37" s="37">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="74">
+      <c r="Y37" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="75">
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="AA37" s="74">
+      <c r="AA37" s="75">
         <f t="shared" si="8"/>
         <v>11.615</v>
       </c>
-      <c r="AB37" s="75">
+      <c r="AB37" s="76">
         <f t="shared" si="9"/>
         <v>2.11181818181818</v>
       </c>
-      <c r="AC37" s="75">
+      <c r="AC37" s="76">
         <f t="shared" si="10"/>
         <v>12.928</v>
       </c>
-      <c r="AD37" s="75">
+      <c r="AD37" s="76">
         <f t="shared" si="11"/>
         <v>37.875</v>
       </c>
-      <c r="AE37" s="75">
+      <c r="AE37" s="76">
         <f t="shared" si="12"/>
         <v>25.4015</v>
       </c>
-      <c r="AF37" s="75">
+      <c r="AF37" s="76">
         <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="AG37" s="75">
+      <c r="AG37" s="76">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="AH37" s="75">
+      <c r="AH37" s="76">
         <f t="shared" si="14"/>
         <v>30</v>
       </c>
-      <c r="AI37" s="75">
+      <c r="AI37" s="76">
         <f t="shared" si="15"/>
         <v>19</v>
       </c>
@@ -6126,121 +6202,121 @@
       </c>
     </row>
     <row r="38" spans="1:36">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="40" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="42">
         <v>9</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="43">
         <v>16</v>
       </c>
-      <c r="F38" s="43">
+      <c r="F38" s="44">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="G38" s="44">
+      <c r="G38" s="45">
         <v>100</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="43">
         <v>100</v>
       </c>
-      <c r="I38" s="43">
+      <c r="I38" s="44">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J38" s="44">
-        <v>1</v>
-      </c>
-      <c r="K38" s="42">
-        <v>1</v>
-      </c>
-      <c r="L38" s="43">
+      <c r="J38" s="45">
+        <v>1</v>
+      </c>
+      <c r="K38" s="43">
+        <v>1</v>
+      </c>
+      <c r="L38" s="44">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M38" s="44">
+      <c r="M38" s="45">
         <v>50</v>
       </c>
-      <c r="N38" s="42">
+      <c r="N38" s="43">
         <v>50</v>
       </c>
-      <c r="O38" s="43">
+      <c r="O38" s="44">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="P38" s="44">
+      <c r="P38" s="45">
         <v>4</v>
       </c>
-      <c r="Q38" s="42">
+      <c r="Q38" s="43">
         <v>5</v>
       </c>
-      <c r="R38" s="43">
+      <c r="R38" s="44">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="S38" s="44">
-        <v>1</v>
-      </c>
-      <c r="T38" s="42">
-        <v>1</v>
-      </c>
-      <c r="U38" s="43">
+      <c r="S38" s="45">
+        <v>1</v>
+      </c>
+      <c r="T38" s="43">
+        <v>1</v>
+      </c>
+      <c r="U38" s="44">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V38" s="44">
-        <v>1</v>
-      </c>
-      <c r="W38" s="42">
-        <v>1</v>
-      </c>
-      <c r="X38" s="43">
+      <c r="V38" s="45">
+        <v>1</v>
+      </c>
+      <c r="W38" s="43">
+        <v>1</v>
+      </c>
+      <c r="X38" s="44">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Y38" s="42">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="74">
+      <c r="Y38" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="75">
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="AA38" s="74">
+      <c r="AA38" s="75">
         <f t="shared" si="8"/>
         <v>12.625</v>
       </c>
-      <c r="AB38" s="75">
+      <c r="AB38" s="76">
         <f t="shared" si="9"/>
         <v>2.29545454545455</v>
       </c>
-      <c r="AC38" s="75">
+      <c r="AC38" s="76">
         <f t="shared" si="10"/>
         <v>16.362</v>
       </c>
-      <c r="AD38" s="75">
+      <c r="AD38" s="76">
         <f t="shared" si="11"/>
         <v>43.0933333333333</v>
       </c>
-      <c r="AE38" s="75">
+      <c r="AE38" s="76">
         <f t="shared" si="12"/>
         <v>29.7276666666667</v>
       </c>
-      <c r="AF38" s="75">
+      <c r="AF38" s="76">
         <f t="shared" si="20"/>
         <v>30</v>
       </c>
-      <c r="AG38" s="75">
+      <c r="AG38" s="76">
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="AH38" s="75">
+      <c r="AH38" s="76">
         <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="AI38" s="75">
+      <c r="AI38" s="76">
         <f t="shared" si="15"/>
         <v>20.5</v>
       </c>
@@ -6250,15 +6326,15 @@
       </c>
     </row>
     <row r="39" spans="6:35">
-      <c r="F39" s="62"/>
-      <c r="AB39" s="76"/>
-      <c r="AC39" s="76"/>
-      <c r="AD39" s="76"/>
-      <c r="AE39" s="76"/>
-      <c r="AF39" s="76"/>
-      <c r="AG39" s="76"/>
-      <c r="AH39" s="76"/>
-      <c r="AI39" s="76"/>
+      <c r="F39" s="63"/>
+      <c r="AB39" s="77"/>
+      <c r="AC39" s="77"/>
+      <c r="AD39" s="77"/>
+      <c r="AE39" s="77"/>
+      <c r="AF39" s="77"/>
+      <c r="AG39" s="77"/>
+      <c r="AH39" s="77"/>
+      <c r="AI39" s="77"/>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
@@ -6292,15 +6368,15 @@
       <c r="C42" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
     </row>
     <row r="43" spans="3:12">
       <c r="C43" t="s">
@@ -6310,14 +6386,14 @@
         <f>AE4/AE10</f>
         <v>0.957026606291634</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
     </row>
     <row r="44" spans="3:12">
       <c r="C44" t="s">
@@ -6327,12 +6403,12 @@
         <f>AE4/AE16</f>
         <v>0.92389964603918</v>
       </c>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" t="s">
@@ -6342,11 +6418,11 @@
         <f>AE4/AE22</f>
         <v>0.729459005581423</v>
       </c>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
     </row>
     <row r="46" spans="3:12">
       <c r="C46" t="s">
@@ -6356,9 +6432,9 @@
         <f>AE4/AE28</f>
         <v>1.02874424728089</v>
       </c>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
     </row>
     <row r="47" spans="3:12">
       <c r="C47" t="s">
@@ -6368,8 +6444,8 @@
         <f>AE4/AE34</f>
         <v>0.941685464174038</v>
       </c>
-      <c r="K47" s="63"/>
-      <c r="L47" s="63"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" t="s">
@@ -8847,10 +8923,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -8872,22 +8948,22 @@
         <v>99</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
         <v>101</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="2" t="s">
         <v>102</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
+      <c r="O1" s="2"/>
       <c r="P1" s="2" t="s">
         <v>103</v>
       </c>
@@ -8896,9 +8972,9 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
@@ -8935,1564 +9011,1564 @@
       <c r="O2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>-2</v>
       </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <f>AVERAGE(D3:E3)</f>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F16" si="0">AVERAGE(D3:E3)</f>
         <v>-1</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>80</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>100</v>
       </c>
-      <c r="I3" s="9">
-        <f>AVERAGE(G3:H3)</f>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I16" si="1">AVERAGE(G3:H3)</f>
         <v>90</v>
       </c>
-      <c r="J3" s="10">
-        <v>1</v>
-      </c>
-      <c r="K3" s="16">
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="18">
         <v>1.2</v>
       </c>
-      <c r="L3" s="9">
-        <f>AVERAGE(J3:K3)</f>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:L16" si="2">AVERAGE(J3:K3)</f>
         <v>1.1</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="8">
         <v>2</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="18">
         <v>6</v>
       </c>
-      <c r="O3" s="9">
-        <f>AVERAGE(M3:N3)</f>
+      <c r="O3" s="7">
+        <f t="shared" ref="O3:O16" si="3">AVERAGE(M3:N3)</f>
         <v>4</v>
       </c>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>-3</v>
       </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <f>AVERAGE(D4:E4)</f>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
         <v>-1.5</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>70</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>90</v>
       </c>
-      <c r="I4" s="9">
-        <f>AVERAGE(G4:H4)</f>
+      <c r="I4" s="7">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="8">
         <v>1.2</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="18">
         <v>1.5</v>
       </c>
-      <c r="L4" s="9">
-        <f>AVERAGE(J4:K4)</f>
+      <c r="L4" s="7">
+        <f t="shared" si="2"/>
         <v>1.35</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <v>2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="18">
         <v>6</v>
       </c>
-      <c r="O4" s="9">
-        <f>AVERAGE(M4:N4)</f>
+      <c r="O4" s="7">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>-4</v>
       </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <f>AVERAGE(D5:E5)</f>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>60</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>80</v>
       </c>
-      <c r="I5" s="9">
-        <f>AVERAGE(G5:H5)</f>
+      <c r="I5" s="7">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="8">
         <v>1.5</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="18">
         <v>2</v>
       </c>
-      <c r="L5" s="9">
-        <f>AVERAGE(J5:K5)</f>
+      <c r="L5" s="7">
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="8">
         <v>2</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="18">
         <v>6</v>
       </c>
-      <c r="O5" s="9">
-        <f>AVERAGE(M5:N5)</f>
+      <c r="O5" s="7">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>-2</v>
       </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <f>AVERAGE(D6:E6)</f>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>80</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>100</v>
       </c>
-      <c r="I6" s="9">
-        <f>AVERAGE(G6:H6)</f>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="8">
         <v>2.5</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="18">
         <v>3</v>
       </c>
-      <c r="L6" s="9">
-        <f>AVERAGE(J6:K6)</f>
+      <c r="L6" s="7">
+        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="8">
         <v>2</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="18">
         <v>4</v>
       </c>
-      <c r="O6" s="9">
-        <f>AVERAGE(M6:N6)</f>
+      <c r="O6" s="7">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="Q6" s="17">
-        <v>1</v>
-      </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
+      <c r="Q6" s="19">
+        <v>1</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>-1</v>
       </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
-        <f>AVERAGE(D7:E7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
         <v>40</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>60</v>
       </c>
-      <c r="I7" s="9">
-        <f>AVERAGE(G7:H7)</f>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="8">
         <v>0.9</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="18">
         <v>1.1</v>
       </c>
-      <c r="L7" s="9">
-        <f>AVERAGE(J7:K7)</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="10">
+      <c r="L7" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="18">
         <v>4</v>
       </c>
-      <c r="O7" s="9">
-        <f>AVERAGE(M7:N7)</f>
+      <c r="O7" s="7">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>-2</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>-4</v>
       </c>
-      <c r="F8" s="9">
-        <f>AVERAGE(D8:E8)</f>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>20</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>40</v>
       </c>
-      <c r="I8" s="9">
-        <f>AVERAGE(G8:H8)</f>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="J8" s="10">
-        <v>1</v>
-      </c>
-      <c r="K8" s="16">
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="18">
         <v>1.1</v>
       </c>
-      <c r="L8" s="9">
-        <f>AVERAGE(J8:K8)</f>
+      <c r="L8" s="7">
+        <f t="shared" si="2"/>
         <v>1.05</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="8">
         <v>2</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="18">
         <v>4</v>
       </c>
-      <c r="O8" s="9">
-        <f>AVERAGE(M8:N8)</f>
+      <c r="O8" s="7">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
     </row>
     <row r="9" customHeight="1" spans="1:19">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>-4</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>-8</v>
       </c>
-      <c r="F9" s="9">
-        <f>AVERAGE(D9:E9)</f>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <v>20</v>
       </c>
-      <c r="I9" s="9">
-        <f>AVERAGE(G9:H9)</f>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J9" s="10">
-        <v>1</v>
-      </c>
-      <c r="K9" s="16">
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="18">
         <v>1.2</v>
       </c>
-      <c r="L9" s="9">
-        <f>AVERAGE(J9:K9)</f>
+      <c r="L9" s="7">
+        <f t="shared" si="2"/>
         <v>1.1</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="8">
         <v>2</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="18">
         <v>4</v>
       </c>
-      <c r="O9" s="9">
-        <f>AVERAGE(M9:N9)</f>
+      <c r="O9" s="7">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
     </row>
     <row r="10" customHeight="1" spans="1:19">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="9">
-        <f>AVERAGE(D10:E10)</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <f>AVERAGE(G10:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
         <v>2</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="18">
         <v>2.2</v>
       </c>
-      <c r="L10" s="9">
-        <f>AVERAGE(J10:K10)</f>
+      <c r="L10" s="7">
+        <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="8">
         <v>6</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="18">
         <v>12</v>
       </c>
-      <c r="O10" s="9">
-        <f>AVERAGE(M10:N10)</f>
+      <c r="O10" s="7">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="Q10" s="17">
-        <v>1</v>
-      </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+      <c r="Q10" s="19">
+        <v>1</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
         <v>4</v>
       </c>
-      <c r="F11" s="9">
-        <f>AVERAGE(D11:E11)</f>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <v>100</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>100</v>
       </c>
-      <c r="I11" s="9">
-        <f>AVERAGE(G11:H11)</f>
-        <v>100</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="L11" s="9">
-        <f>AVERAGE(J11:K11)</f>
-        <v>0.8</v>
-      </c>
-      <c r="M11" s="10">
-        <v>2</v>
-      </c>
-      <c r="N11" s="16">
-        <v>8</v>
-      </c>
-      <c r="O11" s="9">
-        <f>AVERAGE(M11:N11)</f>
-        <v>5</v>
-      </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2</v>
-      </c>
-      <c r="F12" s="9">
-        <f>AVERAGE(D12:E12)</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>100</v>
-      </c>
-      <c r="H12" s="8">
-        <v>100</v>
-      </c>
-      <c r="I12" s="9">
-        <f>AVERAGE(G12:H12)</f>
-        <v>100</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="K12" s="16">
-        <v>1</v>
-      </c>
-      <c r="L12" s="9">
-        <f>AVERAGE(J12:K12)</f>
-        <v>0.9</v>
-      </c>
-      <c r="M12" s="10">
-        <v>2</v>
-      </c>
-      <c r="N12" s="16">
-        <v>8</v>
-      </c>
-      <c r="O12" s="9">
-        <f>AVERAGE(M12:N12)</f>
-        <v>5</v>
-      </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <f>AVERAGE(D13:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>100</v>
-      </c>
-      <c r="H13" s="8">
-        <v>100</v>
-      </c>
-      <c r="I13" s="9">
-        <f>AVERAGE(G13:H13)</f>
-        <v>100</v>
-      </c>
-      <c r="J13" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="K13" s="16">
-        <v>1</v>
-      </c>
-      <c r="L13" s="9">
-        <f>AVERAGE(J13:K13)</f>
-        <v>0.95</v>
-      </c>
-      <c r="M13" s="10">
-        <v>2</v>
-      </c>
-      <c r="N13" s="16">
-        <v>8</v>
-      </c>
-      <c r="O13" s="9">
-        <f>AVERAGE(M13:N13)</f>
-        <v>5</v>
-      </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-5</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <f>AVERAGE(D14:E14)</f>
-        <v>-2.5</v>
-      </c>
-      <c r="G14" s="10">
-        <v>90</v>
-      </c>
-      <c r="H14" s="8">
-        <v>100</v>
-      </c>
-      <c r="I14" s="9">
-        <f>AVERAGE(G14:H14)</f>
-        <v>95</v>
-      </c>
-      <c r="J14" s="10">
-        <v>1</v>
-      </c>
-      <c r="K14" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="L14" s="9">
-        <f>AVERAGE(J14:K14)</f>
-        <v>1.25</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="N14" s="16">
-        <v>2</v>
-      </c>
-      <c r="O14" s="9">
-        <f>AVERAGE(M14:N14)</f>
-        <v>1.25</v>
-      </c>
-      <c r="P14" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>1</v>
-      </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <f>AVERAGE(D15:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>100</v>
-      </c>
-      <c r="H15" s="8">
-        <v>100</v>
-      </c>
-      <c r="I15" s="9">
-        <f>AVERAGE(G15:H15)</f>
-        <v>100</v>
-      </c>
-      <c r="J15" s="10">
-        <v>1</v>
-      </c>
-      <c r="K15" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="L15" s="9">
-        <f>AVERAGE(J15:K15)</f>
-        <v>1.25</v>
-      </c>
-      <c r="M15" s="10">
-        <v>1</v>
-      </c>
-      <c r="N15" s="16">
-        <v>6</v>
-      </c>
-      <c r="O15" s="9">
-        <f>AVERAGE(M15:N15)</f>
-        <v>3.5</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>3</v>
-      </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <f>AVERAGE(D16:E16)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <v>90</v>
-      </c>
-      <c r="H16" s="8">
-        <v>100</v>
-      </c>
-      <c r="I16" s="9">
-        <f>AVERAGE(G16:H16)</f>
-        <v>95</v>
-      </c>
-      <c r="J16" s="10">
-        <v>2</v>
-      </c>
-      <c r="K16" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="L16" s="9">
-        <f>AVERAGE(J16:K16)</f>
-        <v>2.25</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="N16" s="16">
-        <v>1</v>
-      </c>
-      <c r="O16" s="9">
-        <f>AVERAGE(M16:N16)</f>
-        <v>0.75</v>
-      </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="7">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8">
-        <v>8</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" ref="F17:F23" si="0">AVERAGE(D17:E17)</f>
-        <v>6</v>
-      </c>
-      <c r="G17" s="10">
-        <v>100</v>
-      </c>
-      <c r="H17" s="8">
-        <v>100</v>
-      </c>
-      <c r="I17" s="9">
-        <f t="shared" ref="I17:I23" si="1">AVERAGE(G17:H17)</f>
-        <v>100</v>
-      </c>
-      <c r="J17" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="K17" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="9">
-        <f t="shared" ref="L17:L23" si="2">AVERAGE(J17:K17)</f>
-        <v>0.35</v>
-      </c>
-      <c r="M17" s="10">
-        <v>3</v>
-      </c>
-      <c r="N17" s="16">
-        <v>6</v>
-      </c>
-      <c r="O17" s="9">
-        <f t="shared" ref="O17:O23" si="3">AVERAGE(M17:N17)</f>
-        <v>4.5</v>
-      </c>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="7">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G18" s="10">
-        <v>100</v>
-      </c>
-      <c r="H18" s="8">
-        <v>100</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="I11" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J18" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="K18" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="L18" s="9">
+      <c r="J11" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="L11" s="7">
         <f t="shared" si="2"/>
-        <v>0.225</v>
-      </c>
-      <c r="M18" s="10">
-        <v>3</v>
-      </c>
-      <c r="N18" s="16">
-        <v>6</v>
-      </c>
-      <c r="O18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="8">
+        <v>2</v>
+      </c>
+      <c r="N11" s="18">
+        <v>8</v>
+      </c>
+      <c r="O11" s="7">
         <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-      <c r="P18" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>3</v>
-      </c>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
+        <v>5</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
         <v>100</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H12" s="6">
         <v>100</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I12" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J12" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="M12" s="8">
         <v>2</v>
       </c>
-      <c r="K19" s="16">
+      <c r="N12" s="18">
+        <v>8</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>100</v>
+      </c>
+      <c r="H13" s="6">
+        <v>100</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="M13" s="8">
+        <v>2</v>
+      </c>
+      <c r="N13" s="18">
+        <v>8</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="G14" s="8">
+        <v>90</v>
+      </c>
+      <c r="H14" s="6">
+        <v>100</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="18">
+        <v>2</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="3"/>
+        <v>1.25</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>1</v>
+      </c>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>100</v>
+      </c>
+      <c r="H15" s="6">
+        <v>100</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1</v>
+      </c>
+      <c r="N15" s="18">
+        <v>6</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>3</v>
+      </c>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>90</v>
+      </c>
+      <c r="H16" s="6">
+        <v>100</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2</v>
+      </c>
+      <c r="K16" s="18">
         <v>2.5</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L16" s="7">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
-      <c r="M19" s="10">
-        <v>1</v>
-      </c>
-      <c r="N19" s="16">
+      <c r="M16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="18">
+        <v>1</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4</v>
+      </c>
+      <c r="E17" s="6">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" ref="F17:F23" si="4">AVERAGE(D17:E17)</f>
+        <v>6</v>
+      </c>
+      <c r="G17" s="8">
+        <v>100</v>
+      </c>
+      <c r="H17" s="6">
+        <v>100</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" ref="I17:I23" si="5">AVERAGE(G17:H17)</f>
+        <v>100</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" ref="L17:L23" si="6">AVERAGE(J17:K17)</f>
+        <v>0.35</v>
+      </c>
+      <c r="M17" s="8">
+        <v>3</v>
+      </c>
+      <c r="N17" s="18">
+        <v>6</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" ref="O17:O23" si="7">AVERAGE(M17:N17)</f>
+        <v>4.5</v>
+      </c>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="5">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G18" s="8">
+        <v>100</v>
+      </c>
+      <c r="H18" s="6">
+        <v>100</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K18" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="6"/>
+        <v>0.225</v>
+      </c>
+      <c r="M18" s="8">
+        <v>3</v>
+      </c>
+      <c r="N18" s="18">
+        <v>6</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>3</v>
+      </c>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>100</v>
+      </c>
+      <c r="H19" s="6">
+        <v>100</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="J19" s="8">
         <v>2</v>
       </c>
-      <c r="O19" s="9">
-        <f t="shared" si="3"/>
+      <c r="K19" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="6"/>
+        <v>2.25</v>
+      </c>
+      <c r="M19" s="8">
+        <v>1</v>
+      </c>
+      <c r="N19" s="18">
+        <v>2</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="P19" s="17" t="s">
+      <c r="P19" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="19">
         <v>3</v>
       </c>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>-10</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>-15</v>
       </c>
-      <c r="F20" s="9">
-        <f t="shared" si="0"/>
+      <c r="F20" s="7">
+        <f t="shared" si="4"/>
         <v>-12.5</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="8">
         <v>40</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="6">
         <v>60</v>
       </c>
-      <c r="I20" s="9">
-        <f t="shared" si="1"/>
+      <c r="I20" s="7">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="8">
         <v>0.5</v>
       </c>
-      <c r="K20" s="16">
-        <v>1</v>
-      </c>
-      <c r="L20" s="9">
-        <f t="shared" si="2"/>
+      <c r="K20" s="18">
+        <v>1</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="8">
         <v>3</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="18">
         <v>6</v>
       </c>
-      <c r="O20" s="9">
-        <f t="shared" si="3"/>
+      <c r="O20" s="7">
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
-      <c r="P20" s="17" t="s">
+      <c r="P20" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="19">
         <v>2</v>
       </c>
-      <c r="R20" s="17" t="s">
+      <c r="R20" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>-5</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>-10</v>
       </c>
-      <c r="F21" s="9">
-        <f t="shared" si="0"/>
+      <c r="F21" s="7">
+        <f t="shared" si="4"/>
         <v>-7.5</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="8">
         <v>40</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <v>60</v>
       </c>
-      <c r="I21" s="9">
-        <f t="shared" si="1"/>
+      <c r="I21" s="7">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="J21" s="10">
-        <v>1</v>
-      </c>
-      <c r="K21" s="16">
+      <c r="J21" s="8">
+        <v>1</v>
+      </c>
+      <c r="K21" s="18">
         <v>2</v>
       </c>
-      <c r="L21" s="9">
-        <f t="shared" si="2"/>
+      <c r="L21" s="7">
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="8">
         <v>2</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="18">
         <v>3</v>
       </c>
-      <c r="O21" s="9">
-        <f t="shared" si="3"/>
+      <c r="O21" s="7">
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="P21" s="17" t="s">
+      <c r="P21" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="19">
         <v>2</v>
       </c>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>-10</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <v>10</v>
       </c>
-      <c r="F22" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
+      <c r="F22" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
         <v>100</v>
       </c>
-      <c r="I22" s="9">
-        <f t="shared" si="1"/>
+      <c r="I22" s="7">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="8">
         <v>0.5</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="18">
         <v>1.5</v>
       </c>
-      <c r="L22" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="10">
-        <v>1</v>
-      </c>
-      <c r="N22" s="16">
+      <c r="L22" s="7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="8">
+        <v>1</v>
+      </c>
+      <c r="N22" s="18">
         <v>5</v>
       </c>
-      <c r="O22" s="9">
-        <f t="shared" si="3"/>
+      <c r="O22" s="7">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P22" s="17" t="s">
+      <c r="P22" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="Q22" s="19">
         <v>3</v>
       </c>
-      <c r="R22" s="17" t="s">
+      <c r="R22" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="S22" s="17">
+      <c r="S22" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>-5</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <v>5</v>
       </c>
-      <c r="F23" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="10">
+      <c r="F23" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
         <v>25</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="6">
         <v>75</v>
       </c>
-      <c r="I23" s="9">
-        <f t="shared" si="1"/>
+      <c r="I23" s="7">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="8">
         <v>0.5</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="18">
         <v>1.5</v>
       </c>
-      <c r="L23" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M23" s="10">
-        <v>1</v>
-      </c>
-      <c r="N23" s="16">
+      <c r="L23" s="7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="8">
+        <v>1</v>
+      </c>
+      <c r="N23" s="18">
         <v>9</v>
       </c>
-      <c r="O23" s="9">
-        <f t="shared" si="3"/>
+      <c r="O23" s="7">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="P23" s="17" t="s">
+      <c r="P23" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="Q23" s="19">
         <v>2</v>
       </c>
-      <c r="R23" s="17" t="s">
+      <c r="R23" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="S23" s="17">
+      <c r="S23" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="13">
-        <v>0</v>
-      </c>
-      <c r="C26" s="14">
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
         <v>0.25</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="12">
         <v>0.15</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="12">
         <v>0.1</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="12">
         <v>0.1</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="12">
         <v>0.05</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="12">
         <v>0.1</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="12">
         <v>0.1</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="12">
         <v>0.1</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="12">
         <v>0.05</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="11">
         <v>0.15</v>
       </c>
-      <c r="C27" s="14">
-        <v>0</v>
-      </c>
-      <c r="D27" s="14">
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
         <v>0.1</v>
       </c>
-      <c r="E27" s="14">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14">
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
         <v>0.1</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="12">
         <v>0.05</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="12">
         <v>0.15</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="12">
         <v>0.15</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="12">
         <v>0.2</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="12">
         <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="11">
         <v>0.2</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="12">
         <v>0.15</v>
       </c>
-      <c r="D28" s="14">
-        <v>0</v>
-      </c>
-      <c r="E28" s="14">
-        <v>0</v>
-      </c>
-      <c r="F28" s="14">
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
         <v>0.05</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="12">
         <v>0.1</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="12">
         <v>0.1</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="12">
         <v>0.15</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="12">
         <v>0.1</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="12">
         <v>0.15</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="11">
         <v>0.1</v>
       </c>
-      <c r="C29" s="14">
-        <v>0</v>
-      </c>
-      <c r="D29" s="14">
-        <v>0</v>
-      </c>
-      <c r="E29" s="14">
-        <v>0</v>
-      </c>
-      <c r="F29" s="14">
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
         <v>0.05</v>
       </c>
-      <c r="G29" s="14">
-        <v>0</v>
-      </c>
-      <c r="H29" s="14">
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
         <v>0.35</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="12">
         <v>0.3</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="12">
         <v>0.2</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="11">
         <v>0.2</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="12">
         <v>0.1</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="12">
         <v>0.05</v>
       </c>
-      <c r="E30" s="14">
-        <v>0</v>
-      </c>
-      <c r="F30" s="14">
-        <v>0</v>
-      </c>
-      <c r="G30" s="14">
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
         <v>0.2</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="12">
         <v>0.15</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="12">
         <v>0.15</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="12">
         <v>0.15</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="11">
         <v>0.25</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="12">
         <v>0.15</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="12">
         <v>0.1</v>
       </c>
-      <c r="E31" s="14">
-        <v>0</v>
-      </c>
-      <c r="F31" s="14">
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
         <v>0.15</v>
       </c>
-      <c r="G31" s="14">
-        <v>0</v>
-      </c>
-      <c r="H31" s="14">
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
         <v>0.1</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="12">
         <v>0.1</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="12">
         <v>0.1</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="12">
         <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="11">
         <v>0.15</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="12">
         <v>0.1</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="12">
         <v>0.05</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="12">
         <v>0.15</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="12">
         <v>0.1</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="12">
         <v>0.05</v>
       </c>
-      <c r="H32" s="14">
-        <v>0</v>
-      </c>
-      <c r="I32" s="14">
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
         <v>0.2</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="12">
         <v>0.2</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="11">
         <v>0.2</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="12">
         <v>0.15</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <v>0.1</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="12">
         <v>0.1</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="12">
         <v>0.1</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="12">
         <v>0.05</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="12">
         <v>0.15</v>
       </c>
-      <c r="I33" s="14">
-        <v>0</v>
-      </c>
-      <c r="J33" s="14">
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
         <v>0.1</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="12">
         <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="11">
         <v>0.25</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="12">
         <v>0.2</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <v>0.1</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="12">
         <v>0.05</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="12">
         <v>0.1</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="12">
         <v>0.05</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="12">
         <v>0.1</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="12">
         <v>0.1</v>
       </c>
-      <c r="J34" s="14">
-        <v>0</v>
-      </c>
-      <c r="K34" s="14">
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
         <v>0.05</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="11">
         <v>0.15</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="12">
         <v>0.25</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <v>0.2</v>
       </c>
-      <c r="E35" s="14">
-        <v>0</v>
-      </c>
-      <c r="F35" s="14">
-        <v>0</v>
-      </c>
-      <c r="G35" s="14">
-        <v>0</v>
-      </c>
-      <c r="H35" s="14">
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12">
         <v>0.05</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="12">
         <v>0.15</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="12">
         <v>0.2</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="12">
         <v>0</v>
       </c>
     </row>
@@ -10544,39 +10620,39 @@
         <v>14.5</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:K37" si="4">100/$L36*C36</f>
+        <f t="shared" ref="C37:K37" si="8">100/$L36*C36</f>
         <v>13.5</v>
       </c>
       <c r="D37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="F37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
       <c r="G37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="H37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.5</v>
       </c>
       <c r="I37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="J37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="K37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -10624,53 +10700,242 @@
         <v>134</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:K40" si="5">100/$L39*B39</f>
+        <f t="shared" ref="B40:K40" si="9">100/$L39*B39</f>
         <v>13.4</v>
       </c>
       <c r="C40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14.05</v>
       </c>
       <c r="D40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="E40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.55</v>
       </c>
       <c r="F40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8.2</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.4</v>
       </c>
       <c r="H40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11.45</v>
       </c>
       <c r="I40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12.7</v>
       </c>
       <c r="J40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12.75</v>
       </c>
       <c r="K40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
     </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="14">
+        <v>1</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17">
+        <v>1</v>
+      </c>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="14">
+        <v>2</v>
+      </c>
+      <c r="C45" s="15">
+        <v>25</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="14">
+        <v>3</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17">
+        <v>1</v>
+      </c>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="14">
+        <v>4</v>
+      </c>
+      <c r="C47" s="15">
+        <v>10</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="14">
+        <v>5</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="14">
+        <v>6</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="14">
+        <v>7</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="14">
+        <v>8</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="17">
+        <v>1.75</v>
+      </c>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="14">
+        <v>9</v>
+      </c>
+      <c r="C52" s="15">
+        <v>30</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="14">
+        <v>9</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16">
+        <v>0</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="14">
+        <v>10</v>
+      </c>
+      <c r="C54" s="15">
+        <v>0</v>
+      </c>
+      <c r="D54" s="16">
+        <v>30</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <sortState ref="A42:C52">
+    <sortCondition ref="B42:B52"/>
+  </sortState>
+  <mergeCells count="7">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:S1"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -11742,4 +12007,267 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="10.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="12.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="8.85714285714286" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="23.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="20.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="12" max="12" width="11.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="14.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="3:13">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3">
+        <v>-10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4">
+        <v>-5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>-5</v>
+      </c>
+      <c r="E6">
+        <v>-5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>-10</v>
+      </c>
+      <c r="E7">
+        <v>-10</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>-10</v>
+      </c>
+      <c r="E10">
+        <v>-10</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10">
+        <v>-20</v>
+      </c>
+      <c r="L10">
+        <v>-20</v>
+      </c>
+      <c r="M10">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" activeTab="7"/>
+    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="WeightData" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
   <si>
     <t>Character Weight</t>
   </si>
@@ -498,7 +498,7 @@
     <t>Delicate</t>
   </si>
   <si>
-    <t>Region Name</t>
+    <t>Internal Name</t>
   </si>
   <si>
     <t>Food</t>
@@ -625,9 +625,6 @@
   </si>
   <si>
     <t>Towers</t>
-  </si>
-  <si>
-    <t>Internal Name</t>
   </si>
   <si>
     <t>Regions</t>
@@ -697,7 +694,98 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -712,9 +800,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,54 +815,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,14 +829,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -803,44 +836,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="45">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,12 +859,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +912,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,13 +996,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,49 +1062,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,103 +1092,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,6 +1358,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1384,8 +1408,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1402,30 +1428,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,23 +1455,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1487,134 +1478,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1642,6 +1633,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1651,64 +1648,73 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
@@ -1741,34 +1747,19 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1792,10 +1783,16 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1810,28 +1807,22 @@
     <xf numFmtId="2" fontId="3" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1840,10 +1831,7 @@
     <xf numFmtId="2" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1852,7 +1840,7 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1861,7 +1849,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2229,7 +2217,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -2238,10 +2226,10 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="84" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
@@ -2258,13 +2246,13 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="86">
+      <c r="F3" s="85">
         <v>0.25</v>
       </c>
     </row>
@@ -2278,13 +2266,13 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="86">
+      <c r="F4" s="85">
         <v>0.5</v>
       </c>
     </row>
@@ -2298,18 +2286,18 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="86">
+      <c r="F5" s="85">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="83" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
@@ -2318,10 +2306,10 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="84" t="s">
         <v>31</v>
       </c>
       <c r="F6" t="s">
@@ -2359,51 +2347,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10" t="s">
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="9" t="s">
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="11" t="s">
         <v>42</v>
       </c>
       <c r="Z1" t="s">
@@ -2412,157 +2400,157 @@
       <c r="AA1" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="79" t="s">
+      <c r="AB1" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="79" t="s">
+      <c r="AC1" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79" t="s">
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="79" t="s">
+      <c r="AG1" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
       <c r="AJ1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79" t="s">
+      <c r="Y2" s="11"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="79" t="s">
+      <c r="AD2" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="79" t="s">
+      <c r="AE2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79" t="s">
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="79" t="s">
+      <c r="AH2" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="79" t="s">
+      <c r="AI2" s="78" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="77" t="s">
+      <c r="B3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="79"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="26"/>
@@ -2643,42 +2631,42 @@
       <c r="Y4" s="29">
         <v>1</v>
       </c>
-      <c r="Z4" s="81">
+      <c r="Z4" s="80">
         <f>U4/L4+R4</f>
         <v>7</v>
       </c>
-      <c r="AA4" s="81">
+      <c r="AA4" s="80">
         <f>U4*(X4/100*F4*2+((1-X4/100)*F4))</f>
         <v>30.27375</v>
       </c>
-      <c r="AB4" s="82">
+      <c r="AB4" s="81">
         <f>AA4/Z4*Y4</f>
         <v>4.32482142857143</v>
       </c>
-      <c r="AC4" s="82">
+      <c r="AC4" s="81">
         <f>($Y4*D4*G4/100*S4*((V4/100*D4*2)+((1-V4/100)*D4))/(S4/J4+P4))</f>
         <v>1.43535483870968</v>
       </c>
-      <c r="AD4" s="82">
+      <c r="AD4" s="81">
         <f>($Y4*E4*H4/100*T4*((W4/100*E4*2)+((1-W4/100)*E4))/(T4/K4+Q4))</f>
         <v>19.1718620689655</v>
       </c>
-      <c r="AE4" s="82">
+      <c r="AE4" s="81">
         <f>AVERAGE(AC4:AD4)</f>
         <v>10.3036084538376</v>
       </c>
-      <c r="AF4" s="82">
+      <c r="AF4" s="81">
         <v>10</v>
       </c>
-      <c r="AG4" s="82">
+      <c r="AG4" s="81">
         <f>D4*G4/100</f>
         <v>0.9</v>
       </c>
-      <c r="AH4" s="82">
+      <c r="AH4" s="81">
         <f>E4*H4/100*2</f>
         <v>4.95</v>
       </c>
-      <c r="AI4" s="82">
+      <c r="AI4" s="81">
         <f>AVERAGE(AG4:AH4)</f>
         <v>2.925</v>
       </c>
@@ -2749,7 +2737,7 @@
       <c r="T5" s="62">
         <v>12</v>
       </c>
-      <c r="U5" s="73">
+      <c r="U5" s="72">
         <f t="shared" ref="U5:U38" si="5">AVERAGE(S5:T5)</f>
         <v>9</v>
       </c>
@@ -2766,42 +2754,42 @@
       <c r="Y5" s="34">
         <v>1</v>
       </c>
-      <c r="Z5" s="81">
+      <c r="Z5" s="80">
         <f t="shared" ref="Z5:Z38" si="7">U5/L5+R5</f>
         <v>6.48529411764706</v>
       </c>
-      <c r="AA5" s="81">
+      <c r="AA5" s="80">
         <f t="shared" ref="AA5:AA38" si="8">U5*(X5/100*F5*2+((1-X5/100)*F5))</f>
         <v>35.26875</v>
       </c>
-      <c r="AB5" s="82">
+      <c r="AB5" s="81">
         <f t="shared" ref="AB5:AB38" si="9">AA5/Z5*Y5</f>
         <v>5.43826530612245</v>
       </c>
-      <c r="AC5" s="82">
+      <c r="AC5" s="81">
         <f t="shared" ref="AC5:AC38" si="10">($Y5*D5*G5/100*S5*((V5/100*D5*2)+((1-V5/100)*D5))/(S5/J5+P5))</f>
         <v>3.0952380952381</v>
       </c>
-      <c r="AD5" s="82">
+      <c r="AD5" s="81">
         <f t="shared" ref="AD5:AD38" si="11">($Y5*E5*H5/100*T5*((W5/100*E5*2)+((1-W5/100)*E5))/(T5/K5+Q5))</f>
         <v>27</v>
       </c>
-      <c r="AE5" s="82">
+      <c r="AE5" s="81">
         <f t="shared" ref="AE5:AE38" si="12">AVERAGE(AC5:AD5)</f>
         <v>15.047619047619</v>
       </c>
-      <c r="AF5" s="82">
+      <c r="AF5" s="81">
         <v>15</v>
       </c>
-      <c r="AG5" s="82">
+      <c r="AG5" s="81">
         <f t="shared" ref="AG5:AG38" si="13">D5*G5/100</f>
         <v>1.25</v>
       </c>
-      <c r="AH5" s="82">
+      <c r="AH5" s="81">
         <f t="shared" ref="AH5:AH38" si="14">E5*H5/100*2</f>
         <v>6</v>
       </c>
-      <c r="AI5" s="82">
+      <c r="AI5" s="81">
         <f t="shared" ref="AI5:AI38" si="15">AVERAGE(AG5:AH5)</f>
         <v>3.625</v>
       </c>
@@ -2872,7 +2860,7 @@
       <c r="T6" s="64">
         <v>12</v>
       </c>
-      <c r="U6" s="74">
+      <c r="U6" s="73">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -2889,42 +2877,42 @@
       <c r="Y6" s="39">
         <v>1</v>
       </c>
-      <c r="Z6" s="81">
+      <c r="Z6" s="80">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="AA6" s="81">
+      <c r="AA6" s="80">
         <f t="shared" si="8"/>
         <v>40.35375</v>
       </c>
-      <c r="AB6" s="82">
+      <c r="AB6" s="81">
         <f t="shared" si="9"/>
         <v>6.725625</v>
       </c>
-      <c r="AC6" s="82">
+      <c r="AC6" s="81">
         <f t="shared" si="10"/>
         <v>5.94</v>
       </c>
-      <c r="AD6" s="82">
+      <c r="AD6" s="81">
         <f t="shared" si="11"/>
         <v>37.0528888888889</v>
       </c>
-      <c r="AE6" s="82">
+      <c r="AE6" s="81">
         <f t="shared" si="12"/>
         <v>21.4964444444444</v>
       </c>
-      <c r="AF6" s="82">
+      <c r="AF6" s="81">
         <v>20</v>
       </c>
-      <c r="AG6" s="82">
+      <c r="AG6" s="81">
         <f t="shared" si="13"/>
         <v>1.65</v>
       </c>
-      <c r="AH6" s="82">
+      <c r="AH6" s="81">
         <f t="shared" si="14"/>
         <v>7.15</v>
       </c>
-      <c r="AI6" s="82">
+      <c r="AI6" s="81">
         <f t="shared" si="15"/>
         <v>4.4</v>
       </c>
@@ -2995,7 +2983,7 @@
       <c r="T7" s="66">
         <v>12</v>
       </c>
-      <c r="U7" s="75">
+      <c r="U7" s="74">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -3012,42 +3000,42 @@
       <c r="Y7" s="44">
         <v>1</v>
       </c>
-      <c r="Z7" s="81">
+      <c r="Z7" s="80">
         <f t="shared" si="7"/>
         <v>5.53947368421053</v>
       </c>
-      <c r="AA7" s="81">
+      <c r="AA7" s="80">
         <f t="shared" si="8"/>
         <v>41.934375</v>
       </c>
-      <c r="AB7" s="82">
+      <c r="AB7" s="81">
         <f t="shared" si="9"/>
         <v>7.57010095011877</v>
       </c>
-      <c r="AC7" s="82">
+      <c r="AC7" s="81">
         <f t="shared" si="10"/>
         <v>9.10146774193548</v>
       </c>
-      <c r="AD7" s="82">
+      <c r="AD7" s="81">
         <f t="shared" si="11"/>
         <v>41.8287692307692</v>
       </c>
-      <c r="AE7" s="82">
+      <c r="AE7" s="81">
         <f t="shared" si="12"/>
         <v>25.4651184863524</v>
       </c>
-      <c r="AF7" s="82">
+      <c r="AF7" s="81">
         <v>25</v>
       </c>
-      <c r="AG7" s="82">
+      <c r="AG7" s="81">
         <f t="shared" si="13"/>
         <v>1.95</v>
       </c>
-      <c r="AH7" s="82">
+      <c r="AH7" s="81">
         <f t="shared" si="14"/>
         <v>7.7</v>
       </c>
-      <c r="AI7" s="82">
+      <c r="AI7" s="81">
         <f t="shared" si="15"/>
         <v>4.825</v>
       </c>
@@ -3118,7 +3106,7 @@
       <c r="T8" s="68">
         <v>12</v>
       </c>
-      <c r="U8" s="76">
+      <c r="U8" s="75">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -3135,42 +3123,42 @@
       <c r="Y8" s="49">
         <v>1</v>
       </c>
-      <c r="Z8" s="81">
+      <c r="Z8" s="80">
         <f t="shared" si="7"/>
         <v>5.1</v>
       </c>
-      <c r="AA8" s="81">
+      <c r="AA8" s="80">
         <f t="shared" si="8"/>
         <v>43.5375</v>
       </c>
-      <c r="AB8" s="82">
+      <c r="AB8" s="81">
         <f t="shared" si="9"/>
         <v>8.53676470588235</v>
       </c>
-      <c r="AC8" s="82">
+      <c r="AC8" s="81">
         <f t="shared" si="10"/>
         <v>13.6318</v>
       </c>
-      <c r="AD8" s="82">
+      <c r="AD8" s="81">
         <f t="shared" si="11"/>
         <v>47.0448</v>
       </c>
-      <c r="AE8" s="82">
+      <c r="AE8" s="81">
         <f t="shared" si="12"/>
         <v>30.3383</v>
       </c>
-      <c r="AF8" s="82">
+      <c r="AF8" s="81">
         <v>30</v>
       </c>
-      <c r="AG8" s="82">
+      <c r="AG8" s="81">
         <f t="shared" si="13"/>
         <v>2.275</v>
       </c>
-      <c r="AH8" s="82">
+      <c r="AH8" s="81">
         <f t="shared" si="14"/>
         <v>8.25</v>
       </c>
-      <c r="AI8" s="82">
+      <c r="AI8" s="81">
         <f t="shared" si="15"/>
         <v>5.2625</v>
       </c>
@@ -3180,13 +3168,13 @@
       </c>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11"/>
+      <c r="B9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13"/>
       <c r="D9" s="52"/>
       <c r="E9" s="53"/>
       <c r="F9" s="54"/>
@@ -3197,7 +3185,7 @@
         <v>55</v>
       </c>
       <c r="K9" s="58"/>
-      <c r="L9" s="71"/>
+      <c r="L9" s="70"/>
       <c r="M9" s="52"/>
       <c r="N9" s="53"/>
       <c r="O9" s="54"/>
@@ -3208,19 +3196,19 @@
       <c r="T9" s="53"/>
       <c r="U9" s="54"/>
       <c r="V9" s="52"/>
-      <c r="W9" s="78"/>
+      <c r="W9" s="77"/>
       <c r="X9" s="54"/>
       <c r="Y9" s="53"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="82"/>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="82"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="81"/>
+      <c r="AG9" s="81"/>
+      <c r="AH9" s="81"/>
+      <c r="AI9" s="81"/>
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="26"/>
@@ -3254,7 +3242,7 @@
       <c r="K10" s="60">
         <v>0.5</v>
       </c>
-      <c r="L10" s="72">
+      <c r="L10" s="71">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
@@ -3301,43 +3289,43 @@
       <c r="Y10" s="29">
         <v>1</v>
       </c>
-      <c r="Z10" s="81">
+      <c r="Z10" s="80">
         <f t="shared" si="7"/>
         <v>15.6785714285714</v>
       </c>
-      <c r="AA10" s="81">
+      <c r="AA10" s="80">
         <f t="shared" si="8"/>
         <v>28.485</v>
       </c>
-      <c r="AB10" s="82">
+      <c r="AB10" s="81">
         <f t="shared" si="9"/>
         <v>1.81681093394077</v>
       </c>
-      <c r="AC10" s="82">
+      <c r="AC10" s="81">
         <f t="shared" si="10"/>
         <v>2.68085106382979</v>
       </c>
-      <c r="AD10" s="82">
+      <c r="AD10" s="81">
         <f t="shared" si="11"/>
         <v>18.8516923076923</v>
       </c>
-      <c r="AE10" s="82">
+      <c r="AE10" s="81">
         <f t="shared" si="12"/>
         <v>10.766271685761</v>
       </c>
-      <c r="AF10" s="82">
+      <c r="AF10" s="81">
         <f>AF4</f>
         <v>10</v>
       </c>
-      <c r="AG10" s="82">
+      <c r="AG10" s="81">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AH10" s="82">
+      <c r="AH10" s="81">
         <f t="shared" si="14"/>
         <v>13.6</v>
       </c>
-      <c r="AI10" s="82">
+      <c r="AI10" s="81">
         <f t="shared" si="15"/>
         <v>8.3</v>
       </c>
@@ -3378,7 +3366,7 @@
       <c r="K11" s="62">
         <v>0.5</v>
       </c>
-      <c r="L11" s="73">
+      <c r="L11" s="72">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
@@ -3425,43 +3413,43 @@
       <c r="Y11" s="34">
         <v>1</v>
       </c>
-      <c r="Z11" s="81">
+      <c r="Z11" s="80">
         <f t="shared" si="7"/>
         <v>17.3571428571429</v>
       </c>
-      <c r="AA11" s="81">
+      <c r="AA11" s="80">
         <f t="shared" si="8"/>
         <v>34.94953125</v>
       </c>
-      <c r="AB11" s="82">
+      <c r="AB11" s="81">
         <f t="shared" si="9"/>
         <v>2.01355324074074</v>
       </c>
-      <c r="AC11" s="82">
+      <c r="AC11" s="81">
         <f t="shared" si="10"/>
         <v>3.01973684210526</v>
       </c>
-      <c r="AD11" s="82">
+      <c r="AD11" s="81">
         <f t="shared" si="11"/>
         <v>27.1637704918033</v>
       </c>
-      <c r="AE11" s="82">
+      <c r="AE11" s="81">
         <f t="shared" si="12"/>
         <v>15.0917536669543</v>
       </c>
-      <c r="AF11" s="82">
+      <c r="AF11" s="81">
         <f t="shared" ref="AF11:AF20" si="17">AF5</f>
         <v>15</v>
       </c>
-      <c r="AG11" s="82">
+      <c r="AG11" s="81">
         <f t="shared" si="13"/>
         <v>3.375</v>
       </c>
-      <c r="AH11" s="82">
+      <c r="AH11" s="81">
         <f t="shared" si="14"/>
         <v>16.15</v>
       </c>
-      <c r="AI11" s="82">
+      <c r="AI11" s="81">
         <f t="shared" si="15"/>
         <v>9.7625</v>
       </c>
@@ -3502,7 +3490,7 @@
       <c r="K12" s="64">
         <v>0.5</v>
       </c>
-      <c r="L12" s="74">
+      <c r="L12" s="73">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
@@ -3549,43 +3537,43 @@
       <c r="Y12" s="39">
         <v>1</v>
       </c>
-      <c r="Z12" s="81">
+      <c r="Z12" s="80">
         <f t="shared" si="7"/>
         <v>20.4642857142857</v>
       </c>
-      <c r="AA12" s="81">
+      <c r="AA12" s="80">
         <f t="shared" si="8"/>
         <v>50.840625</v>
       </c>
-      <c r="AB12" s="82">
+      <c r="AB12" s="81">
         <f t="shared" si="9"/>
         <v>2.48435863874345</v>
       </c>
-      <c r="AC12" s="82">
+      <c r="AC12" s="81">
         <f t="shared" si="10"/>
         <v>6.8114224137931</v>
       </c>
-      <c r="AD12" s="82">
+      <c r="AD12" s="81">
         <f t="shared" si="11"/>
         <v>33.9428571428571</v>
       </c>
-      <c r="AE12" s="82">
+      <c r="AE12" s="81">
         <f t="shared" si="12"/>
         <v>20.3771397783251</v>
       </c>
-      <c r="AF12" s="82">
+      <c r="AF12" s="81">
         <f t="shared" si="17"/>
         <v>20</v>
       </c>
-      <c r="AG12" s="82">
+      <c r="AG12" s="81">
         <f t="shared" si="13"/>
         <v>5.25</v>
       </c>
-      <c r="AH12" s="82">
+      <c r="AH12" s="81">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="AI12" s="82">
+      <c r="AI12" s="81">
         <f t="shared" si="15"/>
         <v>11.625</v>
       </c>
@@ -3626,7 +3614,7 @@
       <c r="K13" s="66">
         <v>0.5</v>
       </c>
-      <c r="L13" s="75">
+      <c r="L13" s="74">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
@@ -3673,43 +3661,43 @@
       <c r="Y13" s="44">
         <v>1</v>
       </c>
-      <c r="Z13" s="81">
+      <c r="Z13" s="80">
         <f t="shared" si="7"/>
         <v>22.1428571428571</v>
       </c>
-      <c r="AA13" s="81">
+      <c r="AA13" s="80">
         <f t="shared" si="8"/>
         <v>59.6025</v>
       </c>
-      <c r="AB13" s="82">
+      <c r="AB13" s="81">
         <f t="shared" si="9"/>
         <v>2.69172580645161</v>
       </c>
-      <c r="AC13" s="82">
+      <c r="AC13" s="81">
         <f t="shared" si="10"/>
         <v>7.51490384615385</v>
       </c>
-      <c r="AD13" s="82">
+      <c r="AD13" s="81">
         <f t="shared" si="11"/>
         <v>45.6307848101266</v>
       </c>
-      <c r="AE13" s="82">
+      <c r="AE13" s="81">
         <f t="shared" si="12"/>
         <v>26.5728443281402</v>
       </c>
-      <c r="AF13" s="82">
+      <c r="AF13" s="81">
         <f t="shared" si="17"/>
         <v>25</v>
       </c>
-      <c r="AG13" s="82">
+      <c r="AG13" s="81">
         <f t="shared" si="13"/>
         <v>5.775</v>
       </c>
-      <c r="AH13" s="82">
+      <c r="AH13" s="81">
         <f t="shared" si="14"/>
         <v>20.9</v>
       </c>
-      <c r="AI13" s="82">
+      <c r="AI13" s="81">
         <f t="shared" si="15"/>
         <v>13.3375</v>
       </c>
@@ -3750,7 +3738,7 @@
       <c r="K14" s="68">
         <v>0.5</v>
       </c>
-      <c r="L14" s="76">
+      <c r="L14" s="75">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
@@ -3797,43 +3785,43 @@
       <c r="Y14" s="49">
         <v>1</v>
       </c>
-      <c r="Z14" s="81">
+      <c r="Z14" s="80">
         <f t="shared" si="7"/>
         <v>25.25</v>
       </c>
-      <c r="AA14" s="81">
+      <c r="AA14" s="80">
         <f t="shared" si="8"/>
         <v>72.52</v>
       </c>
-      <c r="AB14" s="82">
+      <c r="AB14" s="81">
         <f t="shared" si="9"/>
         <v>2.87207920792079</v>
       </c>
-      <c r="AC14" s="82">
+      <c r="AC14" s="81">
         <f t="shared" si="10"/>
         <v>9.68478260869565</v>
       </c>
-      <c r="AD14" s="82">
+      <c r="AD14" s="81">
         <f t="shared" si="11"/>
         <v>50.16</v>
       </c>
-      <c r="AE14" s="82">
+      <c r="AE14" s="81">
         <f t="shared" si="12"/>
         <v>29.9223913043478</v>
       </c>
-      <c r="AF14" s="82">
+      <c r="AF14" s="81">
         <f t="shared" si="17"/>
         <v>30</v>
       </c>
-      <c r="AG14" s="82">
+      <c r="AG14" s="81">
         <f t="shared" si="13"/>
         <v>6.75</v>
       </c>
-      <c r="AH14" s="82">
+      <c r="AH14" s="81">
         <f t="shared" si="14"/>
         <v>22</v>
       </c>
-      <c r="AI14" s="82">
+      <c r="AI14" s="81">
         <f t="shared" si="15"/>
         <v>14.375</v>
       </c>
@@ -3843,13 +3831,13 @@
       </c>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11"/>
+      <c r="B15" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13"/>
       <c r="D15" s="52"/>
       <c r="E15" s="53"/>
       <c r="F15" s="54"/>
@@ -3872,18 +3860,18 @@
         <v>55</v>
       </c>
       <c r="W15" s="58"/>
-      <c r="X15" s="71"/>
+      <c r="X15" s="70"/>
       <c r="Y15" s="53"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="82"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="82"/>
-      <c r="AI15" s="82"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="81"/>
+      <c r="AH15" s="81"/>
+      <c r="AI15" s="81"/>
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="26"/>
@@ -3957,50 +3945,50 @@
       <c r="W16" s="60">
         <v>2.5</v>
       </c>
-      <c r="X16" s="72">
+      <c r="X16" s="71">
         <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
       <c r="Y16" s="29">
         <v>10</v>
       </c>
-      <c r="Z16" s="81">
+      <c r="Z16" s="80">
         <f t="shared" si="7"/>
         <v>8.08333333333333</v>
       </c>
-      <c r="AA16" s="81">
+      <c r="AA16" s="80">
         <f t="shared" si="8"/>
         <v>9.2025</v>
       </c>
-      <c r="AB16" s="82">
+      <c r="AB16" s="81">
         <f t="shared" si="9"/>
         <v>11.3845360824742</v>
       </c>
-      <c r="AC16" s="82">
+      <c r="AC16" s="81">
         <f t="shared" si="10"/>
         <v>1.9125</v>
       </c>
-      <c r="AD16" s="82">
+      <c r="AD16" s="81">
         <f t="shared" si="11"/>
         <v>20.3921052631579</v>
       </c>
-      <c r="AE16" s="82">
+      <c r="AE16" s="81">
         <f t="shared" si="12"/>
         <v>11.1523026315789</v>
       </c>
-      <c r="AF16" s="82">
+      <c r="AF16" s="81">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="AG16" s="82">
+      <c r="AG16" s="81">
         <f t="shared" si="13"/>
         <v>0.375</v>
       </c>
-      <c r="AH16" s="82">
+      <c r="AH16" s="81">
         <f t="shared" si="14"/>
         <v>2.1</v>
       </c>
-      <c r="AI16" s="82">
+      <c r="AI16" s="81">
         <f t="shared" si="15"/>
         <v>1.2375</v>
       </c>
@@ -4081,50 +4069,50 @@
       <c r="W17" s="62">
         <v>2.5</v>
       </c>
-      <c r="X17" s="73">
+      <c r="X17" s="72">
         <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
       <c r="Y17" s="34">
         <v>11</v>
       </c>
-      <c r="Z17" s="81">
+      <c r="Z17" s="80">
         <f t="shared" si="7"/>
         <v>8.33928571428572</v>
       </c>
-      <c r="AA17" s="81">
+      <c r="AA17" s="80">
         <f t="shared" si="8"/>
         <v>11.503125</v>
       </c>
-      <c r="AB17" s="82">
+      <c r="AB17" s="81">
         <f t="shared" si="9"/>
         <v>15.1732869379015</v>
       </c>
-      <c r="AC17" s="82">
+      <c r="AC17" s="81">
         <f t="shared" si="10"/>
         <v>3.0628125</v>
       </c>
-      <c r="AD17" s="82">
+      <c r="AD17" s="81">
         <f t="shared" si="11"/>
         <v>26.2466129032258</v>
       </c>
-      <c r="AE17" s="82">
+      <c r="AE17" s="81">
         <f t="shared" si="12"/>
         <v>14.6547127016129</v>
       </c>
-      <c r="AF17" s="82">
+      <c r="AF17" s="81">
         <f t="shared" si="17"/>
         <v>15</v>
       </c>
-      <c r="AG17" s="82">
+      <c r="AG17" s="81">
         <f t="shared" si="13"/>
         <v>0.4125</v>
       </c>
-      <c r="AH17" s="82">
+      <c r="AH17" s="81">
         <f t="shared" si="14"/>
         <v>2.1</v>
       </c>
-      <c r="AI17" s="82">
+      <c r="AI17" s="81">
         <f t="shared" si="15"/>
         <v>1.25625</v>
       </c>
@@ -4205,50 +4193,50 @@
       <c r="W18" s="64">
         <v>2.5</v>
       </c>
-      <c r="X18" s="74">
+      <c r="X18" s="73">
         <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
       <c r="Y18" s="39">
         <v>12</v>
       </c>
-      <c r="Z18" s="81">
+      <c r="Z18" s="80">
         <f t="shared" si="7"/>
         <v>8.5</v>
       </c>
-      <c r="AA18" s="81">
+      <c r="AA18" s="80">
         <f t="shared" si="8"/>
         <v>13.80375</v>
       </c>
-      <c r="AB18" s="82">
+      <c r="AB18" s="81">
         <f t="shared" si="9"/>
         <v>19.4876470588235</v>
       </c>
-      <c r="AC18" s="82">
+      <c r="AC18" s="81">
         <f t="shared" si="10"/>
         <v>4.131</v>
       </c>
-      <c r="AD18" s="82">
+      <c r="AD18" s="81">
         <f t="shared" si="11"/>
         <v>35.3297872340425</v>
       </c>
-      <c r="AE18" s="82">
+      <c r="AE18" s="81">
         <f t="shared" si="12"/>
         <v>19.7303936170213</v>
       </c>
-      <c r="AF18" s="82">
+      <c r="AF18" s="81">
         <f t="shared" si="17"/>
         <v>20</v>
       </c>
-      <c r="AG18" s="82">
+      <c r="AG18" s="81">
         <f t="shared" si="13"/>
         <v>0.4125</v>
       </c>
-      <c r="AH18" s="82">
+      <c r="AH18" s="81">
         <f t="shared" si="14"/>
         <v>2.25</v>
       </c>
-      <c r="AI18" s="82">
+      <c r="AI18" s="81">
         <f t="shared" si="15"/>
         <v>1.33125</v>
       </c>
@@ -4329,50 +4317,50 @@
       <c r="W19" s="66">
         <v>2.5</v>
       </c>
-      <c r="X19" s="75">
+      <c r="X19" s="74">
         <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
       <c r="Y19" s="44">
         <v>14</v>
       </c>
-      <c r="Z19" s="81">
+      <c r="Z19" s="80">
         <f t="shared" si="7"/>
         <v>8.56969026548673</v>
       </c>
-      <c r="AA19" s="81">
+      <c r="AA19" s="80">
         <f t="shared" si="8"/>
         <v>16.104375</v>
       </c>
-      <c r="AB19" s="82">
+      <c r="AB19" s="81">
         <f t="shared" si="9"/>
         <v>26.3091480573125</v>
       </c>
-      <c r="AC19" s="82">
+      <c r="AC19" s="81">
         <f t="shared" si="10"/>
         <v>6.2475</v>
       </c>
-      <c r="AD19" s="82">
+      <c r="AD19" s="81">
         <f t="shared" si="11"/>
         <v>47.1314945837806</v>
       </c>
-      <c r="AE19" s="82">
+      <c r="AE19" s="81">
         <f t="shared" si="12"/>
         <v>26.6894972918903</v>
       </c>
-      <c r="AF19" s="82">
+      <c r="AF19" s="81">
         <f t="shared" si="17"/>
         <v>25</v>
       </c>
-      <c r="AG19" s="82">
+      <c r="AG19" s="81">
         <f t="shared" si="13"/>
         <v>0.45</v>
       </c>
-      <c r="AH19" s="82">
+      <c r="AH19" s="81">
         <f t="shared" si="14"/>
         <v>2.25</v>
       </c>
-      <c r="AI19" s="82">
+      <c r="AI19" s="81">
         <f t="shared" si="15"/>
         <v>1.35</v>
       </c>
@@ -4453,50 +4441,50 @@
       <c r="W20" s="68">
         <v>2.5</v>
       </c>
-      <c r="X20" s="76">
+      <c r="X20" s="75">
         <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
       <c r="Y20" s="49">
         <v>15</v>
       </c>
-      <c r="Z20" s="81">
+      <c r="Z20" s="80">
         <f t="shared" si="7"/>
         <v>8.65</v>
       </c>
-      <c r="AA20" s="81">
+      <c r="AA20" s="80">
         <f t="shared" si="8"/>
         <v>18.405</v>
       </c>
-      <c r="AB20" s="82">
+      <c r="AB20" s="81">
         <f t="shared" si="9"/>
         <v>31.9161849710983</v>
       </c>
-      <c r="AC20" s="82">
+      <c r="AC20" s="81">
         <f t="shared" si="10"/>
         <v>9.0365625</v>
       </c>
-      <c r="AD20" s="82">
+      <c r="AD20" s="81">
         <f t="shared" si="11"/>
         <v>60.3818181818182</v>
       </c>
-      <c r="AE20" s="82">
+      <c r="AE20" s="81">
         <f t="shared" si="12"/>
         <v>34.7091903409091</v>
       </c>
-      <c r="AF20" s="82">
+      <c r="AF20" s="81">
         <f t="shared" si="17"/>
         <v>30</v>
       </c>
-      <c r="AG20" s="82">
+      <c r="AG20" s="81">
         <f t="shared" si="13"/>
         <v>0.525</v>
       </c>
-      <c r="AH20" s="82">
+      <c r="AH20" s="81">
         <f t="shared" si="14"/>
         <v>2.4</v>
       </c>
-      <c r="AI20" s="82">
+      <c r="AI20" s="81">
         <f t="shared" si="15"/>
         <v>1.4625</v>
       </c>
@@ -4506,13 +4494,13 @@
       </c>
     </row>
     <row r="21" spans="1:35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="11"/>
+      <c r="B21" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13"/>
       <c r="D21" s="55"/>
       <c r="E21" s="56"/>
       <c r="F21" s="57"/>
@@ -4520,7 +4508,7 @@
         <v>55</v>
       </c>
       <c r="H21" s="58"/>
-      <c r="I21" s="71"/>
+      <c r="I21" s="70"/>
       <c r="J21" s="52"/>
       <c r="K21" s="53"/>
       <c r="L21" s="54"/>
@@ -4534,19 +4522,19 @@
       <c r="T21" s="53"/>
       <c r="U21" s="54"/>
       <c r="V21" s="52"/>
-      <c r="W21" s="78"/>
+      <c r="W21" s="77"/>
       <c r="X21" s="54"/>
       <c r="Y21" s="53"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="82"/>
-      <c r="AC21" s="82"/>
-      <c r="AD21" s="82"/>
-      <c r="AE21" s="82"/>
-      <c r="AF21" s="82"/>
-      <c r="AG21" s="82"/>
-      <c r="AH21" s="82"/>
-      <c r="AI21" s="82"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="81"/>
+      <c r="AD21" s="81"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="81"/>
+      <c r="AH21" s="81"/>
+      <c r="AI21" s="81"/>
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="26"/>
@@ -4570,7 +4558,7 @@
       <c r="H22" s="60">
         <v>60</v>
       </c>
-      <c r="I22" s="72">
+      <c r="I22" s="71">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -4627,43 +4615,43 @@
       <c r="Y22" s="29">
         <v>1</v>
       </c>
-      <c r="Z22" s="81">
+      <c r="Z22" s="80">
         <f t="shared" si="7"/>
         <v>5.22727272727273</v>
       </c>
-      <c r="AA22" s="81">
+      <c r="AA22" s="80">
         <f t="shared" si="8"/>
         <v>38.15625</v>
       </c>
-      <c r="AB22" s="82">
+      <c r="AB22" s="81">
         <f t="shared" si="9"/>
         <v>7.29945652173913</v>
       </c>
-      <c r="AC22" s="82">
+      <c r="AC22" s="81">
         <f t="shared" si="10"/>
         <v>2.525</v>
       </c>
-      <c r="AD22" s="82">
+      <c r="AD22" s="81">
         <f t="shared" si="11"/>
         <v>25.725</v>
       </c>
-      <c r="AE22" s="82">
+      <c r="AE22" s="81">
         <f t="shared" si="12"/>
         <v>14.125</v>
       </c>
-      <c r="AF22" s="82">
+      <c r="AF22" s="81">
         <f t="shared" ref="AF22:AF26" si="18">AF16</f>
         <v>10</v>
       </c>
-      <c r="AG22" s="82">
+      <c r="AG22" s="81">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="AH22" s="82">
+      <c r="AH22" s="81">
         <f t="shared" si="14"/>
         <v>4.2</v>
       </c>
-      <c r="AI22" s="82">
+      <c r="AI22" s="81">
         <f t="shared" si="15"/>
         <v>2.475</v>
       </c>
@@ -4694,7 +4682,7 @@
       <c r="H23" s="62">
         <v>60</v>
       </c>
-      <c r="I23" s="73">
+      <c r="I23" s="72">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -4751,43 +4739,43 @@
       <c r="Y23" s="34">
         <v>1</v>
       </c>
-      <c r="Z23" s="81">
+      <c r="Z23" s="80">
         <f t="shared" si="7"/>
         <v>5.32692307692308</v>
       </c>
-      <c r="AA23" s="81">
+      <c r="AA23" s="80">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
-      <c r="AB23" s="82">
+      <c r="AB23" s="81">
         <f t="shared" si="9"/>
         <v>9.57400722021661</v>
       </c>
-      <c r="AC23" s="82">
+      <c r="AC23" s="81">
         <f t="shared" si="10"/>
         <v>3.59703947368421</v>
       </c>
-      <c r="AD23" s="82">
+      <c r="AD23" s="81">
         <f t="shared" si="11"/>
         <v>32.1367021276596</v>
       </c>
-      <c r="AE23" s="82">
+      <c r="AE23" s="81">
         <f t="shared" si="12"/>
         <v>17.8668708006719</v>
       </c>
-      <c r="AF23" s="82">
+      <c r="AF23" s="81">
         <f t="shared" si="18"/>
         <v>15</v>
       </c>
-      <c r="AG23" s="82">
+      <c r="AG23" s="81">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="AH23" s="82">
+      <c r="AH23" s="81">
         <f t="shared" si="14"/>
         <v>4.2</v>
       </c>
-      <c r="AI23" s="82">
+      <c r="AI23" s="81">
         <f t="shared" si="15"/>
         <v>2.475</v>
       </c>
@@ -4818,7 +4806,7 @@
       <c r="H24" s="64">
         <v>60</v>
       </c>
-      <c r="I24" s="74">
+      <c r="I24" s="73">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -4875,43 +4863,43 @@
       <c r="Y24" s="39">
         <v>1</v>
       </c>
-      <c r="Z24" s="81">
+      <c r="Z24" s="80">
         <f t="shared" si="7"/>
         <v>5.33333333333333</v>
       </c>
-      <c r="AA24" s="81">
+      <c r="AA24" s="80">
         <f t="shared" si="8"/>
         <v>63.90625</v>
       </c>
-      <c r="AB24" s="82">
+      <c r="AB24" s="81">
         <f t="shared" si="9"/>
         <v>11.982421875</v>
       </c>
-      <c r="AC24" s="82">
+      <c r="AC24" s="81">
         <f t="shared" si="10"/>
         <v>4.725</v>
       </c>
-      <c r="AD24" s="82">
+      <c r="AD24" s="81">
         <f t="shared" si="11"/>
         <v>38.934</v>
       </c>
-      <c r="AE24" s="82">
+      <c r="AE24" s="81">
         <f t="shared" si="12"/>
         <v>21.8295</v>
       </c>
-      <c r="AF24" s="82">
+      <c r="AF24" s="81">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="AG24" s="82">
+      <c r="AG24" s="81">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="AH24" s="82">
+      <c r="AH24" s="81">
         <f t="shared" si="14"/>
         <v>4.2</v>
       </c>
-      <c r="AI24" s="82">
+      <c r="AI24" s="81">
         <f t="shared" si="15"/>
         <v>2.475</v>
       </c>
@@ -4942,7 +4930,7 @@
       <c r="H25" s="66">
         <v>60</v>
       </c>
-      <c r="I25" s="75">
+      <c r="I25" s="74">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -4999,43 +4987,43 @@
       <c r="Y25" s="44">
         <v>1</v>
       </c>
-      <c r="Z25" s="81">
+      <c r="Z25" s="80">
         <f t="shared" si="7"/>
         <v>5.27941176470588</v>
       </c>
-      <c r="AA25" s="81">
+      <c r="AA25" s="80">
         <f t="shared" si="8"/>
         <v>76.875</v>
       </c>
-      <c r="AB25" s="82">
+      <c r="AB25" s="81">
         <f t="shared" si="9"/>
         <v>14.5612813370474</v>
       </c>
-      <c r="AC25" s="82">
+      <c r="AC25" s="81">
         <f t="shared" si="10"/>
         <v>5.93541666666667</v>
       </c>
-      <c r="AD25" s="82">
+      <c r="AD25" s="81">
         <f t="shared" si="11"/>
         <v>46.193152173913</v>
       </c>
-      <c r="AE25" s="82">
+      <c r="AE25" s="81">
         <f t="shared" si="12"/>
         <v>26.0642844202899</v>
       </c>
-      <c r="AF25" s="82">
+      <c r="AF25" s="81">
         <f t="shared" si="18"/>
         <v>25</v>
       </c>
-      <c r="AG25" s="82">
+      <c r="AG25" s="81">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="AH25" s="82">
+      <c r="AH25" s="81">
         <f t="shared" si="14"/>
         <v>4.2</v>
       </c>
-      <c r="AI25" s="82">
+      <c r="AI25" s="81">
         <f t="shared" si="15"/>
         <v>2.475</v>
       </c>
@@ -5066,7 +5054,7 @@
       <c r="H26" s="68">
         <v>60</v>
       </c>
-      <c r="I26" s="76">
+      <c r="I26" s="75">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -5123,43 +5111,43 @@
       <c r="Y26" s="49">
         <v>1</v>
       </c>
-      <c r="Z26" s="81">
+      <c r="Z26" s="80">
         <f t="shared" si="7"/>
         <v>5.18421052631579</v>
       </c>
-      <c r="AA26" s="81">
+      <c r="AA26" s="80">
         <f t="shared" si="8"/>
         <v>89.90625</v>
       </c>
-      <c r="AB26" s="82">
+      <c r="AB26" s="81">
         <f t="shared" si="9"/>
         <v>17.3423223350254</v>
       </c>
-      <c r="AC26" s="82">
+      <c r="AC26" s="81">
         <f t="shared" si="10"/>
         <v>7.24736842105263</v>
       </c>
-      <c r="AD26" s="82">
+      <c r="AD26" s="81">
         <f t="shared" si="11"/>
         <v>53.986935483871</v>
       </c>
-      <c r="AE26" s="82">
+      <c r="AE26" s="81">
         <f t="shared" si="12"/>
         <v>30.6171519524618</v>
       </c>
-      <c r="AF26" s="82">
+      <c r="AF26" s="81">
         <f t="shared" si="18"/>
         <v>30</v>
       </c>
-      <c r="AG26" s="82">
+      <c r="AG26" s="81">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="AH26" s="82">
+      <c r="AH26" s="81">
         <f t="shared" si="14"/>
         <v>4.2</v>
       </c>
-      <c r="AI26" s="82">
+      <c r="AI26" s="81">
         <f t="shared" si="15"/>
         <v>2.475</v>
       </c>
@@ -5169,13 +5157,13 @@
       </c>
     </row>
     <row r="27" spans="1:35">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" s="11"/>
+      <c r="B27" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13"/>
       <c r="D27" s="52"/>
       <c r="E27" s="53"/>
       <c r="F27" s="54"/>
@@ -5189,7 +5177,7 @@
         <v>55</v>
       </c>
       <c r="N27" s="58"/>
-      <c r="O27" s="71"/>
+      <c r="O27" s="70"/>
       <c r="P27" s="52"/>
       <c r="Q27" s="53"/>
       <c r="R27" s="54"/>
@@ -5197,19 +5185,19 @@
       <c r="T27" s="53"/>
       <c r="U27" s="54"/>
       <c r="V27" s="52"/>
-      <c r="W27" s="78"/>
+      <c r="W27" s="77"/>
       <c r="X27" s="54"/>
       <c r="Y27" s="53"/>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="82"/>
-      <c r="AC27" s="82"/>
-      <c r="AD27" s="82"/>
-      <c r="AE27" s="82"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="81"/>
+      <c r="AG27" s="81"/>
+      <c r="AH27" s="81"/>
+      <c r="AI27" s="81"/>
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="26"/>
@@ -5253,7 +5241,7 @@
       <c r="N28" s="60">
         <v>50</v>
       </c>
-      <c r="O28" s="72">
+      <c r="O28" s="71">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -5290,43 +5278,43 @@
       <c r="Y28" s="29">
         <v>1</v>
       </c>
-      <c r="Z28" s="81">
+      <c r="Z28" s="80">
         <f t="shared" si="7"/>
         <v>26.3636363636364</v>
       </c>
-      <c r="AA28" s="81">
+      <c r="AA28" s="80">
         <f t="shared" si="8"/>
         <v>150.6375</v>
       </c>
-      <c r="AB28" s="82">
+      <c r="AB28" s="81">
         <f t="shared" si="9"/>
         <v>5.71383620689655</v>
       </c>
-      <c r="AC28" s="82">
+      <c r="AC28" s="81">
         <f t="shared" si="10"/>
         <v>1.31142857142857</v>
       </c>
-      <c r="AD28" s="82">
+      <c r="AD28" s="81">
         <f t="shared" si="11"/>
         <v>18.72</v>
       </c>
-      <c r="AE28" s="82">
+      <c r="AE28" s="81">
         <f t="shared" si="12"/>
         <v>10.0157142857143</v>
       </c>
-      <c r="AF28" s="82">
+      <c r="AF28" s="81">
         <f t="shared" ref="AF28:AF32" si="19">AF22</f>
         <v>10</v>
       </c>
-      <c r="AG28" s="82">
+      <c r="AG28" s="81">
         <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
-      <c r="AH28" s="82">
+      <c r="AH28" s="81">
         <f t="shared" si="14"/>
         <v>3.6</v>
       </c>
-      <c r="AI28" s="82">
+      <c r="AI28" s="81">
         <f t="shared" si="15"/>
         <v>2.1</v>
       </c>
@@ -5377,7 +5365,7 @@
       <c r="N29" s="62">
         <v>50</v>
       </c>
-      <c r="O29" s="73">
+      <c r="O29" s="72">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -5414,43 +5402,43 @@
       <c r="Y29" s="34">
         <v>1</v>
       </c>
-      <c r="Z29" s="81">
+      <c r="Z29" s="80">
         <f t="shared" si="7"/>
         <v>31.1611111111111</v>
       </c>
-      <c r="AA29" s="81">
+      <c r="AA29" s="80">
         <f t="shared" si="8"/>
         <v>203.84</v>
       </c>
-      <c r="AB29" s="82">
+      <c r="AB29" s="81">
         <f t="shared" si="9"/>
         <v>6.5414868960599</v>
       </c>
-      <c r="AC29" s="82">
+      <c r="AC29" s="81">
         <f t="shared" si="10"/>
         <v>1.70627798277983</v>
       </c>
-      <c r="AD29" s="82">
+      <c r="AD29" s="81">
         <f t="shared" si="11"/>
         <v>27.0515267175573</v>
       </c>
-      <c r="AE29" s="82">
+      <c r="AE29" s="81">
         <f t="shared" si="12"/>
         <v>14.3789023501685</v>
       </c>
-      <c r="AF29" s="82">
+      <c r="AF29" s="81">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="AG29" s="82">
+      <c r="AG29" s="81">
         <f t="shared" si="13"/>
         <v>0.7</v>
       </c>
-      <c r="AH29" s="82">
+      <c r="AH29" s="81">
         <f t="shared" si="14"/>
         <v>4.5</v>
       </c>
-      <c r="AI29" s="82">
+      <c r="AI29" s="81">
         <f t="shared" si="15"/>
         <v>2.6</v>
       </c>
@@ -5501,7 +5489,7 @@
       <c r="N30" s="64">
         <v>50</v>
       </c>
-      <c r="O30" s="74">
+      <c r="O30" s="73">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -5538,43 +5526,43 @@
       <c r="Y30" s="39">
         <v>1</v>
       </c>
-      <c r="Z30" s="81">
+      <c r="Z30" s="80">
         <f t="shared" si="7"/>
         <v>35.9782608695652</v>
       </c>
-      <c r="AA30" s="81">
+      <c r="AA30" s="80">
         <f t="shared" si="8"/>
         <v>265.78125</v>
       </c>
-      <c r="AB30" s="82">
+      <c r="AB30" s="81">
         <f t="shared" si="9"/>
         <v>7.38727341389728</v>
       </c>
-      <c r="AC30" s="82">
+      <c r="AC30" s="81">
         <f t="shared" si="10"/>
         <v>2.15703703703704</v>
       </c>
-      <c r="AD30" s="82">
+      <c r="AD30" s="81">
         <f t="shared" si="11"/>
         <v>37.4785714285714</v>
       </c>
-      <c r="AE30" s="82">
+      <c r="AE30" s="81">
         <f t="shared" si="12"/>
         <v>19.8178042328042</v>
       </c>
-      <c r="AF30" s="82">
+      <c r="AF30" s="81">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="AG30" s="82">
+      <c r="AG30" s="81">
         <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
-      <c r="AH30" s="82">
+      <c r="AH30" s="81">
         <f t="shared" si="14"/>
         <v>5.5</v>
       </c>
-      <c r="AI30" s="82">
+      <c r="AI30" s="81">
         <f t="shared" si="15"/>
         <v>3.15</v>
       </c>
@@ -5625,7 +5613,7 @@
       <c r="N31" s="66">
         <v>50</v>
       </c>
-      <c r="O31" s="75">
+      <c r="O31" s="74">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -5662,43 +5650,43 @@
       <c r="Y31" s="44">
         <v>1</v>
       </c>
-      <c r="Z31" s="81">
+      <c r="Z31" s="80">
         <f t="shared" si="7"/>
         <v>40.4734042553192</v>
       </c>
-      <c r="AA31" s="81">
+      <c r="AA31" s="80">
         <f t="shared" si="8"/>
         <v>332.84</v>
       </c>
-      <c r="AB31" s="82">
+      <c r="AB31" s="81">
         <f t="shared" si="9"/>
         <v>8.22367196740702</v>
       </c>
-      <c r="AC31" s="82">
+      <c r="AC31" s="81">
         <f t="shared" si="10"/>
         <v>2.6395702775291</v>
       </c>
-      <c r="AD31" s="82">
+      <c r="AD31" s="81">
         <f t="shared" si="11"/>
         <v>50.2718644067797</v>
       </c>
-      <c r="AE31" s="82">
+      <c r="AE31" s="81">
         <f t="shared" si="12"/>
         <v>26.4557173421544</v>
       </c>
-      <c r="AF31" s="82">
+      <c r="AF31" s="81">
         <f t="shared" si="19"/>
         <v>25</v>
       </c>
-      <c r="AG31" s="82">
+      <c r="AG31" s="81">
         <f t="shared" si="13"/>
         <v>0.9</v>
       </c>
-      <c r="AH31" s="82">
+      <c r="AH31" s="81">
         <f t="shared" si="14"/>
         <v>6.6</v>
       </c>
-      <c r="AI31" s="82">
+      <c r="AI31" s="81">
         <f t="shared" si="15"/>
         <v>3.75</v>
       </c>
@@ -5749,7 +5737,7 @@
       <c r="N32" s="68">
         <v>50</v>
       </c>
-      <c r="O32" s="76">
+      <c r="O32" s="75">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -5786,43 +5774,43 @@
       <c r="Y32" s="49">
         <v>1</v>
       </c>
-      <c r="Z32" s="81">
+      <c r="Z32" s="80">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="AA32" s="81">
+      <c r="AA32" s="80">
         <f t="shared" si="8"/>
         <v>409.275</v>
       </c>
-      <c r="AB32" s="82">
+      <c r="AB32" s="81">
         <f t="shared" si="9"/>
         <v>9.095</v>
       </c>
-      <c r="AC32" s="82">
+      <c r="AC32" s="81">
         <f t="shared" si="10"/>
         <v>5.465625</v>
       </c>
-      <c r="AD32" s="82">
+      <c r="AD32" s="81">
         <f t="shared" si="11"/>
         <v>55.9872</v>
       </c>
-      <c r="AE32" s="82">
+      <c r="AE32" s="81">
         <f t="shared" si="12"/>
         <v>30.7264125</v>
       </c>
-      <c r="AF32" s="82">
+      <c r="AF32" s="81">
         <f t="shared" si="19"/>
         <v>30</v>
       </c>
-      <c r="AG32" s="82">
+      <c r="AG32" s="81">
         <f t="shared" si="13"/>
         <v>1.375</v>
       </c>
-      <c r="AH32" s="82">
+      <c r="AH32" s="81">
         <f t="shared" si="14"/>
         <v>7.2</v>
       </c>
-      <c r="AI32" s="82">
+      <c r="AI32" s="81">
         <f t="shared" si="15"/>
         <v>4.2875</v>
       </c>
@@ -5832,13 +5820,13 @@
       </c>
     </row>
     <row r="33" spans="1:35">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C33" s="11"/>
+      <c r="B33" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13"/>
       <c r="D33" s="52"/>
       <c r="E33" s="53"/>
       <c r="F33" s="54"/>
@@ -5858,19 +5846,19 @@
       <c r="T33" s="53"/>
       <c r="U33" s="54"/>
       <c r="V33" s="52"/>
-      <c r="W33" s="78"/>
+      <c r="W33" s="77"/>
       <c r="X33" s="54"/>
       <c r="Y33" s="53"/>
-      <c r="Z33" s="81"/>
-      <c r="AA33" s="81"/>
-      <c r="AB33" s="82"/>
-      <c r="AC33" s="82"/>
-      <c r="AD33" s="82"/>
-      <c r="AE33" s="82"/>
-      <c r="AF33" s="82"/>
-      <c r="AG33" s="82"/>
-      <c r="AH33" s="82"/>
-      <c r="AI33" s="82"/>
+      <c r="Z33" s="80"/>
+      <c r="AA33" s="80"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
+      <c r="AD33" s="81"/>
+      <c r="AE33" s="81"/>
+      <c r="AF33" s="81"/>
+      <c r="AG33" s="81"/>
+      <c r="AH33" s="81"/>
+      <c r="AI33" s="81"/>
     </row>
     <row r="34" spans="1:36">
       <c r="A34" s="26"/>
@@ -5951,43 +5939,43 @@
       <c r="Y34" s="29">
         <v>1</v>
       </c>
-      <c r="Z34" s="81">
+      <c r="Z34" s="80">
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="AA34" s="81">
+      <c r="AA34" s="80">
         <f t="shared" si="8"/>
         <v>7.575</v>
       </c>
-      <c r="AB34" s="82">
+      <c r="AB34" s="81">
         <f t="shared" si="9"/>
         <v>1.37727272727273</v>
       </c>
-      <c r="AC34" s="82">
+      <c r="AC34" s="81">
         <f t="shared" si="10"/>
         <v>5.05</v>
       </c>
-      <c r="AD34" s="82">
+      <c r="AD34" s="81">
         <f t="shared" si="11"/>
         <v>16.8333333333333</v>
       </c>
-      <c r="AE34" s="82">
+      <c r="AE34" s="81">
         <f t="shared" si="12"/>
         <v>10.9416666666667</v>
       </c>
-      <c r="AF34" s="82">
+      <c r="AF34" s="81">
         <f t="shared" ref="AF34:AF38" si="20">AF28</f>
         <v>10</v>
       </c>
-      <c r="AG34" s="82">
+      <c r="AG34" s="81">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="AH34" s="82">
+      <c r="AH34" s="81">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="AI34" s="82">
+      <c r="AI34" s="81">
         <f t="shared" si="15"/>
         <v>12.5</v>
       </c>
@@ -6075,43 +6063,43 @@
       <c r="Y35" s="34">
         <v>1</v>
       </c>
-      <c r="Z35" s="81">
+      <c r="Z35" s="80">
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="AA35" s="81">
+      <c r="AA35" s="80">
         <f t="shared" si="8"/>
         <v>9.09</v>
       </c>
-      <c r="AB35" s="82">
+      <c r="AB35" s="81">
         <f t="shared" si="9"/>
         <v>1.65272727272727</v>
       </c>
-      <c r="AC35" s="82">
+      <c r="AC35" s="81">
         <f t="shared" si="10"/>
         <v>7.272</v>
       </c>
-      <c r="AD35" s="82">
+      <c r="AD35" s="81">
         <f t="shared" si="11"/>
         <v>24.24</v>
       </c>
-      <c r="AE35" s="82">
+      <c r="AE35" s="81">
         <f t="shared" si="12"/>
         <v>15.756</v>
       </c>
-      <c r="AF35" s="82">
+      <c r="AF35" s="81">
         <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="AG35" s="82">
+      <c r="AG35" s="81">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="AH35" s="82">
+      <c r="AH35" s="81">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
-      <c r="AI35" s="82">
+      <c r="AI35" s="81">
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
@@ -6199,43 +6187,43 @@
       <c r="Y36" s="39">
         <v>1</v>
       </c>
-      <c r="Z36" s="81">
+      <c r="Z36" s="80">
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="AA36" s="81">
+      <c r="AA36" s="80">
         <f t="shared" si="8"/>
         <v>10.605</v>
       </c>
-      <c r="AB36" s="82">
+      <c r="AB36" s="81">
         <f t="shared" si="9"/>
         <v>1.92818181818182</v>
       </c>
-      <c r="AC36" s="82">
+      <c r="AC36" s="81">
         <f t="shared" si="10"/>
         <v>9.898</v>
       </c>
-      <c r="AD36" s="82">
+      <c r="AD36" s="81">
         <f t="shared" si="11"/>
         <v>32.9933333333333</v>
       </c>
-      <c r="AE36" s="82">
+      <c r="AE36" s="81">
         <f t="shared" si="12"/>
         <v>21.4456666666667</v>
       </c>
-      <c r="AF36" s="82">
+      <c r="AF36" s="81">
         <f t="shared" si="20"/>
         <v>20</v>
       </c>
-      <c r="AG36" s="82">
+      <c r="AG36" s="81">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="AH36" s="82">
+      <c r="AH36" s="81">
         <f t="shared" si="14"/>
         <v>28</v>
       </c>
-      <c r="AI36" s="82">
+      <c r="AI36" s="81">
         <f t="shared" si="15"/>
         <v>17.5</v>
       </c>
@@ -6323,43 +6311,43 @@
       <c r="Y37" s="44">
         <v>1</v>
       </c>
-      <c r="Z37" s="81">
+      <c r="Z37" s="80">
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="AA37" s="81">
+      <c r="AA37" s="80">
         <f t="shared" si="8"/>
         <v>11.615</v>
       </c>
-      <c r="AB37" s="82">
+      <c r="AB37" s="81">
         <f t="shared" si="9"/>
         <v>2.11181818181818</v>
       </c>
-      <c r="AC37" s="82">
+      <c r="AC37" s="81">
         <f t="shared" si="10"/>
         <v>12.928</v>
       </c>
-      <c r="AD37" s="82">
+      <c r="AD37" s="81">
         <f t="shared" si="11"/>
         <v>37.875</v>
       </c>
-      <c r="AE37" s="82">
+      <c r="AE37" s="81">
         <f t="shared" si="12"/>
         <v>25.4015</v>
       </c>
-      <c r="AF37" s="82">
+      <c r="AF37" s="81">
         <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="AG37" s="82">
+      <c r="AG37" s="81">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="AH37" s="82">
+      <c r="AH37" s="81">
         <f t="shared" si="14"/>
         <v>30</v>
       </c>
-      <c r="AI37" s="82">
+      <c r="AI37" s="81">
         <f t="shared" si="15"/>
         <v>19</v>
       </c>
@@ -6447,43 +6435,43 @@
       <c r="Y38" s="49">
         <v>1</v>
       </c>
-      <c r="Z38" s="81">
+      <c r="Z38" s="80">
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="AA38" s="81">
+      <c r="AA38" s="80">
         <f t="shared" si="8"/>
         <v>12.625</v>
       </c>
-      <c r="AB38" s="82">
+      <c r="AB38" s="81">
         <f t="shared" si="9"/>
         <v>2.29545454545455</v>
       </c>
-      <c r="AC38" s="82">
+      <c r="AC38" s="81">
         <f t="shared" si="10"/>
         <v>16.362</v>
       </c>
-      <c r="AD38" s="82">
+      <c r="AD38" s="81">
         <f t="shared" si="11"/>
         <v>43.0933333333333</v>
       </c>
-      <c r="AE38" s="82">
+      <c r="AE38" s="81">
         <f t="shared" si="12"/>
         <v>29.7276666666667</v>
       </c>
-      <c r="AF38" s="82">
+      <c r="AF38" s="81">
         <f t="shared" si="20"/>
         <v>30</v>
       </c>
-      <c r="AG38" s="82">
+      <c r="AG38" s="81">
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="AH38" s="82">
+      <c r="AH38" s="81">
         <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="AI38" s="82">
+      <c r="AI38" s="81">
         <f t="shared" si="15"/>
         <v>20.5</v>
       </c>
@@ -6493,15 +6481,15 @@
       </c>
     </row>
     <row r="39" spans="6:35">
-      <c r="F39" s="69"/>
-      <c r="AB39" s="83"/>
-      <c r="AC39" s="83"/>
-      <c r="AD39" s="83"/>
-      <c r="AE39" s="83"/>
-      <c r="AF39" s="83"/>
-      <c r="AG39" s="83"/>
-      <c r="AH39" s="83"/>
-      <c r="AI39" s="83"/>
+      <c r="F39" s="7"/>
+      <c r="AB39" s="82"/>
+      <c r="AC39" s="82"/>
+      <c r="AD39" s="82"/>
+      <c r="AE39" s="82"/>
+      <c r="AF39" s="82"/>
+      <c r="AG39" s="82"/>
+      <c r="AH39" s="82"/>
+      <c r="AI39" s="82"/>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
@@ -6535,15 +6523,15 @@
       <c r="C42" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
     </row>
     <row r="43" spans="3:12">
       <c r="C43" t="s">
@@ -6553,14 +6541,14 @@
         <f>AE4/AE10</f>
         <v>0.957026606291634</v>
       </c>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
     </row>
     <row r="44" spans="3:12">
       <c r="C44" t="s">
@@ -6570,12 +6558,12 @@
         <f>AE4/AE16</f>
         <v>0.92389964603918</v>
       </c>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" t="s">
@@ -6585,11 +6573,11 @@
         <f>AE4/AE22</f>
         <v>0.729459005581423</v>
       </c>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
     </row>
     <row r="46" spans="3:12">
       <c r="C46" t="s">
@@ -6599,9 +6587,9 @@
         <f>AE4/AE28</f>
         <v>1.02874424728089</v>
       </c>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
     </row>
     <row r="47" spans="3:12">
       <c r="C47" t="s">
@@ -6611,8 +6599,8 @@
         <f>AE4/AE34</f>
         <v>0.941685464174038</v>
       </c>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" t="s">
@@ -9102,140 +9090,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="15">
         <v>-2</v>
       </c>
-      <c r="E3" s="14">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
         <f t="shared" ref="F3:F16" si="0">AVERAGE(D3:E3)</f>
         <v>-1</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="18">
         <v>80</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="16">
         <v>100</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="17">
         <f t="shared" ref="I3:I16" si="1">AVERAGE(G3:H3)</f>
         <v>90</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="18">
         <v>1</v>
       </c>
       <c r="K3" s="24">
         <v>1.2</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="17">
         <f t="shared" ref="L3:L16" si="2">AVERAGE(J3:K3)</f>
         <v>1.1</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="18">
         <v>2</v>
       </c>
       <c r="N3" s="24">
         <v>6</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="17">
         <f t="shared" ref="O3:O16" si="3">AVERAGE(M3:N3)</f>
         <v>4</v>
       </c>
@@ -9245,50 +9233,50 @@
       <c r="S3" s="25"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="15">
         <v>-3</v>
       </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
         <f t="shared" si="0"/>
         <v>-1.5</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="18">
         <v>70</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="16">
         <v>90</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="17">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="18">
         <v>1.2</v>
       </c>
       <c r="K4" s="24">
         <v>1.5</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="17">
         <f t="shared" si="2"/>
         <v>1.35</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="18">
         <v>2</v>
       </c>
       <c r="N4" s="24">
         <v>6</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="17">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -9298,50 +9286,50 @@
       <c r="S4" s="25"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="15">
         <v>-4</v>
       </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="18">
         <v>60</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="16">
         <v>80</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="17">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="18">
         <v>1.5</v>
       </c>
       <c r="K5" s="24">
         <v>2</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="17">
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="18">
         <v>2</v>
       </c>
       <c r="N5" s="24">
         <v>6</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="17">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -9351,50 +9339,50 @@
       <c r="S5" s="25"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="15">
         <v>-2</v>
       </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="18">
         <v>80</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="16">
         <v>100</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="17">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="18">
         <v>2.5</v>
       </c>
       <c r="K6" s="24">
         <v>3</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="17">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="18">
         <v>2</v>
       </c>
       <c r="N6" s="24">
         <v>4</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -9408,50 +9396,50 @@
       <c r="S6" s="25"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="15">
         <v>-1</v>
       </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="18">
         <v>40</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="16">
         <v>60</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="17">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="18">
         <v>0.9</v>
       </c>
       <c r="K7" s="24">
         <v>1.1</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="18">
         <v>2</v>
       </c>
       <c r="N7" s="24">
         <v>4</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -9461,50 +9449,50 @@
       <c r="S7" s="25"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="15">
         <v>-2</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="16">
         <v>-4</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="18">
         <v>20</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="16">
         <v>40</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="17">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="18">
         <v>1</v>
       </c>
       <c r="K8" s="24">
         <v>1.1</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="17">
         <f t="shared" si="2"/>
         <v>1.05</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="18">
         <v>2</v>
       </c>
       <c r="N8" s="24">
         <v>4</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -9514,50 +9502,50 @@
       <c r="S8" s="25"/>
     </row>
     <row r="9" customHeight="1" spans="1:19">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="15">
         <v>-4</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="16">
         <v>-8</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
         <v>20</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="17">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="18">
         <v>1</v>
       </c>
       <c r="K9" s="24">
         <v>1.2</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="17">
         <f t="shared" si="2"/>
         <v>1.1</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="18">
         <v>2</v>
       </c>
       <c r="N9" s="24">
         <v>4</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -9567,50 +9555,50 @@
       <c r="S9" s="25"/>
     </row>
     <row r="10" customHeight="1" spans="1:19">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
         <v>2</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="18">
         <v>2</v>
       </c>
       <c r="K10" s="24">
         <v>2.2</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="17">
         <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="18">
         <v>6</v>
       </c>
       <c r="N10" s="24">
         <v>12</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="17">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -9624,50 +9612,50 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
         <v>4</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="18">
         <v>100</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="16">
         <v>100</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="17">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="18">
         <v>0.7</v>
       </c>
       <c r="K11" s="24">
         <v>0.9</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="17">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="18">
         <v>2</v>
       </c>
       <c r="N11" s="24">
         <v>8</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="17">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -9677,50 +9665,50 @@
       <c r="S11" s="25"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
         <v>2</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="18">
         <v>100</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="16">
         <v>100</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="17">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="18">
         <v>0.8</v>
       </c>
       <c r="K12" s="24">
         <v>1</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="17">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="18">
         <v>2</v>
       </c>
       <c r="N12" s="24">
         <v>8</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="17">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -9730,50 +9718,50 @@
       <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="18">
         <v>100</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="16">
         <v>100</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="17">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="18">
         <v>0.9</v>
       </c>
       <c r="K13" s="24">
         <v>1</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="17">
         <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="18">
         <v>2</v>
       </c>
       <c r="N13" s="24">
         <v>8</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="17">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -9783,50 +9771,50 @@
       <c r="S13" s="25"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="15">
         <v>-5</v>
       </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
         <f t="shared" si="0"/>
         <v>-2.5</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="18">
         <v>90</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="16">
         <v>100</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="17">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="18">
         <v>1</v>
       </c>
       <c r="K14" s="24">
         <v>1.5</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="17">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="18">
         <v>0.5</v>
       </c>
       <c r="N14" s="24">
         <v>2</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="17">
         <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
@@ -9840,50 +9828,50 @@
       <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="18">
         <v>100</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="16">
         <v>100</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="17">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="18">
         <v>1</v>
       </c>
       <c r="K15" s="24">
         <v>1.5</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="17">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="18">
         <v>1</v>
       </c>
       <c r="N15" s="24">
         <v>6</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="17">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
@@ -9897,50 +9885,50 @@
       <c r="S15" s="25"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="13">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="18">
         <v>90</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="16">
         <v>100</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="17">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="18">
         <v>2</v>
       </c>
       <c r="K16" s="24">
         <v>2.5</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="17">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="18">
         <v>0.5</v>
       </c>
       <c r="N16" s="24">
         <v>1</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="17">
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
@@ -9950,50 +9938,50 @@
       <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="15">
         <v>4</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="16">
         <v>8</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="17">
         <f t="shared" ref="F17:F23" si="4">AVERAGE(D17:E17)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="18">
         <v>100</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="16">
         <v>100</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="17">
         <f t="shared" ref="I17:I23" si="5">AVERAGE(G17:H17)</f>
         <v>100</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="18">
         <v>0.2</v>
       </c>
       <c r="K17" s="24">
         <v>0.5</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="17">
         <f t="shared" ref="L17:L23" si="6">AVERAGE(J17:K17)</f>
         <v>0.35</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="18">
         <v>3</v>
       </c>
       <c r="N17" s="24">
         <v>6</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="17">
         <f t="shared" ref="O17:O23" si="7">AVERAGE(M17:N17)</f>
         <v>4.5</v>
       </c>
@@ -10003,50 +9991,50 @@
       <c r="S17" s="25"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="15">
         <v>8</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="16">
         <v>12</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="17">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="18">
         <v>100</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="16">
         <v>100</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="17">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="18">
         <v>0.2</v>
       </c>
       <c r="K18" s="24">
         <v>0.25</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="17">
         <f t="shared" si="6"/>
         <v>0.225</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="18">
         <v>3</v>
       </c>
       <c r="N18" s="24">
         <v>6</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="17">
         <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
@@ -10060,50 +10048,50 @@
       <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="13">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15">
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="18">
         <v>100</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="16">
         <v>100</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="17">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="18">
         <v>2</v>
       </c>
       <c r="K19" s="24">
         <v>2.5</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="17">
         <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="18">
         <v>1</v>
       </c>
       <c r="N19" s="24">
         <v>2</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="17">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
@@ -10117,50 +10105,50 @@
       <c r="S19" s="25"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="15">
         <v>-10</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="16">
         <v>-15</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="17">
         <f t="shared" si="4"/>
         <v>-12.5</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="18">
         <v>40</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="16">
         <v>60</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="17">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="18">
         <v>0.5</v>
       </c>
       <c r="K20" s="24">
         <v>1</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="17">
         <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="18">
         <v>3</v>
       </c>
       <c r="N20" s="24">
         <v>6</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="17">
         <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
@@ -10178,50 +10166,50 @@
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="15">
         <v>-5</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="16">
         <v>-10</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="17">
         <f t="shared" si="4"/>
         <v>-7.5</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="18">
         <v>40</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="16">
         <v>60</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="17">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="18">
         <v>1</v>
       </c>
       <c r="K21" s="24">
         <v>2</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="17">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="18">
         <v>2</v>
       </c>
       <c r="N21" s="24">
         <v>3</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="17">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
@@ -10235,50 +10223,50 @@
       <c r="S21" s="25"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="15">
         <v>-10</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="16">
         <v>10</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14">
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
         <v>100</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="17">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="18">
         <v>0.5</v>
       </c>
       <c r="K22" s="24">
         <v>1.5</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="17">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="18">
         <v>1</v>
       </c>
       <c r="N22" s="24">
         <v>5</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -10296,50 +10284,50 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="15">
         <v>-5</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="16">
         <v>5</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="18">
         <v>25</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="16">
         <v>75</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="17">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="18">
         <v>0.5</v>
       </c>
       <c r="K23" s="24">
         <v>1.5</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="17">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23" s="18">
         <v>1</v>
       </c>
       <c r="N23" s="24">
         <v>9</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="17">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -10390,352 +10378,352 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="18">
-        <v>0</v>
-      </c>
-      <c r="C26" s="19">
+      <c r="B26" s="20">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
         <v>0.25</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="8">
         <v>0.15</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="8">
         <v>0.1</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="8">
         <v>0.1</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="8">
         <v>0.05</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="8">
         <v>0.1</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="8">
         <v>0.1</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="8">
         <v>0.1</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="8">
         <v>0.05</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="20">
         <v>0.15</v>
       </c>
-      <c r="C27" s="19">
-        <v>0</v>
-      </c>
-      <c r="D27" s="19">
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
         <v>0.1</v>
       </c>
-      <c r="E27" s="19">
-        <v>0</v>
-      </c>
-      <c r="F27" s="19">
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
         <v>0.1</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="8">
         <v>0.05</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="8">
         <v>0.15</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="8">
         <v>0.15</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="8">
         <v>0.2</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="20">
         <v>0.2</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="8">
         <v>0.15</v>
       </c>
-      <c r="D28" s="19">
-        <v>0</v>
-      </c>
-      <c r="E28" s="19">
-        <v>0</v>
-      </c>
-      <c r="F28" s="19">
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
         <v>0.05</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="8">
         <v>0.1</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="8">
         <v>0.1</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="8">
         <v>0.15</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="8">
         <v>0.1</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="20">
         <v>0.1</v>
       </c>
-      <c r="C29" s="19">
-        <v>0</v>
-      </c>
-      <c r="D29" s="19">
-        <v>0</v>
-      </c>
-      <c r="E29" s="19">
-        <v>0</v>
-      </c>
-      <c r="F29" s="19">
+      <c r="C29" s="8">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
         <v>0.05</v>
       </c>
-      <c r="G29" s="19">
-        <v>0</v>
-      </c>
-      <c r="H29" s="19">
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
         <v>0.35</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="8">
         <v>0.3</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="8">
         <v>0.2</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="20">
         <v>0.2</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="8">
         <v>0.1</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="8">
         <v>0.05</v>
       </c>
-      <c r="E30" s="19">
-        <v>0</v>
-      </c>
-      <c r="F30" s="19">
-        <v>0</v>
-      </c>
-      <c r="G30" s="19">
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
         <v>0.2</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="8">
         <v>0.15</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="8">
         <v>0.15</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="8">
         <v>0.15</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="20">
         <v>0.25</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="8">
         <v>0.15</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="8">
         <v>0.1</v>
       </c>
-      <c r="E31" s="19">
-        <v>0</v>
-      </c>
-      <c r="F31" s="19">
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
         <v>0.15</v>
       </c>
-      <c r="G31" s="19">
-        <v>0</v>
-      </c>
-      <c r="H31" s="19">
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
         <v>0.1</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="8">
         <v>0.1</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="8">
         <v>0.1</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="8">
         <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="20">
         <v>0.15</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="8">
         <v>0.1</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="8">
         <v>0.05</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="8">
         <v>0.15</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="8">
         <v>0.1</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="8">
         <v>0.05</v>
       </c>
-      <c r="H32" s="19">
-        <v>0</v>
-      </c>
-      <c r="I32" s="19">
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
         <v>0.2</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="8">
         <v>0.2</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="20">
         <v>0.2</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="8">
         <v>0.15</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="8">
         <v>0.1</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="8">
         <v>0.1</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="8">
         <v>0.1</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="8">
         <v>0.05</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="8">
         <v>0.15</v>
       </c>
-      <c r="I33" s="19">
-        <v>0</v>
-      </c>
-      <c r="J33" s="19">
+      <c r="I33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8">
         <v>0.1</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="8">
         <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="20">
         <v>0.25</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="8">
         <v>0.2</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="8">
         <v>0.1</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="8">
         <v>0.05</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="8">
         <v>0.1</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="8">
         <v>0.05</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="8">
         <v>0.1</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="8">
         <v>0.1</v>
       </c>
-      <c r="J34" s="19">
-        <v>0</v>
-      </c>
-      <c r="K34" s="19">
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8">
         <v>0.05</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="20">
         <v>0.15</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="8">
         <v>0.25</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="8">
         <v>0.2</v>
       </c>
-      <c r="E35" s="19">
-        <v>0</v>
-      </c>
-      <c r="F35" s="19">
-        <v>0</v>
-      </c>
-      <c r="G35" s="19">
-        <v>0</v>
-      </c>
-      <c r="H35" s="19">
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
         <v>0.05</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="8">
         <v>0.15</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="8">
         <v>0.2</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="8">
         <v>0</v>
       </c>
     </row>
@@ -10912,14 +10900,14 @@
       <c r="B42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20" t="s">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="20"/>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1"/>
@@ -10941,7 +10929,7 @@
       <c r="A44" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="8">
         <v>1</v>
       </c>
       <c r="C44" s="21"/>
@@ -10955,7 +10943,7 @@
       <c r="A45" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="8">
         <v>2</v>
       </c>
       <c r="C45" s="21">
@@ -10971,7 +10959,7 @@
       <c r="A46" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="8">
         <v>3</v>
       </c>
       <c r="C46" s="21"/>
@@ -10985,7 +10973,7 @@
       <c r="A47" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="8">
         <v>4</v>
       </c>
       <c r="C47" s="21">
@@ -11001,7 +10989,7 @@
       <c r="A48" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="8">
         <v>5</v>
       </c>
       <c r="C48" s="21"/>
@@ -11013,7 +11001,7 @@
       <c r="A49" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="8">
         <v>6</v>
       </c>
       <c r="C49" s="21"/>
@@ -11025,7 +11013,7 @@
       <c r="A50" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="8">
         <v>7</v>
       </c>
       <c r="C50" s="21"/>
@@ -11037,7 +11025,7 @@
       <c r="A51" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="8">
         <v>8</v>
       </c>
       <c r="C51" s="21"/>
@@ -11051,7 +11039,7 @@
       <c r="A52" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="8">
         <v>9</v>
       </c>
       <c r="C52" s="21">
@@ -11065,7 +11053,7 @@
       <c r="A53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="8">
         <v>9</v>
       </c>
       <c r="C53" s="21"/>
@@ -11079,7 +11067,7 @@
       <c r="A54" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="8">
         <v>10</v>
       </c>
       <c r="C54" s="21">
@@ -12437,326 +12425,329 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="16.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="9.85714285714286" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="11.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="10.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="17.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="21.7142857142857" customWidth="1"/>
+    <col min="1" max="2" width="13.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="16.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="9.85714285714286" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="11.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="10.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="17.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="21.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>158</v>
       </c>
       <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>160</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>161</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>162</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>163</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>165</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>166</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>20</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>15</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>167</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>169</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>166</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>40</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>30</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>170</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>172</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>166</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>30</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>60</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>45</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>173</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>175</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>176</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>60</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>178</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>179</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>181</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>179</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>100</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>182</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>179</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>100</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>184</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>185</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>60</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>167</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>187</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>185</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>20</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>30</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>170</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>189</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>185</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>20</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>200</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>100</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>190</v>
       </c>
     </row>
@@ -12771,8 +12762,8 @@
   <sheetPr/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -13207,428 +13198,159 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>200</v>
-      </c>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ref="L14:L23" si="1">SUM(B14:K14)</f>
-        <v>1</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="8">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B21" s="8">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -13652,7 +13374,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>97</v>
@@ -13674,7 +13396,7 @@
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WeightData" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
     <t>Handsnapper</t>
   </si>
   <si>
-    <t>T4Pistol</t>
+    <t>Saltscraper</t>
   </si>
   <si>
     <t>Deathgrip</t>
@@ -211,15 +211,15 @@
     <t>Rifle</t>
   </si>
   <si>
-    <t>Snipper</t>
-  </si>
-  <si>
     <t>Groundrider</t>
   </si>
   <si>
     <t>Longstrider</t>
   </si>
   <si>
+    <t>Deepdriver</t>
+  </si>
+  <si>
     <t>Shoulderbreaker</t>
   </si>
   <si>
@@ -229,16 +229,16 @@
     <t>Shotgun</t>
   </si>
   <si>
-    <t>Banger</t>
-  </si>
-  <si>
     <t>Leadspreader</t>
   </si>
   <si>
-    <t>T3Shotgun</t>
-  </si>
-  <si>
-    <t>T4Shotgun</t>
+    <t>Steelsweeper</t>
+  </si>
+  <si>
+    <t>Bonebreaker</t>
+  </si>
+  <si>
+    <t>Skullcrusher</t>
   </si>
   <si>
     <t>Hellsmasher</t>
@@ -250,13 +250,13 @@
     <t>Rattler</t>
   </si>
   <si>
-    <t>Saltscraper</t>
-  </si>
-  <si>
-    <t>T3SMG</t>
-  </si>
-  <si>
-    <t>T4SMG</t>
+    <t>Gripshaker</t>
+  </si>
+  <si>
+    <t>Fulminator</t>
+  </si>
+  <si>
+    <t>Skyscatterer</t>
   </si>
   <si>
     <t>Beastbreaker</t>
@@ -265,16 +265,16 @@
     <t>LMG</t>
   </si>
   <si>
+    <t>Spitter</t>
+  </si>
+  <si>
+    <t>Spewer</t>
+  </si>
+  <si>
     <t>Gouger</t>
   </si>
   <si>
-    <t>Eruptor</t>
-  </si>
-  <si>
-    <t>T3LMG</t>
-  </si>
-  <si>
-    <t>T4LMG</t>
+    <t>Annihilator</t>
   </si>
   <si>
     <t>Godgrinder</t>
@@ -283,16 +283,16 @@
     <t>Explosive</t>
   </si>
   <si>
-    <t>Boomer</t>
-  </si>
-  <si>
-    <t>Earsplitter</t>
-  </si>
-  <si>
-    <t>T3Explosive</t>
-  </si>
-  <si>
-    <t>T4Explosive</t>
+    <t>Splitter</t>
+  </si>
+  <si>
+    <t>Breacher</t>
+  </si>
+  <si>
+    <t>Rupturer</t>
+  </si>
+  <si>
+    <t>Divider</t>
   </si>
   <si>
     <t>Heavencracker</t>
@@ -723,11 +723,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -781,14 +781,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -803,8 +795,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,7 +836,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,7 +844,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,9 +866,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,21 +889,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,16 +903,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,7 +1000,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,25 +1078,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,91 +1096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,7 +1120,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,31 +1168,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,13 +1500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1529,17 +1533,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1548,7 +1548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1566,40 +1566,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1608,88 +1608,88 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2427,8 +2427,8 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2539,7 +2539,7 @@
   <dimension ref="A1:AJ75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7142857142857" defaultRowHeight="15"/>
@@ -7054,8 +7054,8 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="C4" t="str">
         <f>WeaponData!C7</f>
-        <v>T4Pistol</v>
+        <v>Saltscraper</v>
       </c>
       <c r="D4">
         <f>WeaponData!D7</f>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="C6" t="str">
         <f>WeaponData!C10</f>
-        <v>Snipper</v>
+        <v>Groundrider</v>
       </c>
       <c r="D6">
         <f>WeaponData!D10</f>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="C7" t="str">
         <f>WeaponData!C11</f>
-        <v>Groundrider</v>
+        <v>Longstrider</v>
       </c>
       <c r="D7">
         <f>WeaponData!D11</f>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="C8" t="str">
         <f>WeaponData!C12</f>
-        <v>Longstrider</v>
+        <v>Deepdriver</v>
       </c>
       <c r="D8">
         <f>WeaponData!D12</f>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="C11" t="str">
         <f>WeaponData!C16</f>
-        <v>Banger</v>
+        <v>Leadspreader</v>
       </c>
       <c r="D11">
         <f>WeaponData!D16</f>
@@ -7885,7 +7885,7 @@
       </c>
       <c r="C12" t="str">
         <f>WeaponData!C17</f>
-        <v>Leadspreader</v>
+        <v>Steelsweeper</v>
       </c>
       <c r="D12">
         <f>WeaponData!D17</f>
@@ -7959,7 +7959,7 @@
       </c>
       <c r="C13" t="str">
         <f>WeaponData!C18</f>
-        <v>T3Shotgun</v>
+        <v>Bonebreaker</v>
       </c>
       <c r="D13">
         <f>WeaponData!D18</f>
@@ -8033,7 +8033,7 @@
       </c>
       <c r="C14" t="str">
         <f>WeaponData!C19</f>
-        <v>T4Shotgun</v>
+        <v>Skullcrusher</v>
       </c>
       <c r="D14">
         <f>WeaponData!D19</f>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="C17" t="str">
         <f>WeaponData!C23</f>
-        <v>Saltscraper</v>
+        <v>Gripshaker</v>
       </c>
       <c r="D17">
         <f>WeaponData!D23</f>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="C18" t="str">
         <f>WeaponData!C24</f>
-        <v>T3SMG</v>
+        <v>Fulminator</v>
       </c>
       <c r="D18">
         <f>WeaponData!D24</f>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="C19" t="str">
         <f>WeaponData!C25</f>
-        <v>T4SMG</v>
+        <v>Skyscatterer</v>
       </c>
       <c r="D19">
         <f>WeaponData!D25</f>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="C21" t="str">
         <f>WeaponData!C28</f>
-        <v>Gouger</v>
+        <v>Spitter</v>
       </c>
       <c r="D21">
         <f>WeaponData!D28</f>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="C22" t="str">
         <f>WeaponData!C29</f>
-        <v>Eruptor</v>
+        <v>Spewer</v>
       </c>
       <c r="D22">
         <f>WeaponData!D29</f>
@@ -8699,7 +8699,7 @@
       </c>
       <c r="C23" t="str">
         <f>WeaponData!C30</f>
-        <v>T3LMG</v>
+        <v>Gouger</v>
       </c>
       <c r="D23">
         <f>WeaponData!D30</f>
@@ -8773,7 +8773,7 @@
       </c>
       <c r="C24" t="str">
         <f>WeaponData!C31</f>
-        <v>T4LMG</v>
+        <v>Annihilator</v>
       </c>
       <c r="D24">
         <f>WeaponData!D31</f>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="C26" t="str">
         <f>WeaponData!C34</f>
-        <v>Boomer</v>
+        <v>Splitter</v>
       </c>
       <c r="D26">
         <f>WeaponData!D34</f>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="C27" t="str">
         <f>WeaponData!C35</f>
-        <v>Earsplitter</v>
+        <v>Breacher</v>
       </c>
       <c r="D27">
         <f>WeaponData!D35</f>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="C28" t="str">
         <f>WeaponData!C36</f>
-        <v>T3Explosive</v>
+        <v>Rupturer</v>
       </c>
       <c r="D28">
         <f>WeaponData!D36</f>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="C29" t="str">
         <f>WeaponData!C37</f>
-        <v>T4Explosive</v>
+        <v>Divider</v>
       </c>
       <c r="D29">
         <f>WeaponData!D37</f>

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
   <si>
     <t>Character Weight</t>
   </si>
@@ -154,6 +154,9 @@
     <t>Pellets</t>
   </si>
   <si>
+    <t>Shot Damage</t>
+  </si>
+  <si>
     <t>Mag Time</t>
   </si>
   <si>
@@ -163,15 +166,9 @@
     <t>DPS</t>
   </si>
   <si>
-    <t>DPS + Accuracy</t>
-  </si>
-  <si>
     <t>Target DPS</t>
   </si>
   <si>
-    <t>Shot Damage</t>
-  </si>
-  <si>
     <t>DPS No Reload</t>
   </si>
   <si>
@@ -184,15 +181,15 @@
     <t>Ave</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Pistol</t>
   </si>
   <si>
     <t>No Change</t>
   </si>
   <si>
+    <t>Consistant dps, medium shot damage, quick reload</t>
+  </si>
+  <si>
     <t>Slinger</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
     <t>Rifle</t>
   </si>
   <si>
+    <t>Variable dps, high shot damage, long reload</t>
+  </si>
+  <si>
     <t>Groundrider</t>
   </si>
   <si>
@@ -229,6 +229,9 @@
     <t>Shotgun</t>
   </si>
   <si>
+    <t>Variable dps, low shot damage, medium reload</t>
+  </si>
+  <si>
     <t>Leadspreader</t>
   </si>
   <si>
@@ -247,6 +250,9 @@
     <t>SMG</t>
   </si>
   <si>
+    <t>Consistant dps, low shot damage, quick reload</t>
+  </si>
+  <si>
     <t>Rattler</t>
   </si>
   <si>
@@ -263,6 +269,9 @@
   </si>
   <si>
     <t>LMG</t>
+  </si>
+  <si>
+    <t>Consistant dps, high shot damage, long reload</t>
   </si>
   <si>
     <t>Spitter</t>
@@ -723,11 +732,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -759,7 +768,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -767,6 +775,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -778,6 +787,14 @@
       <color theme="2" tint="-0.25"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,22 +812,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -819,32 +820,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,6 +836,58 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -866,15 +895,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,7 +912,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,20 +923,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1000,7 +1009,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,31 +1099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,49 +1123,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,49 +1153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,13 +1165,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,6 +1464,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1470,17 +1494,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1500,17 +1524,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1520,15 +1538,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1548,7 +1557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1566,134 +1575,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1940,19 +1949,31 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2317,7 +2338,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="91" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -2326,10 +2347,10 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="92" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
@@ -2346,13 +2367,13 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="89">
+      <c r="F3" s="93">
         <v>0.25</v>
       </c>
     </row>
@@ -2366,13 +2387,13 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="89">
+      <c r="F4" s="93">
         <v>0.5</v>
       </c>
     </row>
@@ -2386,18 +2407,18 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="89">
+      <c r="F5" s="93">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="91" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
@@ -2406,10 +2427,10 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="92" t="s">
         <v>31</v>
       </c>
       <c r="F6" t="s">
@@ -2441,90 +2462,90 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2536,10 +2557,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AJ75"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7142857142857" defaultRowHeight="15"/>
@@ -2548,16 +2569,16 @@
     <col min="2" max="2" width="10.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="14.7142857142857" customWidth="1"/>
     <col min="4" max="25" width="8.71428571428571" customWidth="1"/>
-    <col min="26" max="27" width="10.8571428571429" customWidth="1"/>
-    <col min="28" max="28" width="9.42857142857143" customWidth="1"/>
-    <col min="29" max="29" width="8.28571428571429" customWidth="1"/>
-    <col min="30" max="30" width="8.57142857142857" customWidth="1"/>
-    <col min="31" max="31" width="8.85714285714286" customWidth="1"/>
-    <col min="32" max="32" width="15.2857142857143" customWidth="1"/>
-    <col min="33" max="35" width="8.71428571428571" customWidth="1"/>
+    <col min="26" max="27" width="8.57142857142857" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="7.71428571428571" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="34" width="10.8571428571429" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="9.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="9.85714285714286" customWidth="1"/>
+    <col min="37" max="37" width="10.5714285714286" customWidth="1"/>
+    <col min="38" max="38" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
@@ -2605,124 +2626,142 @@
       <c r="Y1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82" t="s">
         <v>44</v>
-      </c>
-      <c r="AB1" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="82" t="s">
-        <v>46</v>
       </c>
       <c r="AD1" s="82"/>
       <c r="AE1" s="82"/>
       <c r="AF1" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="82" t="s">
+      <c r="AM1" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="13"/>
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK2" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" s="86"/>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="13"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD2" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE2" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH2" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI2" s="82" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
-      <c r="A3" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="B3" s="15" t="b">
         <v>1</v>
@@ -2744,7 +2783,7 @@
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
       <c r="S3" s="80" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T3" s="80"/>
       <c r="U3" s="80"/>
@@ -2752,42 +2791,46 @@
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="83"/>
-      <c r="Z3" s="84"/>
       <c r="AA3" s="84"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="87"/>
+    </row>
+    <row r="4" spans="1:39">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="32">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="33">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="34">
         <f>AVERAGE(D4:E4)</f>
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="G4" s="35">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H4" s="33">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I4" s="34">
         <f>AVERAGE(G4:H4)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J4" s="35">
         <v>1</v>
@@ -2810,14 +2853,14 @@
         <v>75</v>
       </c>
       <c r="P4" s="35">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" s="33">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R4" s="34">
         <f>AVERAGE(P4:Q4)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="S4" s="63">
         <v>6</v>
@@ -2825,7 +2868,7 @@
       <c r="T4" s="64">
         <v>12</v>
       </c>
-      <c r="U4" s="34">
+      <c r="U4" s="75">
         <f>AVERAGE(S4:T4)</f>
         <v>9</v>
       </c>
@@ -2842,75 +2885,87 @@
       <c r="Y4" s="33">
         <v>1</v>
       </c>
-      <c r="Z4" s="84">
-        <f>U4/L4+R4</f>
-        <v>7</v>
-      </c>
-      <c r="AA4" s="84">
-        <f>U4*(X4/100*F4*2+((1-X4/100)*F4))</f>
-        <v>30.27375</v>
+      <c r="Z4" s="85">
+        <f>V4/100*D4*2+(1-V4/100)*D4</f>
+        <v>1.545</v>
+      </c>
+      <c r="AA4" s="85">
+        <f>W4/100*E4*2+(1-W4/100)*E4</f>
+        <v>6.24</v>
       </c>
       <c r="AB4" s="85">
-        <f>AA4/Z4*Y4</f>
-        <v>4.32482142857143</v>
+        <f>AVERAGE(Z4:AA4)</f>
+        <v>3.8925</v>
       </c>
       <c r="AC4" s="85">
-        <f>($Y4*D4*G4/100*S4*((V4/100*D4*2)+((1-V4/100)*D4))/(S4/J4+P4))</f>
-        <v>1.43535483870968</v>
+        <f>S4/J4+P4</f>
+        <v>8.5</v>
       </c>
       <c r="AD4" s="85">
-        <f>($Y4*E4*H4/100*T4*((W4/100*E4*2)+((1-W4/100)*E4))/(T4/K4+Q4))</f>
-        <v>19.1718620689655</v>
+        <f>T4/K4+Q4</f>
+        <v>7.5</v>
       </c>
       <c r="AE4" s="85">
         <f>AVERAGE(AC4:AD4)</f>
-        <v>10.3036084538376</v>
+        <v>8</v>
       </c>
       <c r="AF4" s="85">
-        <v>10</v>
+        <f>S4*Z4*$Y4</f>
+        <v>9.27</v>
       </c>
       <c r="AG4" s="85">
-        <f>D4*G4/100</f>
-        <v>0.9</v>
+        <f>T4*AA4*$Y4</f>
+        <v>74.88</v>
       </c>
       <c r="AH4" s="85">
-        <f>E4*H4/100*2</f>
-        <v>4.95</v>
-      </c>
-      <c r="AI4" s="85">
-        <f>AVERAGE(AG4:AH4)</f>
-        <v>2.925</v>
-      </c>
-      <c r="AJ4">
+        <f>U4*AB4*$Y4</f>
+        <v>35.0325</v>
+      </c>
+      <c r="AI4" s="88">
+        <f>AF4/AC4</f>
+        <v>1.09058823529412</v>
+      </c>
+      <c r="AJ4" s="88">
+        <f>AG4/AD4</f>
+        <v>9.984</v>
+      </c>
+      <c r="AK4" s="89">
+        <f>AVERAGE(AI4:AJ4)</f>
+        <v>5.53729411764706</v>
+      </c>
+      <c r="AL4" s="89">
+        <v>5</v>
+      </c>
+      <c r="AM4">
         <f>AVERAGE(J4:K4)*AVERAGE(D4:E4)*Y4</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="37">
         <v>2.5</v>
       </c>
       <c r="E5" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F5" s="39">
         <f t="shared" ref="F5:F38" si="0">AVERAGE(D5:E5)</f>
-        <v>3.75</v>
+        <v>6.25</v>
       </c>
       <c r="G5" s="40">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H5" s="38">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I5" s="39">
         <f t="shared" ref="I5:I38" si="1">AVERAGE(G5:H5)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J5" s="40">
         <v>1.25</v>
@@ -2933,14 +2988,14 @@
         <v>80</v>
       </c>
       <c r="P5" s="40">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="38">
         <v>3</v>
       </c>
       <c r="R5" s="39">
         <f t="shared" ref="R5:R38" si="4">AVERAGE(P5:Q5)</f>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S5" s="65">
         <v>6</v>
@@ -2965,75 +3020,87 @@
       <c r="Y5" s="38">
         <v>1</v>
       </c>
-      <c r="Z5" s="84">
-        <f t="shared" ref="Z5:Z38" si="7">U5/L5+R5</f>
-        <v>6.48529411764706</v>
-      </c>
-      <c r="AA5" s="84">
-        <f t="shared" ref="AA5:AA38" si="8">U5*(X5/100*F5*2+((1-X5/100)*F5))</f>
-        <v>35.26875</v>
+      <c r="Z5" s="85">
+        <f t="shared" ref="Z5:Z38" si="7">V5/100*D5*2+(1-V5/100)*D5</f>
+        <v>2.6</v>
+      </c>
+      <c r="AA5" s="85">
+        <f>W5/100*E5*2+(1-W5/100)*E5</f>
+        <v>10.5</v>
       </c>
       <c r="AB5" s="85">
-        <f t="shared" ref="AB5:AB38" si="9">AA5/Z5*Y5</f>
-        <v>5.43826530612245</v>
+        <f t="shared" ref="AB5:AB38" si="8">AVERAGE(Z5:AA5)</f>
+        <v>6.55</v>
       </c>
       <c r="AC5" s="85">
-        <f t="shared" ref="AC5:AC38" si="10">($Y5*D5*G5/100*S5*((V5/100*D5*2)+((1-V5/100)*D5))/(S5/J5+P5))</f>
-        <v>3.0952380952381</v>
+        <f t="shared" ref="AC5:AC38" si="9">S5/J5+P5</f>
+        <v>6.8</v>
       </c>
       <c r="AD5" s="85">
-        <f t="shared" ref="AD5:AD38" si="11">($Y5*E5*H5/100*T5*((W5/100*E5*2)+((1-W5/100)*E5))/(T5/K5+Q5))</f>
-        <v>27</v>
+        <f>T5/K5+Q5</f>
+        <v>7</v>
       </c>
       <c r="AE5" s="85">
-        <f t="shared" ref="AE5:AE38" si="12">AVERAGE(AC5:AD5)</f>
-        <v>15.047619047619</v>
+        <f t="shared" ref="AE5:AE38" si="10">AVERAGE(AC5:AD5)</f>
+        <v>6.9</v>
       </c>
       <c r="AF5" s="85">
-        <v>15</v>
+        <f t="shared" ref="AF5:AF38" si="11">S5*Z5*$Y5</f>
+        <v>15.6</v>
       </c>
       <c r="AG5" s="85">
-        <f t="shared" ref="AG5:AG38" si="13">D5*G5/100</f>
-        <v>1.25</v>
+        <f>T5*AA5*$Y5</f>
+        <v>126</v>
       </c>
       <c r="AH5" s="85">
-        <f t="shared" ref="AH5:AH38" si="14">E5*H5/100*2</f>
-        <v>6</v>
-      </c>
-      <c r="AI5" s="85">
-        <f t="shared" ref="AI5:AI38" si="15">AVERAGE(AG5:AH5)</f>
-        <v>3.625</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" ref="AJ5:AJ38" si="16">AVERAGE(J5:K5)*AVERAGE(D5:E5)*Y5</f>
-        <v>7.96875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+        <f>U5*AB5*$Y5</f>
+        <v>58.95</v>
+      </c>
+      <c r="AI5" s="88">
+        <f t="shared" ref="AI5:AI38" si="12">AF5/AC5</f>
+        <v>2.29411764705882</v>
+      </c>
+      <c r="AJ5" s="88">
+        <f>AG5/AD5</f>
+        <v>18</v>
+      </c>
+      <c r="AK5" s="89">
+        <f t="shared" ref="AK5:AK38" si="13">AVERAGE(AI5:AJ5)</f>
+        <v>10.1470588235294</v>
+      </c>
+      <c r="AL5" s="89">
+        <v>10</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" ref="AM5:AM38" si="14">AVERAGE(J5:K5)*AVERAGE(D5:E5)*Y5</f>
+        <v>13.28125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
       <c r="C6" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="43">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="F6" s="44">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>8.5</v>
       </c>
       <c r="G6" s="45">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H6" s="43">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I6" s="44">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J6" s="45">
         <v>1.5</v>
@@ -3056,10 +3123,10 @@
         <v>85</v>
       </c>
       <c r="P6" s="45">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" s="43">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R6" s="44">
         <f t="shared" si="4"/>
@@ -3088,75 +3155,87 @@
       <c r="Y6" s="43">
         <v>1</v>
       </c>
-      <c r="Z6" s="84">
+      <c r="Z6" s="85">
         <f t="shared" si="7"/>
+        <v>4.2</v>
+      </c>
+      <c r="AA6" s="85">
+        <f>W6/100*E6*2+(1-W6/100)*E6</f>
+        <v>13.78</v>
+      </c>
+      <c r="AB6" s="85">
+        <f t="shared" si="8"/>
+        <v>8.99</v>
+      </c>
+      <c r="AC6" s="85">
+        <f t="shared" si="9"/>
+        <v>5.5</v>
+      </c>
+      <c r="AD6" s="85">
+        <f>T6/K6+Q6</f>
+        <v>6.5</v>
+      </c>
+      <c r="AE6" s="85">
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="AA6" s="84">
-        <f t="shared" si="8"/>
-        <v>40.35375</v>
-      </c>
-      <c r="AB6" s="85">
-        <f t="shared" si="9"/>
-        <v>6.725625</v>
-      </c>
-      <c r="AC6" s="85">
-        <f t="shared" si="10"/>
-        <v>5.94</v>
-      </c>
-      <c r="AD6" s="85">
+      <c r="AF6" s="85">
         <f t="shared" si="11"/>
-        <v>37.0528888888889</v>
-      </c>
-      <c r="AE6" s="85">
+        <v>25.2</v>
+      </c>
+      <c r="AG6" s="85">
+        <f>T6*AA6*$Y6</f>
+        <v>165.36</v>
+      </c>
+      <c r="AH6" s="85">
+        <f>U6*AB6*$Y6</f>
+        <v>80.91</v>
+      </c>
+      <c r="AI6" s="88">
         <f t="shared" si="12"/>
-        <v>21.4964444444444</v>
-      </c>
-      <c r="AF6" s="85">
-        <v>20</v>
-      </c>
-      <c r="AG6" s="85">
+        <v>4.58181818181818</v>
+      </c>
+      <c r="AJ6" s="88">
+        <f>AG6/AD6</f>
+        <v>25.44</v>
+      </c>
+      <c r="AK6" s="89">
         <f t="shared" si="13"/>
-        <v>1.65</v>
-      </c>
-      <c r="AH6" s="85">
+        <v>15.0109090909091</v>
+      </c>
+      <c r="AL6" s="89">
+        <v>15</v>
+      </c>
+      <c r="AM6">
         <f t="shared" si="14"/>
-        <v>7.15</v>
-      </c>
-      <c r="AI6" s="85">
-        <f t="shared" si="15"/>
-        <v>4.4</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="16"/>
-        <v>9.5625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
+        <v>19.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="47">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="E7" s="48">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="F7" s="49">
         <f t="shared" si="0"/>
-        <v>4.375</v>
+        <v>10.25</v>
       </c>
       <c r="G7" s="50">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H7" s="48">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I7" s="49">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J7" s="50">
         <v>1.75</v>
@@ -3182,11 +3261,11 @@
         <v>1</v>
       </c>
       <c r="Q7" s="48">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="R7" s="49">
         <f t="shared" si="4"/>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="S7" s="69">
         <v>6</v>
@@ -3211,75 +3290,87 @@
       <c r="Y7" s="48">
         <v>1</v>
       </c>
-      <c r="Z7" s="84">
+      <c r="Z7" s="85">
         <f t="shared" si="7"/>
-        <v>5.53947368421053</v>
-      </c>
-      <c r="AA7" s="84">
+        <v>5.83</v>
+      </c>
+      <c r="AA7" s="85">
+        <f>W7/100*E7*2+(1-W7/100)*E7</f>
+        <v>16.05</v>
+      </c>
+      <c r="AB7" s="85">
         <f t="shared" si="8"/>
-        <v>41.934375</v>
-      </c>
-      <c r="AB7" s="85">
+        <v>10.94</v>
+      </c>
+      <c r="AC7" s="85">
         <f t="shared" si="9"/>
-        <v>7.57010095011877</v>
-      </c>
-      <c r="AC7" s="85">
+        <v>4.42857142857143</v>
+      </c>
+      <c r="AD7" s="85">
+        <f>T7/K7+Q7</f>
+        <v>6</v>
+      </c>
+      <c r="AE7" s="85">
         <f t="shared" si="10"/>
-        <v>9.10146774193548</v>
-      </c>
-      <c r="AD7" s="85">
+        <v>5.21428571428571</v>
+      </c>
+      <c r="AF7" s="85">
         <f t="shared" si="11"/>
-        <v>41.8287692307692</v>
-      </c>
-      <c r="AE7" s="85">
+        <v>34.98</v>
+      </c>
+      <c r="AG7" s="85">
+        <f>T7*AA7*$Y7</f>
+        <v>192.6</v>
+      </c>
+      <c r="AH7" s="85">
+        <f>U7*AB7*$Y7</f>
+        <v>98.46</v>
+      </c>
+      <c r="AI7" s="88">
         <f t="shared" si="12"/>
-        <v>25.4651184863524</v>
-      </c>
-      <c r="AF7" s="85">
-        <v>25</v>
-      </c>
-      <c r="AG7" s="85">
+        <v>7.89870967741936</v>
+      </c>
+      <c r="AJ7" s="88">
+        <f>AG7/AD7</f>
+        <v>32.1</v>
+      </c>
+      <c r="AK7" s="89">
         <f t="shared" si="13"/>
-        <v>1.95</v>
-      </c>
-      <c r="AH7" s="85">
+        <v>19.9993548387097</v>
+      </c>
+      <c r="AL7" s="89">
+        <v>20</v>
+      </c>
+      <c r="AM7">
         <f t="shared" si="14"/>
-        <v>7.7</v>
-      </c>
-      <c r="AI7" s="85">
-        <f t="shared" si="15"/>
-        <v>4.825</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="16"/>
-        <v>10.390625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
+        <v>24.34375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="52">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="E8" s="53">
-        <v>5.5</v>
+        <v>16</v>
       </c>
       <c r="F8" s="54">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="G8" s="55">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H8" s="53">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I8" s="54">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J8" s="55">
         <v>2</v>
@@ -3302,14 +3393,14 @@
         <v>95</v>
       </c>
       <c r="P8" s="55">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q8" s="53">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="R8" s="54">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="S8" s="71">
         <v>6</v>
@@ -3334,53 +3425,65 @@
       <c r="Y8" s="53">
         <v>1</v>
       </c>
-      <c r="Z8" s="84">
+      <c r="Z8" s="85">
         <f t="shared" si="7"/>
-        <v>5.1</v>
-      </c>
-      <c r="AA8" s="84">
+        <v>7.49</v>
+      </c>
+      <c r="AA8" s="85">
+        <f>W8/100*E8*2+(1-W8/100)*E8</f>
+        <v>17.28</v>
+      </c>
+      <c r="AB8" s="85">
         <f t="shared" si="8"/>
-        <v>43.5375</v>
-      </c>
-      <c r="AB8" s="85">
+        <v>12.385</v>
+      </c>
+      <c r="AC8" s="85">
         <f t="shared" si="9"/>
-        <v>8.53676470588235</v>
-      </c>
-      <c r="AC8" s="85">
+        <v>3.5</v>
+      </c>
+      <c r="AD8" s="85">
+        <f>T8/K8+Q8</f>
+        <v>5.5</v>
+      </c>
+      <c r="AE8" s="85">
         <f t="shared" si="10"/>
-        <v>13.6318</v>
-      </c>
-      <c r="AD8" s="85">
+        <v>4.5</v>
+      </c>
+      <c r="AF8" s="85">
         <f t="shared" si="11"/>
-        <v>47.0448</v>
-      </c>
-      <c r="AE8" s="85">
+        <v>44.94</v>
+      </c>
+      <c r="AG8" s="85">
+        <f>T8*AA8*$Y8</f>
+        <v>207.36</v>
+      </c>
+      <c r="AH8" s="85">
+        <f>U8*AB8*$Y8</f>
+        <v>111.465</v>
+      </c>
+      <c r="AI8" s="88">
         <f t="shared" si="12"/>
-        <v>30.3383</v>
-      </c>
-      <c r="AF8" s="85">
-        <v>30</v>
-      </c>
-      <c r="AG8" s="85">
+        <v>12.84</v>
+      </c>
+      <c r="AJ8" s="88">
+        <f>AG8/AD8</f>
+        <v>37.7018181818182</v>
+      </c>
+      <c r="AK8" s="89">
         <f t="shared" si="13"/>
-        <v>2.275</v>
-      </c>
-      <c r="AH8" s="85">
+        <v>25.2709090909091</v>
+      </c>
+      <c r="AL8" s="89">
+        <v>25</v>
+      </c>
+      <c r="AM8">
         <f t="shared" si="14"/>
-        <v>8.25</v>
-      </c>
-      <c r="AI8" s="85">
-        <f t="shared" si="15"/>
-        <v>5.2625</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="16"/>
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="15" t="b">
         <v>1</v>
@@ -3393,7 +3496,7 @@
       <c r="H9" s="57"/>
       <c r="I9" s="58"/>
       <c r="J9" s="62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K9" s="62"/>
       <c r="L9" s="74"/>
@@ -3410,8 +3513,8 @@
       <c r="W9" s="81"/>
       <c r="X9" s="58"/>
       <c r="Y9" s="57"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
       <c r="AB9" s="85"/>
       <c r="AC9" s="85"/>
       <c r="AD9" s="85"/>
@@ -3419,33 +3522,38 @@
       <c r="AF9" s="85"/>
       <c r="AG9" s="85"/>
       <c r="AH9" s="85"/>
-      <c r="AI9" s="85"/>
-    </row>
-    <row r="10" spans="1:36">
+      <c r="AI9" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ9" s="88"/>
+      <c r="AK9" s="88"/>
+      <c r="AL9" s="88"/>
+    </row>
+    <row r="10" spans="1:39">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="31" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" s="33">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>6.75</v>
+        <v>12.5</v>
       </c>
       <c r="G10" s="35">
-        <v>60</v>
+        <v>67.5</v>
       </c>
       <c r="H10" s="33">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I10" s="34">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>71.25</v>
       </c>
       <c r="J10" s="63">
         <v>0.2</v>
@@ -3481,91 +3589,102 @@
         <v>4</v>
       </c>
       <c r="T10" s="33">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U10" s="34">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V10" s="35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W10" s="33">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X10" s="34">
         <f t="shared" si="6"/>
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="Y10" s="33">
         <v>1</v>
       </c>
-      <c r="Z10" s="84">
+      <c r="Z10" s="85">
         <f t="shared" si="7"/>
-        <v>15.6785714285714</v>
-      </c>
-      <c r="AA10" s="84">
+        <v>11</v>
+      </c>
+      <c r="AA10" s="85">
+        <f>W10/100*E10*2+(1-W10/100)*E10</f>
+        <v>18</v>
+      </c>
+      <c r="AB10" s="85">
         <f t="shared" si="8"/>
-        <v>28.485</v>
-      </c>
-      <c r="AB10" s="85">
+        <v>14.5</v>
+      </c>
+      <c r="AC10" s="85">
         <f t="shared" si="9"/>
-        <v>1.81681093394077</v>
-      </c>
-      <c r="AC10" s="85">
+        <v>23.5</v>
+      </c>
+      <c r="AD10" s="85">
+        <f>T10/K10+Q10</f>
+        <v>25</v>
+      </c>
+      <c r="AE10" s="85">
         <f t="shared" si="10"/>
-        <v>2.68085106382979</v>
-      </c>
-      <c r="AD10" s="85">
+        <v>24.25</v>
+      </c>
+      <c r="AF10" s="85">
         <f t="shared" si="11"/>
-        <v>18.8516923076923</v>
-      </c>
-      <c r="AE10" s="85">
+        <v>44</v>
+      </c>
+      <c r="AG10" s="85">
+        <f>T10*AA10*$Y10</f>
+        <v>180</v>
+      </c>
+      <c r="AH10" s="85">
+        <f>U10*AB10*$Y10</f>
+        <v>101.5</v>
+      </c>
+      <c r="AI10" s="88">
         <f t="shared" si="12"/>
-        <v>10.766271685761</v>
-      </c>
-      <c r="AF10" s="85">
-        <f>AF4</f>
-        <v>10</v>
-      </c>
-      <c r="AG10" s="85">
+        <v>1.87234042553191</v>
+      </c>
+      <c r="AJ10" s="88">
+        <f>AG10/AD10</f>
+        <v>7.2</v>
+      </c>
+      <c r="AK10" s="89">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AH10" s="85">
+        <v>4.53617021276596</v>
+      </c>
+      <c r="AL10" s="89">
+        <v>5</v>
+      </c>
+      <c r="AM10">
         <f t="shared" si="14"/>
-        <v>13.6</v>
-      </c>
-      <c r="AI10" s="85">
-        <f t="shared" si="15"/>
-        <v>8.3</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="16"/>
-        <v>2.3625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="36" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="37">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E11" s="38">
-        <v>9.5</v>
+        <v>30</v>
       </c>
       <c r="F11" s="39">
         <f t="shared" si="0"/>
-        <v>7.25</v>
+        <v>25</v>
       </c>
       <c r="G11" s="40">
-        <v>67.5</v>
+        <v>72.5</v>
       </c>
       <c r="H11" s="38">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I11" s="39">
         <f t="shared" si="1"/>
@@ -3605,95 +3724,106 @@
         <v>4</v>
       </c>
       <c r="T11" s="38">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U11" s="39">
         <f t="shared" si="5"/>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="V11" s="40">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="W11" s="38">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="X11" s="39">
         <f t="shared" si="6"/>
-        <v>7.125</v>
+        <v>25</v>
       </c>
       <c r="Y11" s="38">
         <v>1</v>
       </c>
-      <c r="Z11" s="84">
+      <c r="Z11" s="85">
         <f t="shared" si="7"/>
-        <v>17.3571428571429</v>
-      </c>
-      <c r="AA11" s="84">
+        <v>23</v>
+      </c>
+      <c r="AA11" s="85">
+        <f>W11/100*E11*2+(1-W11/100)*E11</f>
+        <v>40.5</v>
+      </c>
+      <c r="AB11" s="85">
         <f t="shared" si="8"/>
-        <v>34.94953125</v>
-      </c>
-      <c r="AB11" s="85">
+        <v>31.75</v>
+      </c>
+      <c r="AC11" s="85">
         <f t="shared" si="9"/>
-        <v>2.01355324074074</v>
-      </c>
-      <c r="AC11" s="85">
+        <v>23.75</v>
+      </c>
+      <c r="AD11" s="85">
+        <f>T11/K11+Q11</f>
+        <v>23.25</v>
+      </c>
+      <c r="AE11" s="85">
         <f t="shared" si="10"/>
-        <v>3.01973684210526</v>
-      </c>
-      <c r="AD11" s="85">
+        <v>23.5</v>
+      </c>
+      <c r="AF11" s="85">
         <f t="shared" si="11"/>
-        <v>27.1637704918033</v>
-      </c>
-      <c r="AE11" s="85">
+        <v>92</v>
+      </c>
+      <c r="AG11" s="85">
+        <f>T11*AA11*$Y11</f>
+        <v>364.5</v>
+      </c>
+      <c r="AH11" s="85">
+        <f>U11*AB11*$Y11</f>
+        <v>206.375</v>
+      </c>
+      <c r="AI11" s="88">
         <f t="shared" si="12"/>
-        <v>15.0917536669543</v>
-      </c>
-      <c r="AF11" s="85">
-        <f t="shared" ref="AF11:AF20" si="17">AF5</f>
-        <v>15</v>
-      </c>
-      <c r="AG11" s="85">
+        <v>3.87368421052632</v>
+      </c>
+      <c r="AJ11" s="88">
+        <f>AG11/AD11</f>
+        <v>15.6774193548387</v>
+      </c>
+      <c r="AK11" s="89">
         <f t="shared" si="13"/>
-        <v>3.375</v>
-      </c>
-      <c r="AH11" s="85">
+        <v>9.77555178268251</v>
+      </c>
+      <c r="AL11" s="89">
+        <v>10</v>
+      </c>
+      <c r="AM11">
         <f t="shared" si="14"/>
-        <v>16.15</v>
-      </c>
-      <c r="AI11" s="85">
-        <f t="shared" si="15"/>
-        <v>9.7625</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="16"/>
-        <v>2.5375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="41" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="42">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E12" s="43">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F12" s="44">
         <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>37.5</v>
       </c>
       <c r="G12" s="45">
-        <v>75</v>
+        <v>77.5</v>
       </c>
       <c r="H12" s="43">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I12" s="44">
         <f t="shared" si="1"/>
-        <v>82.5</v>
+        <v>81.25</v>
       </c>
       <c r="J12" s="67">
         <v>0.2</v>
@@ -3726,98 +3856,109 @@
         <v>4.75</v>
       </c>
       <c r="S12" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U12" s="44">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V12" s="45">
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="W12" s="43">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X12" s="44">
         <f t="shared" si="6"/>
-        <v>8.75</v>
+        <v>40</v>
       </c>
       <c r="Y12" s="43">
         <v>1</v>
       </c>
-      <c r="Z12" s="84">
+      <c r="Z12" s="85">
         <f t="shared" si="7"/>
-        <v>20.4642857142857</v>
-      </c>
-      <c r="AA12" s="84">
+        <v>39</v>
+      </c>
+      <c r="AA12" s="85">
+        <f>W12/100*E12*2+(1-W12/100)*E12</f>
+        <v>67.5</v>
+      </c>
+      <c r="AB12" s="85">
         <f t="shared" si="8"/>
-        <v>50.840625</v>
-      </c>
-      <c r="AB12" s="85">
+        <v>53.25</v>
+      </c>
+      <c r="AC12" s="85">
         <f t="shared" si="9"/>
-        <v>2.48435863874345</v>
-      </c>
-      <c r="AC12" s="85">
+        <v>24</v>
+      </c>
+      <c r="AD12" s="85">
+        <f>T12/K12+Q12</f>
+        <v>21.5</v>
+      </c>
+      <c r="AE12" s="85">
         <f t="shared" si="10"/>
-        <v>6.8114224137931</v>
-      </c>
-      <c r="AD12" s="85">
+        <v>22.75</v>
+      </c>
+      <c r="AF12" s="85">
         <f t="shared" si="11"/>
-        <v>33.9428571428571</v>
-      </c>
-      <c r="AE12" s="85">
+        <v>156</v>
+      </c>
+      <c r="AG12" s="85">
+        <f>T12*AA12*$Y12</f>
+        <v>540</v>
+      </c>
+      <c r="AH12" s="85">
+        <f>U12*AB12*$Y12</f>
+        <v>319.5</v>
+      </c>
+      <c r="AI12" s="88">
         <f t="shared" si="12"/>
-        <v>20.3771397783251</v>
-      </c>
-      <c r="AF12" s="85">
-        <f t="shared" si="17"/>
-        <v>20</v>
-      </c>
-      <c r="AG12" s="85">
+        <v>6.5</v>
+      </c>
+      <c r="AJ12" s="88">
+        <f>AG12/AD12</f>
+        <v>25.1162790697674</v>
+      </c>
+      <c r="AK12" s="89">
         <f t="shared" si="13"/>
-        <v>5.25</v>
-      </c>
-      <c r="AH12" s="85">
+        <v>15.8081395348837</v>
+      </c>
+      <c r="AL12" s="89">
+        <v>15</v>
+      </c>
+      <c r="AM12">
         <f t="shared" si="14"/>
-        <v>18</v>
-      </c>
-      <c r="AI12" s="85">
-        <f t="shared" si="15"/>
-        <v>11.625</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="16"/>
-        <v>2.975</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36">
+        <v>13.125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="46" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="47">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E13" s="48">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F13" s="49">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="G13" s="50">
         <v>82.5</v>
       </c>
       <c r="H13" s="48">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I13" s="49">
         <f t="shared" si="1"/>
-        <v>88.75</v>
+        <v>86.25</v>
       </c>
       <c r="J13" s="69">
         <v>0.2</v>
@@ -3850,98 +3991,109 @@
         <v>5</v>
       </c>
       <c r="S13" s="50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13" s="48">
         <v>7</v>
       </c>
       <c r="U13" s="49">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V13" s="50">
-        <v>8.75</v>
+        <v>45</v>
       </c>
       <c r="W13" s="48">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="X13" s="49">
         <f t="shared" si="6"/>
-        <v>10.375</v>
+        <v>55</v>
       </c>
       <c r="Y13" s="48">
         <v>1</v>
       </c>
-      <c r="Z13" s="84">
+      <c r="Z13" s="85">
         <f t="shared" si="7"/>
-        <v>22.1428571428571</v>
-      </c>
-      <c r="AA13" s="84">
+        <v>58</v>
+      </c>
+      <c r="AA13" s="85">
+        <f>W13/100*E13*2+(1-W13/100)*E13</f>
+        <v>99</v>
+      </c>
+      <c r="AB13" s="85">
         <f t="shared" si="8"/>
-        <v>59.6025</v>
-      </c>
-      <c r="AB13" s="85">
+        <v>78.5</v>
+      </c>
+      <c r="AC13" s="85">
         <f t="shared" si="9"/>
-        <v>2.69172580645161</v>
-      </c>
-      <c r="AC13" s="85">
+        <v>24.25</v>
+      </c>
+      <c r="AD13" s="85">
+        <f>T13/K13+Q13</f>
+        <v>19.75</v>
+      </c>
+      <c r="AE13" s="85">
         <f t="shared" si="10"/>
-        <v>7.51490384615385</v>
-      </c>
-      <c r="AD13" s="85">
+        <v>22</v>
+      </c>
+      <c r="AF13" s="85">
         <f t="shared" si="11"/>
-        <v>45.6307848101266</v>
-      </c>
-      <c r="AE13" s="85">
+        <v>232</v>
+      </c>
+      <c r="AG13" s="85">
+        <f>T13*AA13*$Y13</f>
+        <v>693</v>
+      </c>
+      <c r="AH13" s="85">
+        <f>U13*AB13*$Y13</f>
+        <v>431.75</v>
+      </c>
+      <c r="AI13" s="88">
         <f t="shared" si="12"/>
-        <v>26.5728443281402</v>
-      </c>
-      <c r="AF13" s="85">
-        <f t="shared" si="17"/>
-        <v>25</v>
-      </c>
-      <c r="AG13" s="85">
+        <v>9.56701030927835</v>
+      </c>
+      <c r="AJ13" s="88">
+        <f>AG13/AD13</f>
+        <v>35.0886075949367</v>
+      </c>
+      <c r="AK13" s="89">
         <f t="shared" si="13"/>
-        <v>5.775</v>
-      </c>
-      <c r="AH13" s="85">
+        <v>22.3278089521075</v>
+      </c>
+      <c r="AL13" s="89">
+        <v>20</v>
+      </c>
+      <c r="AM13">
         <f t="shared" si="14"/>
-        <v>20.9</v>
-      </c>
-      <c r="AI13" s="85">
-        <f t="shared" si="15"/>
-        <v>13.3375</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="16"/>
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="51" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="52">
-        <v>7.5</v>
+        <v>50</v>
       </c>
       <c r="E14" s="53">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F14" s="54">
         <f t="shared" si="0"/>
-        <v>9.25</v>
+        <v>62.5</v>
       </c>
       <c r="G14" s="55">
-        <v>90</v>
+        <v>87.5</v>
       </c>
       <c r="H14" s="53">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I14" s="54">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>91.25</v>
       </c>
       <c r="J14" s="71">
         <v>0.2</v>
@@ -3974,74 +4126,85 @@
         <v>5.25</v>
       </c>
       <c r="S14" s="55">
+        <v>4</v>
+      </c>
+      <c r="T14" s="53">
         <v>6</v>
-      </c>
-      <c r="T14" s="53">
-        <v>8</v>
       </c>
       <c r="U14" s="54">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V14" s="55">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="W14" s="53">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="X14" s="54">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="Y14" s="53">
         <v>1</v>
       </c>
-      <c r="Z14" s="84">
+      <c r="Z14" s="85">
         <f t="shared" si="7"/>
-        <v>25.25</v>
-      </c>
-      <c r="AA14" s="84">
+        <v>80</v>
+      </c>
+      <c r="AA14" s="85">
+        <f>W14/100*E14*2+(1-W14/100)*E14</f>
+        <v>127.5</v>
+      </c>
+      <c r="AB14" s="85">
         <f t="shared" si="8"/>
-        <v>72.52</v>
-      </c>
-      <c r="AB14" s="85">
+        <v>103.75</v>
+      </c>
+      <c r="AC14" s="85">
         <f t="shared" si="9"/>
-        <v>2.87207920792079</v>
-      </c>
-      <c r="AC14" s="85">
+        <v>24.5</v>
+      </c>
+      <c r="AD14" s="85">
+        <f>T14/K14+Q14</f>
+        <v>18</v>
+      </c>
+      <c r="AE14" s="85">
         <f t="shared" si="10"/>
-        <v>9.68478260869565</v>
-      </c>
-      <c r="AD14" s="85">
+        <v>21.25</v>
+      </c>
+      <c r="AF14" s="85">
         <f t="shared" si="11"/>
-        <v>50.16</v>
-      </c>
-      <c r="AE14" s="85">
+        <v>320</v>
+      </c>
+      <c r="AG14" s="85">
+        <f>T14*AA14*$Y14</f>
+        <v>765</v>
+      </c>
+      <c r="AH14" s="85">
+        <f>U14*AB14*$Y14</f>
+        <v>518.75</v>
+      </c>
+      <c r="AI14" s="88">
         <f t="shared" si="12"/>
-        <v>29.9223913043478</v>
-      </c>
-      <c r="AF14" s="85">
-        <f t="shared" si="17"/>
-        <v>30</v>
-      </c>
-      <c r="AG14" s="85">
+        <v>13.0612244897959</v>
+      </c>
+      <c r="AJ14" s="88">
+        <f>AG14/AD14</f>
+        <v>42.5</v>
+      </c>
+      <c r="AK14" s="89">
         <f t="shared" si="13"/>
-        <v>6.75</v>
-      </c>
-      <c r="AH14" s="85">
+        <v>27.780612244898</v>
+      </c>
+      <c r="AL14" s="89">
+        <v>25</v>
+      </c>
+      <c r="AM14">
         <f t="shared" si="14"/>
-        <v>22</v>
-      </c>
-      <c r="AI14" s="85">
-        <f t="shared" si="15"/>
-        <v>14.375</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="16"/>
-        <v>3.2375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35">
+        <v>21.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
       <c r="A15" s="15" t="s">
         <v>67</v>
       </c>
@@ -4068,13 +4231,13 @@
       <c r="T15" s="57"/>
       <c r="U15" s="58"/>
       <c r="V15" s="62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="W15" s="62"/>
       <c r="X15" s="74"/>
       <c r="Y15" s="57"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
       <c r="AB15" s="85"/>
       <c r="AC15" s="85"/>
       <c r="AD15" s="85"/>
@@ -4082,33 +4245,38 @@
       <c r="AF15" s="85"/>
       <c r="AG15" s="85"/>
       <c r="AH15" s="85"/>
-      <c r="AI15" s="85"/>
-    </row>
-    <row r="16" spans="1:36">
+      <c r="AI15" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ15" s="88"/>
+      <c r="AK15" s="88"/>
+      <c r="AL15" s="88"/>
+    </row>
+    <row r="16" spans="1:39">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" s="32">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="E16" s="33">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="G16" s="35">
+        <v>15</v>
+      </c>
+      <c r="H16" s="33">
         <v>25</v>
-      </c>
-      <c r="H16" s="33">
-        <v>35</v>
       </c>
       <c r="I16" s="34">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J16" s="35">
         <v>0.5</v>
@@ -4161,78 +4329,89 @@
         <v>2.25</v>
       </c>
       <c r="Y16" s="33">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="84">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="85">
         <f t="shared" si="7"/>
-        <v>8.08333333333333</v>
-      </c>
-      <c r="AA16" s="84">
+        <v>0.714</v>
+      </c>
+      <c r="AA16" s="85">
+        <f>W16/100*E16*2+(1-W16/100)*E16</f>
+        <v>1.3325</v>
+      </c>
+      <c r="AB16" s="85">
         <f t="shared" si="8"/>
-        <v>9.2025</v>
-      </c>
-      <c r="AB16" s="85">
+        <v>1.02325</v>
+      </c>
+      <c r="AC16" s="85">
         <f t="shared" si="9"/>
-        <v>11.3845360824742</v>
-      </c>
-      <c r="AC16" s="85">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="85">
+        <f>T16/K16+Q16</f>
+        <v>9.5</v>
+      </c>
+      <c r="AE16" s="85">
         <f t="shared" si="10"/>
-        <v>1.9125</v>
-      </c>
-      <c r="AD16" s="85">
+        <v>7.75</v>
+      </c>
+      <c r="AF16" s="85">
         <f t="shared" si="11"/>
-        <v>20.3921052631579</v>
-      </c>
-      <c r="AE16" s="85">
+        <v>12.852</v>
+      </c>
+      <c r="AG16" s="85">
+        <f>T16*AA16*$Y16</f>
+        <v>71.955</v>
+      </c>
+      <c r="AH16" s="85">
+        <f>U16*AB16*$Y16</f>
+        <v>36.837</v>
+      </c>
+      <c r="AI16" s="88">
         <f t="shared" si="12"/>
-        <v>11.1523026315789</v>
-      </c>
-      <c r="AF16" s="85">
-        <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="AG16" s="85">
+        <v>2.142</v>
+      </c>
+      <c r="AJ16" s="88">
+        <f>AG16/AD16</f>
+        <v>7.57421052631579</v>
+      </c>
+      <c r="AK16" s="89">
         <f t="shared" si="13"/>
-        <v>0.375</v>
-      </c>
-      <c r="AH16" s="85">
+        <v>4.85810526315789</v>
+      </c>
+      <c r="AL16" s="89">
+        <v>5</v>
+      </c>
+      <c r="AM16">
         <f t="shared" si="14"/>
-        <v>2.1</v>
-      </c>
-      <c r="AI16" s="85">
-        <f t="shared" si="15"/>
-        <v>1.2375</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="16"/>
-        <v>16.875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" s="37">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E17" s="38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="39">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="G17" s="40">
-        <v>27.5</v>
+        <v>20</v>
       </c>
       <c r="H17" s="38">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I17" s="39">
         <f t="shared" si="1"/>
-        <v>31.25</v>
+        <v>25</v>
       </c>
       <c r="J17" s="40">
         <v>0.625</v>
@@ -4285,78 +4464,89 @@
         <v>2.25</v>
       </c>
       <c r="Y17" s="38">
-        <v>11</v>
-      </c>
-      <c r="Z17" s="84">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="85">
         <f t="shared" si="7"/>
-        <v>8.33928571428572</v>
-      </c>
-      <c r="AA17" s="84">
+        <v>1.224</v>
+      </c>
+      <c r="AA17" s="85">
+        <f>W17/100*E17*2+(1-W17/100)*E17</f>
+        <v>2.05</v>
+      </c>
+      <c r="AB17" s="85">
         <f t="shared" si="8"/>
-        <v>11.503125</v>
-      </c>
-      <c r="AB17" s="85">
+        <v>1.637</v>
+      </c>
+      <c r="AC17" s="85">
         <f t="shared" si="9"/>
-        <v>15.1732869379015</v>
-      </c>
-      <c r="AC17" s="85">
+        <v>6.8</v>
+      </c>
+      <c r="AD17" s="85">
+        <f>T17/K17+Q17</f>
+        <v>9.47222222222222</v>
+      </c>
+      <c r="AE17" s="85">
         <f t="shared" si="10"/>
-        <v>3.0628125</v>
-      </c>
-      <c r="AD17" s="85">
+        <v>8.13611111111111</v>
+      </c>
+      <c r="AF17" s="85">
         <f t="shared" si="11"/>
-        <v>26.2466129032258</v>
-      </c>
-      <c r="AE17" s="85">
+        <v>36.72</v>
+      </c>
+      <c r="AG17" s="85">
+        <f>T17*AA17*$Y17</f>
+        <v>143.5</v>
+      </c>
+      <c r="AH17" s="85">
+        <f>U17*AB17*$Y17</f>
+        <v>81.85</v>
+      </c>
+      <c r="AI17" s="88">
         <f t="shared" si="12"/>
-        <v>14.6547127016129</v>
-      </c>
-      <c r="AF17" s="85">
-        <f t="shared" si="17"/>
-        <v>15</v>
-      </c>
-      <c r="AG17" s="85">
+        <v>5.4</v>
+      </c>
+      <c r="AJ17" s="88">
+        <f>AG17/AD17</f>
+        <v>15.1495601173021</v>
+      </c>
+      <c r="AK17" s="89">
         <f t="shared" si="13"/>
-        <v>0.4125</v>
-      </c>
-      <c r="AH17" s="85">
+        <v>10.274780058651</v>
+      </c>
+      <c r="AL17" s="89">
+        <v>10</v>
+      </c>
+      <c r="AM17">
         <f t="shared" si="14"/>
-        <v>2.1</v>
-      </c>
-      <c r="AI17" s="85">
-        <f t="shared" si="15"/>
-        <v>1.25625</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="16"/>
-        <v>21.65625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="42">
         <v>1.5</v>
       </c>
       <c r="E18" s="43">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="F18" s="44">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="G18" s="45">
-        <v>27.5</v>
+        <v>25</v>
       </c>
       <c r="H18" s="43">
-        <v>37.5</v>
+        <v>35</v>
       </c>
       <c r="I18" s="44">
         <f t="shared" si="1"/>
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="J18" s="45">
         <v>0.75</v>
@@ -4409,78 +4599,89 @@
         <v>2.25</v>
       </c>
       <c r="Y18" s="43">
-        <v>12</v>
-      </c>
-      <c r="Z18" s="84">
+        <v>11</v>
+      </c>
+      <c r="Z18" s="85">
         <f t="shared" si="7"/>
-        <v>8.5</v>
-      </c>
-      <c r="AA18" s="84">
+        <v>1.53</v>
+      </c>
+      <c r="AA18" s="85">
+        <f>W18/100*E18*2+(1-W18/100)*E18</f>
+        <v>2.255</v>
+      </c>
+      <c r="AB18" s="85">
         <f t="shared" si="8"/>
-        <v>13.80375</v>
-      </c>
-      <c r="AB18" s="85">
+        <v>1.8925</v>
+      </c>
+      <c r="AC18" s="85">
         <f t="shared" si="9"/>
-        <v>19.4876470588235</v>
-      </c>
-      <c r="AC18" s="85">
+        <v>7.33333333333333</v>
+      </c>
+      <c r="AD18" s="85">
+        <f>T18/K18+Q18</f>
+        <v>9.4</v>
+      </c>
+      <c r="AE18" s="85">
         <f t="shared" si="10"/>
-        <v>4.131</v>
-      </c>
-      <c r="AD18" s="85">
+        <v>8.36666666666667</v>
+      </c>
+      <c r="AF18" s="85">
         <f t="shared" si="11"/>
-        <v>35.3297872340425</v>
-      </c>
-      <c r="AE18" s="85">
+        <v>67.32</v>
+      </c>
+      <c r="AG18" s="85">
+        <f>T18*AA18*$Y18</f>
+        <v>198.44</v>
+      </c>
+      <c r="AH18" s="85">
+        <f>U18*AB18*$Y18</f>
+        <v>124.905</v>
+      </c>
+      <c r="AI18" s="88">
         <f t="shared" si="12"/>
-        <v>19.7303936170213</v>
-      </c>
-      <c r="AF18" s="85">
-        <f t="shared" si="17"/>
-        <v>20</v>
-      </c>
-      <c r="AG18" s="85">
+        <v>9.18</v>
+      </c>
+      <c r="AJ18" s="88">
+        <f>AG18/AD18</f>
+        <v>21.1106382978723</v>
+      </c>
+      <c r="AK18" s="89">
         <f t="shared" si="13"/>
-        <v>0.4125</v>
-      </c>
-      <c r="AH18" s="85">
+        <v>15.1453191489362</v>
+      </c>
+      <c r="AL18" s="89">
+        <v>15</v>
+      </c>
+      <c r="AM18">
         <f t="shared" si="14"/>
-        <v>2.25</v>
-      </c>
-      <c r="AI18" s="85">
-        <f t="shared" si="15"/>
-        <v>1.33125</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="16"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36">
+        <v>20.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="47">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E19" s="48">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="F19" s="49">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="G19" s="50">
         <v>30</v>
       </c>
       <c r="H19" s="48">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" si="1"/>
-        <v>33.75</v>
+        <v>35</v>
       </c>
       <c r="J19" s="50">
         <v>0.875</v>
@@ -4533,78 +4734,89 @@
         <v>2.25</v>
       </c>
       <c r="Y19" s="48">
-        <v>14</v>
-      </c>
-      <c r="Z19" s="84">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="85">
         <f t="shared" si="7"/>
-        <v>8.56969026548673</v>
-      </c>
-      <c r="AA19" s="84">
+        <v>1.836</v>
+      </c>
+      <c r="AA19" s="85">
+        <f>W19/100*E19*2+(1-W19/100)*E19</f>
+        <v>2.255</v>
+      </c>
+      <c r="AB19" s="85">
         <f t="shared" si="8"/>
-        <v>16.104375</v>
-      </c>
-      <c r="AB19" s="85">
+        <v>2.0455</v>
+      </c>
+      <c r="AC19" s="85">
         <f t="shared" si="9"/>
-        <v>26.3091480573125</v>
-      </c>
-      <c r="AC19" s="85">
+        <v>7.71428571428571</v>
+      </c>
+      <c r="AD19" s="85">
+        <f>T19/K19+Q19</f>
+        <v>9.24819494584838</v>
+      </c>
+      <c r="AE19" s="85">
         <f t="shared" si="10"/>
-        <v>6.2475</v>
-      </c>
-      <c r="AD19" s="85">
+        <v>8.48124033006705</v>
+      </c>
+      <c r="AF19" s="85">
         <f t="shared" si="11"/>
-        <v>47.1314945837806</v>
-      </c>
-      <c r="AE19" s="85">
+        <v>110.16</v>
+      </c>
+      <c r="AG19" s="85">
+        <f>T19*AA19*$Y19</f>
+        <v>243.54</v>
+      </c>
+      <c r="AH19" s="85">
+        <f>U19*AB19*$Y19</f>
+        <v>171.822</v>
+      </c>
+      <c r="AI19" s="88">
         <f t="shared" si="12"/>
-        <v>26.6894972918903</v>
-      </c>
-      <c r="AF19" s="85">
-        <f t="shared" si="17"/>
-        <v>25</v>
-      </c>
-      <c r="AG19" s="85">
+        <v>14.28</v>
+      </c>
+      <c r="AJ19" s="88">
+        <f>AG19/AD19</f>
+        <v>26.3337874499854</v>
+      </c>
+      <c r="AK19" s="89">
         <f t="shared" si="13"/>
-        <v>0.45</v>
-      </c>
-      <c r="AH19" s="85">
+        <v>20.3068937249927</v>
+      </c>
+      <c r="AL19" s="89">
+        <v>20</v>
+      </c>
+      <c r="AM19">
         <f t="shared" si="14"/>
-        <v>2.25</v>
-      </c>
-      <c r="AI19" s="85">
-        <f t="shared" si="15"/>
-        <v>1.35</v>
-      </c>
-      <c r="AJ19">
-        <f t="shared" si="16"/>
-        <v>35.595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36">
+        <v>27.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="52">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="E20" s="53">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="F20" s="54">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="G20" s="55">
         <v>35</v>
       </c>
       <c r="H20" s="53">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I20" s="54">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="J20" s="55">
         <v>1</v>
@@ -4657,56 +4869,67 @@
         <v>2.25</v>
       </c>
       <c r="Y20" s="53">
-        <v>15</v>
-      </c>
-      <c r="Z20" s="84">
+        <v>13</v>
+      </c>
+      <c r="Z20" s="85">
         <f t="shared" si="7"/>
-        <v>8.65</v>
-      </c>
-      <c r="AA20" s="84">
+        <v>1.938</v>
+      </c>
+      <c r="AA20" s="85">
+        <f>W20/100*E20*2+(1-W20/100)*E20</f>
+        <v>2.255</v>
+      </c>
+      <c r="AB20" s="85">
         <f t="shared" si="8"/>
-        <v>18.405</v>
-      </c>
-      <c r="AB20" s="85">
+        <v>2.0965</v>
+      </c>
+      <c r="AC20" s="85">
         <f t="shared" si="9"/>
-        <v>31.9161849710983</v>
-      </c>
-      <c r="AC20" s="85">
+        <v>8</v>
+      </c>
+      <c r="AD20" s="85">
+        <f>T20/K20+Q20</f>
+        <v>9.16666666666667</v>
+      </c>
+      <c r="AE20" s="85">
         <f t="shared" si="10"/>
-        <v>9.0365625</v>
-      </c>
-      <c r="AD20" s="85">
+        <v>8.58333333333333</v>
+      </c>
+      <c r="AF20" s="85">
         <f t="shared" si="11"/>
-        <v>60.3818181818182</v>
-      </c>
-      <c r="AE20" s="85">
+        <v>151.164</v>
+      </c>
+      <c r="AG20" s="85">
+        <f>T20*AA20*$Y20</f>
+        <v>293.15</v>
+      </c>
+      <c r="AH20" s="85">
+        <f>U20*AB20*$Y20</f>
+        <v>218.036</v>
+      </c>
+      <c r="AI20" s="88">
         <f t="shared" si="12"/>
-        <v>34.7091903409091</v>
-      </c>
-      <c r="AF20" s="85">
-        <f t="shared" si="17"/>
-        <v>30</v>
-      </c>
-      <c r="AG20" s="85">
+        <v>18.8955</v>
+      </c>
+      <c r="AJ20" s="88">
+        <f>AG20/AD20</f>
+        <v>31.98</v>
+      </c>
+      <c r="AK20" s="89">
         <f t="shared" si="13"/>
-        <v>0.525</v>
-      </c>
-      <c r="AH20" s="85">
+        <v>25.43775</v>
+      </c>
+      <c r="AL20" s="89">
+        <v>25</v>
+      </c>
+      <c r="AM20">
         <f t="shared" si="14"/>
-        <v>2.4</v>
-      </c>
-      <c r="AI20" s="85">
-        <f t="shared" si="15"/>
-        <v>1.4625</v>
-      </c>
-      <c r="AJ20">
-        <f t="shared" si="16"/>
-        <v>42.1875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35">
+        <v>33.3125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
       <c r="A21" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="15" t="b">
         <v>0</v>
@@ -4716,7 +4939,7 @@
       <c r="E21" s="60"/>
       <c r="F21" s="61"/>
       <c r="G21" s="62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H21" s="62"/>
       <c r="I21" s="74"/>
@@ -4736,8 +4959,8 @@
       <c r="W21" s="81"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="57"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="85"/>
       <c r="AB21" s="85"/>
       <c r="AC21" s="85"/>
       <c r="AD21" s="85"/>
@@ -4745,23 +4968,28 @@
       <c r="AF21" s="85"/>
       <c r="AG21" s="85"/>
       <c r="AH21" s="85"/>
-      <c r="AI21" s="85"/>
-    </row>
-    <row r="22" spans="1:36">
+      <c r="AI21" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ21" s="88"/>
+      <c r="AK21" s="88"/>
+      <c r="AL21" s="88"/>
+    </row>
+    <row r="22" spans="1:39">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D22" s="32">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="E22" s="33">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="G22" s="63">
         <v>50</v>
@@ -4826,66 +5054,77 @@
       <c r="Y22" s="33">
         <v>1</v>
       </c>
-      <c r="Z22" s="84">
+      <c r="Z22" s="85">
         <f t="shared" si="7"/>
-        <v>5.22727272727273</v>
-      </c>
-      <c r="AA22" s="84">
+        <v>1.111</v>
+      </c>
+      <c r="AA22" s="85">
+        <f>W22/100*E22*2+(1-W22/100)*E22</f>
+        <v>2.255</v>
+      </c>
+      <c r="AB22" s="85">
         <f t="shared" si="8"/>
-        <v>38.15625</v>
-      </c>
-      <c r="AB22" s="85">
+        <v>1.683</v>
+      </c>
+      <c r="AC22" s="85">
         <f t="shared" si="9"/>
-        <v>7.29945652173913</v>
-      </c>
-      <c r="AC22" s="85">
+        <v>4.5</v>
+      </c>
+      <c r="AD22" s="85">
+        <f>T22/K22+Q22</f>
+        <v>5.85714285714286</v>
+      </c>
+      <c r="AE22" s="85">
         <f t="shared" si="10"/>
-        <v>2.525</v>
-      </c>
-      <c r="AD22" s="85">
+        <v>5.17857142857143</v>
+      </c>
+      <c r="AF22" s="85">
         <f t="shared" si="11"/>
-        <v>25.725</v>
-      </c>
-      <c r="AE22" s="85">
+        <v>11.11</v>
+      </c>
+      <c r="AG22" s="85">
+        <f>T22*AA22*$Y22</f>
+        <v>45.1</v>
+      </c>
+      <c r="AH22" s="85">
+        <f>U22*AB22*$Y22</f>
+        <v>25.245</v>
+      </c>
+      <c r="AI22" s="88">
         <f t="shared" si="12"/>
-        <v>14.125</v>
-      </c>
-      <c r="AF22" s="85">
-        <f t="shared" ref="AF22:AF26" si="18">AF16</f>
-        <v>10</v>
-      </c>
-      <c r="AG22" s="85">
+        <v>2.46888888888889</v>
+      </c>
+      <c r="AJ22" s="88">
+        <f>AG22/AD22</f>
+        <v>7.7</v>
+      </c>
+      <c r="AK22" s="89">
         <f t="shared" si="13"/>
-        <v>0.75</v>
-      </c>
-      <c r="AH22" s="85">
+        <v>5.08444444444444</v>
+      </c>
+      <c r="AL22" s="89">
+        <v>5</v>
+      </c>
+      <c r="AM22">
         <f t="shared" si="14"/>
-        <v>4.2</v>
-      </c>
-      <c r="AI22" s="85">
-        <f t="shared" si="15"/>
-        <v>2.475</v>
-      </c>
-      <c r="AJ22">
-        <f t="shared" si="16"/>
-        <v>13.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36">
+        <v>9.075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" s="37">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E23" s="38">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="F23" s="39">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="G23" s="65">
         <v>50</v>
@@ -4950,66 +5189,77 @@
       <c r="Y23" s="38">
         <v>1</v>
       </c>
-      <c r="Z23" s="84">
+      <c r="Z23" s="85">
         <f t="shared" si="7"/>
-        <v>5.32692307692308</v>
-      </c>
-      <c r="AA23" s="84">
+        <v>2.025</v>
+      </c>
+      <c r="AA23" s="85">
+        <f>W23/100*E23*2+(1-W23/100)*E23</f>
+        <v>3.18525</v>
+      </c>
+      <c r="AB23" s="85">
         <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-      <c r="AB23" s="85">
+        <v>2.605125</v>
+      </c>
+      <c r="AC23" s="85">
         <f t="shared" si="9"/>
-        <v>9.57400722021661</v>
-      </c>
-      <c r="AC23" s="85">
+        <v>4.75</v>
+      </c>
+      <c r="AD23" s="85">
+        <f>T23/K23+Q23</f>
+        <v>5.875</v>
+      </c>
+      <c r="AE23" s="85">
         <f t="shared" si="10"/>
-        <v>3.59703947368421</v>
-      </c>
-      <c r="AD23" s="85">
+        <v>5.3125</v>
+      </c>
+      <c r="AF23" s="85">
         <f t="shared" si="11"/>
-        <v>32.1367021276596</v>
-      </c>
-      <c r="AE23" s="85">
+        <v>30.375</v>
+      </c>
+      <c r="AG23" s="85">
+        <f>T23*AA23*$Y23</f>
+        <v>79.63125</v>
+      </c>
+      <c r="AH23" s="85">
+        <f>U23*AB23*$Y23</f>
+        <v>52.1025</v>
+      </c>
+      <c r="AI23" s="88">
         <f t="shared" si="12"/>
-        <v>17.8668708006719</v>
-      </c>
-      <c r="AF23" s="85">
-        <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="AG23" s="85">
+        <v>6.39473684210526</v>
+      </c>
+      <c r="AJ23" s="88">
+        <f>AG23/AD23</f>
+        <v>13.5542553191489</v>
+      </c>
+      <c r="AK23" s="89">
         <f t="shared" si="13"/>
-        <v>0.75</v>
-      </c>
-      <c r="AH23" s="85">
+        <v>9.9744960806271</v>
+      </c>
+      <c r="AL23" s="89">
+        <v>10</v>
+      </c>
+      <c r="AM23">
         <f t="shared" si="14"/>
-        <v>4.2</v>
-      </c>
-      <c r="AI23" s="85">
-        <f t="shared" si="15"/>
-        <v>2.475</v>
-      </c>
-      <c r="AJ23">
-        <f t="shared" si="16"/>
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36">
+        <v>16.575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="41" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="42">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="E24" s="43">
         <v>3.5</v>
       </c>
       <c r="F24" s="44">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="G24" s="67">
         <v>50</v>
@@ -5074,66 +5324,77 @@
       <c r="Y24" s="43">
         <v>1</v>
       </c>
-      <c r="Z24" s="84">
+      <c r="Z24" s="85">
         <f t="shared" si="7"/>
+        <v>2.7405</v>
+      </c>
+      <c r="AA24" s="85">
+        <f>W24/100*E24*2+(1-W24/100)*E24</f>
+        <v>3.605</v>
+      </c>
+      <c r="AB24" s="85">
+        <f t="shared" si="8"/>
+        <v>3.17275</v>
+      </c>
+      <c r="AC24" s="85">
+        <f t="shared" si="9"/>
+        <v>4.83333333333333</v>
+      </c>
+      <c r="AD24" s="85">
+        <f>T24/K24+Q24</f>
+        <v>5.83333333333333</v>
+      </c>
+      <c r="AE24" s="85">
+        <f t="shared" si="10"/>
         <v>5.33333333333333</v>
       </c>
-      <c r="AA24" s="84">
-        <f t="shared" si="8"/>
-        <v>63.90625</v>
-      </c>
-      <c r="AB24" s="85">
-        <f t="shared" si="9"/>
-        <v>11.982421875</v>
-      </c>
-      <c r="AC24" s="85">
-        <f t="shared" si="10"/>
-        <v>4.725</v>
-      </c>
-      <c r="AD24" s="85">
+      <c r="AF24" s="85">
         <f t="shared" si="11"/>
-        <v>38.934</v>
-      </c>
-      <c r="AE24" s="85">
+        <v>54.81</v>
+      </c>
+      <c r="AG24" s="85">
+        <f>T24*AA24*$Y24</f>
+        <v>108.15</v>
+      </c>
+      <c r="AH24" s="85">
+        <f>U24*AB24*$Y24</f>
+        <v>79.31875</v>
+      </c>
+      <c r="AI24" s="88">
         <f t="shared" si="12"/>
-        <v>21.8295</v>
-      </c>
-      <c r="AF24" s="85">
-        <f t="shared" si="18"/>
-        <v>20</v>
-      </c>
-      <c r="AG24" s="85">
+        <v>11.34</v>
+      </c>
+      <c r="AJ24" s="88">
+        <f>AG24/AD24</f>
+        <v>18.54</v>
+      </c>
+      <c r="AK24" s="89">
         <f t="shared" si="13"/>
-        <v>0.75</v>
-      </c>
-      <c r="AH24" s="85">
+        <v>14.94</v>
+      </c>
+      <c r="AL24" s="89">
+        <v>15</v>
+      </c>
+      <c r="AM24">
         <f t="shared" si="14"/>
-        <v>4.2</v>
-      </c>
-      <c r="AI24" s="85">
-        <f t="shared" si="15"/>
-        <v>2.475</v>
-      </c>
-      <c r="AJ24">
-        <f t="shared" si="16"/>
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36">
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
       <c r="C25" s="46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="47">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E25" s="48">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="F25" s="49">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="G25" s="69">
         <v>50</v>
@@ -5198,66 +5459,77 @@
       <c r="Y25" s="48">
         <v>1</v>
       </c>
-      <c r="Z25" s="84">
+      <c r="Z25" s="85">
         <f t="shared" si="7"/>
-        <v>5.27941176470588</v>
-      </c>
-      <c r="AA25" s="84">
+        <v>3.0525</v>
+      </c>
+      <c r="AA25" s="85">
+        <f>W25/100*E25*2+(1-W25/100)*E25</f>
+        <v>3.9235</v>
+      </c>
+      <c r="AB25" s="85">
         <f t="shared" si="8"/>
-        <v>76.875</v>
-      </c>
-      <c r="AB25" s="85">
+        <v>3.488</v>
+      </c>
+      <c r="AC25" s="85">
         <f t="shared" si="9"/>
-        <v>14.5612813370474</v>
-      </c>
-      <c r="AC25" s="85">
+        <v>4.82142857142857</v>
+      </c>
+      <c r="AD25" s="85">
+        <f>T25/K25+Q25</f>
+        <v>5.75</v>
+      </c>
+      <c r="AE25" s="85">
         <f t="shared" si="10"/>
-        <v>5.93541666666667</v>
-      </c>
-      <c r="AD25" s="85">
+        <v>5.28571428571429</v>
+      </c>
+      <c r="AF25" s="85">
         <f t="shared" si="11"/>
-        <v>46.193152173913</v>
-      </c>
-      <c r="AE25" s="85">
+        <v>76.3125</v>
+      </c>
+      <c r="AG25" s="85">
+        <f>T25*AA25*$Y25</f>
+        <v>137.3225</v>
+      </c>
+      <c r="AH25" s="85">
+        <f>U25*AB25*$Y25</f>
+        <v>104.64</v>
+      </c>
+      <c r="AI25" s="88">
         <f t="shared" si="12"/>
-        <v>26.0642844202899</v>
-      </c>
-      <c r="AF25" s="85">
-        <f t="shared" si="18"/>
-        <v>25</v>
-      </c>
-      <c r="AG25" s="85">
+        <v>15.8277777777778</v>
+      </c>
+      <c r="AJ25" s="88">
+        <f>AG25/AD25</f>
+        <v>23.8821739130435</v>
+      </c>
+      <c r="AK25" s="89">
         <f t="shared" si="13"/>
-        <v>0.75</v>
-      </c>
-      <c r="AH25" s="85">
+        <v>19.8549758454106</v>
+      </c>
+      <c r="AL25" s="89">
+        <v>20</v>
+      </c>
+      <c r="AM25">
         <f t="shared" si="14"/>
-        <v>4.2</v>
-      </c>
-      <c r="AI25" s="85">
-        <f t="shared" si="15"/>
-        <v>2.475</v>
-      </c>
-      <c r="AJ25">
-        <f t="shared" si="16"/>
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="52">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="E26" s="53">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F26" s="54">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="G26" s="71">
         <v>50</v>
@@ -5322,54 +5594,65 @@
       <c r="Y26" s="53">
         <v>1</v>
       </c>
-      <c r="Z26" s="84">
+      <c r="Z26" s="85">
         <f t="shared" si="7"/>
-        <v>5.18421052631579</v>
-      </c>
-      <c r="AA26" s="84">
+        <v>3.264</v>
+      </c>
+      <c r="AA26" s="85">
+        <f>W26/100*E26*2+(1-W26/100)*E26</f>
+        <v>4.14</v>
+      </c>
+      <c r="AB26" s="85">
         <f t="shared" si="8"/>
-        <v>89.90625</v>
-      </c>
-      <c r="AB26" s="85">
+        <v>3.702</v>
+      </c>
+      <c r="AC26" s="85">
         <f t="shared" si="9"/>
-        <v>17.3423223350254</v>
-      </c>
-      <c r="AC26" s="85">
+        <v>4.75</v>
+      </c>
+      <c r="AD26" s="85">
+        <f>T26/K26+Q26</f>
+        <v>5.63636363636364</v>
+      </c>
+      <c r="AE26" s="85">
         <f t="shared" si="10"/>
-        <v>7.24736842105263</v>
-      </c>
-      <c r="AD26" s="85">
+        <v>5.19318181818182</v>
+      </c>
+      <c r="AF26" s="85">
         <f t="shared" si="11"/>
-        <v>53.986935483871</v>
-      </c>
-      <c r="AE26" s="85">
+        <v>97.92</v>
+      </c>
+      <c r="AG26" s="85">
+        <f>T26*AA26*$Y26</f>
+        <v>165.6</v>
+      </c>
+      <c r="AH26" s="85">
+        <f>U26*AB26*$Y26</f>
+        <v>129.57</v>
+      </c>
+      <c r="AI26" s="88">
         <f t="shared" si="12"/>
-        <v>30.6171519524618</v>
-      </c>
-      <c r="AF26" s="85">
-        <f t="shared" si="18"/>
-        <v>30</v>
-      </c>
-      <c r="AG26" s="85">
+        <v>20.6147368421053</v>
+      </c>
+      <c r="AJ26" s="88">
+        <f>AG26/AD26</f>
+        <v>29.3806451612903</v>
+      </c>
+      <c r="AK26" s="89">
         <f t="shared" si="13"/>
-        <v>0.75</v>
-      </c>
-      <c r="AH26" s="85">
+        <v>24.9976910016978</v>
+      </c>
+      <c r="AL26" s="89">
+        <v>25</v>
+      </c>
+      <c r="AM26">
         <f t="shared" si="14"/>
-        <v>4.2</v>
-      </c>
-      <c r="AI26" s="85">
-        <f t="shared" si="15"/>
-        <v>2.475</v>
-      </c>
-      <c r="AJ26">
-        <f t="shared" si="16"/>
-        <v>23.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38">
       <c r="A27" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B27" s="15" t="b">
         <v>0</v>
@@ -5385,7 +5668,7 @@
       <c r="K27" s="57"/>
       <c r="L27" s="58"/>
       <c r="M27" s="62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N27" s="62"/>
       <c r="O27" s="74"/>
@@ -5399,8 +5682,8 @@
       <c r="W27" s="81"/>
       <c r="X27" s="58"/>
       <c r="Y27" s="57"/>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="84"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="85"/>
       <c r="AB27" s="85"/>
       <c r="AC27" s="85"/>
       <c r="AD27" s="85"/>
@@ -5408,23 +5691,28 @@
       <c r="AF27" s="85"/>
       <c r="AG27" s="85"/>
       <c r="AH27" s="85"/>
-      <c r="AI27" s="85"/>
-    </row>
-    <row r="28" spans="1:36">
+      <c r="AI27" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ27" s="88"/>
+      <c r="AK27" s="88"/>
+      <c r="AL27" s="88"/>
+    </row>
+    <row r="28" spans="1:39">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D28" s="32">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="E28" s="33">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="G28" s="35">
         <v>30</v>
@@ -5489,66 +5777,77 @@
       <c r="Y28" s="33">
         <v>1</v>
       </c>
-      <c r="Z28" s="84">
+      <c r="Z28" s="85">
         <f t="shared" si="7"/>
-        <v>26.3636363636364</v>
-      </c>
-      <c r="AA28" s="84">
+        <v>2.295</v>
+      </c>
+      <c r="AA28" s="85">
+        <f>W28/100*E28*2+(1-W28/100)*E28</f>
+        <v>3.38</v>
+      </c>
+      <c r="AB28" s="85">
         <f t="shared" si="8"/>
-        <v>150.6375</v>
-      </c>
-      <c r="AB28" s="85">
+        <v>2.8375</v>
+      </c>
+      <c r="AC28" s="85">
         <f t="shared" si="9"/>
-        <v>5.71383620689655</v>
-      </c>
-      <c r="AC28" s="85">
+        <v>28</v>
+      </c>
+      <c r="AD28" s="85">
+        <f>T28/K28+Q28</f>
+        <v>27</v>
+      </c>
+      <c r="AE28" s="85">
         <f t="shared" si="10"/>
-        <v>1.31142857142857</v>
-      </c>
-      <c r="AD28" s="85">
+        <v>27.5</v>
+      </c>
+      <c r="AF28" s="85">
         <f t="shared" si="11"/>
-        <v>18.72</v>
-      </c>
-      <c r="AE28" s="85">
+        <v>68.85</v>
+      </c>
+      <c r="AG28" s="85">
+        <f>T28*AA28*$Y28</f>
+        <v>202.8</v>
+      </c>
+      <c r="AH28" s="85">
+        <f>U28*AB28*$Y28</f>
+        <v>127.6875</v>
+      </c>
+      <c r="AI28" s="88">
         <f t="shared" si="12"/>
-        <v>10.0157142857143</v>
-      </c>
-      <c r="AF28" s="85">
-        <f t="shared" ref="AF28:AF32" si="19">AF22</f>
-        <v>10</v>
-      </c>
-      <c r="AG28" s="85">
+        <v>2.45892857142857</v>
+      </c>
+      <c r="AJ28" s="88">
+        <f>AG28/AD28</f>
+        <v>7.51111111111111</v>
+      </c>
+      <c r="AK28" s="89">
         <f t="shared" si="13"/>
-        <v>0.6</v>
-      </c>
-      <c r="AH28" s="85">
+        <v>4.98501984126984</v>
+      </c>
+      <c r="AL28" s="89">
+        <v>5</v>
+      </c>
+      <c r="AM28">
         <f t="shared" si="14"/>
-        <v>3.6</v>
-      </c>
-      <c r="AI28" s="85">
-        <f t="shared" si="15"/>
-        <v>2.1</v>
-      </c>
-      <c r="AJ28">
-        <f t="shared" si="16"/>
-        <v>8.9375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36">
+        <v>7.5625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D29" s="37">
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="E29" s="38">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="F29" s="39">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="G29" s="40">
         <v>35</v>
@@ -5601,78 +5900,89 @@
         <v>56</v>
       </c>
       <c r="V29" s="40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W29" s="38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X29" s="39">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y29" s="38">
         <v>1</v>
       </c>
-      <c r="Z29" s="84">
+      <c r="Z29" s="85">
         <f t="shared" si="7"/>
-        <v>31.1611111111111</v>
-      </c>
-      <c r="AA29" s="84">
+        <v>4.42</v>
+      </c>
+      <c r="AA29" s="85">
+        <f>W29/100*E29*2+(1-W29/100)*E29</f>
+        <v>6.625</v>
+      </c>
+      <c r="AB29" s="85">
         <f t="shared" si="8"/>
-        <v>203.84</v>
-      </c>
-      <c r="AB29" s="85">
+        <v>5.5225</v>
+      </c>
+      <c r="AC29" s="85">
         <f t="shared" si="9"/>
-        <v>6.5414868960599</v>
-      </c>
-      <c r="AC29" s="85">
+        <v>31.2692307692308</v>
+      </c>
+      <c r="AD29" s="85">
+        <f>T29/K29+Q29</f>
+        <v>32.75</v>
+      </c>
+      <c r="AE29" s="85">
         <f t="shared" si="10"/>
-        <v>1.70627798277983</v>
-      </c>
-      <c r="AD29" s="85">
+        <v>32.0096153846154</v>
+      </c>
+      <c r="AF29" s="85">
         <f t="shared" si="11"/>
-        <v>27.0515267175573</v>
-      </c>
-      <c r="AE29" s="85">
+        <v>163.54</v>
+      </c>
+      <c r="AG29" s="85">
+        <f>T29*AA29*$Y29</f>
+        <v>496.875</v>
+      </c>
+      <c r="AH29" s="85">
+        <f>U29*AB29*$Y29</f>
+        <v>309.26</v>
+      </c>
+      <c r="AI29" s="88">
         <f t="shared" si="12"/>
-        <v>14.3789023501685</v>
-      </c>
-      <c r="AF29" s="85">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="AG29" s="85">
+        <v>5.23006150061501</v>
+      </c>
+      <c r="AJ29" s="88">
+        <f>AG29/AD29</f>
+        <v>15.1717557251908</v>
+      </c>
+      <c r="AK29" s="89">
         <f t="shared" si="13"/>
-        <v>0.7</v>
-      </c>
-      <c r="AH29" s="85">
+        <v>10.2009086129029</v>
+      </c>
+      <c r="AL29" s="89">
+        <v>10</v>
+      </c>
+      <c r="AM29">
         <f t="shared" si="14"/>
-        <v>4.5</v>
-      </c>
-      <c r="AI29" s="85">
-        <f t="shared" si="15"/>
-        <v>2.6</v>
-      </c>
-      <c r="AJ29">
-        <f t="shared" si="16"/>
-        <v>9.84375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36">
+        <v>14.765625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D30" s="42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E30" s="43">
-        <v>5.5</v>
+        <v>8.75</v>
       </c>
       <c r="F30" s="44">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>7.375</v>
       </c>
       <c r="G30" s="45">
         <v>40</v>
@@ -5725,78 +6035,89 @@
         <v>67.5</v>
       </c>
       <c r="V30" s="45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W30" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X30" s="44">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y30" s="43">
         <v>1</v>
       </c>
-      <c r="Z30" s="84">
+      <c r="Z30" s="85">
         <f t="shared" si="7"/>
-        <v>35.9782608695652</v>
-      </c>
-      <c r="AA30" s="84">
+        <v>6.36</v>
+      </c>
+      <c r="AA30" s="85">
+        <f>W30/100*E30*2+(1-W30/100)*E30</f>
+        <v>9.45</v>
+      </c>
+      <c r="AB30" s="85">
         <f t="shared" si="8"/>
-        <v>265.78125</v>
-      </c>
-      <c r="AB30" s="85">
+        <v>7.905</v>
+      </c>
+      <c r="AC30" s="85">
         <f t="shared" si="9"/>
-        <v>7.38727341389728</v>
-      </c>
-      <c r="AC30" s="85">
+        <v>34.7142857142857</v>
+      </c>
+      <c r="AD30" s="85">
+        <f>T30/K30+Q30</f>
+        <v>38.5</v>
+      </c>
+      <c r="AE30" s="85">
         <f t="shared" si="10"/>
-        <v>2.15703703703704</v>
-      </c>
-      <c r="AD30" s="85">
+        <v>36.6071428571429</v>
+      </c>
+      <c r="AF30" s="85">
         <f t="shared" si="11"/>
-        <v>37.4785714285714</v>
-      </c>
-      <c r="AE30" s="85">
+        <v>286.2</v>
+      </c>
+      <c r="AG30" s="85">
+        <f>T30*AA30*$Y30</f>
+        <v>850.5</v>
+      </c>
+      <c r="AH30" s="85">
+        <f>U30*AB30*$Y30</f>
+        <v>533.5875</v>
+      </c>
+      <c r="AI30" s="88">
         <f t="shared" si="12"/>
-        <v>19.8178042328042</v>
-      </c>
-      <c r="AF30" s="85">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="AG30" s="85">
+        <v>8.24444444444444</v>
+      </c>
+      <c r="AJ30" s="88">
+        <f>AG30/AD30</f>
+        <v>22.0909090909091</v>
+      </c>
+      <c r="AK30" s="89">
         <f t="shared" si="13"/>
-        <v>0.8</v>
-      </c>
-      <c r="AH30" s="85">
+        <v>15.1676767676768</v>
+      </c>
+      <c r="AL30" s="89">
+        <v>15</v>
+      </c>
+      <c r="AM30">
         <f t="shared" si="14"/>
-        <v>5.5</v>
-      </c>
-      <c r="AI30" s="85">
-        <f t="shared" si="15"/>
-        <v>3.15</v>
-      </c>
-      <c r="AJ30">
-        <f t="shared" si="16"/>
-        <v>10.78125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36">
+        <v>21.203125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D31" s="47">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="E31" s="48">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="F31" s="49">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="G31" s="50">
         <v>45</v>
@@ -5849,78 +6170,89 @@
         <v>78.5</v>
       </c>
       <c r="V31" s="50">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W31" s="48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X31" s="49">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y31" s="48">
         <v>1</v>
       </c>
-      <c r="Z31" s="84">
+      <c r="Z31" s="85">
         <f t="shared" si="7"/>
-        <v>40.4734042553192</v>
-      </c>
-      <c r="AA31" s="84">
+        <v>9.18</v>
+      </c>
+      <c r="AA31" s="85">
+        <f>W31/100*E31*2+(1-W31/100)*E31</f>
+        <v>11.55</v>
+      </c>
+      <c r="AB31" s="85">
         <f t="shared" si="8"/>
-        <v>332.84</v>
-      </c>
-      <c r="AB31" s="85">
+        <v>10.365</v>
+      </c>
+      <c r="AC31" s="85">
         <f t="shared" si="9"/>
-        <v>8.22367196740702</v>
-      </c>
-      <c r="AC31" s="85">
+        <v>37.2333333333333</v>
+      </c>
+      <c r="AD31" s="85">
+        <f>T31/K31+Q31</f>
+        <v>44.25</v>
+      </c>
+      <c r="AE31" s="85">
         <f t="shared" si="10"/>
-        <v>2.6395702775291</v>
-      </c>
-      <c r="AD31" s="85">
+        <v>40.7416666666667</v>
+      </c>
+      <c r="AF31" s="85">
         <f t="shared" si="11"/>
-        <v>50.2718644067797</v>
-      </c>
-      <c r="AE31" s="85">
+        <v>477.36</v>
+      </c>
+      <c r="AG31" s="85">
+        <f>T31*AA31*$Y31</f>
+        <v>1212.75</v>
+      </c>
+      <c r="AH31" s="85">
+        <f>U31*AB31*$Y31</f>
+        <v>813.6525</v>
+      </c>
+      <c r="AI31" s="88">
         <f t="shared" si="12"/>
-        <v>26.4557173421544</v>
-      </c>
-      <c r="AF31" s="85">
-        <f t="shared" si="19"/>
-        <v>25</v>
-      </c>
-      <c r="AG31" s="85">
+        <v>12.820769919427</v>
+      </c>
+      <c r="AJ31" s="88">
+        <f>AG31/AD31</f>
+        <v>27.4067796610169</v>
+      </c>
+      <c r="AK31" s="89">
         <f t="shared" si="13"/>
-        <v>0.9</v>
-      </c>
-      <c r="AH31" s="85">
+        <v>20.113774790222</v>
+      </c>
+      <c r="AL31" s="89">
+        <v>20</v>
+      </c>
+      <c r="AM31">
         <f t="shared" si="14"/>
-        <v>6.6</v>
-      </c>
-      <c r="AI31" s="85">
-        <f t="shared" si="15"/>
-        <v>3.75</v>
-      </c>
-      <c r="AJ31">
-        <f t="shared" si="16"/>
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36">
+        <v>27.90625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D32" s="52">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="E32" s="53">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="F32" s="54">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>11.25</v>
       </c>
       <c r="G32" s="55">
         <v>55</v>
@@ -5973,66 +6305,77 @@
         <v>90</v>
       </c>
       <c r="V32" s="55">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W32" s="53">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X32" s="54">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y32" s="53">
         <v>1</v>
       </c>
-      <c r="Z32" s="84">
+      <c r="Z32" s="85">
         <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="AA32" s="85">
+        <f>W32/100*E32*2+(1-W32/100)*E32</f>
+        <v>14</v>
+      </c>
+      <c r="AB32" s="85">
+        <f t="shared" si="8"/>
+        <v>12.5</v>
+      </c>
+      <c r="AC32" s="85">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="AD32" s="85">
+        <f>T32/K32+Q32</f>
+        <v>50</v>
+      </c>
+      <c r="AE32" s="85">
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="AA32" s="84">
-        <f t="shared" si="8"/>
-        <v>409.275</v>
-      </c>
-      <c r="AB32" s="85">
-        <f t="shared" si="9"/>
-        <v>9.095</v>
-      </c>
-      <c r="AC32" s="85">
-        <f t="shared" si="10"/>
-        <v>5.465625</v>
-      </c>
-      <c r="AD32" s="85">
+      <c r="AF32" s="85">
         <f t="shared" si="11"/>
-        <v>55.9872</v>
-      </c>
-      <c r="AE32" s="85">
+        <v>660</v>
+      </c>
+      <c r="AG32" s="85">
+        <f>T32*AA32*$Y32</f>
+        <v>1680</v>
+      </c>
+      <c r="AH32" s="85">
+        <f>U32*AB32*$Y32</f>
+        <v>1125</v>
+      </c>
+      <c r="AI32" s="88">
         <f t="shared" si="12"/>
-        <v>30.7264125</v>
-      </c>
-      <c r="AF32" s="85">
-        <f t="shared" si="19"/>
-        <v>30</v>
-      </c>
-      <c r="AG32" s="85">
+        <v>16.5</v>
+      </c>
+      <c r="AJ32" s="88">
+        <f>AG32/AD32</f>
+        <v>33.6</v>
+      </c>
+      <c r="AK32" s="89">
         <f t="shared" si="13"/>
-        <v>1.375</v>
-      </c>
-      <c r="AH32" s="85">
+        <v>25.05</v>
+      </c>
+      <c r="AL32" s="89">
+        <v>25</v>
+      </c>
+      <c r="AM32">
         <f t="shared" si="14"/>
-        <v>7.2</v>
-      </c>
-      <c r="AI32" s="85">
-        <f t="shared" si="15"/>
-        <v>4.2875</v>
-      </c>
-      <c r="AJ32">
-        <f t="shared" si="16"/>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35">
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38">
       <c r="A33" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B33" s="15" t="b">
         <v>1</v>
@@ -6060,8 +6403,8 @@
       <c r="W33" s="81"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="57"/>
-      <c r="Z33" s="84"/>
-      <c r="AA33" s="84"/>
+      <c r="Z33" s="85"/>
+      <c r="AA33" s="85"/>
       <c r="AB33" s="85"/>
       <c r="AC33" s="85"/>
       <c r="AD33" s="85"/>
@@ -6069,23 +6412,26 @@
       <c r="AF33" s="85"/>
       <c r="AG33" s="85"/>
       <c r="AH33" s="85"/>
-      <c r="AI33" s="85"/>
-    </row>
-    <row r="34" spans="1:36">
+      <c r="AI33" s="88"/>
+      <c r="AJ33" s="88"/>
+      <c r="AK33" s="88"/>
+      <c r="AL33" s="88"/>
+    </row>
+    <row r="34" spans="1:39">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="31" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D34" s="32">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E34" s="33">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>27.5</v>
       </c>
       <c r="G34" s="35">
         <v>100</v>
@@ -6150,66 +6496,78 @@
       <c r="Y34" s="33">
         <v>1</v>
       </c>
-      <c r="Z34" s="84">
+      <c r="Z34" s="85">
         <f t="shared" si="7"/>
+        <v>25.25</v>
+      </c>
+      <c r="AA34" s="85">
+        <f>W34/100*E34*2+(1-W34/100)*E34</f>
+        <v>30.3</v>
+      </c>
+      <c r="AB34" s="85">
+        <f t="shared" si="8"/>
+        <v>27.775</v>
+      </c>
+      <c r="AC34" s="85">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AD34" s="85">
+        <f>T34/K34+Q34</f>
+        <v>6</v>
+      </c>
+      <c r="AE34" s="85">
+        <f t="shared" si="10"/>
         <v>5.5</v>
       </c>
-      <c r="AA34" s="84">
-        <f t="shared" si="8"/>
-        <v>7.575</v>
-      </c>
-      <c r="AB34" s="85">
-        <f t="shared" si="9"/>
-        <v>1.37727272727273</v>
-      </c>
-      <c r="AC34" s="85">
-        <f t="shared" si="10"/>
+      <c r="AF34" s="85">
+        <f t="shared" si="11"/>
+        <v>25.25</v>
+      </c>
+      <c r="AG34" s="85">
+        <f>T34*AA34*$Y34</f>
+        <v>30.3</v>
+      </c>
+      <c r="AH34" s="85">
+        <f>U34*AB34*$Y34</f>
+        <v>27.775</v>
+      </c>
+      <c r="AI34" s="88">
+        <f t="shared" si="12"/>
         <v>5.05</v>
       </c>
-      <c r="AD34" s="85">
-        <f t="shared" si="11"/>
-        <v>16.8333333333333</v>
-      </c>
-      <c r="AE34" s="85">
-        <f t="shared" si="12"/>
-        <v>10.9416666666667</v>
-      </c>
-      <c r="AF34" s="85">
-        <f t="shared" ref="AF34:AF38" si="20">AF28</f>
-        <v>10</v>
-      </c>
-      <c r="AG34" s="85">
+      <c r="AJ34" s="88">
+        <f>AG34/AD34</f>
+        <v>5.05</v>
+      </c>
+      <c r="AK34" s="89">
         <f t="shared" si="13"/>
+        <v>5.05</v>
+      </c>
+      <c r="AL34" s="89">
+        <f t="shared" ref="AL34:AL38" si="15">AL28</f>
         <v>5</v>
       </c>
-      <c r="AH34" s="85">
+      <c r="AM34">
         <f t="shared" si="14"/>
-        <v>20</v>
-      </c>
-      <c r="AI34" s="85">
-        <f t="shared" si="15"/>
-        <v>12.5</v>
-      </c>
-      <c r="AJ34">
-        <f t="shared" si="16"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="36" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D35" s="37">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E35" s="38">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F35" s="39">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G35" s="40">
         <v>100</v>
@@ -6274,56 +6632,68 @@
       <c r="Y35" s="38">
         <v>1</v>
       </c>
-      <c r="Z35" s="84">
+      <c r="Z35" s="85">
         <f t="shared" si="7"/>
+        <v>40.4</v>
+      </c>
+      <c r="AA35" s="85">
+        <f>W35/100*E35*2+(1-W35/100)*E35</f>
+        <v>70.7</v>
+      </c>
+      <c r="AB35" s="85">
+        <f t="shared" si="8"/>
+        <v>55.55</v>
+      </c>
+      <c r="AC35" s="85">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AD35" s="85">
+        <f>T35/K35+Q35</f>
+        <v>6</v>
+      </c>
+      <c r="AE35" s="85">
+        <f t="shared" si="10"/>
         <v>5.5</v>
       </c>
-      <c r="AA35" s="84">
-        <f t="shared" si="8"/>
-        <v>9.09</v>
-      </c>
-      <c r="AB35" s="85">
-        <f t="shared" si="9"/>
-        <v>1.65272727272727</v>
-      </c>
-      <c r="AC35" s="85">
-        <f t="shared" si="10"/>
-        <v>7.272</v>
-      </c>
-      <c r="AD35" s="85">
+      <c r="AF35" s="85">
         <f t="shared" si="11"/>
-        <v>24.24</v>
-      </c>
-      <c r="AE35" s="85">
+        <v>40.4</v>
+      </c>
+      <c r="AG35" s="85">
+        <f>T35*AA35*$Y35</f>
+        <v>70.7</v>
+      </c>
+      <c r="AH35" s="85">
+        <f>U35*AB35*$Y35</f>
+        <v>55.55</v>
+      </c>
+      <c r="AI35" s="88">
         <f t="shared" si="12"/>
-        <v>15.756</v>
-      </c>
-      <c r="AF35" s="85">
-        <f t="shared" si="20"/>
-        <v>15</v>
-      </c>
-      <c r="AG35" s="85">
+        <v>8.08</v>
+      </c>
+      <c r="AJ35" s="88">
+        <f>AG35/AD35</f>
+        <v>11.7833333333333</v>
+      </c>
+      <c r="AK35" s="89">
         <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="AH35" s="85">
+        <v>9.93166666666667</v>
+      </c>
+      <c r="AL35" s="89">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="AM35">
         <f t="shared" si="14"/>
-        <v>24</v>
-      </c>
-      <c r="AI35" s="85">
-        <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="AJ35">
-        <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D36" s="42">
         <v>7</v>
@@ -6398,56 +6768,68 @@
       <c r="Y36" s="43">
         <v>1</v>
       </c>
-      <c r="Z36" s="84">
+      <c r="Z36" s="85">
         <f t="shared" si="7"/>
-        <v>5.5</v>
-      </c>
-      <c r="AA36" s="84">
+        <v>7.07</v>
+      </c>
+      <c r="AA36" s="85">
+        <f>W36/100*E36*2+(1-W36/100)*E36</f>
+        <v>14.14</v>
+      </c>
+      <c r="AB36" s="85">
         <f t="shared" si="8"/>
         <v>10.605</v>
       </c>
-      <c r="AB36" s="85">
+      <c r="AC36" s="85">
         <f t="shared" si="9"/>
-        <v>1.92818181818182</v>
-      </c>
-      <c r="AC36" s="85">
+        <v>5</v>
+      </c>
+      <c r="AD36" s="85">
+        <f>T36/K36+Q36</f>
+        <v>6</v>
+      </c>
+      <c r="AE36" s="85">
         <f t="shared" si="10"/>
-        <v>9.898</v>
-      </c>
-      <c r="AD36" s="85">
+        <v>5.5</v>
+      </c>
+      <c r="AF36" s="85">
         <f t="shared" si="11"/>
-        <v>32.9933333333333</v>
-      </c>
-      <c r="AE36" s="85">
+        <v>7.07</v>
+      </c>
+      <c r="AG36" s="85">
+        <f>T36*AA36*$Y36</f>
+        <v>14.14</v>
+      </c>
+      <c r="AH36" s="85">
+        <f>U36*AB36*$Y36</f>
+        <v>10.605</v>
+      </c>
+      <c r="AI36" s="88">
         <f t="shared" si="12"/>
-        <v>21.4456666666667</v>
-      </c>
-      <c r="AF36" s="85">
-        <f t="shared" si="20"/>
-        <v>20</v>
-      </c>
-      <c r="AG36" s="85">
+        <v>1.414</v>
+      </c>
+      <c r="AJ36" s="88">
+        <f>AG36/AD36</f>
+        <v>2.35666666666667</v>
+      </c>
+      <c r="AK36" s="89">
         <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="AH36" s="85">
+        <v>1.88533333333333</v>
+      </c>
+      <c r="AL36" s="89">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="AM36">
         <f t="shared" si="14"/>
-        <v>28</v>
-      </c>
-      <c r="AI36" s="85">
-        <f t="shared" si="15"/>
-        <v>17.5</v>
-      </c>
-      <c r="AJ36">
-        <f t="shared" si="16"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="46" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D37" s="47">
         <v>8</v>
@@ -6522,56 +6904,68 @@
       <c r="Y37" s="48">
         <v>1</v>
       </c>
-      <c r="Z37" s="84">
+      <c r="Z37" s="85">
         <f t="shared" si="7"/>
-        <v>5.5</v>
-      </c>
-      <c r="AA37" s="84">
+        <v>8.08</v>
+      </c>
+      <c r="AA37" s="85">
+        <f>W37/100*E37*2+(1-W37/100)*E37</f>
+        <v>15.15</v>
+      </c>
+      <c r="AB37" s="85">
         <f t="shared" si="8"/>
         <v>11.615</v>
       </c>
-      <c r="AB37" s="85">
+      <c r="AC37" s="85">
         <f t="shared" si="9"/>
-        <v>2.11181818181818</v>
-      </c>
-      <c r="AC37" s="85">
+        <v>5</v>
+      </c>
+      <c r="AD37" s="85">
+        <f>T37/K37+Q37</f>
+        <v>6</v>
+      </c>
+      <c r="AE37" s="85">
         <f t="shared" si="10"/>
-        <v>12.928</v>
-      </c>
-      <c r="AD37" s="85">
+        <v>5.5</v>
+      </c>
+      <c r="AF37" s="85">
         <f t="shared" si="11"/>
-        <v>37.875</v>
-      </c>
-      <c r="AE37" s="85">
+        <v>8.08</v>
+      </c>
+      <c r="AG37" s="85">
+        <f>T37*AA37*$Y37</f>
+        <v>15.15</v>
+      </c>
+      <c r="AH37" s="85">
+        <f>U37*AB37*$Y37</f>
+        <v>11.615</v>
+      </c>
+      <c r="AI37" s="88">
         <f t="shared" si="12"/>
-        <v>25.4015</v>
-      </c>
-      <c r="AF37" s="85">
-        <f t="shared" si="20"/>
-        <v>25</v>
-      </c>
-      <c r="AG37" s="85">
+        <v>1.616</v>
+      </c>
+      <c r="AJ37" s="88">
+        <f>AG37/AD37</f>
+        <v>2.525</v>
+      </c>
+      <c r="AK37" s="89">
         <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="AH37" s="85">
+        <v>2.0705</v>
+      </c>
+      <c r="AL37" s="89">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="AM37">
         <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="AI37" s="85">
-        <f t="shared" si="15"/>
-        <v>19</v>
-      </c>
-      <c r="AJ37">
-        <f t="shared" si="16"/>
         <v>11.5</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="51" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D38" s="52">
         <v>9</v>
@@ -6646,93 +7040,101 @@
       <c r="Y38" s="53">
         <v>1</v>
       </c>
-      <c r="Z38" s="84">
+      <c r="Z38" s="85">
         <f t="shared" si="7"/>
-        <v>5.5</v>
-      </c>
-      <c r="AA38" s="84">
+        <v>9.09</v>
+      </c>
+      <c r="AA38" s="85">
+        <f>W38/100*E38*2+(1-W38/100)*E38</f>
+        <v>16.16</v>
+      </c>
+      <c r="AB38" s="85">
         <f t="shared" si="8"/>
         <v>12.625</v>
       </c>
-      <c r="AB38" s="85">
+      <c r="AC38" s="85">
         <f t="shared" si="9"/>
-        <v>2.29545454545455</v>
-      </c>
-      <c r="AC38" s="85">
+        <v>5</v>
+      </c>
+      <c r="AD38" s="85">
+        <f>T38/K38+Q38</f>
+        <v>6</v>
+      </c>
+      <c r="AE38" s="85">
         <f t="shared" si="10"/>
-        <v>16.362</v>
-      </c>
-      <c r="AD38" s="85">
+        <v>5.5</v>
+      </c>
+      <c r="AF38" s="85">
         <f t="shared" si="11"/>
-        <v>43.0933333333333</v>
-      </c>
-      <c r="AE38" s="85">
+        <v>9.09</v>
+      </c>
+      <c r="AG38" s="85">
+        <f>T38*AA38*$Y38</f>
+        <v>16.16</v>
+      </c>
+      <c r="AH38" s="85">
+        <f>U38*AB38*$Y38</f>
+        <v>12.625</v>
+      </c>
+      <c r="AI38" s="88">
         <f t="shared" si="12"/>
-        <v>29.7276666666667</v>
-      </c>
-      <c r="AF38" s="85">
-        <f t="shared" si="20"/>
-        <v>30</v>
-      </c>
-      <c r="AG38" s="85">
+        <v>1.818</v>
+      </c>
+      <c r="AJ38" s="88">
+        <f>AG38/AD38</f>
+        <v>2.69333333333333</v>
+      </c>
+      <c r="AK38" s="89">
         <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="AH38" s="85">
+        <v>2.25566666666667</v>
+      </c>
+      <c r="AL38" s="89">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="AM38">
         <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="AI38" s="85">
-        <f t="shared" si="15"/>
-        <v>20.5</v>
-      </c>
-      <c r="AJ38">
-        <f t="shared" si="16"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="39" spans="6:35">
+    <row r="39" spans="6:38">
       <c r="F39" s="7"/>
-      <c r="AB39" s="86"/>
-      <c r="AC39" s="86"/>
-      <c r="AD39" s="86"/>
-      <c r="AE39" s="86"/>
-      <c r="AF39" s="86"/>
-      <c r="AG39" s="86"/>
-      <c r="AH39" s="86"/>
-      <c r="AI39" s="86"/>
+      <c r="AI39" s="90"/>
+      <c r="AJ39" s="90"/>
+      <c r="AK39" s="90"/>
+      <c r="AL39" s="90"/>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
         <v>67</v>
       </c>
       <c r="H41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="3:12">
       <c r="C42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D42" s="73"/>
       <c r="E42" s="73"/>
@@ -6746,11 +7148,11 @@
     </row>
     <row r="43" spans="3:12">
       <c r="C43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43">
-        <f>AE4/AE10</f>
-        <v>0.957026606291634</v>
+        <v>60</v>
+      </c>
+      <c r="D43" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E43" s="73"/>
       <c r="F43" s="73"/>
@@ -6765,9 +7167,9 @@
       <c r="C44" t="s">
         <v>67</v>
       </c>
-      <c r="D44">
-        <f>AE4/AE16</f>
-        <v>0.92389964603918</v>
+      <c r="D44" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="G44" s="73"/>
       <c r="H44" s="73"/>
@@ -6778,11 +7180,11 @@
     </row>
     <row r="45" spans="3:12">
       <c r="C45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45">
-        <f>AE4/AE22</f>
-        <v>0.729459005581423</v>
+        <v>74</v>
+      </c>
+      <c r="D45" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H45" s="73"/>
       <c r="I45" s="73"/>
@@ -6792,11 +7194,11 @@
     </row>
     <row r="46" spans="3:12">
       <c r="C46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46">
-        <f>AE4/AE28</f>
-        <v>1.02874424728089</v>
+        <v>81</v>
+      </c>
+      <c r="D46" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J46" s="73"/>
       <c r="K46" s="73"/>
@@ -6804,46 +7206,46 @@
     </row>
     <row r="47" spans="3:12">
       <c r="C47" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47">
-        <f>AE4/AE34</f>
-        <v>0.941685464174038</v>
+        <v>88</v>
+      </c>
+      <c r="D47" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="K47" s="73"/>
       <c r="L47" s="73"/>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
         <v>67</v>
       </c>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="3:3">
@@ -6853,50 +7255,50 @@
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G55" t="s">
         <v>67</v>
       </c>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="3:3">
@@ -6906,50 +7308,50 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G62" t="s">
         <v>67</v>
       </c>
       <c r="H62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J62" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K62" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="3:3">
@@ -6959,50 +7361,50 @@
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G69" t="s">
         <v>67</v>
       </c>
       <c r="H69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J69" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K69" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="3:3">
@@ -7012,21 +7414,21 @@
     </row>
     <row r="73" spans="3:3">
       <c r="C73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="24">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
@@ -7034,15 +7436,23 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AI3:AL3"/>
     <mergeCell ref="J9:L9"/>
+    <mergeCell ref="AI9:AL9"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="V15:X15"/>
+    <mergeCell ref="AI15:AL15"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="G21:I21"/>
+    <mergeCell ref="AI21:AL21"/>
     <mergeCell ref="M27:O27"/>
+    <mergeCell ref="AI27:AL27"/>
+    <mergeCell ref="AI33:AL33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -7055,7 +7465,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7075,19 +7485,19 @@
       </c>
       <c r="D1">
         <f>WeaponData!D4</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E1">
         <f>WeaponData!E4</f>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="F1">
         <f>WeaponData!G4</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G1">
         <f>WeaponData!H4</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H1">
         <f>WeaponData!J4</f>
@@ -7107,11 +7517,11 @@
       </c>
       <c r="L1">
         <f>WeaponData!P4</f>
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="M1">
         <f>WeaponData!Q4</f>
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N1">
         <f>WeaponData!S4</f>
@@ -7153,15 +7563,15 @@
       </c>
       <c r="E2">
         <f>WeaponData!E5</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <f>WeaponData!G5</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G2">
         <f>WeaponData!H5</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <f>WeaponData!J5</f>
@@ -7181,7 +7591,7 @@
       </c>
       <c r="L2">
         <f>WeaponData!P5</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <f>WeaponData!Q5</f>
@@ -7223,19 +7633,19 @@
       </c>
       <c r="D3">
         <f>WeaponData!D6</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <f>WeaponData!E6</f>
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <f>WeaponData!G6</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <f>WeaponData!H6</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <f>WeaponData!J6</f>
@@ -7255,11 +7665,11 @@
       </c>
       <c r="L3">
         <f>WeaponData!P6</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="M3">
         <f>WeaponData!Q6</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
         <f>WeaponData!S6</f>
@@ -7297,19 +7707,19 @@
       </c>
       <c r="D4">
         <f>WeaponData!D7</f>
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="E4">
         <f>WeaponData!E7</f>
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <f>WeaponData!G7</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <f>WeaponData!H7</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <f>WeaponData!J7</f>
@@ -7333,7 +7743,7 @@
       </c>
       <c r="M4">
         <f>WeaponData!Q7</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <f>WeaponData!S7</f>
@@ -7371,19 +7781,19 @@
       </c>
       <c r="D5">
         <f>WeaponData!D8</f>
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <f>WeaponData!E8</f>
-        <v>5.5</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <f>WeaponData!G8</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <f>WeaponData!H8</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <f>WeaponData!J8</f>
@@ -7403,11 +7813,11 @@
       </c>
       <c r="L5">
         <f>WeaponData!P8</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
         <f>WeaponData!Q8</f>
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N5">
         <f>WeaponData!S8</f>
@@ -7445,19 +7855,19 @@
       </c>
       <c r="D6">
         <f>WeaponData!D10</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <f>WeaponData!E10</f>
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <f>WeaponData!G10</f>
-        <v>60</v>
+        <v>67.5</v>
       </c>
       <c r="G6">
         <f>WeaponData!H10</f>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <f>WeaponData!J10</f>
@@ -7489,15 +7899,15 @@
       </c>
       <c r="O6">
         <f>WeaponData!T10</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P6">
         <f>WeaponData!V10</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q6">
         <f>WeaponData!W10</f>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R6">
         <f>WeaponData!Y10</f>
@@ -7519,19 +7929,19 @@
       </c>
       <c r="D7">
         <f>WeaponData!D11</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <f>WeaponData!E11</f>
-        <v>9.5</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <f>WeaponData!G11</f>
-        <v>67.5</v>
+        <v>72.5</v>
       </c>
       <c r="G7">
         <f>WeaponData!H11</f>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H7">
         <f>WeaponData!J11</f>
@@ -7563,15 +7973,15 @@
       </c>
       <c r="O7">
         <f>WeaponData!T11</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P7">
         <f>WeaponData!V11</f>
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="Q7">
         <f>WeaponData!W11</f>
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="R7">
         <f>WeaponData!Y11</f>
@@ -7593,19 +8003,19 @@
       </c>
       <c r="D8">
         <f>WeaponData!D12</f>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <f>WeaponData!E12</f>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F8">
         <f>WeaponData!G12</f>
-        <v>75</v>
+        <v>77.5</v>
       </c>
       <c r="G8">
         <f>WeaponData!H12</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H8">
         <f>WeaponData!J12</f>
@@ -7633,19 +8043,19 @@
       </c>
       <c r="N8">
         <f>WeaponData!S12</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8">
         <f>WeaponData!T12</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P8">
         <f>WeaponData!V12</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="Q8">
         <f>WeaponData!W12</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R8">
         <f>WeaponData!Y12</f>
@@ -7667,11 +8077,11 @@
       </c>
       <c r="D9">
         <f>WeaponData!D13</f>
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <f>WeaponData!E13</f>
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F9">
         <f>WeaponData!G13</f>
@@ -7679,7 +8089,7 @@
       </c>
       <c r="G9">
         <f>WeaponData!H13</f>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H9">
         <f>WeaponData!J13</f>
@@ -7707,7 +8117,7 @@
       </c>
       <c r="N9">
         <f>WeaponData!S13</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O9">
         <f>WeaponData!T13</f>
@@ -7715,11 +8125,11 @@
       </c>
       <c r="P9">
         <f>WeaponData!V13</f>
-        <v>8.75</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <f>WeaponData!W13</f>
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="R9">
         <f>WeaponData!Y13</f>
@@ -7741,19 +8151,19 @@
       </c>
       <c r="D10">
         <f>WeaponData!D14</f>
-        <v>7.5</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <f>WeaponData!E14</f>
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F10">
         <f>WeaponData!G14</f>
-        <v>90</v>
+        <v>87.5</v>
       </c>
       <c r="G10">
         <f>WeaponData!H14</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H10">
         <f>WeaponData!J14</f>
@@ -7781,19 +8191,19 @@
       </c>
       <c r="N10">
         <f>WeaponData!S14</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O10">
         <f>WeaponData!T14</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P10">
         <f>WeaponData!V14</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="Q10">
         <f>WeaponData!W14</f>
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="R10">
         <f>WeaponData!Y14</f>
@@ -7815,19 +8225,19 @@
       </c>
       <c r="D11">
         <f>WeaponData!D16</f>
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
         <f>WeaponData!E16</f>
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="F11">
         <f>WeaponData!G16</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <f>WeaponData!H16</f>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H11">
         <f>WeaponData!J16</f>
@@ -7871,7 +8281,7 @@
       </c>
       <c r="R11">
         <f>WeaponData!Y16</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -7889,19 +8299,19 @@
       </c>
       <c r="D12">
         <f>WeaponData!D17</f>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E12">
         <f>WeaponData!E17</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <f>WeaponData!G17</f>
-        <v>27.5</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <f>WeaponData!H17</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <f>WeaponData!J17</f>
@@ -7945,7 +8355,7 @@
       </c>
       <c r="R12">
         <f>WeaponData!Y17</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -7967,15 +8377,15 @@
       </c>
       <c r="E13">
         <f>WeaponData!E18</f>
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="F13">
         <f>WeaponData!G18</f>
-        <v>27.5</v>
+        <v>25</v>
       </c>
       <c r="G13">
         <f>WeaponData!H18</f>
-        <v>37.5</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <f>WeaponData!J18</f>
@@ -8019,7 +8429,7 @@
       </c>
       <c r="R13">
         <f>WeaponData!Y18</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -8037,11 +8447,11 @@
       </c>
       <c r="D14">
         <f>WeaponData!D19</f>
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E14">
         <f>WeaponData!E19</f>
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="F14">
         <f>WeaponData!G19</f>
@@ -8049,7 +8459,7 @@
       </c>
       <c r="G14">
         <f>WeaponData!H19</f>
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <f>WeaponData!J19</f>
@@ -8093,7 +8503,7 @@
       </c>
       <c r="R14">
         <f>WeaponData!Y19</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -8111,11 +8521,11 @@
       </c>
       <c r="D15">
         <f>WeaponData!D20</f>
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="E15">
         <f>WeaponData!E20</f>
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="F15">
         <f>WeaponData!G20</f>
@@ -8123,7 +8533,7 @@
       </c>
       <c r="G15">
         <f>WeaponData!H20</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <f>WeaponData!J20</f>
@@ -8167,7 +8577,7 @@
       </c>
       <c r="R15">
         <f>WeaponData!Y20</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -8185,11 +8595,11 @@
       </c>
       <c r="D16">
         <f>WeaponData!D22</f>
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="E16">
         <f>WeaponData!E22</f>
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="F16">
         <f>WeaponData!G22</f>
@@ -8259,11 +8669,11 @@
       </c>
       <c r="D17">
         <f>WeaponData!D23</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <f>WeaponData!E23</f>
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="F17">
         <f>WeaponData!G23</f>
@@ -8333,7 +8743,7 @@
       </c>
       <c r="D18">
         <f>WeaponData!D24</f>
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="E18">
         <f>WeaponData!E24</f>
@@ -8407,11 +8817,11 @@
       </c>
       <c r="D19">
         <f>WeaponData!D25</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <f>WeaponData!E25</f>
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="F19">
         <f>WeaponData!G25</f>
@@ -8481,11 +8891,11 @@
       </c>
       <c r="D20">
         <f>WeaponData!D26</f>
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="E20">
         <f>WeaponData!E26</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <f>WeaponData!G26</f>
@@ -8555,11 +8965,11 @@
       </c>
       <c r="D21">
         <f>WeaponData!D28</f>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="E21">
         <f>WeaponData!E28</f>
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="F21">
         <f>WeaponData!G28</f>
@@ -8629,11 +9039,11 @@
       </c>
       <c r="D22">
         <f>WeaponData!D29</f>
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="E22">
         <f>WeaponData!E29</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="F22">
         <f>WeaponData!G29</f>
@@ -8677,11 +9087,11 @@
       </c>
       <c r="P22">
         <f>WeaponData!V29</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q22">
         <f>WeaponData!W29</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R22">
         <f>WeaponData!Y29</f>
@@ -8703,11 +9113,11 @@
       </c>
       <c r="D23">
         <f>WeaponData!D30</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <f>WeaponData!E30</f>
-        <v>5.5</v>
+        <v>8.75</v>
       </c>
       <c r="F23">
         <f>WeaponData!G30</f>
@@ -8751,11 +9161,11 @@
       </c>
       <c r="P23">
         <f>WeaponData!V30</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q23">
         <f>WeaponData!W30</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <f>WeaponData!Y30</f>
@@ -8777,11 +9187,11 @@
       </c>
       <c r="D24">
         <f>WeaponData!D31</f>
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="E24">
         <f>WeaponData!E31</f>
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="F24">
         <f>WeaponData!G31</f>
@@ -8825,11 +9235,11 @@
       </c>
       <c r="P24">
         <f>WeaponData!V31</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q24">
         <f>WeaponData!W31</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R24">
         <f>WeaponData!Y31</f>
@@ -8851,11 +9261,11 @@
       </c>
       <c r="D25">
         <f>WeaponData!D32</f>
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <f>WeaponData!E32</f>
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="F25">
         <f>WeaponData!G32</f>
@@ -8899,11 +9309,11 @@
       </c>
       <c r="P25">
         <f>WeaponData!V32</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q25">
         <f>WeaponData!W32</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R25">
         <f>WeaponData!Y32</f>
@@ -8925,11 +9335,11 @@
       </c>
       <c r="D26">
         <f>WeaponData!D34</f>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <f>WeaponData!E34</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F26">
         <f>WeaponData!G34</f>
@@ -8999,11 +9409,11 @@
       </c>
       <c r="D27">
         <f>WeaponData!D35</f>
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <f>WeaponData!E35</f>
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F27">
         <f>WeaponData!G35</f>
@@ -9302,42 +9712,42 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
       <c r="P1" s="14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
       <c r="T1" s="27" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U1" s="14"/>
       <c r="V1" s="14"/>
@@ -9348,73 +9758,73 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="G2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="J2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="P2" s="14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="T2" s="27" t="s">
         <v>32</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="V2" s="14" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D3" s="17">
         <v>-2</v>
@@ -9475,11 +9885,11 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D4" s="17">
         <v>-3</v>
@@ -9540,11 +9950,11 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D5" s="17">
         <v>-4</v>
@@ -9605,11 +10015,11 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D6" s="17">
         <v>-2</v>
@@ -9664,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="28" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="U6" s="29">
         <v>1</v>
@@ -9674,11 +10084,11 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D7" s="17">
         <v>-1</v>
@@ -9739,11 +10149,11 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D8" s="17">
         <v>-2</v>
@@ -9804,11 +10214,11 @@
     </row>
     <row r="9" customHeight="1" spans="1:23">
       <c r="A9" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D9" s="17">
         <v>-4</v>
@@ -9869,11 +10279,11 @@
     </row>
     <row r="10" customHeight="1" spans="1:23">
       <c r="A10" s="15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D10" s="17">
         <v>0</v>
@@ -9928,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U10" s="29">
         <v>1</v>
@@ -9938,11 +10348,11 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D11" s="17">
         <v>0</v>
@@ -10003,11 +10413,11 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D12" s="17">
         <v>0</v>
@@ -10068,11 +10478,11 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D13" s="17">
         <v>0</v>
@@ -10133,11 +10543,11 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D14" s="17">
         <v>-5</v>
@@ -10192,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U14" s="29">
         <v>1</v>
@@ -10202,11 +10612,11 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D15" s="17">
         <v>0</v>
@@ -10261,7 +10671,7 @@
         <v>0.2</v>
       </c>
       <c r="T15" s="28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U15" s="29">
         <v>3</v>
@@ -10271,11 +10681,11 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D16" s="17">
         <v>0</v>
@@ -10336,11 +10746,11 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D17" s="17">
         <v>4</v>
@@ -10401,11 +10811,11 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D18" s="17">
         <v>8</v>
@@ -10460,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="28" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="U18" s="29">
         <v>3</v>
@@ -10470,11 +10880,11 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D19" s="17">
         <v>0</v>
@@ -10529,7 +10939,7 @@
         <v>0.1</v>
       </c>
       <c r="T19" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U19" s="29">
         <v>3</v>
@@ -10539,11 +10949,11 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D20" s="17">
         <v>-10</v>
@@ -10598,13 +11008,13 @@
         <v>1</v>
       </c>
       <c r="T20" s="28" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="U20" s="29">
         <v>2</v>
       </c>
       <c r="V20" s="29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="W20" s="29">
         <v>1</v>
@@ -10612,11 +11022,11 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D21" s="17">
         <v>-5</v>
@@ -10671,7 +11081,7 @@
         <v>0.2</v>
       </c>
       <c r="T21" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U21" s="29">
         <v>2</v>
@@ -10681,11 +11091,11 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D22" s="17">
         <v>-10</v>
@@ -10740,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="T22" s="28" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="U22" s="29">
         <v>3</v>
       </c>
       <c r="V22" s="29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="W22" s="29">
         <v>1</v>
@@ -10754,11 +11164,11 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D23" s="17">
         <v>-5</v>
@@ -10813,13 +11223,13 @@
         <v>0</v>
       </c>
       <c r="T23" s="28" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="U23" s="29">
         <v>2</v>
       </c>
       <c r="V23" s="29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="W23" s="29">
         <v>1</v>
@@ -10828,39 +11238,39 @@
     <row r="25" spans="1:11">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B26" s="22">
         <v>0</v>
@@ -10895,7 +11305,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B27" s="22">
         <v>0.15</v>
@@ -10930,7 +11340,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B28" s="22">
         <v>0.2</v>
@@ -10965,7 +11375,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B29" s="22">
         <v>0.1</v>
@@ -11000,7 +11410,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B30" s="22">
         <v>0.2</v>
@@ -11035,7 +11445,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B31" s="22">
         <v>0.25</v>
@@ -11070,7 +11480,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B32" s="22">
         <v>0.15</v>
@@ -11105,7 +11515,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B33" s="22">
         <v>0.2</v>
@@ -11140,7 +11550,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B34" s="22">
         <v>0.25</v>
@@ -11175,7 +11585,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B35" s="22">
         <v>0.15</v>
@@ -11210,7 +11620,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B36">
         <v>29</v>
@@ -11249,7 +11659,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B37">
         <f>100/$L36*B36</f>
@@ -11294,7 +11704,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B39">
         <v>268</v>
@@ -11333,7 +11743,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:K40" si="9">100/$L39*B39</f>
@@ -11379,14 +11789,14 @@
     <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F42" s="2"/>
     </row>
@@ -11394,21 +11804,21 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B44" s="8">
         <v>1</v>
@@ -11422,7 +11832,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B45" s="8">
         <v>2</v>
@@ -11438,7 +11848,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B46" s="8">
         <v>3</v>
@@ -11452,7 +11862,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B47" s="8">
         <v>4</v>
@@ -11468,7 +11878,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B48" s="8">
         <v>5</v>
@@ -11480,7 +11890,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B49" s="8">
         <v>6</v>
@@ -11492,7 +11902,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B50" s="8">
         <v>7</v>
@@ -11504,7 +11914,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B51" s="8">
         <v>8</v>
@@ -11518,7 +11928,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B52" s="8">
         <v>9</v>
@@ -11532,7 +11942,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B53" s="8">
         <v>9</v>
@@ -11546,7 +11956,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B54" s="8">
         <v>10</v>
@@ -12989,22 +13399,22 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>1</v>
@@ -13015,16 +13425,16 @@
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>39</v>
       </c>
       <c r="Q1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -13034,10 +13444,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>4</v>
@@ -13045,24 +13455,24 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C3" s="11">
         <v>-1</v>
@@ -13096,15 +13506,15 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C4" s="11">
         <v>0</v>
@@ -13138,15 +13548,15 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -13182,10 +13592,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C6" s="11">
         <v>2</v>
@@ -13219,15 +13629,15 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C7" s="11">
         <v>0</v>
@@ -13261,15 +13671,15 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C8" s="11">
         <v>-1</v>
@@ -13303,15 +13713,15 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
@@ -13347,10 +13757,10 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C10" s="11">
         <v>-2</v>
@@ -13384,15 +13794,15 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C11" s="11">
         <v>-1</v>
@@ -13428,10 +13838,10 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C12" s="12">
         <v>0</v>
@@ -13470,10 +13880,10 @@
     </row>
     <row r="13" s="10" customFormat="1" spans="1:15">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C13" s="11">
         <v>0</v>
@@ -13512,10 +13922,10 @@
     </row>
     <row r="14" s="10" customFormat="1" spans="1:15">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C14" s="11">
         <v>-10</v>
@@ -13554,10 +13964,10 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C15" s="11">
         <v>15</v>
@@ -13600,10 +14010,10 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="s">
         <v>170</v>
-      </c>
-      <c r="B16" t="s">
-        <v>167</v>
       </c>
       <c r="C16" s="11">
         <v>0</v>
@@ -13644,10 +14054,10 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C17" s="11">
         <v>-20</v>
@@ -13728,42 +14138,42 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -13781,18 +14191,18 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
         <v>183</v>
-      </c>
-      <c r="C3" t="s">
-        <v>180</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -13810,18 +14220,18 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -13839,18 +14249,18 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -13868,15 +14278,15 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -13894,15 +14304,15 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13920,15 +14330,15 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
         <v>196</v>
-      </c>
-      <c r="C8" t="s">
-        <v>193</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -13946,15 +14356,15 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -13972,18 +14382,18 @@
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -14001,18 +14411,18 @@
         <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -14030,7 +14440,7 @@
         <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -14060,39 +14470,39 @@
     <row r="1" spans="1:11">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B2" s="8">
         <v>0</v>
@@ -14131,7 +14541,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B3" s="8">
         <v>0.3</v>
@@ -14170,7 +14580,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B4" s="8">
         <v>0.15</v>
@@ -14209,7 +14619,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B5" s="8">
         <v>0.1</v>
@@ -14248,7 +14658,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B6" s="8">
         <v>0.05</v>
@@ -14287,7 +14697,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B7" s="8">
         <v>0</v>
@@ -14326,7 +14736,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -14365,7 +14775,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -14404,7 +14814,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
@@ -14443,7 +14853,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B11" s="8">
         <v>0</v>
@@ -14656,29 +15066,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -14689,16 +15099,16 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5">
@@ -14723,7 +15133,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
@@ -14748,7 +15158,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5">
@@ -14773,7 +15183,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
@@ -14798,7 +15208,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5">
@@ -14823,7 +15233,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
@@ -14848,7 +15258,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5">
@@ -14873,7 +15283,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
@@ -14898,7 +15308,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5">
@@ -14923,7 +15333,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5">

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon Data v1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806">
   <si>
     <t>Type</t>
   </si>
@@ -672,6 +672,9 @@
   </si>
   <si>
     <t>scrap cost</t>
+  </si>
+  <si>
+    <t>makes</t>
   </si>
   <si>
     <t>mag dam</t>
@@ -2452,12 +2455,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
@@ -2529,76 +2532,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2613,15 +2547,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2629,6 +2595,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2643,15 +2624,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2665,8 +2653,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2795,7 +2798,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2807,55 +2906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2867,31 +2918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2903,37 +2930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2951,13 +2954,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2969,13 +2978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3520,11 +3523,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3548,31 +3590,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3592,26 +3610,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3620,7 +3623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3638,130 +3641,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3808,13 +3811,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3829,7 +3832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3892,7 +3895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4090,7 +4093,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -14719,7 +14722,7 @@
         <v>120</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D1" s="79" t="s">
         <v>122</v>
@@ -14728,22 +14731,22 @@
         <v>123</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G1" s="79" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I1" s="80" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J1" s="80" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K1" s="80" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -14761,13 +14764,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="60" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B3" s="12">
         <v>4</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D3" s="81">
         <v>2</v>
@@ -14786,18 +14789,18 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="60" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B4" s="12">
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D4" s="81">
         <v>1</v>
@@ -14816,18 +14819,18 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="60" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D5" s="81">
         <v>3</v>
@@ -14846,18 +14849,18 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="60" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B6" s="12">
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D6" s="81">
         <v>2</v>
@@ -14876,24 +14879,24 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="60" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D7" s="81">
         <v>3</v>
@@ -14912,15 +14915,15 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -14963,7 +14966,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="57" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>118</v>
@@ -14972,17 +14975,17 @@
         <v>0</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G1" s="60"/>
       <c r="H1" s="61" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14992,236 +14995,236 @@
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
       <c r="F2" s="64" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G2" s="65"/>
       <c r="H2" s="66"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="67" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="68" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D3" s="69">
         <v>2</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F3" s="71" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H3" s="70"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="67" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="68" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D4" s="69">
         <v>2</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F4" s="71" t="s">
         <v>111</v>
       </c>
       <c r="G4" s="72" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="67" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="68" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D5" s="69">
         <v>2</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F5" s="71" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G5" s="72" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="67" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D6" s="69">
         <v>2</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G6" s="72" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H6" s="70"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="67" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D7" s="69">
         <v>2</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G7" s="72" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H7" s="70"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="67" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D8" s="69">
         <v>2</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G8" s="328" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H8" s="70"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="67" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D9" s="69">
         <v>2</v>
       </c>
       <c r="E9" s="70" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G9" s="72" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H9" s="70"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="67" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D10" s="69">
         <v>2</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F10" s="71" t="s">
         <v>112</v>
       </c>
       <c r="G10" s="72" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H10" s="70"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="67" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D11" s="69">
         <v>2</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G11" s="72" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H11" s="70"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="67" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D12" s="69">
         <v>2</v>
       </c>
       <c r="E12" s="70" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F12" s="71" t="s">
         <v>112</v>
@@ -15233,49 +15236,49 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="67" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D13" s="69">
         <v>2</v>
       </c>
       <c r="E13" s="70" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F13" s="71" t="s">
         <v>112</v>
       </c>
       <c r="G13" s="72" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="67" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D14" s="69">
         <v>2</v>
       </c>
       <c r="E14" s="70" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F14" s="71" t="s">
         <v>112</v>
       </c>
       <c r="G14" s="72" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H14" s="70"/>
     </row>
@@ -15291,11 +15294,11 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="67" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B16" s="67"/>
       <c r="C16" s="68" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D16" s="69">
         <v>2</v>
@@ -15309,11 +15312,11 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="67" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="68" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D17" s="69">
         <v>4</v>
@@ -15327,11 +15330,11 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="67" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B18" s="67"/>
       <c r="C18" s="68" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D18" s="69">
         <v>6</v>
@@ -15345,11 +15348,11 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="67" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B19" s="67"/>
       <c r="C19" s="68" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D19" s="69">
         <v>8</v>
@@ -15363,11 +15366,11 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="67" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B20" s="67"/>
       <c r="C20" s="68" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D20" s="69">
         <v>10</v>
@@ -15969,34 +15972,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="44" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="45" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="44" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="45" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -16007,26 +16010,26 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="48" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="49" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="48" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="49" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="I6" s="22"/>
     </row>
@@ -16038,26 +16041,26 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="44" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="45" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="44" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="45" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -16068,26 +16071,26 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="48" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="49" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="48" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="49" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -16098,26 +16101,26 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="44" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="45" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="44" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="45" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -16128,26 +16131,26 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="50" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>176</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="51" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="50" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>176</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="51" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -16158,26 +16161,26 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="50" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B20" s="50" t="s">
         <v>181</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="51" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="50" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B21" s="50" t="s">
         <v>181</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="51" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -16188,26 +16191,26 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="54" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>185</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="55" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="54" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B24" s="54" t="s">
         <v>185</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -16218,26 +16221,26 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="50" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B26" s="50" t="s">
         <v>190</v>
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="51" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="50" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B27" s="50" t="s">
         <v>190</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="51" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -16248,26 +16251,26 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="54" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B29" s="54" t="s">
         <v>194</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="55" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="54" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B30" s="54" t="s">
         <v>194</v>
       </c>
       <c r="C30" s="54"/>
       <c r="D30" s="55" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -16278,26 +16281,26 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="50" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B32" s="50" t="s">
         <v>198</v>
       </c>
       <c r="C32" s="50"/>
       <c r="D32" s="51" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="50" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B33" s="50" t="s">
         <v>198</v>
       </c>
       <c r="C33" s="50"/>
       <c r="D33" s="51" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -16308,26 +16311,26 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="54" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B35" s="54" t="s">
         <v>203</v>
       </c>
       <c r="C35" s="54"/>
       <c r="D35" s="55" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="54" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B36" s="54" t="s">
         <v>203</v>
       </c>
       <c r="C36" s="54"/>
       <c r="D36" s="55" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -16338,26 +16341,26 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="50" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B38" s="50" t="s">
         <v>207</v>
       </c>
       <c r="C38" s="50"/>
       <c r="D38" s="51" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="50" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B39" s="50" t="s">
         <v>207</v>
       </c>
       <c r="C39" s="50"/>
       <c r="D39" s="51" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -16368,26 +16371,26 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="54" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B41" s="54" t="s">
         <v>210</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="55" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="54" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B42" s="54" t="s">
         <v>210</v>
       </c>
       <c r="C42" s="54"/>
       <c r="D42" s="55" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -16401,8 +16404,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -16420,29 +16423,29 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="38" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>169</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1" s="40"/>
       <c r="I1" s="40" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="J1" s="40"/>
     </row>
@@ -16454,21 +16457,21 @@
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="41" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -16505,7 +16508,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -16539,7 +16542,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -16555,7 +16558,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G5" s="42">
         <f t="shared" si="3"/>
@@ -16576,7 +16579,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -16592,7 +16595,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G6" s="42">
         <f t="shared" si="3"/>
@@ -16613,7 +16616,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B7">
         <v>400</v>
@@ -16629,7 +16632,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G7" s="42">
         <f t="shared" si="3"/>
@@ -16650,7 +16653,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B8">
         <v>600</v>
@@ -16666,7 +16669,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G8" s="42">
         <f t="shared" si="3"/>
@@ -16687,7 +16690,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -16721,7 +16724,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B10">
         <v>150</v>
@@ -16737,7 +16740,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G10" s="42">
         <f t="shared" si="3"/>
@@ -16764,7 +16767,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B12">
         <v>150</v>
@@ -16795,7 +16798,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B13">
         <v>50</v>
@@ -16888,7 +16891,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -16925,7 +16928,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -16953,7 +16956,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -16981,7 +16984,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B20">
         <v>400</v>
@@ -17009,7 +17012,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -17037,7 +17040,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B22">
         <v>300</v>
@@ -17065,7 +17068,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B23">
         <v>100</v>
@@ -17093,7 +17096,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B24">
         <v>1000</v>
@@ -17151,241 +17154,241 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="30" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="30"/>
       <c r="B2" s="30" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>712</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>711</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>710</v>
-      </c>
       <c r="E2" s="30" t="s">
+        <v>712</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>711</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>710</v>
-      </c>
       <c r="G2" s="30" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="32" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="33" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="32" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="33" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="32" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="33" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="32" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="33" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="33" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="32" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="33" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="33" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="32" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="33"/>
       <c r="E8" s="34"/>
       <c r="F8" s="33" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="32" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="33"/>
       <c r="E9" s="34"/>
       <c r="F9" s="33" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="32" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="33"/>
       <c r="E10" s="34"/>
       <c r="F10" s="33" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="32" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="33"/>
       <c r="E11" s="34"/>
       <c r="F11" s="33" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="32" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
       <c r="E12" s="34"/>
       <c r="F12" s="33" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="32" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
       <c r="E13" s="34"/>
       <c r="F13" s="33" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="32" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
       <c r="F14" s="33" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G14" s="34"/>
     </row>
@@ -17396,7 +17399,7 @@
       <c r="D15" s="33"/>
       <c r="E15" s="34"/>
       <c r="F15" s="33" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G15" s="34"/>
     </row>
@@ -17407,7 +17410,7 @@
       <c r="D16" s="33"/>
       <c r="E16" s="34"/>
       <c r="F16" s="33" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G16" s="34"/>
     </row>
@@ -17418,7 +17421,7 @@
       <c r="D17" s="33"/>
       <c r="E17" s="34"/>
       <c r="F17" s="33" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G17" s="34"/>
     </row>
@@ -17541,16 +17544,16 @@
         <v>10</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>173</v>
@@ -17567,7 +17570,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="25" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B2" s="26">
         <v>1.2</v>
@@ -17592,7 +17595,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="25" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -17617,7 +17620,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26">
@@ -17667,7 +17670,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -17692,7 +17695,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="25" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -17742,7 +17745,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="25" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26">
@@ -17767,7 +17770,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="27" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -17792,7 +17795,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="28" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B11" s="26">
         <v>1.5</v>
@@ -17842,7 +17845,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="25" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B13" s="26">
         <v>2</v>
@@ -17867,7 +17870,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="25" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B14" s="26">
         <v>0.1</v>
@@ -17892,7 +17895,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="27" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -17917,7 +17920,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="27" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -17940,7 +17943,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="27" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -17965,7 +17968,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -17988,7 +17991,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="27" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -18013,7 +18016,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="27" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -18036,7 +18039,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="27" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -18061,7 +18064,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="27" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -18084,7 +18087,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="27" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -18107,7 +18110,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -18130,7 +18133,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="27" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -18153,7 +18156,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="27" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -18391,23 +18394,23 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="I1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="2:12">
@@ -18415,7 +18418,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -18424,7 +18427,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -18564,7 +18567,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B8">
         <f>B3*0.5+B3</f>
@@ -18645,22 +18648,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B14" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C14" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D14" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E14" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F14" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="L14">
         <v>9</v>
@@ -18830,13 +18833,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -19177,7 +19180,7 @@
     </row>
     <row r="30" spans="4:5">
       <c r="D30" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E30">
         <v>0.75</v>
@@ -19185,7 +19188,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B32" s="2">
         <v>10</v>
@@ -19210,13 +19213,13 @@
         <v>68</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
@@ -19243,7 +19246,7 @@
         <v>13</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>70</v>
@@ -31956,8 +31959,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -31972,19 +31975,25 @@
       <c r="B1" t="s">
         <v>213</v>
       </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B2">
         <v>1</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
       </c>
       <c r="D2">
         <v>163.8</v>
@@ -31996,10 +32005,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B3">
         <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3">
         <v>426.666666666667</v>
@@ -32011,10 +32023,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B4">
         <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4">
         <v>479.5</v>
@@ -32026,10 +32041,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B5">
         <v>1</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
       </c>
       <c r="D5">
         <v>178</v>
@@ -32041,10 +32059,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B6">
         <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
         <v>944</v>
@@ -32056,7 +32077,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -32064,15 +32085,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -32080,7 +32101,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -32088,7 +32109,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -32096,10 +32117,10 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -32134,164 +32155,164 @@
         <v>118</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C1" s="83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="83" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="83" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="83" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="83" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="83" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="83" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="83" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="83" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -32299,372 +32320,372 @@
         <v>86</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="83" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="83" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="83" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C20" s="83" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="83" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C21" s="83" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C22" s="83" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C23" s="83" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="83" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C24" s="83" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="83" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C25" s="83" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="83" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C26" s="83" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="83" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B27" s="83" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C27" s="83" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="83" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B28" s="83" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C28" s="83" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="83" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C29" s="83" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="83" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C30" s="83" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="83" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B32" s="83" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C32" s="83" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B33" s="83" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C33" s="83" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="83" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C34" s="83" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="83" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B35" s="83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="83" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B36" s="83" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C36" s="83" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B37" s="83" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C37" s="83" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="83" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B38" s="83" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C38" s="83" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="83" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C39" s="83" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="83" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B40" s="83" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C40" s="83" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="83" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B41" s="83" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C41" s="83" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="83" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B42" s="83" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C42" s="83" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="83" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B43" s="83" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C43" s="83" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="83" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B44" s="83" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C44" s="83" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="83" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B45" s="83" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C45" s="83" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="83" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B46" s="83" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C46" s="83" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="83" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C47" s="83" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="83" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C48" s="83" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="83" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C49" s="83" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="83" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C50" s="83" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="2:2">
@@ -32711,49 +32732,49 @@
         <v>118</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -32761,13 +32782,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>123</v>
@@ -32788,22 +32809,22 @@
         <v>122</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -32847,13 +32868,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="84" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O3" s="85" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P3" s="86" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -32897,18 +32918,18 @@
         <v>0</v>
       </c>
       <c r="N4" s="84" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O4" s="85" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P4" s="86" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="83" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B5" s="84">
         <v>2</v>
@@ -32950,15 +32971,15 @@
         <v>5</v>
       </c>
       <c r="O5" s="85" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P5" s="86" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="83" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B6" s="84">
         <v>2</v>
@@ -33000,10 +33021,10 @@
         <v>5</v>
       </c>
       <c r="O6" s="85" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P6" s="86" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -33026,359 +33047,359 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C8" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="H8" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="I8" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="J8" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="J8" s="37" t="s">
+      <c r="K8" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="K8" s="35" t="s">
-        <v>396</v>
-      </c>
       <c r="L8" s="36" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M8" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O9" s="36" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D10" s="89"/>
       <c r="E10" s="87" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F10" s="90" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G10" s="89"/>
       <c r="H10" s="87" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I10" s="90" t="s">
+        <v>407</v>
+      </c>
+      <c r="K10" s="87" t="s">
         <v>406</v>
       </c>
-      <c r="K10" s="87" t="s">
-        <v>405</v>
-      </c>
       <c r="L10" s="90" t="s">
+        <v>407</v>
+      </c>
+      <c r="N10" s="87" t="s">
         <v>406</v>
       </c>
-      <c r="N10" s="87" t="s">
-        <v>405</v>
-      </c>
       <c r="O10" s="90" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D11" s="89"/>
       <c r="E11" s="35" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G11" s="89"/>
       <c r="H11" s="35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="35" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D12" s="89"/>
       <c r="E12" s="35" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O12" s="36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="35" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D13" s="89"/>
       <c r="E13" s="35" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O13" s="36" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="35" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D14" s="89"/>
       <c r="E14" s="35" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O14" s="36" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="35" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D15" s="89"/>
       <c r="E15" s="35" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N15" s="35" t="s">
         <v>172</v>
       </c>
       <c r="O15" s="36" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="35" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D16" s="89"/>
       <c r="E16" s="35" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="35" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D17" s="89"/>
       <c r="E17" s="35" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O17" s="36" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="35" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D18" s="89"/>
       <c r="E18" s="35" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>110</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N18" s="35" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O18" s="36" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -33386,257 +33407,257 @@
         <v>199</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D19" s="89"/>
       <c r="E19" s="35" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N19" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="O19" s="36" t="s">
         <v>485</v>
-      </c>
-      <c r="O19" s="36" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="35" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N20" s="35" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O20" s="36" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="35" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O21" s="36" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="35" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O22" s="36" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="35" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L23" s="36" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="35" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F24" s="91"/>
       <c r="G24" s="92"/>
       <c r="K24" s="35" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="35" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F25" s="88"/>
       <c r="G25" s="93"/>
       <c r="K25" s="35" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L25" s="36" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="35" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="35" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="35" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L28" s="36" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="35" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L29" s="36" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="3:12">
       <c r="C30" s="36" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="3:12">
       <c r="C31" s="36" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L31" s="36" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="3:12">
       <c r="C32" s="36" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="36" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="36" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="36" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="36" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="36" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="36" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813">
   <si>
     <t>Type</t>
   </si>
@@ -2093,24 +2093,39 @@
     <t>Sniper</t>
   </si>
   <si>
+    <t>powershot</t>
+  </si>
+  <si>
     <t>Brawler</t>
   </si>
   <si>
+    <t>knockdown</t>
+  </si>
+  <si>
     <t>Medic</t>
   </si>
   <si>
     <t>SMG, Pistol</t>
   </si>
   <si>
+    <t>heal</t>
+  </si>
+  <si>
     <t>Sentinel</t>
   </si>
   <si>
     <t>SMG, Shotgun, Pistol</t>
   </si>
   <si>
+    <t>gain armour</t>
+  </si>
+  <si>
     <t>LMG, Rifle</t>
   </si>
   <si>
+    <t>summon</t>
+  </si>
+  <si>
     <t>Mountain</t>
   </si>
   <si>
@@ -2120,7 +2135,13 @@
     <t>Martyr</t>
   </si>
   <si>
+    <t>explode</t>
+  </si>
+  <si>
     <t>Witch</t>
+  </si>
+  <si>
+    <t>grenade</t>
   </si>
   <si>
     <t>Grazer</t>
@@ -2457,11 +2478,11 @@
   <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2531,6 +2552,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -2539,15 +2568,36 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2561,9 +2611,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2577,9 +2659,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2594,82 +2690,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2798,13 +2819,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2816,55 +2927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2882,49 +2945,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2936,13 +2981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2954,31 +2999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3523,15 +3544,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3556,41 +3568,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3610,6 +3592,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3618,12 +3624,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3641,130 +3662,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3832,7 +3853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3895,7 +3916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4093,7 +4114,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -16402,10 +16423,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -16419,6 +16440,7 @@
     <col min="8" max="8" width="8.28571428571429" customWidth="1"/>
     <col min="9" max="9" width="11.4285714285714" customWidth="1"/>
     <col min="10" max="10" width="8.28571428571429" customWidth="1"/>
+    <col min="12" max="12" width="11.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -16469,7 +16491,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>686</v>
       </c>
@@ -16505,10 +16527,13 @@
         <f t="shared" ref="J3:J10" si="1">C3/110</f>
         <v>6.36363636363636</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="L3" s="39" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -16539,10 +16564,13 @@
         <f t="shared" si="1"/>
         <v>5.45454545454545</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -16558,7 +16586,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G5" s="42">
         <f t="shared" si="3"/>
@@ -16576,10 +16604,13 @@
         <f t="shared" si="1"/>
         <v>6.36363636363636</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5" s="39" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -16595,7 +16626,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="G6" s="42">
         <f t="shared" si="3"/>
@@ -16613,8 +16644,11 @@
         <f t="shared" si="1"/>
         <v>6.36363636363636</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>399</v>
       </c>
@@ -16632,7 +16666,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="G7" s="42">
         <f t="shared" si="3"/>
@@ -16650,10 +16684,13 @@
         <f t="shared" si="1"/>
         <v>8.18181818181818</v>
       </c>
+      <c r="L7" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B8">
         <v>600</v>
@@ -16669,7 +16706,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="G8" s="42">
         <f t="shared" si="3"/>
@@ -16688,9 +16725,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -16721,10 +16758,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9" s="39" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="B10">
         <v>150</v>
@@ -16740,7 +16780,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G10" s="42">
         <f t="shared" si="3"/>
@@ -16757,6 +16797,9 @@
       <c r="J10" s="42">
         <f t="shared" si="1"/>
         <v>5.90909090909091</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="11" spans="7:10">
@@ -16767,7 +16810,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="B12">
         <v>150</v>
@@ -16798,7 +16841,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="B13">
         <v>50</v>
@@ -16891,7 +16934,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -16928,7 +16971,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -16956,7 +16999,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -16984,7 +17027,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="B20">
         <v>400</v>
@@ -17012,7 +17055,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -17040,7 +17083,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="B22">
         <v>300</v>
@@ -17068,7 +17111,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="B23">
         <v>100</v>
@@ -17096,7 +17139,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="B24">
         <v>1000</v>
@@ -17154,241 +17197,241 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="30" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="30"/>
       <c r="B2" s="30" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="32" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="33" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="32" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="33" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="32" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="33" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="32" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="33" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="33" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="32" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="33" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="33" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="32" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="33"/>
       <c r="E8" s="34"/>
       <c r="F8" s="33" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="32" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="33"/>
       <c r="E9" s="34"/>
       <c r="F9" s="33" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="32" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="33"/>
       <c r="E10" s="34"/>
       <c r="F10" s="33" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="32" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="33"/>
       <c r="E11" s="34"/>
       <c r="F11" s="33" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="32" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
       <c r="E12" s="34"/>
       <c r="F12" s="33" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="32" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
       <c r="E13" s="34"/>
       <c r="F13" s="33" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="32" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
       <c r="F14" s="33" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="G14" s="34"/>
     </row>
@@ -17399,7 +17442,7 @@
       <c r="D15" s="33"/>
       <c r="E15" s="34"/>
       <c r="F15" s="33" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="G15" s="34"/>
     </row>
@@ -17410,7 +17453,7 @@
       <c r="D16" s="33"/>
       <c r="E16" s="34"/>
       <c r="F16" s="33" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="G16" s="34"/>
     </row>
@@ -17421,7 +17464,7 @@
       <c r="D17" s="33"/>
       <c r="E17" s="34"/>
       <c r="F17" s="33" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="G17" s="34"/>
     </row>
@@ -17544,16 +17587,16 @@
         <v>10</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="K1" s="29" t="s">
         <v>578</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>173</v>
@@ -17570,7 +17613,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="25" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="B2" s="26">
         <v>1.2</v>
@@ -17595,7 +17638,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="25" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -17620,7 +17663,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26">
@@ -17670,7 +17713,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -17695,7 +17738,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="25" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -17745,7 +17788,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="25" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26">
@@ -17770,7 +17813,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="27" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -17795,7 +17838,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="28" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="B11" s="26">
         <v>1.5</v>
@@ -17845,7 +17888,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="25" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="B13" s="26">
         <v>2</v>
@@ -17870,7 +17913,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="25" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="B14" s="26">
         <v>0.1</v>
@@ -17895,7 +17938,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="27" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -17920,7 +17963,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="27" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -17943,7 +17986,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="27" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -17968,7 +18011,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="27" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -17991,7 +18034,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="27" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -18016,7 +18059,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="27" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -18039,7 +18082,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="27" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -18064,7 +18107,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="27" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -18087,7 +18130,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="27" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -18110,7 +18153,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="27" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -18133,7 +18176,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="27" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -18156,7 +18199,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="27" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -18394,23 +18437,23 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="I1" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="L1" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
     </row>
     <row r="2" spans="2:12">
@@ -18418,7 +18461,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -18427,7 +18470,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -18567,7 +18610,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="B8">
         <f>B3*0.5+B3</f>
@@ -18648,22 +18691,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="B14" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="C14" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="D14" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="E14" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="F14" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="L14">
         <v>9</v>
@@ -18833,13 +18876,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="B1" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="C1" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -19180,7 +19223,7 @@
     </row>
     <row r="30" spans="4:5">
       <c r="D30" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="E30">
         <v>0.75</v>
@@ -19188,7 +19231,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="B32" s="2">
         <v>10</v>
@@ -19213,13 +19256,13 @@
         <v>68</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
@@ -19246,7 +19289,7 @@
         <v>13</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>70</v>

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="3" activeTab="12"/>
+    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon Data v1" sheetId="2" r:id="rId1"/>
@@ -1898,51 +1898,51 @@
     <t>Cooldown</t>
   </si>
   <si>
+    <t>Splinter</t>
+  </si>
+  <si>
+    <t>Bullet splits into several bullets on impact.</t>
+  </si>
+  <si>
     <t>Gouge</t>
   </si>
   <si>
-    <t>Hit all enemies behind target.</t>
+    <t>Empty entire magazine, set fire to area on hit.</t>
+  </si>
+  <si>
+    <t>Sweep</t>
+  </si>
+  <si>
+    <t>Knockback all targets hit.</t>
+  </si>
+  <si>
+    <t>Swarm</t>
+  </si>
+  <si>
+    <t>Empty magazine, fire at all enemies.</t>
+  </si>
+  <si>
+    <t>Refill</t>
+  </si>
+  <si>
+    <t>Refill magazine without reloading.</t>
+  </si>
+  <si>
+    <t>Compel</t>
+  </si>
+  <si>
+    <t>Knock enemy back on hit.</t>
+  </si>
+  <si>
+    <t>Hairpin</t>
+  </si>
+  <si>
+    <t>Fire 2 rounds every time you fire for the rest of the magazine.</t>
   </si>
   <si>
     <t>Impact</t>
   </si>
   <si>
-    <t>Deal entire shot damage as piercing.</t>
-  </si>
-  <si>
-    <t>Sweep</t>
-  </si>
-  <si>
-    <t>Knockdown target.</t>
-  </si>
-  <si>
-    <t>Swarm</t>
-  </si>
-  <si>
-    <t>Empty magazine, fire at all enemies.</t>
-  </si>
-  <si>
-    <t>Refill</t>
-  </si>
-  <si>
-    <t>Refill magazine without reloading.</t>
-  </si>
-  <si>
-    <t>Compel</t>
-  </si>
-  <si>
-    <t>Every successful hit pushes the enemy back by 1 metre.</t>
-  </si>
-  <si>
-    <t>Hairpin</t>
-  </si>
-  <si>
-    <t>Fire 2 rounds every time you fire for the rest of the magazine.</t>
-  </si>
-  <si>
-    <t>Splinter</t>
-  </si>
-  <si>
     <t>Remaining shots in magazine explode and deal damage to enemies near target.</t>
   </si>
   <si>
@@ -1979,7 +1979,7 @@
     <t>Lacerate</t>
   </si>
   <si>
-    <t>Bleed Grenade</t>
+    <t>Explosive grenade.</t>
   </si>
   <si>
     <t>Taunt</t>
@@ -2009,7 +2009,7 @@
     <t>Shatter</t>
   </si>
   <si>
-    <t>Throw piercing grenade.</t>
+    <t>Decay grenade.</t>
   </si>
   <si>
     <t>Brace</t>
@@ -2478,11 +2478,11 @@
   <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2553,10 +2553,18 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2575,22 +2583,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2600,14 +2602,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2628,26 +2622,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2673,6 +2651,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2691,6 +2676,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2819,7 +2819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2831,7 +2831,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2843,19 +2879,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2873,19 +2933,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2897,109 +2993,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3544,10 +3544,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3568,15 +3566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3592,6 +3581,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3603,15 +3601,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3639,12 +3628,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3662,130 +3662,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3853,7 +3853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3916,7 +3916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4114,7 +4114,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -15973,8 +15973,8 @@
   <sheetPr/>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -16425,8 +16425,8 @@
   <sheetPr/>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="6" activeTab="9"/>
+    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon Data v1" sheetId="2" state="hidden" r:id="rId1"/>
@@ -1985,13 +1985,13 @@
     <t>Staunch</t>
   </si>
   <si>
-    <t>Recover 50 health.</t>
+    <t>Remove all conditions</t>
   </si>
   <si>
     <t>Rejuvinate</t>
   </si>
   <si>
-    <t>Transfer conditions to target.</t>
+    <t>Restore 50 health</t>
   </si>
   <si>
     <t>Immolate</t>
@@ -2057,7 +2057,7 @@
     <t>Restock</t>
   </si>
   <si>
-    <t>Recover additional magazine</t>
+    <t>..............</t>
   </si>
   <si>
     <t>Fortify</t>
@@ -2484,10 +2484,10 @@
   <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
   <fonts count="27">
@@ -2564,8 +2564,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2581,14 +2589,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2604,14 +2620,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2625,25 +2634,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2656,38 +2678,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2816,25 +2816,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2846,145 +2918,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2997,6 +2937,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3539,36 +3539,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3589,15 +3563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3609,6 +3574,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3627,21 +3636,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3659,130 +3659,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3829,13 +3829,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3850,7 +3850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -14681,7 +14681,7 @@
   <sheetPr/>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -16269,8 +16269,8 @@
   <sheetPr/>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -32647,7 +32647,6 @@
       <c r="F12" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>433</v>
       </c>
@@ -32671,7 +32670,6 @@
       <c r="F13" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
         <v>439</v>
       </c>
@@ -32689,11 +32687,9 @@
       <c r="D14" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="E14" s="2"/>
       <c r="F14" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
         <v>445</v>
       </c>
@@ -32711,11 +32707,9 @@
       <c r="D15" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="E15" s="2"/>
       <c r="F15" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
         <v>451</v>
       </c>
@@ -32727,13 +32721,10 @@
       <c r="B16" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="C16" s="2"/>
       <c r="D16" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="E16" s="2"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
         <v>455</v>
       </c>
@@ -32745,13 +32736,10 @@
       <c r="B17" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="C17" s="2"/>
       <c r="D17" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="E17" s="2"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
         <v>459</v>
       </c>
@@ -32763,13 +32751,10 @@
       <c r="B18" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="C18" s="2"/>
       <c r="D18" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="E18" s="2"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
         <v>463</v>
       </c>
@@ -32781,11 +32766,9 @@
       <c r="B19" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="C19" s="2"/>
       <c r="D19" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="E19" s="2"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
@@ -32795,11 +32778,9 @@
       <c r="B20" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="C20" s="2"/>
       <c r="D20" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="E20" s="2"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
@@ -32809,11 +32790,9 @@
       <c r="B21" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="C21" s="2"/>
       <c r="D21" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="E21" s="2"/>
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6">
@@ -32823,11 +32802,9 @@
       <c r="B22" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="C22" s="2"/>
       <c r="D22" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="E22" s="2"/>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
@@ -32837,11 +32814,9 @@
       <c r="B23" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="C23" s="2"/>
       <c r="D23" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="E23" s="2"/>
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6">
@@ -32851,11 +32826,9 @@
       <c r="B24" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="C24" s="2"/>
       <c r="D24" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="E24" s="2"/>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6">
@@ -32865,11 +32838,9 @@
       <c r="B25" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="C25" s="2"/>
       <c r="D25" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="E25" s="2"/>
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6">
@@ -32879,11 +32850,9 @@
       <c r="B26" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="C26" s="2"/>
       <c r="D26" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="E26" s="2"/>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6">
@@ -32893,11 +32862,9 @@
       <c r="B27" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="C27" s="2"/>
       <c r="D27" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="E27" s="2"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6">
@@ -32907,9 +32874,7 @@
       <c r="B28" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="C28" s="2"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="2"/>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6">
@@ -32919,9 +32884,7 @@
       <c r="B29" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="C29" s="2"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="2"/>
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6">
@@ -32931,9 +32894,7 @@
       <c r="B30" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="C30" s="2"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="2"/>
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6">
@@ -32943,9 +32904,7 @@
       <c r="B31" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="C31" s="2"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="2"/>
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6">
@@ -32955,9 +32914,7 @@
       <c r="B32" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="C32" s="2"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="2"/>
       <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6">
@@ -32967,9 +32924,7 @@
       <c r="B33" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="C33" s="2"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="2"/>
       <c r="F33" s="12"/>
     </row>
   </sheetData>

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -2177,10 +2177,10 @@
     <t>GhoulMother</t>
   </si>
   <si>
+    <t>Maelstrom</t>
+  </si>
+  <si>
     <t>Ghast</t>
-  </si>
-  <si>
-    <t>Maelstrom</t>
   </si>
   <si>
     <t>Shocker</t>
@@ -2482,13 +2482,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2550,7 +2550,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2565,10 +2587,47 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2582,23 +2641,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2612,29 +2679,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2643,51 +2687,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2816,7 +2816,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2828,13 +2840,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2846,13 +2918,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2864,25 +2954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2894,91 +2966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2991,6 +2979,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3541,9 +3541,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3568,17 +3570,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3613,15 +3604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3636,12 +3618,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3659,130 +3659,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16728,7 +16728,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -16814,19 +16814,19 @@
         <v>28</v>
       </c>
       <c r="G3" s="35">
-        <f>B3/25</f>
+        <f t="shared" ref="G3:G22" si="0">B3/25</f>
         <v>8</v>
       </c>
       <c r="H3" s="35">
-        <f t="shared" ref="H3:H10" si="0">C3/25</f>
+        <f t="shared" ref="H3:H22" si="1">C3/25</f>
         <v>28</v>
       </c>
       <c r="I3" s="35">
-        <f>B3/110</f>
+        <f t="shared" ref="I3:I22" si="2">B3/110</f>
         <v>1.81818181818182</v>
       </c>
       <c r="J3" s="35">
-        <f t="shared" ref="J3:J10" si="1">C3/110</f>
+        <f t="shared" ref="J3:J22" si="3">C3/110</f>
         <v>6.36363636363636</v>
       </c>
       <c r="L3" s="32" t="s">
@@ -16841,7 +16841,7 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C10" si="2">B4+500</f>
+        <f t="shared" ref="C4:C22" si="4">B4+500</f>
         <v>600</v>
       </c>
       <c r="D4">
@@ -16851,19 +16851,19 @@
         <v>2</v>
       </c>
       <c r="G4" s="35">
-        <f>B4/25</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H4" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I4" s="35">
-        <f>B4/110</f>
+        <f t="shared" si="2"/>
         <v>0.909090909090909</v>
       </c>
       <c r="J4" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.45454545454545</v>
       </c>
       <c r="L4" t="s">
@@ -16878,7 +16878,7 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="D5">
@@ -16891,19 +16891,19 @@
         <v>699</v>
       </c>
       <c r="G5" s="35">
-        <f>B5/25</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H5" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="I5" s="35">
-        <f>B5/110</f>
+        <f t="shared" si="2"/>
         <v>1.81818181818182</v>
       </c>
       <c r="J5" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.36363636363636</v>
       </c>
       <c r="L5" s="32" t="s">
@@ -16918,7 +16918,7 @@
         <v>200</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="D6">
@@ -16931,19 +16931,19 @@
         <v>702</v>
       </c>
       <c r="G6" s="35">
-        <f>B6/25</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H6" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="I6" s="35">
-        <f>B6/110</f>
+        <f t="shared" si="2"/>
         <v>1.81818181818182</v>
       </c>
       <c r="J6" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.36363636363636</v>
       </c>
       <c r="L6" t="s">
@@ -16958,7 +16958,7 @@
         <v>400</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
       <c r="D7">
@@ -16971,19 +16971,19 @@
         <v>705</v>
       </c>
       <c r="G7" s="35">
-        <f>B7/25</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H7" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="I7" s="35">
-        <f>B7/110</f>
+        <f t="shared" si="2"/>
         <v>3.63636363636364</v>
       </c>
       <c r="J7" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.18181818181818</v>
       </c>
       <c r="L7" t="s">
@@ -16998,7 +16998,7 @@
         <v>600</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1100</v>
       </c>
       <c r="D8">
@@ -17011,19 +17011,19 @@
         <v>708</v>
       </c>
       <c r="G8" s="35">
-        <f>B8/25</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="H8" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="I8" s="35">
-        <f>B8/110</f>
+        <f t="shared" si="2"/>
         <v>5.45454545454545</v>
       </c>
       <c r="J8" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -17035,7 +17035,7 @@
         <v>50</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>550</v>
       </c>
       <c r="D9">
@@ -17045,19 +17045,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="35">
-        <f>B9/25</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H9" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I9" s="35">
-        <f>B9/110</f>
+        <f t="shared" si="2"/>
         <v>0.454545454545455</v>
       </c>
       <c r="J9" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="L9" s="32" t="s">
@@ -17072,7 +17072,7 @@
         <v>150</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>650</v>
       </c>
       <c r="D10">
@@ -17085,19 +17085,19 @@
         <v>699</v>
       </c>
       <c r="G10" s="35">
-        <f>B10/25</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H10" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I10" s="35">
-        <f>B10/110</f>
+        <f t="shared" si="2"/>
         <v>1.36363636363636</v>
       </c>
       <c r="J10" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.90909090909091</v>
       </c>
       <c r="L10" s="32" t="s">
@@ -17112,7 +17112,7 @@
         <v>50</v>
       </c>
       <c r="C11" s="36">
-        <f>B11+500</f>
+        <f t="shared" si="4"/>
         <v>550</v>
       </c>
       <c r="D11" s="36">
@@ -17123,19 +17123,19 @@
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="37">
-        <f>B11/25</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H11" s="37">
-        <f>C11/25</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I11" s="37">
-        <f>B11/110</f>
+        <f t="shared" si="2"/>
         <v>0.454545454545455</v>
       </c>
       <c r="J11" s="37">
-        <f>C11/110</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -17147,7 +17147,7 @@
         <v>400</v>
       </c>
       <c r="C12" s="36">
-        <f>B12+500</f>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
       <c r="D12" s="36">
@@ -17158,19 +17158,19 @@
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="37">
-        <f>B12/25</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H12" s="37">
-        <f>C12/25</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="I12" s="37">
-        <f>B12/110</f>
+        <f t="shared" si="2"/>
         <v>3.63636363636364</v>
       </c>
       <c r="J12" s="37">
-        <f>C12/110</f>
+        <f t="shared" si="3"/>
         <v>8.18181818181818</v>
       </c>
     </row>
@@ -17179,30 +17179,34 @@
         <v>715</v>
       </c>
       <c r="B13" s="36">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C13" s="36">
         <f>B13+500</f>
-        <v>600</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+        <v>800</v>
+      </c>
+      <c r="D13" s="36">
+        <v>5</v>
+      </c>
+      <c r="E13" s="36">
+        <v>2</v>
+      </c>
       <c r="F13" s="36"/>
       <c r="G13" s="37">
         <f>B13/25</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H13" s="37">
         <f>C13/25</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I13" s="37">
         <f>B13/110</f>
-        <v>0.909090909090909</v>
+        <v>2.72727272727273</v>
       </c>
       <c r="J13" s="37">
         <f>C13/110</f>
-        <v>5.45454545454545</v>
+        <v>7.27272727272727</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -17210,30 +17214,30 @@
         <v>716</v>
       </c>
       <c r="B14" s="36">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C14" s="36">
         <f>B14+500</f>
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37">
         <f>B14/25</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H14" s="37">
         <f>C14/25</f>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I14" s="37">
         <f>B14/110</f>
-        <v>2.72727272727273</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="J14" s="37">
         <f>C14/110</f>
-        <v>7.27272727272727</v>
+        <v>5.45454545454545</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -17244,26 +17248,26 @@
         <v>100</v>
       </c>
       <c r="C15" s="36">
-        <f>B15+500</f>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
       <c r="G15" s="37">
-        <f>B15/25</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H15" s="37">
-        <f>C15/25</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I15" s="37">
-        <f>B15/110</f>
+        <f t="shared" si="2"/>
         <v>0.909090909090909</v>
       </c>
       <c r="J15" s="37">
-        <f>C15/110</f>
+        <f t="shared" si="3"/>
         <v>5.45454545454545</v>
       </c>
     </row>
@@ -17275,26 +17279,26 @@
         <v>1000</v>
       </c>
       <c r="C16" s="36">
-        <f>B16+500</f>
+        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37">
-        <f>B16/25</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="H16" s="37">
-        <f>C16/25</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I16" s="37">
-        <f>B16/110</f>
+        <f t="shared" si="2"/>
         <v>9.09090909090909</v>
       </c>
       <c r="J16" s="37">
-        <f>C16/110</f>
+        <f t="shared" si="3"/>
         <v>13.6363636363636</v>
       </c>
     </row>
@@ -17306,26 +17310,26 @@
         <v>200</v>
       </c>
       <c r="C17" s="36">
-        <f>B17+500</f>
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
       <c r="F17" s="36"/>
       <c r="G17" s="37">
-        <f>B17/25</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H17" s="37">
-        <f>C17/25</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="I17" s="37">
-        <f>B17/110</f>
+        <f t="shared" si="2"/>
         <v>1.81818181818182</v>
       </c>
       <c r="J17" s="37">
-        <f>C17/110</f>
+        <f t="shared" si="3"/>
         <v>6.36363636363636</v>
       </c>
     </row>
@@ -17337,26 +17341,26 @@
         <v>150</v>
       </c>
       <c r="C18">
-        <f>B18+500</f>
+        <f t="shared" si="4"/>
         <v>650</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="G18" s="35">
-        <f>B18/25</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H18" s="35">
-        <f>C18/25</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I18" s="35">
-        <f>B18/110</f>
+        <f t="shared" si="2"/>
         <v>1.36363636363636</v>
       </c>
       <c r="J18" s="35">
-        <f>C18/110</f>
+        <f t="shared" si="3"/>
         <v>5.90909090909091</v>
       </c>
     </row>
@@ -17368,26 +17372,26 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <f>B19+500</f>
+        <f t="shared" si="4"/>
         <v>550</v>
       </c>
       <c r="D19">
         <v>7</v>
       </c>
       <c r="G19" s="35">
-        <f>B19/25</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H19" s="35">
-        <f>C19/25</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I19" s="35">
-        <f>B19/110</f>
+        <f t="shared" si="2"/>
         <v>0.454545454545455</v>
       </c>
       <c r="J19" s="35">
-        <f>C19/110</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -17399,26 +17403,26 @@
         <v>200</v>
       </c>
       <c r="C20">
-        <f>B20+500</f>
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="G20" s="35">
-        <f>B20/25</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H20" s="35">
-        <f>C20/25</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="I20" s="35">
-        <f>B20/110</f>
+        <f t="shared" si="2"/>
         <v>1.81818181818182</v>
       </c>
       <c r="J20" s="35">
-        <f>C20/110</f>
+        <f t="shared" si="3"/>
         <v>6.36363636363636</v>
       </c>
     </row>
@@ -17430,26 +17434,26 @@
         <v>100</v>
       </c>
       <c r="C21">
-        <f>B21+500</f>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="G21" s="35">
-        <f>B21/25</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H21" s="35">
-        <f>C21/25</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I21" s="35">
-        <f>B21/110</f>
+        <f t="shared" si="2"/>
         <v>0.909090909090909</v>
       </c>
       <c r="J21" s="35">
-        <f>C21/110</f>
+        <f t="shared" si="3"/>
         <v>5.45454545454545</v>
       </c>
     </row>
@@ -17461,26 +17465,26 @@
         <v>200</v>
       </c>
       <c r="C22">
-        <f>B22+500</f>
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="G22" s="35">
-        <f>B22/25</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H22" s="35">
-        <f>C22/25</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="I22" s="35">
-        <f>B22/110</f>
+        <f t="shared" si="2"/>
         <v>1.81818181818182</v>
       </c>
       <c r="J22" s="35">
-        <f>C22/110</f>
+        <f t="shared" si="3"/>
         <v>6.36363636363636</v>
       </c>
     </row>

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -2482,12 +2482,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
   <fonts count="27">
@@ -2549,73 +2549,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2631,35 +2564,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2672,10 +2589,85 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2687,7 +2679,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2816,31 +2816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2858,7 +2840,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2870,7 +2912,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2882,37 +2936,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2924,67 +2960,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2997,6 +2973,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3539,6 +3539,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3546,6 +3561,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3574,6 +3604,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3585,45 +3624,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3641,7 +3641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3659,130 +3659,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16728,7 +16728,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -17182,7 +17182,7 @@
         <v>300</v>
       </c>
       <c r="C13" s="36">
-        <f>B13+500</f>
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
       <c r="D13" s="36">
@@ -17193,19 +17193,19 @@
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="37">
-        <f>B13/25</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H13" s="37">
-        <f>C13/25</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I13" s="37">
-        <f>B13/110</f>
+        <f t="shared" si="2"/>
         <v>2.72727272727273</v>
       </c>
       <c r="J13" s="37">
-        <f>C13/110</f>
+        <f t="shared" si="3"/>
         <v>7.27272727272727</v>
       </c>
     </row>
@@ -17217,26 +17217,26 @@
         <v>100</v>
       </c>
       <c r="C14" s="36">
-        <f>B14+500</f>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37">
-        <f>B14/25</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H14" s="37">
-        <f>C14/25</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I14" s="37">
-        <f>B14/110</f>
+        <f t="shared" si="2"/>
         <v>0.909090909090909</v>
       </c>
       <c r="J14" s="37">
-        <f>C14/110</f>
+        <f t="shared" si="3"/>
         <v>5.45454545454545</v>
       </c>
     </row>

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="2" activeTab="12"/>
+    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon Data v1" sheetId="2" state="hidden" r:id="rId1"/>
@@ -22,15 +22,16 @@
     <sheet name="Enemy Types" sheetId="16" r:id="rId13"/>
     <sheet name="Region DescriptionGenerator" sheetId="17" r:id="rId14"/>
     <sheet name="Inscriptions" sheetId="22" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId16"/>
-    <sheet name="Sheet2" sheetId="21" r:id="rId17"/>
+    <sheet name="Crafting" sheetId="24" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId17"/>
+    <sheet name="Sheet2" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827">
   <si>
     <t>Type</t>
   </si>
@@ -2412,6 +2413,42 @@
   </si>
   <si>
     <t>Focus</t>
+  </si>
+  <si>
+    <t>Recipes</t>
+  </si>
+  <si>
+    <t>Animal Skin</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Leather</t>
+  </si>
+  <si>
+    <t>Scrap</t>
+  </si>
+  <si>
+    <t>Reinforced Leather</t>
+  </si>
+  <si>
+    <t>Essence</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Imbued Plate</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Fuel</t>
   </si>
   <si>
     <t>No Chars</t>
@@ -2482,12 +2519,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
   <fonts count="27">
@@ -2549,6 +2586,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2558,7 +2686,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2574,53 +2709,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2634,60 +2723,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2816,7 +2853,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2834,7 +2889,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2846,115 +3003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2966,25 +3015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2997,6 +3028,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3540,6 +3577,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3550,6 +3602,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3580,15 +3641,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3607,23 +3659,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3631,8 +3668,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3641,7 +3678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3659,130 +3696,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16727,7 +16764,7 @@
   <sheetPr/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -18651,6 +18688,211 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="12.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="19.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="10.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D2" t="s">
+        <v>796</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>795</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>797</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>796</v>
+      </c>
+      <c r="D3" t="s">
+        <v>797</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>798</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>799</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4" t="s">
+        <v>798</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>801</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>802</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>798</v>
+      </c>
+      <c r="D5" t="s">
+        <v>802</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>800</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>803</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>802</v>
+      </c>
+      <c r="D6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>804</v>
+      </c>
+      <c r="D7" t="s">
+        <v>804</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D9" t="s">
+        <v>805</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>615</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>801</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18669,23 +18911,23 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="I1" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="L1" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
     </row>
     <row r="2" spans="2:12">
@@ -18693,7 +18935,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -18702,7 +18944,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -18842,7 +19084,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="B8">
         <f>B3*0.5+B3</f>
@@ -18923,22 +19165,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="B14" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="C14" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="D14" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="E14" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="F14" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="L14">
         <v>9</v>
@@ -19087,12 +19329,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -19108,13 +19350,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="B1" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="C1" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -19455,7 +19697,7 @@
     </row>
     <row r="30" spans="4:5">
       <c r="D30" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="E30">
         <v>0.75</v>
@@ -19463,7 +19705,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="B32" s="2">
         <v>10</v>
@@ -19488,13 +19730,13 @@
         <v>68</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
@@ -19521,7 +19763,7 @@
         <v>13</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>70</v>

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon Data v1" sheetId="2" state="hidden" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859">
   <si>
     <t>Type</t>
   </si>
@@ -578,9 +578,6 @@
     <t>Atop the highest pinnacle of an ancient rig a man sat upon his throne. He made sure he was above all others, able to see for miles and miles around. Many worked for him, some dug at the ground beneath their feet, others were there for his pleasure. Every month, in an attempt to show his humanity, he would gather his people, and select one to bestow a great gift upon. He would take them out of the settlement in his great vehicle, far beyond the horizon, to a place no-one saw or knew about. The people of the settlement lived for this great gift, they would praise his name in the hopes that one day they too would be able to go to the paradise. One day a mother and her child came before the warlord. With croaking voices they begged him to leave. And so he laid his great hand upon them, and spoke the words they most desired to hear. The others watched on longingly, some wept, whilst others cursed in frustration. The mother and her child descended with him. Deep through the the great machine they went, down to the salty floor below. He beckoned for them to enter the vehicle, and begin their journey to salvation. It was far, to go beyond the bounds that confined them. The self-proclaimed king spoke not a word, and gave them not a glance. He allowed them supplies to sate their moaning bellies and quench their dry throats. Days passed, the warlord driving without sleep, before they finally stopped. Before them was a great plain. Their breath was stolen from them as they gazed upon miles and miles of grassland. So flat it was that it would drive the mind to madness if one were to gaze at it long enough. The mother started to weep, for she knew that despite the rivers that ran through the land, despite the green fields that beckoned to her, she knew it was as hostile to life as any desert. She knew that this would be the end. She turned to the driver, imploring him to return them home. But he refused, in his mind this was a paradise, how could anyone refuse this great green place. ‘You cannot go back’ he said. For if they were to return the magic would be shattered for his people. They would be crushed by the reality of the world. Suddenly the woman spun round, digging her fingers deep into his forearms, running them down his flesh in long red streaks. He screamed out in pain and pushed her to the ground. Blood spilling onto the blinding white floor, immediately absorbed by the grateful earth. He ran back to his car, started the engine, and drove away as he tried to tend to his wounds. Glancing up, he saw her in the mirror, still on the floor, a mask of anger worn upon her face. As they grew smaller he knew his reign had ended. He could not give hope to his people, not now that the veil had been lifted from his eyes. And so exiled himself into the desert. His compassion towards his people blinded him to the reality of his actions. To this day he carries those scars, a reminder that we are all equal in the dust.</t>
   </si>
   <si>
-    <t>Heal strength</t>
-  </si>
-  <si>
     <t>The Deserter</t>
   </si>
   <si>
@@ -590,9 +587,6 @@
     <t>conditioner</t>
   </si>
   <si>
-    <t>Build Shelter * 0.8 temperature</t>
-  </si>
-  <si>
     <t>The Beast</t>
   </si>
   <si>
@@ -605,7 +599,7 @@
     <t>Eternally I rage on, through red dust and dark fire. Enemies I have none, yet mercilessly I cut down those before me. You however, you I will spare. There is a dark shadow I see on your soul, a side you cannot see, that blinds you in your most passionate moments. A beast that howls and screams, taunting you to let it free. It is in all of us, a monster lurking beneath your civil self. Only I have controlled it. You see it is not a demon that takes over us, it is not some foreign horror that overpowers, or a contagion that clouds your thoughts. The beast is a reflection of you, it is the inversion of your conscious mind. It does the bidding of your true emotions, if you’ll let it. There is no greater power in this world than the unchained beast. The weight that burdens others in these pallid years is a pedestal that raises me up above others. Come! Revel in your freedom, shirk the shackles of civilisation and sate your need for blood. Do not care for the other, do not pity them for they would do the same to you. You will free them of their duties on this earth. Perhaps they will go to the halls of their heroes, or perhaps only blackness awaits. It is not for us to know, but we will find out. Go, allow the wolf within you to burst forth, break the weak, conquer the strong, and if you should fall you shall know that it was in glorious rage that your fire was snuffed, do not allow it instead to whimper and fail in the darkening of the night.</t>
   </si>
   <si>
-    <t>Upgrade weapons</t>
+    <t>More meat found on animals</t>
   </si>
   <si>
     <t>The Watcher</t>
@@ -617,1446 +611,1443 @@
     <t>storyteller</t>
   </si>
   <si>
-    <t>Heal willpower</t>
+    <t>The Survivor</t>
+  </si>
+  <si>
+    <t>Curiosity</t>
+  </si>
+  <si>
+    <t>explorer</t>
+  </si>
+  <si>
+    <t>Free water collector</t>
+  </si>
+  <si>
+    <t>The Protector</t>
+  </si>
+  <si>
+    <t>Hatred</t>
+  </si>
+  <si>
+    <t>dps</t>
+  </si>
+  <si>
+    <t>I used to have a family like you. I remember them well, my wife, Mary, and my daughter, Anna. We lived in a safe place, one of the last safe places in the world. We had fields of crops, running water, and miles of woodland. We did our best to get along, some of us had been born there, others were wanderers we took in from the wastes. There were those of us, myself included, who felt that letting outsiders in was dangerous. There were terrible stories that made their way to us. Stories of barbarism, murder, men killing each other over water. We worried that our haven would be found. With every parched raider passing, every bleached wastelander that stumbled by, my fear grew. Sometimes I would lay awake nights on end, starting at every crack, rustle, and hoot. You could see division growing among us, some wouldn’t look at me- they knew my mind, and in the eyes of the others I could see my own thoughts reflected back at me. One day a mad man found his way to us, at first he seemed like another sorry soul, but as soon as night fell he took one of our women. He was silent, we only found her body in the morning. The moment her blank stare found mine I knew what had to be done. I scoured the village for him, the man beast who took us for fools, and when I found him I crushed his bones beneath my feet. As the echoes of his screams died out I realised what had been done. We were split, forever divided. My friends drove the other outsiders into the forest, never to be seen again. Many of us fought one another, others fled. I searched for my family, to protect them, to say sorry. But I knew they had left, whether because of me or to escape the insanity I provoked I will never know. Since then I have been searching for them. I know it is futile. Too many years have passed, years that have turned that safe haven into sand and shelter to ruins. Still I am driven on, by my love and by my hate. I know I will find them, in this life, or in the next.</t>
+  </si>
+  <si>
+    <t>Free shelter</t>
+  </si>
+  <si>
+    <t>The Hunter</t>
+  </si>
+  <si>
+    <t>Despair</t>
+  </si>
+  <si>
+    <t>finder</t>
+  </si>
+  <si>
+    <t>Free trap</t>
+  </si>
+  <si>
+    <t>The Ghost</t>
+  </si>
+  <si>
+    <t>Complacency</t>
   </si>
   <si>
     <t>The Wanderer</t>
   </si>
   <si>
-    <t>Curiosity</t>
-  </si>
-  <si>
-    <t>explorer</t>
-  </si>
-  <si>
-    <t>Build Water Tank +1 water/hr</t>
-  </si>
-  <si>
-    <t>The Protector</t>
-  </si>
-  <si>
-    <t>Hatred</t>
-  </si>
-  <si>
-    <t>dps</t>
-  </si>
-  <si>
-    <t>I used to have a family like you. I remember them well, my wife, Mary, and my daughter, Anna. We lived in a safe place, one of the last safe places in the world. We had fields of crops, running water, and miles of woodland. We did our best to get along, some of us had been born there, others were wanderers we took in from the wastes. There were those of us, myself included, who felt that letting outsiders in was dangerous. There were terrible stories that made their way to us. Stories of barbarism, murder, men killing each other over water. We worried that our haven would be found. With every parched raider passing, every bleached wastelander that stumbled by, my fear grew. Sometimes I would lay awake nights on end, starting at every crack, rustle, and hoot. You could see division growing among us, some wouldn’t look at me- they knew my mind, and in the eyes of the others I could see my own thoughts reflected back at me. One day a mad man found his way to us, at first he seemed like another sorry soul, but as soon as night fell he took one of our women. He was silent, we only found her body in the morning. The moment her blank stare found mine I knew what had to be done. I scoured the village for him, the man beast who took us for fools, and when I found him I crushed his bones beneath my feet. As the echoes of his screams died out I realised what had been done. We were split, forever divided. My friends drove the other outsiders into the forest, never to be seen again. Many of us fought one another, others fled. I searched for my family, to protect them, to say sorry. But I knew they had left, whether because of me or to escape the insanity I provoked I will never know. Since then I have been searching for them. I know it is futile. Too many years have passed, years that have turned that safe haven into sand and shelter to ruins. Still I am driven on, by my love and by my hate. I know I will find them, in this life, or in the next.</t>
-  </si>
-  <si>
-    <t>Break gear into scrap</t>
-  </si>
-  <si>
-    <t>The Hunter</t>
-  </si>
-  <si>
-    <t>Despair</t>
-  </si>
-  <si>
-    <t>finder</t>
-  </si>
-  <si>
-    <t>Build trap +1 food/hr</t>
-  </si>
-  <si>
-    <t>The Ghost</t>
-  </si>
-  <si>
-    <t>Complacency</t>
-  </si>
-  <si>
-    <t>Remove inscriptions</t>
+    <t>Things weren’t always this way. I recall I time before the winds were dry and laden with ash, a time when we would welcome the sight of another, rather then recoil at the fear of danger. Sometimes it’s hard to say if it was all a dream, a misrememberance of my childhood. I prefer to think we are in a dream now, because even then we would one day wake up, even if now we have to live in this nightmare. I don’t know if I had a family, I must have done, though they are long dead by now I assume. Wandering is all I know, going from place to place, there is so much that has been left undone in this world. I find newspapers, books, diaries, strange devices that sputter with light and sound but go dark before long, never to wake. Happily I find myself without sadness in these dying days. I have no remorse or incomplete doings, none to to weep for, and nothing to rejoice. My only lament is my lack of feeling, though I’m sure you envy my stagnant mind. What little memories I have are no more real to me than scribblings in a book. There are those who call my a ghost, because that is who I am, a ghost in this purgatory, drifting lifelessly through an equally lifeless plane. I will follow you though, though like a leaf on a breeze I do not know why. I assure you I do not fear death, for I cannot truly call my existence life.</t>
+  </si>
+  <si>
+    <t>Never gets lost</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Pathetic</t>
+  </si>
+  <si>
+    <t>-2 strength</t>
+  </si>
+  <si>
+    <t>Carry 5kg or less for 400 hours</t>
+  </si>
+  <si>
+    <t>Feeble</t>
+  </si>
+  <si>
+    <t>-1 strength</t>
+  </si>
+  <si>
+    <t>Carry 5kg or less for 200 hours</t>
+  </si>
+  <si>
+    <t>Powerful</t>
+  </si>
+  <si>
+    <t>+1 strength</t>
+  </si>
+  <si>
+    <t>Carry 15kg or more for 100 hours</t>
+  </si>
+  <si>
+    <t>Monolithic</t>
+  </si>
+  <si>
+    <t>+2 strength</t>
+  </si>
+  <si>
+    <t>Carry 15kg or more for 200 hours</t>
+  </si>
+  <si>
+    <t>Godlike</t>
+  </si>
+  <si>
+    <t>+3 strength</t>
+  </si>
+  <si>
+    <t>Carry 15kg or more for 400 hours</t>
+  </si>
+  <si>
+    <t>Sloth</t>
+  </si>
+  <si>
+    <t>-2 endurance</t>
+  </si>
+  <si>
+    <t>Idle for 300 hours</t>
+  </si>
+  <si>
+    <t>Lazy</t>
+  </si>
+  <si>
+    <t>-1 endurance</t>
+  </si>
+  <si>
+    <t>Idle for 100 hours</t>
+  </si>
+  <si>
+    <t>Nomadic</t>
+  </si>
+  <si>
+    <t>+1 endurance</t>
+  </si>
+  <si>
+    <t>Travel for 100 hours</t>
+  </si>
+  <si>
+    <t>Enduring</t>
+  </si>
+  <si>
+    <t>+2 endurance</t>
+  </si>
+  <si>
+    <t>Travel for 200 hours</t>
+  </si>
+  <si>
+    <t>Tireless</t>
+  </si>
+  <si>
+    <t>+3 endurance</t>
+  </si>
+  <si>
+    <t>Travel for 400 hours</t>
+  </si>
+  <si>
+    <t>Oblivious</t>
+  </si>
+  <si>
+    <t>-2 perception</t>
+  </si>
+  <si>
+    <t>Get lost 100 times</t>
+  </si>
+  <si>
+    <t>Distracted</t>
+  </si>
+  <si>
+    <t>-1 perception</t>
+  </si>
+  <si>
+    <t>Get lost 50 times</t>
+  </si>
+  <si>
+    <t>Keen</t>
+  </si>
+  <si>
+    <t>+1 perception</t>
+  </si>
+  <si>
+    <t>Explore 20 regions</t>
+  </si>
+  <si>
+    <t>Perceptive</t>
+  </si>
+  <si>
+    <t>+2 perception</t>
+  </si>
+  <si>
+    <t>Explore 50 regions</t>
+  </si>
+  <si>
+    <t>+3 perception</t>
+  </si>
+  <si>
+    <t>Explore 100 regions</t>
+  </si>
+  <si>
+    <t>Fearful</t>
+  </si>
+  <si>
+    <t>-2 willpower</t>
+  </si>
+  <si>
+    <t>Have 10 mental breaks</t>
+  </si>
+  <si>
+    <t>Weak-willed</t>
+  </si>
+  <si>
+    <t>-1 willpower</t>
+  </si>
+  <si>
+    <t>Have 5 mental breaks</t>
+  </si>
+  <si>
+    <t>Hardy</t>
+  </si>
+  <si>
+    <t>+1 willpower</t>
+  </si>
+  <si>
+    <t>Recover 50 points of willpower</t>
+  </si>
+  <si>
+    <t>Resolute</t>
+  </si>
+  <si>
+    <t>+2 willpower</t>
+  </si>
+  <si>
+    <t>Recover 100 points of willpower</t>
+  </si>
+  <si>
+    <t>Fearless</t>
+  </si>
+  <si>
+    <t>+3 willpower</t>
+  </si>
+  <si>
+    <t>Recover 200 points of willpower</t>
+  </si>
+  <si>
+    <t>Tinkerer</t>
+  </si>
+  <si>
+    <t>50% chance no durability loss on weapons</t>
+  </si>
+  <si>
+    <t>Improve a weapon 50 times</t>
+  </si>
+  <si>
+    <t>Machinist</t>
+  </si>
+  <si>
+    <t>No durability loss on weapons</t>
+  </si>
+  <si>
+    <t>Improve a weapon 100 times</t>
+  </si>
+  <si>
+    <t>Inept</t>
+  </si>
+  <si>
+    <t>Double durability loss on weapons</t>
+  </si>
+  <si>
+    <t>Break 5 weapons</t>
+  </si>
+  <si>
+    <t>Thick-skinned</t>
+  </si>
+  <si>
+    <t>+25% health in combat</t>
+  </si>
+  <si>
+    <t>Take 1000 damage</t>
+  </si>
+  <si>
+    <t>Iron-hide</t>
+  </si>
+  <si>
+    <t>+50% health in combat</t>
+  </si>
+  <si>
+    <t>Take 10000 damage</t>
+  </si>
+  <si>
+    <t>Angry</t>
+  </si>
+  <si>
+    <t>+50% rage duration</t>
+  </si>
+  <si>
+    <t>Spend 120 seconds enraged</t>
+  </si>
+  <si>
+    <t>Furious</t>
+  </si>
+  <si>
+    <t>+100% rage duration</t>
+  </si>
+  <si>
+    <t>Spend 240 seconds enraged</t>
+  </si>
+  <si>
+    <t>Uncaring</t>
+  </si>
+  <si>
+    <t>0 willpower from combat</t>
+  </si>
+  <si>
+    <t>Kill 100 humans</t>
+  </si>
+  <si>
+    <t>Pyschopathic</t>
+  </si>
+  <si>
+    <t>+1 willpower from combat</t>
+  </si>
+  <si>
+    <t>Kill 250 humans</t>
+  </si>
+  <si>
+    <t>Pugilist</t>
+  </si>
+  <si>
+    <t>+50% melee damage</t>
+  </si>
+  <si>
+    <t>Win 50 melee encounters</t>
+  </si>
+  <si>
+    <t>Shaky</t>
+  </si>
+  <si>
+    <t>-50% melee damage</t>
+  </si>
+  <si>
+    <t>Lose 50 melee encounters</t>
+  </si>
+  <si>
+    <t>Steadfast</t>
+  </si>
+  <si>
+    <t>-50% knockdown recovery</t>
+  </si>
+  <si>
+    <t>Dodge 200 knockdowns</t>
+  </si>
+  <si>
+    <t>Yielding</t>
+  </si>
+  <si>
+    <t>+50% knockdown recovery</t>
+  </si>
+  <si>
+    <t>Get knocked down 200 times</t>
+  </si>
+  <si>
+    <t>Pacifist</t>
+  </si>
+  <si>
+    <t>-20% damage</t>
+  </si>
+  <si>
+    <t>Flee 20 times</t>
+  </si>
+  <si>
+    <t>Gentle</t>
+  </si>
+  <si>
+    <t>-10% damage</t>
+  </si>
+  <si>
+    <t>Flee 10 times</t>
+  </si>
+  <si>
+    <t>Murderous</t>
+  </si>
+  <si>
+    <t>+10% damage</t>
+  </si>
+  <si>
+    <t>Deal 100000 damage</t>
+  </si>
+  <si>
+    <t>Slaughterer</t>
+  </si>
+  <si>
+    <t>+20% damage</t>
+  </si>
+  <si>
+    <t>Deal 500000 damage</t>
+  </si>
+  <si>
+    <t>Obtuse</t>
+  </si>
+  <si>
+    <t>+50% skill recharge</t>
+  </si>
+  <si>
+    <t>Don't use skills in 20 battles</t>
+  </si>
+  <si>
+    <t>Ignorant</t>
+  </si>
+  <si>
+    <t>+25% skill recharge</t>
+  </si>
+  <si>
+    <t>Don't use skills in 10 battles</t>
+  </si>
+  <si>
+    <t>Adept</t>
+  </si>
+  <si>
+    <t>-25% skill recharge</t>
+  </si>
+  <si>
+    <t>Use 500 skills</t>
+  </si>
+  <si>
+    <t>Sorcerer</t>
+  </si>
+  <si>
+    <t>-50% skill recharge</t>
+  </si>
+  <si>
+    <t>Use 1000 skills</t>
+  </si>
+  <si>
+    <t>Scavenger</t>
+  </si>
+  <si>
+    <t>+10% scrap found</t>
+  </si>
+  <si>
+    <t>Find 1000 units of scrap</t>
+  </si>
+  <si>
+    <t>Gatherer</t>
+  </si>
+  <si>
+    <t>+10% food found</t>
+  </si>
+  <si>
+    <t>Find 2000 units of food</t>
+  </si>
+  <si>
+    <t>Diviner</t>
+  </si>
+  <si>
+    <t>+10% water found</t>
+  </si>
+  <si>
+    <t>Find 2000 units of water</t>
+  </si>
+  <si>
+    <t>Tender</t>
+  </si>
+  <si>
+    <t>+50% fire duration</t>
+  </si>
+  <si>
+    <t>Light fire 100 times</t>
+  </si>
+  <si>
+    <t>Weapon Skill 1</t>
+  </si>
+  <si>
+    <t>Kill 50 enemies with weapon</t>
+  </si>
+  <si>
+    <t>Weapon Skill 2</t>
+  </si>
+  <si>
+    <t>Kill 150 enemies with weapon</t>
+  </si>
+  <si>
+    <t>Character Skill 1</t>
+  </si>
+  <si>
+    <t>Survive 10 combat encounters</t>
+  </si>
+  <si>
+    <t>Character Skill 2</t>
+  </si>
+  <si>
+    <t>Survive 25 combat encounters</t>
+  </si>
+  <si>
+    <t>Danger</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Shelter</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>Burden</t>
+  </si>
+  <si>
+    <t>Pursuit</t>
+  </si>
+  <si>
+    <t>Sustenance</t>
+  </si>
+  <si>
+    <t>God</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Prosperity</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Savage</t>
+  </si>
+  <si>
+    <t>Cessation</t>
+  </si>
+  <si>
+    <t>Chaser</t>
+  </si>
+  <si>
+    <t>Promise</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Fountain</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Heartache</t>
+  </si>
+  <si>
+    <t>Execrator</t>
+  </si>
+  <si>
+    <t>Blight</t>
+  </si>
+  <si>
+    <t>Stalker</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Seraph</t>
+  </si>
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>Triumph</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Mortal</t>
+  </si>
+  <si>
+    <t>Agony</t>
+  </si>
+  <si>
+    <t>Huntress</t>
+  </si>
+  <si>
+    <t>Bounty</t>
+  </si>
+  <si>
+    <t>Paragon</t>
+  </si>
+  <si>
+    <t>Beck</t>
+  </si>
+  <si>
+    <t>Virtue</t>
+  </si>
+  <si>
+    <t>Cripple</t>
+  </si>
+  <si>
+    <t>Anguish</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Bloom</t>
+  </si>
+  <si>
+    <t>Zealot</t>
+  </si>
+  <si>
+    <t>Creek</t>
+  </si>
+  <si>
+    <t>Devotion</t>
+  </si>
+  <si>
+    <t>Appeal</t>
+  </si>
+  <si>
+    <t>Civilisation</t>
+  </si>
+  <si>
+    <t>Bane</t>
+  </si>
+  <si>
+    <t>Pursuer</t>
+  </si>
+  <si>
+    <t>Adherant</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>Exaltation</t>
+  </si>
+  <si>
+    <t>Torment</t>
+  </si>
+  <si>
+    <t>Abode</t>
+  </si>
+  <si>
+    <t>Trapper</t>
+  </si>
+  <si>
+    <t>Blessing</t>
+  </si>
+  <si>
+    <t>Saviour</t>
+  </si>
+  <si>
+    <t>Ache</t>
+  </si>
+  <si>
+    <t>Piety</t>
+  </si>
+  <si>
+    <t>Anger</t>
+  </si>
+  <si>
+    <t>Terminus</t>
+  </si>
+  <si>
+    <t>Tracker</t>
+  </si>
+  <si>
+    <t>Deliverer</t>
+  </si>
+  <si>
+    <t>Balm</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>Sorrow</t>
+  </si>
+  <si>
+    <t>Dusk</t>
+  </si>
+  <si>
+    <t>Prowler</t>
+  </si>
+  <si>
+    <t>Wild</t>
+  </si>
+  <si>
+    <t>Faith</t>
+  </si>
+  <si>
+    <t>Beauty</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Abhorrent</t>
+  </si>
+  <si>
+    <t>Pit</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Heaven</t>
+  </si>
+  <si>
+    <t>Escape</t>
+  </si>
+  <si>
+    <t>Slumber</t>
+  </si>
+  <si>
+    <t>Betrayer</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Dale</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>Rapture</t>
+  </si>
+  <si>
+    <t>Solace</t>
+  </si>
+  <si>
+    <t>Maverick</t>
+  </si>
+  <si>
+    <t>Curse</t>
+  </si>
+  <si>
+    <t>Drifter</t>
+  </si>
+  <si>
+    <t>Vale</t>
+  </si>
+  <si>
+    <t>Elation</t>
+  </si>
+  <si>
+    <t>Sunset</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Woe</t>
+  </si>
+  <si>
+    <t>Vagrant</t>
+  </si>
+  <si>
+    <t>Hoard</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Deceiver</t>
+  </si>
+  <si>
+    <t>Grief</t>
+  </si>
+  <si>
+    <t>Remission</t>
+  </si>
+  <si>
+    <t>Torpor</t>
+  </si>
+  <si>
+    <t>Downfall</t>
+  </si>
+  <si>
+    <t>Affliction</t>
+  </si>
+  <si>
+    <t>Restitution</t>
+  </si>
+  <si>
+    <t>Repose</t>
+  </si>
+  <si>
+    <t>Hell</t>
+  </si>
+  <si>
+    <t>Damnation</t>
+  </si>
+  <si>
+    <t>Relief</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Vandal</t>
+  </si>
+  <si>
+    <t>Succour</t>
+  </si>
+  <si>
+    <t>Juggernaut</t>
+  </si>
+  <si>
+    <t>Comfort</t>
+  </si>
+  <si>
+    <t>Leviathan</t>
+  </si>
+  <si>
+    <t>Carcass</t>
+  </si>
+  <si>
+    <t>Remains</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Behemoth</t>
+  </si>
+  <si>
+    <t>Ruin</t>
+  </si>
+  <si>
+    <t>Temptation</t>
+  </si>
+  <si>
+    <t>Glutton</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Jewel</t>
+  </si>
+  <si>
+    <t>Hellion</t>
+  </si>
+  <si>
+    <t>Decay</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t>Demon</t>
+  </si>
+  <si>
+    <t>Hulk</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>Beast</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Boon</t>
+  </si>
+  <si>
+    <t>Satan</t>
+  </si>
+  <si>
+    <t>Wreck</t>
+  </si>
+  <si>
+    <t>Devil</t>
+  </si>
+  <si>
+    <t>Monstrosity</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Carrion</t>
+  </si>
+  <si>
+    <t>Collapse</t>
+  </si>
+  <si>
+    <t>Gargantua</t>
+  </si>
+  <si>
+    <t>Level No</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Temples</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Complete Keys</t>
+  </si>
+  <si>
+    <t>Broken Keys</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>Dune, Creek, Outcrop, Trees, Bushes, Bank, Riverbed, Marsh, Crystal Floor, Cenote</t>
+  </si>
+  <si>
+    <t>Steppe</t>
+  </si>
+  <si>
+    <t>Wildflowers, Tree, Tor, Hillside, Slope, Ridge, Knoll, Bog, Hoarfrost, Taiga</t>
+  </si>
+  <si>
+    <t>Ruins</t>
+  </si>
+  <si>
+    <t>Vaulted ceiling, Pillars, Rubble, Gate, Tower, Drome, Steps, Altar, Collapsed Sewer, Monument</t>
+  </si>
+  <si>
+    <t>Defiles</t>
+  </si>
+  <si>
+    <t>Cliff, Valley, Lake Bed, Crag, Crest, Pinnacle, Precipice, Scar, Bluff, Escarpment, Cave, Scree/Talus, Stringer, Wadi</t>
+  </si>
+  <si>
+    <t>Wastelands</t>
+  </si>
+  <si>
+    <t>Salt lake, Gulch, Hamada, Erg, Dune, Standing Stone, Aquifer</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Descriptor</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>Audible</t>
+  </si>
+  <si>
+    <t>To the east</t>
+  </si>
+  <si>
+    <t>the setting sun</t>
+  </si>
+  <si>
+    <t>outlines</t>
+  </si>
+  <si>
+    <t>echoes</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>roaring engines</t>
+  </si>
+  <si>
+    <t>To the west</t>
+  </si>
+  <si>
+    <t>the shadow of</t>
+  </si>
+  <si>
+    <t>reflects off the body of</t>
+  </si>
+  <si>
+    <t>rings out</t>
+  </si>
+  <si>
+    <t>a hatch</t>
+  </si>
+  <si>
+    <t>braying creatures</t>
+  </si>
+  <si>
+    <t>To the north</t>
+  </si>
+  <si>
+    <t>a glimpse of</t>
+  </si>
+  <si>
+    <t>highlights</t>
+  </si>
+  <si>
+    <t>thunders</t>
+  </si>
+  <si>
+    <t>a flag</t>
+  </si>
+  <si>
+    <t>gunshots</t>
+  </si>
+  <si>
+    <t>To the south</t>
+  </si>
+  <si>
+    <t>distant</t>
+  </si>
+  <si>
+    <t>glints on</t>
+  </si>
+  <si>
+    <t>a wreck</t>
+  </si>
+  <si>
+    <t>small animals</t>
+  </si>
+  <si>
+    <t>In the distance</t>
+  </si>
+  <si>
+    <t>the outline of</t>
+  </si>
+  <si>
+    <t>illuminates</t>
+  </si>
+  <si>
+    <t>metal box</t>
+  </si>
+  <si>
+    <t>gentle stream</t>
+  </si>
+  <si>
+    <t>On the horizon</t>
+  </si>
+  <si>
+    <t>the glint of</t>
+  </si>
+  <si>
+    <t>rusted hatch</t>
+  </si>
+  <si>
+    <t>At the top of a hill</t>
+  </si>
+  <si>
+    <t>the sound of</t>
+  </si>
+  <si>
+    <t>charred vehicle</t>
+  </si>
+  <si>
+    <t>Resting on the slope of a hill</t>
+  </si>
+  <si>
+    <t>roar</t>
+  </si>
+  <si>
+    <t>ancient statue</t>
+  </si>
+  <si>
+    <t>Perched precariously on a cliff</t>
+  </si>
+  <si>
+    <t>thundering</t>
+  </si>
+  <si>
+    <t>fortified camp</t>
+  </si>
+  <si>
+    <t>Catching your breath</t>
+  </si>
+  <si>
+    <t>group of tents</t>
+  </si>
+  <si>
+    <t>You can just make out</t>
+  </si>
+  <si>
+    <t>an overturned car</t>
+  </si>
+  <si>
+    <t>Nestled in a shallow basin</t>
+  </si>
+  <si>
+    <t>puddle</t>
+  </si>
+  <si>
+    <t>resting vehicles</t>
+  </si>
+  <si>
+    <t>Internal Name</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>Bandolier</t>
+  </si>
+  <si>
+    <t>Less reloading, more shooting</t>
+  </si>
+  <si>
+    <t>-25% Reload Speed</t>
+  </si>
+  <si>
+    <t>Wrapped Mags</t>
+  </si>
+  <si>
+    <t>Quick now, slow later</t>
+  </si>
+  <si>
+    <t>-50% Reload Speed</t>
+  </si>
+  <si>
+    <t>Rusty Nails</t>
+  </si>
+  <si>
+    <t>Crunch, smash, punch</t>
+  </si>
+  <si>
+    <t>Deal damage on contact</t>
+  </si>
+  <si>
+    <t>Satchel</t>
+  </si>
+  <si>
+    <t>Food -50% Weight</t>
+  </si>
+  <si>
+    <t>Dry Gourd</t>
+  </si>
+  <si>
+    <t>Empty Flask</t>
+  </si>
+  <si>
+    <t>For those long, dry journeys</t>
+  </si>
+  <si>
+    <t>Water -50% Weight</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Mending Instruments</t>
+  </si>
+  <si>
+    <t>A bit of care goes a long way</t>
+  </si>
+  <si>
+    <t>50% no weapon degredation</t>
+  </si>
+  <si>
+    <t>Optical Device</t>
+  </si>
+  <si>
+    <t>Vision Edge</t>
+  </si>
+  <si>
+    <t>Helpful... if your aim is true</t>
+  </si>
+  <si>
+    <t>+25% Range</t>
+  </si>
+  <si>
+    <t>Poison Flask</t>
+  </si>
+  <si>
+    <t>Blighted Marrow</t>
+  </si>
+  <si>
+    <t>Bring death to your enemies</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Smoke Field</t>
+  </si>
+  <si>
+    <t>Obscuring Aura</t>
+  </si>
+  <si>
+    <t>A bit of the ol' razzle dazzle</t>
+  </si>
+  <si>
+    <t>Blind</t>
+  </si>
+  <si>
+    <t>Tracers</t>
+  </si>
+  <si>
+    <t>Enkindling Flask</t>
+  </si>
+  <si>
+    <t>Born from Hellfire itself</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Heavy Rounds</t>
+  </si>
+  <si>
+    <t>Staggering Barb</t>
+  </si>
+  <si>
+    <t>Keep your enemies down</t>
+  </si>
+  <si>
+    <t>Knock-down</t>
+  </si>
+  <si>
+    <t>Razor Rounds</t>
+  </si>
+  <si>
+    <t>Stinging Edges</t>
+  </si>
+  <si>
+    <t>Like nasty little knives buzzing through the air</t>
+  </si>
+  <si>
+    <t>Bleed</t>
+  </si>
+  <si>
+    <t>Tattered Jacket</t>
+  </si>
+  <si>
+    <t>Cracked Mail</t>
+  </si>
+  <si>
+    <t>Marauder's Guard</t>
+  </si>
+  <si>
+    <t>Battle Plate</t>
+  </si>
+  <si>
+    <t>Warrior Hide</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>Splinter</t>
+  </si>
+  <si>
+    <t>Bullet splits into several bullets on impact.</t>
+  </si>
+  <si>
+    <t>Gouge</t>
+  </si>
+  <si>
+    <t>Empty entire magazine, set fire to area on hit.</t>
+  </si>
+  <si>
+    <t>Sweep</t>
+  </si>
+  <si>
+    <t>Knockback all targets hit.</t>
+  </si>
+  <si>
+    <t>Swarm</t>
+  </si>
+  <si>
+    <t>Empty magazine, fire at all enemies.</t>
+  </si>
+  <si>
+    <t>Refill</t>
+  </si>
+  <si>
+    <t>Refill magazine without reloading.</t>
+  </si>
+  <si>
+    <t>Compel</t>
+  </si>
+  <si>
+    <t>Knock enemy back on hit.</t>
+  </si>
+  <si>
+    <t>Hairpin</t>
+  </si>
+  <si>
+    <t>Fire 2 rounds every time you fire for the rest of the magazine.</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Remaining shots in magazine explode and deal damage to enemies near target.</t>
+  </si>
+  <si>
+    <t>Passion</t>
+  </si>
+  <si>
+    <t>Remaining shots cause burning.</t>
+  </si>
+  <si>
+    <t>Revenge</t>
+  </si>
+  <si>
+    <t>Automatically return fire on enemies who attack you for the rest of the clip.</t>
+  </si>
+  <si>
+    <t>Staunch</t>
+  </si>
+  <si>
+    <t>Remove all conditions</t>
+  </si>
+  <si>
+    <t>Rejuvinate</t>
+  </si>
+  <si>
+    <t>Restore 50 health</t>
+  </si>
+  <si>
+    <t>Immolate</t>
+  </si>
+  <si>
+    <t>Fire grenade</t>
+  </si>
+  <si>
+    <t>Lacerate</t>
+  </si>
+  <si>
+    <t>Explosive grenade.</t>
+  </si>
+  <si>
+    <t>Taunt</t>
+  </si>
+  <si>
+    <t>Taunt enemy</t>
+  </si>
+  <si>
+    <t>Crush</t>
+  </si>
+  <si>
+    <t>Headbutt and remove armour piece.</t>
+  </si>
+  <si>
+    <t>Afflict</t>
+  </si>
+  <si>
+    <t>Raise sickness to maximum level (if sickness already on target).</t>
+  </si>
+  <si>
+    <t>Terrify</t>
+  </si>
+  <si>
+    <t>Knock all enemies down</t>
+  </si>
+  <si>
+    <t>Shatter</t>
+  </si>
+  <si>
+    <t>Decay grenade.</t>
+  </si>
+  <si>
+    <t>Brace</t>
+  </si>
+  <si>
+    <t>Lose armour, gain 50 health.</t>
+  </si>
+  <si>
+    <t>Sacrifice</t>
+  </si>
+  <si>
+    <t>Lose 50 health, apply bleeding, burning, and sickness to target.</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Execute enemy lower than 100hp</t>
+  </si>
+  <si>
+    <t>Restock</t>
+  </si>
+  <si>
+    <t>..............</t>
+  </si>
+  <si>
+    <t>Fortify</t>
+  </si>
+  <si>
+    <t>Recover 2 armour</t>
+  </si>
+  <si>
+    <t>Blink</t>
+  </si>
+  <si>
+    <t>Dash to target</t>
+  </si>
+  <si>
+    <t>Unearth</t>
+  </si>
+  <si>
+    <t>Uncover a mine (random variety).</t>
+  </si>
+  <si>
+    <t>Defile</t>
   </si>
   <si>
     <t>The Driver</t>
   </si>
   <si>
-    <t>Things weren’t always this way. I recall I time before the winds were dry and laden with ash, a time when we would welcome the sight of another, rather then recoil at the fear of danger. Sometimes it’s hard to say if it was all a dream, a misrememberance of my childhood. I prefer to think we are in a dream now, because even then we would one day wake up, even if now we have to live in this nightmare. I don’t know if I had a family, I must have done, though they are long dead by now I assume. Wandering is all I know, going from place to place, there is so much that has been left undone in this world. I find newspapers, books, diaries, strange devices that sputter with light and sound but go dark before long, never to wake. Happily I find myself without sadness in these dying days. I have no remorse or incomplete doings, none to to weep for, and nothing to rejoice. My only lament is my lack of feeling, though I’m sure you envy my stagnant mind. What little memories I have are no more real to me than scribblings in a book. There are those who call my a ghost, because that is who I am, a ghost in this purgatory, drifting lifelessly through an equally lifeless plane. I will follow you though, though like a leaf on a breeze I do not know why. I assure you I do not fear death, for I cannot truly call my existence life.</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Bonus</t>
-  </si>
-  <si>
-    <t>Requirement</t>
-  </si>
-  <si>
-    <t>Pathetic</t>
-  </si>
-  <si>
-    <t>-2 strength</t>
-  </si>
-  <si>
-    <t>Carry 5kg or less for 400 hours</t>
-  </si>
-  <si>
-    <t>Feeble</t>
-  </si>
-  <si>
-    <t>-1 strength</t>
-  </si>
-  <si>
-    <t>Carry 5kg or less for 200 hours</t>
-  </si>
-  <si>
-    <t>Powerful</t>
-  </si>
-  <si>
-    <t>+1 strength</t>
-  </si>
-  <si>
-    <t>Carry 15kg or more for 100 hours</t>
-  </si>
-  <si>
-    <t>Monolithic</t>
-  </si>
-  <si>
-    <t>+2 strength</t>
-  </si>
-  <si>
-    <t>Carry 15kg or more for 200 hours</t>
-  </si>
-  <si>
-    <t>Godlike</t>
-  </si>
-  <si>
-    <t>+3 strength</t>
-  </si>
-  <si>
-    <t>Carry 15kg or more for 400 hours</t>
-  </si>
-  <si>
-    <t>Sloth</t>
-  </si>
-  <si>
-    <t>-2 endurance</t>
-  </si>
-  <si>
-    <t>Idle for 300 hours</t>
-  </si>
-  <si>
-    <t>Lazy</t>
-  </si>
-  <si>
-    <t>-1 endurance</t>
-  </si>
-  <si>
-    <t>Idle for 100 hours</t>
-  </si>
-  <si>
-    <t>Nomadic</t>
-  </si>
-  <si>
-    <t>+1 endurance</t>
-  </si>
-  <si>
-    <t>Travel for 100 hours</t>
-  </si>
-  <si>
-    <t>Enduring</t>
-  </si>
-  <si>
-    <t>+2 endurance</t>
-  </si>
-  <si>
-    <t>Travel for 200 hours</t>
-  </si>
-  <si>
-    <t>Tireless</t>
-  </si>
-  <si>
-    <t>+3 endurance</t>
-  </si>
-  <si>
-    <t>Travel for 400 hours</t>
-  </si>
-  <si>
-    <t>Oblivious</t>
-  </si>
-  <si>
-    <t>-2 perception</t>
-  </si>
-  <si>
-    <t>Get lost 100 times</t>
-  </si>
-  <si>
-    <t>Distracted</t>
-  </si>
-  <si>
-    <t>-1 perception</t>
-  </si>
-  <si>
-    <t>Get lost 50 times</t>
-  </si>
-  <si>
-    <t>Keen</t>
-  </si>
-  <si>
-    <t>+1 perception</t>
-  </si>
-  <si>
-    <t>Explore 20 regions</t>
-  </si>
-  <si>
-    <t>Perceptive</t>
-  </si>
-  <si>
-    <t>+2 perception</t>
-  </si>
-  <si>
-    <t>Explore 50 regions</t>
-  </si>
-  <si>
-    <t>+3 perception</t>
-  </si>
-  <si>
-    <t>Explore 100 regions</t>
-  </si>
-  <si>
-    <t>Fearful</t>
-  </si>
-  <si>
-    <t>-2 willpower</t>
-  </si>
-  <si>
-    <t>Have 10 mental breaks</t>
-  </si>
-  <si>
-    <t>Weak-willed</t>
-  </si>
-  <si>
-    <t>-1 willpower</t>
-  </si>
-  <si>
-    <t>Have 5 mental breaks</t>
-  </si>
-  <si>
-    <t>Hardy</t>
-  </si>
-  <si>
-    <t>+1 willpower</t>
-  </si>
-  <si>
-    <t>Recover 50 points of willpower</t>
-  </si>
-  <si>
-    <t>Resolute</t>
-  </si>
-  <si>
-    <t>+2 willpower</t>
-  </si>
-  <si>
-    <t>Recover 100 points of willpower</t>
-  </si>
-  <si>
-    <t>Fearless</t>
-  </si>
-  <si>
-    <t>+3 willpower</t>
-  </si>
-  <si>
-    <t>Recover 200 points of willpower</t>
-  </si>
-  <si>
-    <t>Tinkerer</t>
-  </si>
-  <si>
-    <t>50% chance no durability loss on weapons</t>
-  </si>
-  <si>
-    <t>Improve a weapon 50 times</t>
-  </si>
-  <si>
-    <t>Machinist</t>
-  </si>
-  <si>
-    <t>No durability loss on weapons</t>
-  </si>
-  <si>
-    <t>Improve a weapon 100 times</t>
-  </si>
-  <si>
-    <t>Inept</t>
-  </si>
-  <si>
-    <t>Double durability loss on weapons</t>
-  </si>
-  <si>
-    <t>Break 5 weapons</t>
-  </si>
-  <si>
-    <t>Thick-skinned</t>
-  </si>
-  <si>
-    <t>+25% health in combat</t>
-  </si>
-  <si>
-    <t>Take 1000 damage</t>
-  </si>
-  <si>
-    <t>Iron-hide</t>
-  </si>
-  <si>
-    <t>+50% health in combat</t>
-  </si>
-  <si>
-    <t>Take 10000 damage</t>
-  </si>
-  <si>
-    <t>Angry</t>
-  </si>
-  <si>
-    <t>+50% rage duration</t>
-  </si>
-  <si>
-    <t>Spend 120 seconds enraged</t>
-  </si>
-  <si>
-    <t>Furious</t>
-  </si>
-  <si>
-    <t>+100% rage duration</t>
-  </si>
-  <si>
-    <t>Spend 240 seconds enraged</t>
-  </si>
-  <si>
-    <t>Uncaring</t>
-  </si>
-  <si>
-    <t>0 willpower from combat</t>
-  </si>
-  <si>
-    <t>Kill 100 humans</t>
-  </si>
-  <si>
-    <t>Pyschopathic</t>
-  </si>
-  <si>
-    <t>+1 willpower from combat</t>
-  </si>
-  <si>
-    <t>Kill 250 humans</t>
-  </si>
-  <si>
-    <t>Pugilist</t>
-  </si>
-  <si>
-    <t>+50% melee damage</t>
-  </si>
-  <si>
-    <t>Win 50 melee encounters</t>
-  </si>
-  <si>
-    <t>Shaky</t>
-  </si>
-  <si>
-    <t>-50% melee damage</t>
-  </si>
-  <si>
-    <t>Lose 50 melee encounters</t>
-  </si>
-  <si>
-    <t>Steadfast</t>
-  </si>
-  <si>
-    <t>-50% knockdown recovery</t>
-  </si>
-  <si>
-    <t>Dodge 200 knockdowns</t>
-  </si>
-  <si>
-    <t>Yielding</t>
-  </si>
-  <si>
-    <t>+50% knockdown recovery</t>
-  </si>
-  <si>
-    <t>Get knocked down 200 times</t>
-  </si>
-  <si>
-    <t>Pacifist</t>
-  </si>
-  <si>
-    <t>-20% damage</t>
-  </si>
-  <si>
-    <t>Flee 20 times</t>
-  </si>
-  <si>
-    <t>Gentle</t>
-  </si>
-  <si>
-    <t>-10% damage</t>
-  </si>
-  <si>
-    <t>Flee 10 times</t>
-  </si>
-  <si>
-    <t>Murderous</t>
-  </si>
-  <si>
-    <t>+10% damage</t>
-  </si>
-  <si>
-    <t>Deal 100000 damage</t>
-  </si>
-  <si>
-    <t>Slaughterer</t>
-  </si>
-  <si>
-    <t>+20% damage</t>
-  </si>
-  <si>
-    <t>Deal 500000 damage</t>
-  </si>
-  <si>
-    <t>Obtuse</t>
-  </si>
-  <si>
-    <t>+50% skill recharge</t>
-  </si>
-  <si>
-    <t>Don't use skills in 20 battles</t>
-  </si>
-  <si>
-    <t>Ignorant</t>
-  </si>
-  <si>
-    <t>+25% skill recharge</t>
-  </si>
-  <si>
-    <t>Don't use skills in 10 battles</t>
-  </si>
-  <si>
-    <t>Adept</t>
-  </si>
-  <si>
-    <t>-25% skill recharge</t>
-  </si>
-  <si>
-    <t>Use 500 skills</t>
-  </si>
-  <si>
-    <t>Sorcerer</t>
-  </si>
-  <si>
-    <t>-50% skill recharge</t>
-  </si>
-  <si>
-    <t>Use 1000 skills</t>
-  </si>
-  <si>
-    <t>Scavenger</t>
-  </si>
-  <si>
-    <t>+10% scrap found</t>
-  </si>
-  <si>
-    <t>Find 1000 units of scrap</t>
-  </si>
-  <si>
-    <t>Gatherer</t>
-  </si>
-  <si>
-    <t>+10% food found</t>
-  </si>
-  <si>
-    <t>Find 2000 units of food</t>
-  </si>
-  <si>
-    <t>Diviner</t>
-  </si>
-  <si>
-    <t>+10% water found</t>
-  </si>
-  <si>
-    <t>Find 2000 units of water</t>
-  </si>
-  <si>
-    <t>Tender</t>
-  </si>
-  <si>
-    <t>+50% fire duration</t>
-  </si>
-  <si>
-    <t>Light fire 100 times</t>
-  </si>
-  <si>
-    <t>Weapon Skill 1</t>
-  </si>
-  <si>
-    <t>Kill 50 enemies with weapon</t>
-  </si>
-  <si>
-    <t>Weapon Skill 2</t>
-  </si>
-  <si>
-    <t>Kill 150 enemies with weapon</t>
-  </si>
-  <si>
-    <t>Character Skill 1</t>
-  </si>
-  <si>
-    <t>Survive 10 combat encounters</t>
-  </si>
-  <si>
-    <t>Character Skill 2</t>
-  </si>
-  <si>
-    <t>Survive 25 combat encounters</t>
-  </si>
-  <si>
-    <t>Danger</t>
-  </si>
-  <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>Shelter</t>
-  </si>
-  <si>
-    <t>Prefix</t>
-  </si>
-  <si>
-    <t>Suffix</t>
-  </si>
-  <si>
-    <t>Burden</t>
-  </si>
-  <si>
-    <t>Pursuit</t>
-  </si>
-  <si>
-    <t>Sustenance</t>
-  </si>
-  <si>
-    <t>God</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Prosperity</t>
-  </si>
-  <si>
-    <t>Grace</t>
-  </si>
-  <si>
-    <t>Savage</t>
-  </si>
-  <si>
-    <t>Cessation</t>
-  </si>
-  <si>
-    <t>Chaser</t>
-  </si>
-  <si>
-    <t>Promise</t>
-  </si>
-  <si>
-    <t>Angel</t>
-  </si>
-  <si>
-    <t>Fountain</t>
-  </si>
-  <si>
-    <t>Victory</t>
-  </si>
-  <si>
-    <t>Heartache</t>
-  </si>
-  <si>
-    <t>Execrator</t>
-  </si>
-  <si>
-    <t>Blight</t>
-  </si>
-  <si>
-    <t>Stalker</t>
-  </si>
-  <si>
-    <t>Fruit</t>
-  </si>
-  <si>
-    <t>Seraph</t>
-  </si>
-  <si>
-    <t>Drink</t>
-  </si>
-  <si>
-    <t>Triumph</t>
-  </si>
-  <si>
-    <t>Waste</t>
-  </si>
-  <si>
-    <t>Mortal</t>
-  </si>
-  <si>
-    <t>Agony</t>
-  </si>
-  <si>
-    <t>Huntress</t>
-  </si>
-  <si>
-    <t>Bounty</t>
-  </si>
-  <si>
-    <t>Paragon</t>
-  </si>
-  <si>
-    <t>Beck</t>
-  </si>
-  <si>
-    <t>Virtue</t>
-  </si>
-  <si>
-    <t>Cripple</t>
-  </si>
-  <si>
-    <t>Anguish</t>
-  </si>
-  <si>
-    <t>Hunter</t>
-  </si>
-  <si>
-    <t>Bloom</t>
-  </si>
-  <si>
-    <t>Zealot</t>
-  </si>
-  <si>
-    <t>Creek</t>
-  </si>
-  <si>
-    <t>Devotion</t>
-  </si>
-  <si>
-    <t>Appeal</t>
-  </si>
-  <si>
-    <t>Civilisation</t>
-  </si>
-  <si>
-    <t>Bane</t>
-  </si>
-  <si>
-    <t>Pursuer</t>
-  </si>
-  <si>
-    <t>Adherant</t>
-  </si>
-  <si>
-    <t>Hope</t>
-  </si>
-  <si>
-    <t>Exaltation</t>
-  </si>
-  <si>
-    <t>Torment</t>
-  </si>
-  <si>
-    <t>Abode</t>
-  </si>
-  <si>
-    <t>Trapper</t>
-  </si>
-  <si>
-    <t>Blessing</t>
-  </si>
-  <si>
-    <t>Saviour</t>
-  </si>
-  <si>
-    <t>Ache</t>
-  </si>
-  <si>
-    <t>Piety</t>
-  </si>
-  <si>
-    <t>Anger</t>
-  </si>
-  <si>
-    <t>Terminus</t>
-  </si>
-  <si>
-    <t>Tracker</t>
-  </si>
-  <si>
-    <t>Deliverer</t>
-  </si>
-  <si>
-    <t>Balm</t>
-  </si>
-  <si>
-    <t>Love</t>
-  </si>
-  <si>
-    <t>Sorrow</t>
-  </si>
-  <si>
-    <t>Dusk</t>
-  </si>
-  <si>
-    <t>Prowler</t>
-  </si>
-  <si>
-    <t>Wild</t>
-  </si>
-  <si>
-    <t>Faith</t>
-  </si>
-  <si>
-    <t>Beauty</t>
-  </si>
-  <si>
-    <t>Sleep</t>
-  </si>
-  <si>
-    <t>Abhorrent</t>
-  </si>
-  <si>
-    <t>Pit</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>Heaven</t>
-  </si>
-  <si>
-    <t>Escape</t>
-  </si>
-  <si>
-    <t>Slumber</t>
-  </si>
-  <si>
-    <t>Betrayer</t>
-  </si>
-  <si>
-    <t>Root</t>
-  </si>
-  <si>
-    <t>Dale</t>
-  </si>
-  <si>
-    <t>Guardian</t>
-  </si>
-  <si>
-    <t>Rapture</t>
-  </si>
-  <si>
-    <t>Solace</t>
-  </si>
-  <si>
-    <t>Maverick</t>
-  </si>
-  <si>
-    <t>Curse</t>
-  </si>
-  <si>
-    <t>Drifter</t>
-  </si>
-  <si>
-    <t>Vale</t>
-  </si>
-  <si>
-    <t>Elation</t>
-  </si>
-  <si>
-    <t>Sunset</t>
-  </si>
-  <si>
-    <t>Failure</t>
-  </si>
-  <si>
-    <t>Woe</t>
-  </si>
-  <si>
-    <t>Vagrant</t>
-  </si>
-  <si>
-    <t>Hoard</t>
-  </si>
-  <si>
-    <t>Dream</t>
-  </si>
-  <si>
-    <t>Rest</t>
-  </si>
-  <si>
-    <t>Deceiver</t>
-  </si>
-  <si>
-    <t>Grief</t>
-  </si>
-  <si>
-    <t>Remission</t>
-  </si>
-  <si>
-    <t>Torpor</t>
-  </si>
-  <si>
-    <t>Downfall</t>
-  </si>
-  <si>
-    <t>Affliction</t>
-  </si>
-  <si>
-    <t>Restitution</t>
-  </si>
-  <si>
-    <t>Repose</t>
-  </si>
-  <si>
-    <t>Hell</t>
-  </si>
-  <si>
-    <t>Damnation</t>
-  </si>
-  <si>
-    <t>Relief</t>
-  </si>
-  <si>
-    <t>Resolution</t>
-  </si>
-  <si>
-    <t>Vandal</t>
-  </si>
-  <si>
-    <t>Succour</t>
-  </si>
-  <si>
-    <t>Juggernaut</t>
-  </si>
-  <si>
-    <t>Comfort</t>
-  </si>
-  <si>
-    <t>Leviathan</t>
-  </si>
-  <si>
-    <t>Carcass</t>
-  </si>
-  <si>
-    <t>Remains</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Behemoth</t>
-  </si>
-  <si>
-    <t>Ruin</t>
-  </si>
-  <si>
-    <t>Temptation</t>
-  </si>
-  <si>
-    <t>Glutton</t>
-  </si>
-  <si>
-    <t>Loss</t>
-  </si>
-  <si>
-    <t>Jewel</t>
-  </si>
-  <si>
-    <t>Hellion</t>
-  </si>
-  <si>
-    <t>Decay</t>
-  </si>
-  <si>
-    <t>Advantage</t>
-  </si>
-  <si>
-    <t>Demon</t>
-  </si>
-  <si>
-    <t>Hulk</t>
-  </si>
-  <si>
-    <t>Reward</t>
-  </si>
-  <si>
-    <t>Beast</t>
-  </si>
-  <si>
-    <t>Shell</t>
-  </si>
-  <si>
-    <t>Boon</t>
-  </si>
-  <si>
-    <t>Satan</t>
-  </si>
-  <si>
-    <t>Wreck</t>
-  </si>
-  <si>
-    <t>Devil</t>
-  </si>
-  <si>
-    <t>Monstrosity</t>
-  </si>
-  <si>
-    <t>Titan</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Carrion</t>
-  </si>
-  <si>
-    <t>Collapse</t>
-  </si>
-  <si>
-    <t>Gargantua</t>
-  </si>
-  <si>
-    <t>Level No</t>
-  </si>
-  <si>
-    <t>Gate</t>
-  </si>
-  <si>
-    <t>Temples</t>
-  </si>
-  <si>
-    <t>Resources</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Complete Keys</t>
-  </si>
-  <si>
-    <t>Broken Keys</t>
-  </si>
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>Oasis</t>
-  </si>
-  <si>
-    <t>Dune, Creek, Outcrop, Trees, Bushes, Bank, Riverbed, Marsh, Crystal Floor, Cenote</t>
-  </si>
-  <si>
-    <t>Steppe</t>
-  </si>
-  <si>
-    <t>Wildflowers, Tree, Tor, Hillside, Slope, Ridge, Knoll, Bog, Hoarfrost, Taiga</t>
-  </si>
-  <si>
-    <t>Ruins</t>
-  </si>
-  <si>
-    <t>Vaulted ceiling, Pillars, Rubble, Gate, Tower, Drome, Steps, Altar, Collapsed Sewer, Monument</t>
-  </si>
-  <si>
-    <t>Defiles</t>
-  </si>
-  <si>
-    <t>Cliff, Valley, Lake Bed, Crag, Crest, Pinnacle, Precipice, Scar, Bluff, Escarpment, Cave, Scree/Talus, Stringer, Wadi</t>
-  </si>
-  <si>
-    <t>Wastelands</t>
-  </si>
-  <si>
-    <t>Salt lake, Gulch, Hamada, Erg, Dune, Standing Stone, Aquifer</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>Descriptor</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Visible</t>
-  </si>
-  <si>
-    <t>Audible</t>
-  </si>
-  <si>
-    <t>To the east</t>
-  </si>
-  <si>
-    <t>the setting sun</t>
-  </si>
-  <si>
-    <t>outlines</t>
-  </si>
-  <si>
-    <t>echoes</t>
-  </si>
-  <si>
-    <t>animals</t>
-  </si>
-  <si>
-    <t>roaring engines</t>
-  </si>
-  <si>
-    <t>To the west</t>
-  </si>
-  <si>
-    <t>the shadow of</t>
-  </si>
-  <si>
-    <t>reflects off the body of</t>
-  </si>
-  <si>
-    <t>rings out</t>
-  </si>
-  <si>
-    <t>a hatch</t>
-  </si>
-  <si>
-    <t>braying creatures</t>
-  </si>
-  <si>
-    <t>To the north</t>
-  </si>
-  <si>
-    <t>a glimpse of</t>
-  </si>
-  <si>
-    <t>highlights</t>
-  </si>
-  <si>
-    <t>thunders</t>
-  </si>
-  <si>
-    <t>a flag</t>
-  </si>
-  <si>
-    <t>gunshots</t>
-  </si>
-  <si>
-    <t>To the south</t>
-  </si>
-  <si>
-    <t>distant</t>
-  </si>
-  <si>
-    <t>glints on</t>
-  </si>
-  <si>
-    <t>a wreck</t>
-  </si>
-  <si>
-    <t>small animals</t>
-  </si>
-  <si>
-    <t>In the distance</t>
-  </si>
-  <si>
-    <t>the outline of</t>
-  </si>
-  <si>
-    <t>illuminates</t>
-  </si>
-  <si>
-    <t>metal box</t>
-  </si>
-  <si>
-    <t>gentle stream</t>
-  </si>
-  <si>
-    <t>On the horizon</t>
-  </si>
-  <si>
-    <t>the glint of</t>
-  </si>
-  <si>
-    <t>rusted hatch</t>
-  </si>
-  <si>
-    <t>At the top of a hill</t>
-  </si>
-  <si>
-    <t>the sound of</t>
-  </si>
-  <si>
-    <t>charred vehicle</t>
-  </si>
-  <si>
-    <t>Resting on the slope of a hill</t>
-  </si>
-  <si>
-    <t>roar</t>
-  </si>
-  <si>
-    <t>ancient statue</t>
-  </si>
-  <si>
-    <t>Perched precariously on a cliff</t>
-  </si>
-  <si>
-    <t>thundering</t>
-  </si>
-  <si>
-    <t>fortified camp</t>
-  </si>
-  <si>
-    <t>Catching your breath</t>
-  </si>
-  <si>
-    <t>group of tents</t>
-  </si>
-  <si>
-    <t>You can just make out</t>
-  </si>
-  <si>
-    <t>an overturned car</t>
-  </si>
-  <si>
-    <t>Nestled in a shallow basin</t>
-  </si>
-  <si>
-    <t>puddle</t>
-  </si>
-  <si>
-    <t>resting vehicles</t>
-  </si>
-  <si>
-    <t>Internal Name</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Effect</t>
-  </si>
-  <si>
-    <t>Bandolier</t>
-  </si>
-  <si>
-    <t>Less reloading, more shooting</t>
-  </si>
-  <si>
-    <t>-25% Reload Speed</t>
-  </si>
-  <si>
-    <t>Wrapped Mags</t>
-  </si>
-  <si>
-    <t>Quick now, slow later</t>
-  </si>
-  <si>
-    <t>-50% Reload Speed</t>
-  </si>
-  <si>
-    <t>Rusty Nails</t>
-  </si>
-  <si>
-    <t>Crunch, smash, punch</t>
-  </si>
-  <si>
-    <t>Deal damage on contact</t>
-  </si>
-  <si>
-    <t>Satchel</t>
-  </si>
-  <si>
-    <t>Food -50% Weight</t>
-  </si>
-  <si>
-    <t>Dry Gourd</t>
-  </si>
-  <si>
-    <t>Empty Flask</t>
-  </si>
-  <si>
-    <t>For those long, dry journeys</t>
-  </si>
-  <si>
-    <t>Water -50% Weight</t>
-  </si>
-  <si>
-    <t>Tools</t>
-  </si>
-  <si>
-    <t>Mending Instruments</t>
-  </si>
-  <si>
-    <t>A bit of care goes a long way</t>
-  </si>
-  <si>
-    <t>50% no weapon degredation</t>
-  </si>
-  <si>
-    <t>Optical Device</t>
-  </si>
-  <si>
-    <t>Vision Edge</t>
-  </si>
-  <si>
-    <t>Helpful... if your aim is true</t>
-  </si>
-  <si>
-    <t>+25% Range</t>
-  </si>
-  <si>
-    <t>Poison Flask</t>
-  </si>
-  <si>
-    <t>Blighted Marrow</t>
-  </si>
-  <si>
-    <t>Bring death to your enemies</t>
-  </si>
-  <si>
-    <t>Poison</t>
-  </si>
-  <si>
-    <t>Smoke Field</t>
-  </si>
-  <si>
-    <t>Obscuring Aura</t>
-  </si>
-  <si>
-    <t>A bit of the ol' razzle dazzle</t>
-  </si>
-  <si>
-    <t>Blind</t>
-  </si>
-  <si>
-    <t>Tracers</t>
-  </si>
-  <si>
-    <t>Enkindling Flask</t>
-  </si>
-  <si>
-    <t>Born from Hellfire itself</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Heavy Rounds</t>
-  </si>
-  <si>
-    <t>Staggering Barb</t>
-  </si>
-  <si>
-    <t>Keep your enemies down</t>
-  </si>
-  <si>
-    <t>Knock-down</t>
-  </si>
-  <si>
-    <t>Razor Rounds</t>
-  </si>
-  <si>
-    <t>Stinging Edges</t>
-  </si>
-  <si>
-    <t>Like nasty little knives buzzing through the air</t>
-  </si>
-  <si>
-    <t>Bleed</t>
-  </si>
-  <si>
-    <t>Tattered Jacket</t>
-  </si>
-  <si>
-    <t>Cracked Mail</t>
-  </si>
-  <si>
-    <t>Marauder's Guard</t>
-  </si>
-  <si>
-    <t>Battle Plate</t>
-  </si>
-  <si>
-    <t>Warrior Hide</t>
-  </si>
-  <si>
-    <t>Cooldown</t>
-  </si>
-  <si>
-    <t>Splinter</t>
-  </si>
-  <si>
-    <t>Bullet splits into several bullets on impact.</t>
-  </si>
-  <si>
-    <t>Gouge</t>
-  </si>
-  <si>
-    <t>Empty entire magazine, set fire to area on hit.</t>
-  </si>
-  <si>
-    <t>Sweep</t>
-  </si>
-  <si>
-    <t>Knockback all targets hit.</t>
-  </si>
-  <si>
-    <t>Swarm</t>
-  </si>
-  <si>
-    <t>Empty magazine, fire at all enemies.</t>
-  </si>
-  <si>
-    <t>Refill</t>
-  </si>
-  <si>
-    <t>Refill magazine without reloading.</t>
-  </si>
-  <si>
-    <t>Compel</t>
-  </si>
-  <si>
-    <t>Knock enemy back on hit.</t>
-  </si>
-  <si>
-    <t>Hairpin</t>
-  </si>
-  <si>
-    <t>Fire 2 rounds every time you fire for the rest of the magazine.</t>
-  </si>
-  <si>
-    <t>Impact</t>
-  </si>
-  <si>
-    <t>Remaining shots in magazine explode and deal damage to enemies near target.</t>
-  </si>
-  <si>
-    <t>Passion</t>
-  </si>
-  <si>
-    <t>Remaining shots cause burning.</t>
-  </si>
-  <si>
-    <t>Revenge</t>
-  </si>
-  <si>
-    <t>Automatically return fire on enemies who attack you for the rest of the clip.</t>
-  </si>
-  <si>
-    <t>Staunch</t>
-  </si>
-  <si>
-    <t>Remove all conditions</t>
-  </si>
-  <si>
-    <t>Rejuvinate</t>
-  </si>
-  <si>
-    <t>Restore 50 health</t>
-  </si>
-  <si>
-    <t>Immolate</t>
-  </si>
-  <si>
-    <t>Fire grenade</t>
-  </si>
-  <si>
-    <t>Lacerate</t>
-  </si>
-  <si>
-    <t>Explosive grenade.</t>
-  </si>
-  <si>
-    <t>Taunt</t>
-  </si>
-  <si>
-    <t>Taunt enemy</t>
-  </si>
-  <si>
-    <t>Crush</t>
-  </si>
-  <si>
-    <t>Headbutt and remove armour piece.</t>
-  </si>
-  <si>
-    <t>Afflict</t>
-  </si>
-  <si>
-    <t>Raise sickness to maximum level (if sickness already on target).</t>
-  </si>
-  <si>
-    <t>Terrify</t>
-  </si>
-  <si>
-    <t>Knock all enemies down</t>
-  </si>
-  <si>
-    <t>Shatter</t>
-  </si>
-  <si>
-    <t>Decay grenade.</t>
-  </si>
-  <si>
-    <t>Brace</t>
-  </si>
-  <si>
-    <t>Lose armour, gain 50 health.</t>
-  </si>
-  <si>
-    <t>Sacrifice</t>
-  </si>
-  <si>
-    <t>Lose 50 health, apply bleeding, burning, and sickness to target.</t>
-  </si>
-  <si>
-    <t>Execute</t>
-  </si>
-  <si>
-    <t>Execute enemy lower than 100hp</t>
-  </si>
-  <si>
-    <t>Restock</t>
-  </si>
-  <si>
-    <t>..............</t>
-  </si>
-  <si>
-    <t>Fortify</t>
-  </si>
-  <si>
-    <t>Recover 2 armour</t>
-  </si>
-  <si>
-    <t>Blink</t>
-  </si>
-  <si>
-    <t>Dash to target</t>
-  </si>
-  <si>
-    <t>Unearth</t>
-  </si>
-  <si>
-    <t>Uncover a mine (random variety).</t>
-  </si>
-  <si>
-    <t>Defile</t>
-  </si>
-  <si>
     <t>Deal damage and apply maximum bleed stacks</t>
   </si>
   <si>
@@ -2186,7 +2177,7 @@
     <t>10 essence</t>
   </si>
   <si>
-    <t>Shocker</t>
+    <t>Revenant</t>
   </si>
   <si>
     <t>explodes into smaller shockers on death</t>
@@ -2623,12 +2614,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
   <fonts count="27">
@@ -2691,14 +2682,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2714,6 +2706,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2721,7 +2729,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2730,6 +2752,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2750,11 +2780,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2765,24 +2794,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2790,35 +2810,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2828,7 +2819,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2957,7 +2948,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2969,7 +3026,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2981,67 +3074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3059,43 +3098,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3107,25 +3110,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3137,7 +3128,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3656,11 +3647,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3697,15 +3712,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3715,17 +3721,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3744,21 +3744,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3776,130 +3767,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14804,19 +14795,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="51" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B1" s="51" t="s">
         <v>134</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14828,109 +14819,109 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="59" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="60">
         <v>2</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="59" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60">
         <v>2</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="59" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="60">
         <v>2</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="59" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B6" s="59"/>
       <c r="C6" s="60"/>
       <c r="D6" s="61"/>
       <c r="E6" s="62" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="59" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C7" s="60">
         <v>2</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="59" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C8" s="60">
         <v>2</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="59" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C9" s="60">
         <v>2</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E9" s="312" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -14942,87 +14933,87 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="59" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C11" s="60">
         <v>2</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="59" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C12" s="60">
         <v>2</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="59" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C13" s="60">
         <v>2</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="59" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C14" s="60">
         <v>2</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="59" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C15" s="60">
         <v>2</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -15034,7 +15025,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="59" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B17" s="59"/>
       <c r="C17" s="60">
@@ -15045,7 +15036,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="59" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B18" s="59"/>
       <c r="C18" s="60">
@@ -15056,7 +15047,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="59" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B19" s="59"/>
       <c r="C19" s="60">
@@ -15067,7 +15058,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="59" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B20" s="59"/>
       <c r="C20" s="60">
@@ -15078,7 +15069,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="59" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B21" s="59"/>
       <c r="C21" s="60">
@@ -15510,34 +15501,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="39" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="40" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="39" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -15548,26 +15539,26 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="43" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="44" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="43" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="44" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I6" s="22"/>
     </row>
@@ -15579,26 +15570,26 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="39" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B8" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="40" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="39" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="40" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -15609,26 +15600,26 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="43" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B11" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="44" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="43" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="44" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15639,26 +15630,26 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="39" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="40" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="39" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="40" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -15669,26 +15660,26 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="45" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>178</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="46" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="45" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B18" s="45" t="s">
         <v>178</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="46" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -15699,26 +15690,26 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="45" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="46" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="45" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="46" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -15729,26 +15720,26 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="49" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="50" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="49" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="50" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -15759,26 +15750,26 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="45" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C26" s="45"/>
       <c r="D26" s="46" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="45" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C27" s="45"/>
       <c r="D27" s="46" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -15789,26 +15780,26 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="49" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C29" s="49"/>
       <c r="D29" s="50" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="49" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="50" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -15819,26 +15810,26 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="45" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C32" s="45"/>
       <c r="D32" s="46" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="45" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C33" s="45"/>
       <c r="D33" s="46" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -15849,26 +15840,26 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="49" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C35" s="49"/>
       <c r="D35" s="50" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="49" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="50" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -15879,26 +15870,26 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="45" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C38" s="45"/>
       <c r="D38" s="46" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="45" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C39" s="45"/>
       <c r="D39" s="46" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -15909,26 +15900,26 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="49" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>212</v>
+        <v>671</v>
       </c>
       <c r="C41" s="49"/>
       <c r="D41" s="50" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="49" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>212</v>
+        <v>671</v>
       </c>
       <c r="C42" s="49"/>
       <c r="D42" s="50" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -15943,7 +15934,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -15963,33 +15954,33 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="33" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>171</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H1" s="34"/>
       <c r="I1" s="34" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="J1" s="34"/>
       <c r="M1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -16000,21 +15991,21 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="24" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="H2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="I2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="J2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -16049,12 +16040,12 @@
         <v>6.36363636363636</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -16086,12 +16077,12 @@
         <v>5.45454545454545</v>
       </c>
       <c r="L4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -16107,7 +16098,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="0"/>
@@ -16126,12 +16117,12 @@
         <v>6.36363636363636</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -16147,7 +16138,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="0"/>
@@ -16166,12 +16157,12 @@
         <v>6.36363636363636</v>
       </c>
       <c r="L6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B7">
         <v>400</v>
@@ -16187,7 +16178,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
@@ -16206,12 +16197,12 @@
         <v>8.18181818181818</v>
       </c>
       <c r="L7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B8">
         <v>600</v>
@@ -16227,7 +16218,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
@@ -16246,12 +16237,12 @@
         <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -16283,12 +16274,12 @@
         <v>5</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B10">
         <v>150</v>
@@ -16304,7 +16295,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
@@ -16323,12 +16314,12 @@
         <v>5.90909090909091</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="36" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B11" s="36">
         <v>50</v>
@@ -16361,15 +16352,15 @@
         <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="M11" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="36" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B12" s="36">
         <v>400</v>
@@ -16402,15 +16393,15 @@
         <v>8.18181818181818</v>
       </c>
       <c r="L12" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="M12" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="36" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B13" s="36">
         <v>300</v>
@@ -16443,15 +16434,15 @@
         <v>7.27272727272727</v>
       </c>
       <c r="L13" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M13" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="36" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B14" s="36">
         <v>100</v>
@@ -16480,15 +16471,15 @@
         <v>5.45454545454545</v>
       </c>
       <c r="L14" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M14" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="36" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B15" s="36">
         <v>100</v>
@@ -16517,15 +16508,15 @@
         <v>5.45454545454545</v>
       </c>
       <c r="L15" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="M15" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="36" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B16" s="36">
         <v>1000</v>
@@ -16554,15 +16545,15 @@
         <v>13.6363636363636</v>
       </c>
       <c r="L16" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M16" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="36" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B17" s="36">
         <v>200</v>
@@ -16591,15 +16582,15 @@
         <v>6.36363636363636</v>
       </c>
       <c r="L17" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="M17" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B18">
         <v>150</v>
@@ -16628,15 +16619,15 @@
         <v>5.90909090909091</v>
       </c>
       <c r="L18" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="M18" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -16665,15 +16656,15 @@
         <v>5</v>
       </c>
       <c r="L19" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="M19" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -16702,10 +16693,10 @@
         <v>4.63636363636364</v>
       </c>
       <c r="L20" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="M20" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -16739,15 +16730,15 @@
         <v>5.45454545454545</v>
       </c>
       <c r="L21" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="M21" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -16776,10 +16767,10 @@
         <v>6.36363636363636</v>
       </c>
       <c r="L22" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M22" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -16818,185 +16809,185 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="32" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>134</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>134</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>744</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>745</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>746</v>
-      </c>
       <c r="G2" s="32" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>147</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="32" t="s">
+        <v>745</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>746</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>747</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>748</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>749</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>750</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>751</v>
-      </c>
       <c r="G3" s="32" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>142</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="32" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>149</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="32" t="s">
+        <v>754</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>755</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>756</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>757</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>758</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>759</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>760</v>
-      </c>
       <c r="G5" s="32" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J5" s="32" t="s">
         <v>150</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="32" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="J6" s="32" t="s">
         <v>151</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="32" t="s">
+        <v>762</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>763</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>764</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>765</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>766</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>767</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>768</v>
       </c>
       <c r="J7" s="32" t="s">
         <v>143</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="32" t="s">
+        <v>767</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>768</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>769</v>
+      </c>
+      <c r="E8" s="32" t="s">
         <v>770</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>771</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>772</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>773</v>
       </c>
       <c r="J8" s="32" t="s">
         <v>152</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="32" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="J9" s="32" t="s">
         <v>153</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="10:11">
@@ -17004,7 +16995,7 @@
         <v>154</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11" spans="10:11">
@@ -17012,7 +17003,7 @@
         <v>145</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="10:11">
@@ -17020,7 +17011,7 @@
         <v>155</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13" spans="10:11">
@@ -17028,12 +17019,12 @@
         <v>157</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="32" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="J14" s="32" t="s">
         <v>158</v>
@@ -17046,13 +17037,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="32" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="J16" s="32" t="s">
         <v>160</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="10:10">
@@ -17113,13 +17104,13 @@
         <v>10</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="M1" s="25" t="s">
         <v>175</v>
@@ -17136,7 +17127,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="27" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B2" s="28">
         <v>1.2</v>
@@ -17160,7 +17151,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="27" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -17184,7 +17175,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="27" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28">
@@ -17232,7 +17223,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="27" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -17256,7 +17247,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="27" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -17304,7 +17295,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="27" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28">
@@ -17328,7 +17319,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="29" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -17352,7 +17343,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="30" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B11" s="28">
         <v>1.5</v>
@@ -17400,7 +17391,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="27" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B13" s="28">
         <v>2</v>
@@ -17424,7 +17415,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="27" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B14" s="28">
         <v>0.1</v>
@@ -17448,7 +17439,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="29" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -17472,7 +17463,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="29" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -17494,7 +17485,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="29" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -17518,7 +17509,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="29" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -17540,7 +17531,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="29" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -17564,7 +17555,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="29" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
@@ -17586,7 +17577,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="29" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -17608,7 +17599,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="29" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -17628,7 +17619,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="29" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -17650,7 +17641,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="29" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -17672,7 +17663,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="29" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -17694,7 +17685,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="29" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -17906,7 +17897,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -17922,24 +17913,24 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="23" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -17947,19 +17938,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -17967,19 +17958,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -17987,13 +17978,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -18001,19 +17992,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -18021,19 +18012,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -18041,19 +18032,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -18061,19 +18052,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -18081,13 +18072,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -18101,13 +18092,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -18115,19 +18106,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -18135,19 +18126,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B13">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -18155,19 +18146,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -18175,13 +18166,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -18189,13 +18180,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -18209,13 +18200,13 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="23" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -18238,10 +18229,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B23" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C23" s="24">
         <v>2</v>
@@ -18249,10 +18240,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B24" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C24" s="24">
         <v>2</v>
@@ -18260,10 +18251,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B25" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C25" s="24">
         <v>0</v>
@@ -18271,10 +18262,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B26" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C26" s="24">
         <v>3</v>
@@ -18282,10 +18273,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B27" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C27" s="24">
         <v>1</v>
@@ -18293,10 +18284,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B28" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C28" s="24">
         <v>5</v>
@@ -18304,10 +18295,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B29" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C29" s="24">
         <v>2</v>
@@ -18315,10 +18306,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B30" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C30" s="24">
         <v>1</v>
@@ -18326,10 +18317,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B31" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C31" s="24">
         <v>2</v>
@@ -18337,10 +18328,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B32" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C32" s="24">
         <v>0.5</v>
@@ -18348,10 +18339,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B33" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C33" s="24">
         <v>10</v>
@@ -18359,10 +18350,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B34" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C34" s="24">
         <v>5</v>
@@ -18370,7 +18361,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C35" s="24">
         <v>10</v>
@@ -18403,23 +18394,23 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="I1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="L1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="2:12">
@@ -18427,7 +18418,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -18436,7 +18427,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -18576,7 +18567,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B8">
         <f>B3*0.5+B3</f>
@@ -18657,22 +18648,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
+        <v>844</v>
+      </c>
+      <c r="B14" t="s">
+        <v>845</v>
+      </c>
+      <c r="C14" t="s">
+        <v>841</v>
+      </c>
+      <c r="D14" t="s">
+        <v>846</v>
+      </c>
+      <c r="E14" t="s">
         <v>847</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F14" t="s">
         <v>848</v>
-      </c>
-      <c r="C14" t="s">
-        <v>844</v>
-      </c>
-      <c r="D14" t="s">
-        <v>849</v>
-      </c>
-      <c r="E14" t="s">
-        <v>850</v>
-      </c>
-      <c r="F14" t="s">
-        <v>851</v>
       </c>
       <c r="L14">
         <v>9</v>
@@ -18842,13 +18833,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -19189,7 +19180,7 @@
     </row>
     <row r="30" spans="4:5">
       <c r="D30" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E30">
         <v>0.75</v>
@@ -19197,7 +19188,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B32" s="2">
         <v>10</v>
@@ -19222,13 +19213,13 @@
         <v>68</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
@@ -19239,7 +19230,7 @@
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="7" t="s">
@@ -19255,7 +19246,7 @@
         <v>13</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>70</v>
@@ -27819,7 +27810,7 @@
   <sheetPr/>
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -30730,8 +30721,8 @@
   <sheetPr/>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -30746,7 +30737,7 @@
     <col min="10" max="10" width="11.552380952381" customWidth="1"/>
     <col min="11" max="12" width="11.9142857142857" customWidth="1"/>
     <col min="13" max="13" width="10.4285714285714" customWidth="1"/>
-    <col min="14" max="14" width="10.6761904761905" customWidth="1"/>
+    <col min="14" max="14" width="10.6761904761905" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="28.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30811,7 +30802,7 @@
       <c r="M2" s="82"/>
       <c r="O2" s="22"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -30860,19 +30851,16 @@
       <c r="N3" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="O3" t="s">
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>183</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>184</v>
-      </c>
-      <c r="C4" t="s">
-        <v>185</v>
       </c>
       <c r="D4" s="22">
         <v>3</v>
@@ -30911,19 +30899,16 @@
         <v>4</v>
       </c>
       <c r="N4" s="85"/>
-      <c r="O4" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" t="s">
         <v>187</v>
-      </c>
-      <c r="B5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" t="s">
-        <v>189</v>
       </c>
       <c r="D5" s="22">
         <v>2</v>
@@ -30962,21 +30947,21 @@
         <v>3.5</v>
       </c>
       <c r="N5" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="O5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
         <v>190</v>
       </c>
-      <c r="O5" t="s">
+      <c r="B6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>192</v>
-      </c>
-      <c r="B6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" t="s">
-        <v>194</v>
       </c>
       <c r="D6" s="22">
         <v>1</v>
@@ -31015,19 +31000,16 @@
         <v>3</v>
       </c>
       <c r="N6" s="85"/>
-      <c r="O6" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D7" s="22">
         <v>4</v>
@@ -31067,18 +31049,18 @@
       </c>
       <c r="N7" s="85"/>
       <c r="O7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D8" s="22">
         <v>2</v>
@@ -31117,21 +31099,21 @@
         <v>3.5</v>
       </c>
       <c r="N8" s="84" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D9" s="22">
         <v>4</v>
@@ -31171,15 +31153,15 @@
       </c>
       <c r="N9" s="85"/>
       <c r="O9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D10" s="22">
         <v>3</v>
@@ -31218,13 +31200,10 @@
         <v>4</v>
       </c>
       <c r="N10" s="85"/>
-      <c r="O10" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -31265,10 +31244,10 @@
         <v>4</v>
       </c>
       <c r="N11" s="84" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:14">
@@ -31410,8 +31389,8 @@
   <sheetPr/>
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -31431,164 +31410,164 @@
         <v>134</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="32" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="32" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="32" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="32" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="32" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="32" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="32" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="32" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -31596,372 +31575,372 @@
         <v>86</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="32" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="32" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="32" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="32" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="32" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="32" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="32" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="32" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="32" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="32" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="32" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="32" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="32" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="32" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="32" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="32" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="32" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="32" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="32" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="32" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="32" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="32" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="32" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="32" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="32" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="32" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="32" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="32" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="2:2">
@@ -32004,71 +31983,71 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="77" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C2" s="77" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F2" s="79" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G2" s="77" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H2" s="80" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="H3" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="I3" s="81"/>
       <c r="J3" s="81"/>
@@ -32080,28 +32059,28 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="H4" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
@@ -32113,28 +32092,28 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="H5" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="I5" s="81"/>
       <c r="J5" s="81"/>
@@ -32146,28 +32125,28 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>389</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>393</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>174</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I6" s="81"/>
       <c r="J6" s="81"/>
@@ -32179,28 +32158,28 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="H7" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="I7" s="81"/>
       <c r="J7" s="81"/>
@@ -32212,403 +32191,403 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="H8" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="H13" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="H14" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="H15" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F16" s="12"/>
       <c r="H16" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F17" s="12"/>
       <c r="H17" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F18" s="12"/>
       <c r="H18" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D28" s="12"/>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D29" s="12"/>
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D30" s="12"/>
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D31" s="12"/>
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D32" s="12"/>
       <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D33" s="12"/>
       <c r="F33" s="12"/>
@@ -32640,37 +32619,37 @@
         <v>134</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C1" s="67" t="s">
         <v>136</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E1" s="67" t="s">
+        <v>495</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>498</v>
+      </c>
+      <c r="J1" s="75" t="s">
         <v>499</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="K1" s="75" t="s">
         <v>500</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="L1" s="76" t="s">
         <v>501</v>
-      </c>
-      <c r="H1" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="I1" s="67" t="s">
-        <v>502</v>
-      </c>
-      <c r="J1" s="75" t="s">
-        <v>503</v>
-      </c>
-      <c r="K1" s="75" t="s">
-        <v>504</v>
-      </c>
-      <c r="L1" s="76" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -32689,7 +32668,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="68" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B3" s="69">
         <v>0</v>
@@ -32723,12 +32702,12 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="68" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B4" s="69">
         <v>1</v>
@@ -32762,12 +32741,12 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="68" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B5" s="69">
         <v>2</v>
@@ -32801,12 +32780,12 @@
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="68" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B6" s="69">
         <v>3</v>
@@ -32840,12 +32819,12 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="68" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B7" s="69">
         <v>4</v>
@@ -32879,24 +32858,24 @@
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="70" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B23" s="70"/>
       <c r="C23" s="71" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D23" s="71"/>
       <c r="E23" s="71" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F23" s="71"/>
       <c r="G23" s="71" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H23" s="71"/>
     </row>
@@ -32904,199 +32883,199 @@
       <c r="A24" s="70"/>
       <c r="B24" s="70"/>
       <c r="C24" s="70" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F24" s="70" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G24" s="70" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H24" s="70" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="72" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B25" s="72"/>
       <c r="C25" s="73" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D25" s="74"/>
       <c r="E25" s="73" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F25" s="74" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G25" s="73" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H25" s="74" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="72" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B26" s="72"/>
       <c r="C26" s="73" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D26" s="74"/>
       <c r="E26" s="73" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F26" s="74" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G26" s="73" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H26" s="74" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="72" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B27" s="72"/>
       <c r="C27" s="73" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D27" s="74"/>
       <c r="E27" s="73" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F27" s="74" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G27" s="73" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H27" s="74" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="72" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B28" s="72"/>
       <c r="C28" s="73" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D28" s="74"/>
       <c r="E28" s="73" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F28" s="74"/>
       <c r="G28" s="73" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H28" s="74" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="72" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B29" s="72"/>
       <c r="C29" s="73" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D29" s="74"/>
       <c r="E29" s="73" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F29" s="74"/>
       <c r="G29" s="73" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H29" s="74" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="72" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B30" s="72"/>
       <c r="C30" s="73" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D30" s="74"/>
       <c r="E30" s="73"/>
       <c r="F30" s="74"/>
       <c r="G30" s="73" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H30" s="74" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="72" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B31" s="72"/>
       <c r="C31" s="73" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D31" s="74"/>
       <c r="E31" s="73"/>
       <c r="F31" s="74"/>
       <c r="G31" s="73" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H31" s="74"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="72" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B32" s="72"/>
       <c r="C32" s="73" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D32" s="74"/>
       <c r="E32" s="73"/>
       <c r="F32" s="74"/>
       <c r="G32" s="73" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H32" s="74"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="72" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B33" s="72"/>
       <c r="C33" s="73" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D33" s="74"/>
       <c r="E33" s="73"/>
       <c r="F33" s="74"/>
       <c r="G33" s="73" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H33" s="74"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="72" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B34" s="72"/>
       <c r="C34" s="73"/>
@@ -33104,13 +33083,13 @@
       <c r="E34" s="73"/>
       <c r="F34" s="74"/>
       <c r="G34" s="73" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="72" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B35" s="72"/>
       <c r="C35" s="73"/>
@@ -33118,13 +33097,13 @@
       <c r="E35" s="73"/>
       <c r="F35" s="74"/>
       <c r="G35" s="73" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H35" s="74"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="72" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B36" s="72"/>
       <c r="C36" s="73"/>
@@ -33132,7 +33111,7 @@
       <c r="E36" s="73"/>
       <c r="F36" s="74"/>
       <c r="G36" s="73" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H36" s="74"/>
     </row>
@@ -33144,7 +33123,7 @@
       <c r="E37" s="73"/>
       <c r="F37" s="74"/>
       <c r="G37" s="73" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H37" s="74"/>
     </row>
@@ -33156,7 +33135,7 @@
       <c r="E38" s="73"/>
       <c r="F38" s="74"/>
       <c r="G38" s="73" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H38" s="74"/>
     </row>
@@ -33168,7 +33147,7 @@
       <c r="E39" s="73"/>
       <c r="F39" s="74"/>
       <c r="G39" s="73" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H39" s="74"/>
     </row>

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="3" activeTab="10"/>
+    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon Data v1" sheetId="2" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924">
   <si>
     <t>Type</t>
   </si>
@@ -2285,6 +2285,12 @@
   </si>
   <si>
     <t>explode</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>fel</t>
   </si>
   <si>
     <t>Witch</t>
@@ -2802,14 +2808,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2879,11 +2885,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2896,7 +2902,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2910,23 +2961,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2942,7 +2986,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2955,47 +3006,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3009,15 +3021,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3145,7 +3151,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3157,7 +3193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3169,13 +3205,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3187,13 +3271,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3205,127 +3325,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3735,7 +3741,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3743,8 +3764,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3779,41 +3815,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3833,7 +3839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3851,130 +3857,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4075,13 +4081,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4279,7 +4285,7 @@
     <xf numFmtId="1" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
@@ -4294,7 +4300,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -13000,10 +13006,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -13019,6 +13025,7 @@
     <col min="10" max="10" width="11.8571428571429" customWidth="1"/>
     <col min="11" max="11" width="45.1428571428571" customWidth="1"/>
     <col min="12" max="12" width="13.7142857142857" customWidth="1"/>
+    <col min="16" max="16" width="12.8571428571429"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -13311,7 +13318,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>750</v>
       </c>
@@ -13350,10 +13357,16 @@
       <c r="K9" s="16" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" t="s">
+        <v>752</v>
+      </c>
+      <c r="N9" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B10">
         <v>150</v>
@@ -13388,12 +13401,27 @@
         <v>740</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>755</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>(M10-0.1)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="O10">
+        <f>IF(N10&lt;0,N10+0.1,N10)</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>(O10/0.9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="33" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B11" s="33">
         <v>25</v>
@@ -13425,15 +13453,30 @@
         <v>4.77272727272727</v>
       </c>
       <c r="J11" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="K11" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>758</v>
+      </c>
+      <c r="M11">
+        <v>0.1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N20" si="5">(M11-0.1)</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O20" si="6">IF(N11&lt;0,N11+0.1,N11)</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P20" si="7">(O11/0.9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="33" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B12" s="33">
         <v>150</v>
@@ -13465,15 +13508,30 @@
         <v>5.90909090909091</v>
       </c>
       <c r="J12" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="K12" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>761</v>
+      </c>
+      <c r="M12">
+        <v>0.2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="7"/>
+        <v>0.111111111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="33" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B13" s="33">
         <v>150</v>
@@ -13505,15 +13563,30 @@
         <v>5.90909090909091</v>
       </c>
       <c r="J13" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="K13" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>763</v>
+      </c>
+      <c r="M13">
+        <v>0.3</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>0.222222222222222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="33" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B14" s="33">
         <v>100</v>
@@ -13543,15 +13616,30 @@
         <v>5.45454545454545</v>
       </c>
       <c r="J14" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="K14" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>766</v>
+      </c>
+      <c r="M14">
+        <v>0.4</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="7"/>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="33" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B15" s="33">
         <v>60</v>
@@ -13581,15 +13669,30 @@
         <v>5.09090909090909</v>
       </c>
       <c r="J15" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="K15" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>769</v>
+      </c>
+      <c r="M15">
+        <v>0.5</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="7"/>
+        <v>0.444444444444444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="33" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B16" s="33">
         <v>400</v>
@@ -13619,15 +13722,30 @@
         <v>8.18181818181818</v>
       </c>
       <c r="J16" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="K16" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>772</v>
+      </c>
+      <c r="M16">
+        <v>0.6</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>0.555555555555556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="33" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B17" s="33">
         <v>100</v>
@@ -13657,15 +13775,30 @@
         <v>5.45454545454545</v>
       </c>
       <c r="J17" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="K17" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>774</v>
+      </c>
+      <c r="M17">
+        <v>0.7</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="33" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B18" s="33">
         <v>1</v>
@@ -13694,10 +13827,25 @@
         <f t="shared" si="3"/>
         <v>4.55454545454545</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="M18">
+        <v>0.8</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>0.777777777777778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="33" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B19" s="33">
         <v>20</v>
@@ -13726,10 +13874,25 @@
         <f t="shared" si="3"/>
         <v>4.72727272727273</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19">
+        <v>0.9</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>0.888888888888889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B20">
         <v>75</v>
@@ -13758,10 +13921,25 @@
         <v>5.22727272727273</v>
       </c>
       <c r="J20" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="K20" t="s">
-        <v>777</v>
+        <v>779</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -13795,15 +13973,15 @@
         <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="K21" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -13832,15 +14010,15 @@
         <v>5.45454545454545</v>
       </c>
       <c r="J22" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="K22" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B23">
         <v>25</v>
@@ -13869,10 +14047,10 @@
         <v>4.77272727272727</v>
       </c>
       <c r="J23" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K23" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="24" spans="6:9">
@@ -13923,7 +14101,7 @@
         <v>76</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
@@ -13939,7 +14117,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="23" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>3</v>
@@ -13964,7 +14142,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="23" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>710</v>
@@ -13989,7 +14167,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="23" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>702</v>
@@ -14014,7 +14192,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="23" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>4</v>
@@ -14039,7 +14217,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="23" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>6</v>
@@ -14055,10 +14233,10 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="J6" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -14068,7 +14246,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="23" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>8</v>
@@ -14084,10 +14262,10 @@
       <c r="G7" s="22"/>
       <c r="H7" s="27"/>
       <c r="I7" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="J7" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
@@ -14097,7 +14275,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="23" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>10</v>
@@ -14113,10 +14291,10 @@
       <c r="G8" s="27"/>
       <c r="H8" s="22"/>
       <c r="I8" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
@@ -14126,7 +14304,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="23" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>721</v>
@@ -14142,10 +14320,10 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
@@ -14155,7 +14333,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="23" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>718</v>
@@ -14171,10 +14349,10 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -14184,7 +14362,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="23" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>723</v>
@@ -14209,7 +14387,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="23" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>489</v>
@@ -14234,7 +14412,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="23" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>203</v>
@@ -14259,7 +14437,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="23" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>491</v>
@@ -14284,7 +14462,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="23" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>490</v>
@@ -14570,12 +14748,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="16" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B2" s="17">
         <v>1</v>
@@ -14583,7 +14761,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F2" s="17">
         <v>1</v>
@@ -14591,19 +14769,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B3" s="17">
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="F3" s="17">
         <v>2</v>
@@ -14611,7 +14789,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="17" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B4" s="17">
         <v>10</v>
@@ -14627,13 +14805,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="17" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B5" s="17">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
@@ -14647,19 +14825,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="17" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B6" s="17">
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>819</v>
-      </c>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>817</v>
       </c>
       <c r="F6" s="17">
         <v>1</v>
@@ -14667,7 +14845,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="17" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B7" s="17">
         <v>5</v>
@@ -14675,7 +14853,7 @@
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="F7" s="17">
         <v>1</v>
@@ -14683,19 +14861,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="18" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B10" s="18">
         <v>10</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D10" s="18">
         <v>5</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="F10" s="18">
         <v>1</v>
@@ -14703,42 +14881,42 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B11" s="18">
         <v>15</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D11" s="18">
         <v>5</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F11" s="18">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="18" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B12" s="18">
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D12" s="18">
         <v>1</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F12" s="18">
         <v>2</v>
@@ -14747,19 +14925,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="18" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B13" s="18">
         <v>5</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D13" s="18">
         <v>5</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F13" s="18">
         <v>1</v>
@@ -14771,42 +14949,42 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="17" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B15" s="17">
         <v>10</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D15" s="17">
         <v>10</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="F15" s="17">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="17" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="F16" s="17">
         <v>1</v>
@@ -14814,19 +14992,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="17" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B17" s="17">
         <v>3</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D17" s="17">
         <v>3</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="F17" s="17">
         <v>1</v>
@@ -14837,19 +15015,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="18" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B20" s="18">
         <v>2</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D20" s="18">
         <v>1</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="F20" s="18">
         <v>1</v>
@@ -14857,43 +15035,43 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="18" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B21" s="18">
         <v>5</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D21" s="18">
         <v>5</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F21" s="18">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="18" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B22" s="18">
         <v>3</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D22" s="18">
         <v>3</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F22" s="18">
         <v>1</v>
@@ -14901,19 +15079,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="18" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B23" s="18">
         <v>2</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D23" s="18">
         <v>20</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="F23" s="18">
         <v>1</v>
@@ -14969,18 +15147,18 @@
         <v>121</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="13" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
@@ -15057,7 +15235,7 @@
         <v>0.1</v>
       </c>
       <c r="L3" s="7">
-        <f t="shared" ref="L3:L16" si="0">SUM(G3:K3)</f>
+        <f t="shared" ref="L3:L22" si="0">SUM(G3:K3)</f>
         <v>2.5</v>
       </c>
       <c r="N3" s="13" t="s">
@@ -15086,7 +15264,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>119</v>
@@ -15095,7 +15273,7 @@
         <v>490</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>716</v>
@@ -15121,7 +15299,7 @@
         <v>1.6</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="O4" s="7">
         <f>SUM(G7:G9)</f>
@@ -15146,16 +15324,16 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>844</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>842</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>716</v>
@@ -15181,7 +15359,7 @@
         <v>0.45</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="O5" s="7">
         <f>SUM(G10:G22)</f>
@@ -15206,13 +15384,13 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>434</v>
@@ -15241,7 +15419,7 @@
         <v>0.45</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="O6" s="7">
         <f>SUM(G23:G33)</f>
@@ -15266,16 +15444,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>716</v>
@@ -15303,10 +15481,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -15334,10 +15512,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>489</v>
@@ -15371,16 +15549,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>489</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>716</v>
@@ -15408,10 +15586,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>490</v>
@@ -15445,10 +15623,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>203</v>
@@ -15482,16 +15660,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>491</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>716</v>
@@ -15519,10 +15697,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>491</v>
@@ -15556,13 +15734,13 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>434</v>
@@ -15593,16 +15771,16 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>716</v>
@@ -15630,10 +15808,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>718</v>
@@ -15645,7 +15823,7 @@
         <v>704</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -15663,16 +15841,16 @@
         <v>0.05</v>
       </c>
       <c r="L17" s="7">
-        <f>SUM(G17:K17)</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>723</v>
@@ -15684,7 +15862,7 @@
         <v>704</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -15702,16 +15880,16 @@
         <v>0.05</v>
       </c>
       <c r="L18" s="7">
-        <f>SUM(G18:K18)</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>721</v>
@@ -15739,19 +15917,19 @@
         <v>0.05</v>
       </c>
       <c r="L19" s="7">
-        <f>SUM(G19:K19)</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D20" s="9">
         <v>0.1</v>
@@ -15760,7 +15938,7 @@
         <v>704</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -15778,19 +15956,19 @@
         <v>0.05</v>
       </c>
       <c r="L20" s="7">
-        <f>SUM(G20:K20)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="4" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D21" s="9">
         <v>0.1</v>
@@ -15799,7 +15977,7 @@
         <v>704</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -15817,16 +15995,16 @@
         <v>0.05</v>
       </c>
       <c r="L21" s="7">
-        <f>SUM(G21:K21)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -15838,7 +16016,7 @@
         <v>704</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -15856,16 +16034,16 @@
         <v>0.05</v>
       </c>
       <c r="L22" s="7">
-        <f>SUM(G22:K22)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -15889,10 +16067,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -15913,10 +16091,10 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -15938,10 +16116,10 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="4" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12">
@@ -15964,10 +16142,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="5" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -15988,10 +16166,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="4" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -16012,10 +16190,10 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -16037,10 +16215,10 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="4" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -16062,10 +16240,10 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -16087,10 +16265,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -16111,10 +16289,10 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G33" s="7">
         <v>0</v>
@@ -16197,15 +16375,15 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -16219,77 +16397,77 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B4" t="s">
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B5" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C5" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B6" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C6" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B7" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C7" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B8" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C8" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16297,72 +16475,72 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C9" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B10" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C10" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B11" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C11" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B12" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C12" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B13" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B14" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B15" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B16" t="s">
         <v>126</v>
@@ -16370,78 +16548,78 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B17" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B18" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B19" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B20" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B21" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B22" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B23" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -16503,7 +16681,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -16541,7 +16719,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -16579,7 +16757,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -16617,7 +16795,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -16655,7 +16833,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -26725,8 +26903,8 @@
   <sheetPr/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="3" activeTab="8"/>
+    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon Data v1" sheetId="2" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966">
   <si>
     <t>Type</t>
   </si>
@@ -379,7 +379,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Difficulty</t>
+    <t>Display Name</t>
   </si>
   <si>
     <t>Temperature</t>
@@ -418,46 +418,94 @@
     <t>Drizzle</t>
   </si>
   <si>
+    <t>it is drizzling</t>
+  </si>
+  <si>
     <t>Phenomena</t>
   </si>
   <si>
+    <t>it it raining</t>
+  </si>
+  <si>
     <t>Downpour</t>
   </si>
   <si>
+    <t>it is pouring</t>
+  </si>
+  <si>
     <t>Haze</t>
   </si>
   <si>
+    <t>there is a haze</t>
+  </si>
+  <si>
     <t>Mist</t>
   </si>
   <si>
+    <t>there is a light mist</t>
+  </si>
+  <si>
+    <t>there is thick fog</t>
+  </si>
+  <si>
     <t>Clear</t>
   </si>
   <si>
+    <t>the sky is clear</t>
+  </si>
+  <si>
     <t>Cloudy</t>
   </si>
   <si>
+    <t>the sky is cloudy</t>
+  </si>
+  <si>
     <t>Overcast</t>
   </si>
   <si>
+    <t>the sky is grey</t>
+  </si>
+  <si>
+    <t>it is hailing</t>
+  </si>
+  <si>
     <t>Dust Storm</t>
   </si>
   <si>
+    <t>a dust storm rages</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
     <t>Lightning</t>
   </si>
   <si>
+    <t>lightning strikes all around</t>
+  </si>
+  <si>
     <t>Heat Wave</t>
   </si>
   <si>
+    <t>the heat is unbearable</t>
+  </si>
+  <si>
     <t>Fire storm</t>
   </si>
   <si>
+    <t>wildfires are burning</t>
+  </si>
+  <si>
     <t>Ice storm</t>
   </si>
   <si>
+    <t>an icey wind passes</t>
+  </si>
+  <si>
     <t>Hurricane</t>
+  </si>
+  <si>
+    <t>hurricane winds blow</t>
   </si>
   <si>
     <t>Freq</t>
@@ -12899,13 +12947,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="35" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>0</v>
@@ -12919,142 +12967,142 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="41" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="41" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="B4" s="42" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="41" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="41" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="41" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="41" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="41" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="41" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="41" t="s">
+        <v>764</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>765</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>763</v>
+      </c>
+      <c r="D11" s="44" t="s">
         <v>748</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>749</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>747</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="41" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -13096,33 +13144,33 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="30" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="16" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="L1" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -13132,21 +13180,21 @@
       <c r="D2" s="30"/>
       <c r="E2" s="16"/>
       <c r="F2" s="31" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="G2" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="H2" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="I2" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -13178,15 +13226,15 @@
         <v>5.45454545454545</v>
       </c>
       <c r="J3" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -13218,15 +13266,15 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="K4" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -13258,15 +13306,15 @@
         <v>5.90909090909091</v>
       </c>
       <c r="J5" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -13298,15 +13346,15 @@
         <v>5.45454545454545</v>
       </c>
       <c r="J6" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
       <c r="K6" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -13338,15 +13386,15 @@
         <v>6.36363636363636</v>
       </c>
       <c r="J7" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="K7" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="B8">
         <v>300</v>
@@ -13378,15 +13426,15 @@
         <v>7.27272727272727</v>
       </c>
       <c r="J8" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="K8" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="B9">
         <v>25</v>
@@ -13418,21 +13466,21 @@
         <v>4.77272727272727</v>
       </c>
       <c r="J9" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="M9" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="N9" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="B10">
         <v>150</v>
@@ -13464,10 +13512,10 @@
         <v>5.90909090909091</v>
       </c>
       <c r="J10" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -13487,7 +13535,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="33" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="B11" s="33">
         <v>25</v>
@@ -13519,10 +13567,10 @@
         <v>4.77272727272727</v>
       </c>
       <c r="J11" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="K11" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="M11">
         <v>0.1</v>
@@ -13542,7 +13590,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="33" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="B12" s="33">
         <v>150</v>
@@ -13574,10 +13622,10 @@
         <v>5.90909090909091</v>
       </c>
       <c r="J12" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="K12" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="M12">
         <v>0.2</v>
@@ -13597,7 +13645,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="33" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="B13" s="33">
         <v>150</v>
@@ -13629,10 +13677,10 @@
         <v>5.90909090909091</v>
       </c>
       <c r="J13" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="K13" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="M13">
         <v>0.3</v>
@@ -13652,7 +13700,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="33" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="B14" s="33">
         <v>100</v>
@@ -13682,10 +13730,10 @@
         <v>5.45454545454545</v>
       </c>
       <c r="J14" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="K14" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="M14">
         <v>0.4</v>
@@ -13705,7 +13753,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="33" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="B15" s="33">
         <v>60</v>
@@ -13735,10 +13783,10 @@
         <v>5.09090909090909</v>
       </c>
       <c r="J15" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="K15" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="M15">
         <v>0.5</v>
@@ -13758,7 +13806,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="33" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="B16" s="33">
         <v>400</v>
@@ -13788,10 +13836,10 @@
         <v>8.18181818181818</v>
       </c>
       <c r="J16" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="K16" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="M16">
         <v>0.6</v>
@@ -13811,7 +13859,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="33" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="B17" s="33">
         <v>100</v>
@@ -13841,10 +13889,10 @@
         <v>5.45454545454545</v>
       </c>
       <c r="J17" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="K17" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="M17">
         <v>0.7</v>
@@ -13864,7 +13912,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="33" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="B18" s="33">
         <v>1</v>
@@ -13911,7 +13959,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="33" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="B19" s="33">
         <v>20</v>
@@ -13958,7 +14006,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="B20">
         <v>75</v>
@@ -13987,10 +14035,10 @@
         <v>5.22727272727273</v>
       </c>
       <c r="J20" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="K20" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -14010,7 +14058,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="B21">
         <v>50</v>
@@ -14039,15 +14087,15 @@
         <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="K21" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -14076,15 +14124,15 @@
         <v>5.45454545454545</v>
       </c>
       <c r="J22" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="K22" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="B23">
         <v>25</v>
@@ -14113,10 +14161,10 @@
         <v>4.77272727272727</v>
       </c>
       <c r="J23" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="K23" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="6:9">
@@ -14161,13 +14209,13 @@
         <v>115</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
@@ -14183,7 +14231,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="23" t="s">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>3</v>
@@ -14192,7 +14240,7 @@
         <v>0.1</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
@@ -14208,16 +14256,16 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="23" t="s">
-        <v>818</v>
+        <v>834</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="C3" s="25">
         <v>0.1</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
@@ -14233,16 +14281,16 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="23" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="C4" s="25">
         <v>0.1</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -14258,7 +14306,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="23" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>4</v>
@@ -14267,7 +14315,7 @@
         <v>0.1</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="27"/>
@@ -14283,7 +14331,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="23" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>6</v>
@@ -14292,17 +14340,17 @@
         <v>0.1</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="22"/>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="J6" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -14312,7 +14360,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="23" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>8</v>
@@ -14321,17 +14369,17 @@
         <v>0.1</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="22"/>
       <c r="H7" s="27"/>
       <c r="I7" t="s">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="J7" t="s">
-        <v>825</v>
+        <v>841</v>
       </c>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
@@ -14341,7 +14389,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="23" t="s">
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>10</v>
@@ -14350,17 +14398,17 @@
         <v>1.5</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="22"/>
       <c r="I8" t="s">
-        <v>827</v>
+        <v>843</v>
       </c>
       <c r="J8" t="s">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
@@ -14370,26 +14418,26 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="23" t="s">
-        <v>829</v>
+        <v>845</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="C9" s="25">
         <v>0.1</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
@@ -14399,26 +14447,26 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="23" t="s">
-        <v>832</v>
+        <v>848</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="C10" s="25">
         <v>0.1</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" t="s">
-        <v>833</v>
+        <v>849</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>834</v>
+        <v>850</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -14428,16 +14476,16 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="23" t="s">
-        <v>835</v>
+        <v>851</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="C11" s="25">
         <v>0.1</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -14453,16 +14501,16 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="23" t="s">
-        <v>836</v>
+        <v>852</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="C12" s="25">
         <v>1</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
@@ -14478,16 +14526,16 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="23" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C13" s="25">
         <v>1</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -14503,16 +14551,16 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="23" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="C14" s="25">
         <v>1</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -14528,16 +14576,16 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="23" t="s">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="C15" s="25">
         <v>1</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -14814,12 +14862,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="16" t="s">
-        <v>839</v>
+        <v>855</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="B2" s="17">
         <v>1</v>
@@ -14827,7 +14875,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="F2" s="17">
         <v>1</v>
@@ -14835,19 +14883,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="B3" s="17">
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="F3" s="17">
         <v>2</v>
@@ -14855,7 +14903,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="17" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="B4" s="17">
         <v>10</v>
@@ -14863,7 +14911,7 @@
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F4" s="17">
         <v>1</v>
@@ -14871,13 +14919,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="17" t="s">
-        <v>846</v>
+        <v>862</v>
       </c>
       <c r="B5" s="17">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
@@ -14891,19 +14939,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="17" t="s">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="B6" s="17">
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>847</v>
+        <v>863</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="F6" s="17">
         <v>1</v>
@@ -14911,7 +14959,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="17" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="B7" s="17">
         <v>5</v>
@@ -14919,7 +14967,7 @@
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="F7" s="17">
         <v>1</v>
@@ -14927,19 +14975,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="18" t="s">
-        <v>849</v>
+        <v>865</v>
       </c>
       <c r="B10" s="18">
         <v>10</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="D10" s="18">
         <v>5</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>850</v>
+        <v>866</v>
       </c>
       <c r="F10" s="18">
         <v>1</v>
@@ -14947,42 +14995,42 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18" t="s">
-        <v>849</v>
+        <v>865</v>
       </c>
       <c r="B11" s="18">
         <v>15</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="D11" s="18">
         <v>5</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="F11" s="18">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>852</v>
+        <v>868</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="18" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="B12" s="18">
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="D12" s="18">
         <v>1</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>853</v>
+        <v>869</v>
       </c>
       <c r="F12" s="18">
         <v>2</v>
@@ -14991,19 +15039,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="18" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="B13" s="18">
         <v>5</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>849</v>
+        <v>865</v>
       </c>
       <c r="D13" s="18">
         <v>5</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>854</v>
+        <v>870</v>
       </c>
       <c r="F13" s="18">
         <v>1</v>
@@ -15015,42 +15063,42 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="17" t="s">
-        <v>849</v>
+        <v>865</v>
       </c>
       <c r="B15" s="17">
         <v>10</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="D15" s="17">
         <v>10</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="F15" s="17">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="17" t="s">
-        <v>849</v>
+        <v>865</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>853</v>
+        <v>869</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="F16" s="17">
         <v>1</v>
@@ -15058,19 +15106,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="17" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="B17" s="17">
         <v>3</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="D17" s="17">
         <v>3</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>858</v>
+        <v>874</v>
       </c>
       <c r="F17" s="17">
         <v>1</v>
@@ -15081,19 +15129,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="18" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="B20" s="18">
         <v>2</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="D20" s="18">
         <v>1</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="F20" s="18">
         <v>1</v>
@@ -15101,43 +15149,43 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="18" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="B21" s="18">
         <v>5</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="D21" s="18">
         <v>5</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>861</v>
+        <v>877</v>
       </c>
       <c r="F21" s="18">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>862</v>
+        <v>878</v>
       </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="18" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="B22" s="18">
         <v>3</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="D22" s="18">
         <v>3</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
       <c r="F22" s="18">
         <v>1</v>
@@ -15145,19 +15193,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="18" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
       <c r="B23" s="18">
         <v>2</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="D23" s="18">
         <v>20</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="F23" s="18">
         <v>1</v>
@@ -15174,8 +15222,8 @@
   <sheetPr/>
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -15205,7 +15253,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -15213,18 +15261,18 @@
         <v>121</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3" t="s">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="13" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
@@ -15235,7 +15283,7 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>76</v>
@@ -15243,36 +15291,36 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L2" s="3"/>
       <c r="N2" s="7"/>
       <c r="O2" s="14" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -15330,19 +15378,19 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7">
@@ -15365,7 +15413,7 @@
         <v>1.6</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="O4" s="7">
         <f>SUM(G7:G9)</f>
@@ -15390,19 +15438,19 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="7">
@@ -15425,7 +15473,7 @@
         <v>0.45</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="O5" s="7">
         <f>SUM(G10:G22)</f>
@@ -15450,19 +15498,19 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="7">
@@ -15485,7 +15533,7 @@
         <v>0.45</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="O6" s="7">
         <f>SUM(G23:G33)</f>
@@ -15510,19 +15558,19 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="7">
@@ -15547,10 +15595,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -15578,19 +15626,19 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
-        <v>877</v>
+        <v>893</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="7">
@@ -15615,19 +15663,19 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="7">
@@ -15652,19 +15700,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="7">
@@ -15689,19 +15737,19 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>880</v>
+        <v>896</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="7">
@@ -15726,19 +15774,19 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="7">
@@ -15763,19 +15811,19 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="7">
@@ -15800,19 +15848,19 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="7">
@@ -15837,19 +15885,19 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>885</v>
+        <v>901</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="7">
@@ -15874,22 +15922,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
-        <v>886</v>
+        <v>902</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="D17" s="9">
         <v>0.1</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -15913,22 +15961,22 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="D18" s="9">
         <v>0.1</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -15952,19 +16000,19 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>889</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>873</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="D19" s="9">
         <v>0.1</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="7">
@@ -15989,22 +16037,22 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
-        <v>890</v>
+        <v>906</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>891</v>
+        <v>907</v>
       </c>
       <c r="D20" s="9">
         <v>0.1</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -16028,22 +16076,22 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="4" t="s">
-        <v>892</v>
+        <v>908</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>893</v>
+        <v>909</v>
       </c>
       <c r="D21" s="9">
         <v>0.1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -16067,10 +16115,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
-        <v>894</v>
+        <v>910</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -16079,10 +16127,10 @@
         <v>0.05</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -16106,10 +16154,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -16133,10 +16181,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>849</v>
+        <v>865</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -16157,10 +16205,10 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>847</v>
+        <v>863</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -16182,10 +16230,10 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="4" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12">
@@ -16208,10 +16256,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="5" t="s">
-        <v>853</v>
+        <v>869</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -16232,10 +16280,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="4" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -16256,10 +16304,10 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -16281,10 +16329,10 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="4" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -16306,10 +16354,10 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -16331,10 +16379,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -16355,10 +16403,10 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>846</v>
+        <v>862</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="G33" s="7">
         <v>0</v>
@@ -16441,15 +16489,15 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>895</v>
+        <v>911</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>896</v>
+        <v>912</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>897</v>
+        <v>913</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -16463,77 +16511,77 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>900</v>
+        <v>916</v>
       </c>
       <c r="B4" t="s">
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
       <c r="B5" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
       <c r="C5" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
       <c r="B6" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="C6" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>908</v>
+        <v>924</v>
       </c>
       <c r="B7" t="s">
-        <v>909</v>
+        <v>925</v>
       </c>
       <c r="C7" t="s">
-        <v>910</v>
+        <v>926</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>911</v>
+        <v>927</v>
       </c>
       <c r="B8" t="s">
-        <v>912</v>
+        <v>928</v>
       </c>
       <c r="C8" t="s">
-        <v>913</v>
+        <v>929</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16541,72 +16589,72 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="C9" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>916</v>
+        <v>932</v>
       </c>
       <c r="B10" t="s">
-        <v>917</v>
+        <v>933</v>
       </c>
       <c r="C10" t="s">
-        <v>918</v>
+        <v>934</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>919</v>
+        <v>935</v>
       </c>
       <c r="B11" t="s">
-        <v>920</v>
+        <v>936</v>
       </c>
       <c r="C11" t="s">
-        <v>921</v>
+        <v>937</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>922</v>
+        <v>938</v>
       </c>
       <c r="B12" t="s">
-        <v>923</v>
+        <v>939</v>
       </c>
       <c r="C12" t="s">
-        <v>924</v>
+        <v>940</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>925</v>
+        <v>941</v>
       </c>
       <c r="B13" t="s">
-        <v>926</v>
+        <v>942</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="B14" t="s">
-        <v>928</v>
+        <v>944</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>929</v>
+        <v>945</v>
       </c>
       <c r="B15" t="s">
-        <v>930</v>
+        <v>946</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>931</v>
+        <v>947</v>
       </c>
       <c r="B16" t="s">
         <v>126</v>
@@ -16614,78 +16662,78 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>932</v>
+        <v>948</v>
       </c>
       <c r="B17" t="s">
-        <v>933</v>
+        <v>949</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="B18" t="s">
-        <v>935</v>
+        <v>951</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>936</v>
+        <v>952</v>
       </c>
       <c r="B19" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>938</v>
+        <v>954</v>
       </c>
       <c r="B20" t="s">
-        <v>939</v>
+        <v>955</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>940</v>
+        <v>956</v>
       </c>
       <c r="B21" t="s">
-        <v>941</v>
+        <v>957</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="B22" t="s">
-        <v>943</v>
+        <v>959</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>944</v>
+        <v>960</v>
       </c>
       <c r="B23" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>949</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -16747,7 +16795,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -16785,7 +16833,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -16823,7 +16871,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>827</v>
+        <v>843</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -16861,7 +16909,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -16899,7 +16947,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>833</v>
+        <v>849</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -22389,12 +22437,14 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="12.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="12.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="24.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="12.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="13.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="9.42857142857143" customWidth="1"/>
     <col min="6" max="6" width="7.14285714285714" customWidth="1"/>
@@ -22463,9 +22513,11 @@
       <c r="A3" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="97"/>
+      <c r="B3" s="97" t="s">
+        <v>129</v>
+      </c>
       <c r="C3" s="97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D3" s="98">
         <v>-5</v>
@@ -22496,9 +22548,11 @@
       <c r="A4" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="97"/>
+      <c r="B4" s="97" t="s">
+        <v>131</v>
+      </c>
       <c r="C4" s="97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4" s="98">
         <v>-5</v>
@@ -22527,11 +22581,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="97" t="s">
         <v>130</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97" t="s">
-        <v>129</v>
       </c>
       <c r="D5" s="98">
         <v>-5</v>
@@ -22560,11 +22616,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="96" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="97"/>
+        <v>134</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>135</v>
+      </c>
       <c r="C6" s="97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D6" s="98">
         <v>0</v>
@@ -22593,11 +22651,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="96" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="97"/>
+        <v>136</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>137</v>
+      </c>
       <c r="C7" s="97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D7" s="98">
         <v>-5</v>
@@ -22628,9 +22688,11 @@
       <c r="A8" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="97" t="s">
+        <v>138</v>
+      </c>
       <c r="C8" s="97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D8" s="98">
         <v>-5</v>
@@ -22659,11 +22721,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="96" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="97"/>
+        <v>139</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>140</v>
+      </c>
       <c r="C9" s="97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D9" s="98">
         <v>5</v>
@@ -22690,11 +22754,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="97"/>
+        <v>141</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>142</v>
+      </c>
       <c r="C10" s="97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" s="98">
         <v>0</v>
@@ -22723,11 +22789,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="97"/>
+        <v>143</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>144</v>
+      </c>
       <c r="C11" s="97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D11" s="98">
         <v>0</v>
@@ -22758,9 +22826,11 @@
       <c r="A12" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="97" t="s">
+        <v>145</v>
+      </c>
       <c r="C12" s="97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D12" s="98">
         <v>-10</v>
@@ -22789,11 +22859,13 @@
     </row>
     <row r="13" customHeight="1" spans="1:14">
       <c r="A13" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="97"/>
+        <v>146</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>147</v>
+      </c>
       <c r="C13" s="97" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D13" s="98">
         <v>5</v>
@@ -22823,11 +22895,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="96" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="97"/>
+        <v>149</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>150</v>
+      </c>
       <c r="C14" s="97" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D14" s="98">
         <v>0</v>
@@ -22859,11 +22933,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="97"/>
+        <v>151</v>
+      </c>
+      <c r="B15" s="97" t="s">
+        <v>152</v>
+      </c>
       <c r="C15" s="97" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D15" s="98">
         <v>10</v>
@@ -22893,11 +22969,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="97"/>
+        <v>153</v>
+      </c>
+      <c r="B16" s="97" t="s">
+        <v>154</v>
+      </c>
       <c r="C16" s="97" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D16" s="98">
         <v>20</v>
@@ -22927,11 +23005,13 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="96" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="97"/>
+        <v>155</v>
+      </c>
+      <c r="B17" s="97" t="s">
+        <v>156</v>
+      </c>
       <c r="C17" s="97" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D17" s="98">
         <v>-20</v>
@@ -22961,11 +23041,13 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="96" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="97"/>
+        <v>157</v>
+      </c>
+      <c r="B18" s="97" t="s">
+        <v>158</v>
+      </c>
       <c r="C18" s="97" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D18" s="98">
         <v>-5</v>
@@ -23004,25 +23086,25 @@
         <v>123</v>
       </c>
       <c r="D20" s="100" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E20" s="100" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F20" s="100" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G20" s="100" t="s">
         <v>124</v>
       </c>
       <c r="H20" s="100" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I20" s="100" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="J20" s="100" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="K20" s="100" t="s">
         <v>126</v>
@@ -23100,7 +23182,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B23" s="102">
         <v>0.2</v>
@@ -23135,7 +23217,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="101" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B24" s="102">
         <v>0.1</v>
@@ -23170,7 +23252,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="101" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B25" s="102">
         <v>0.2</v>
@@ -23240,7 +23322,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="101" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B27" s="102">
         <v>0.15</v>
@@ -23275,7 +23357,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="101" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B28" s="102">
         <v>0.2</v>
@@ -23310,7 +23392,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="101" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B29" s="102">
         <v>0.25</v>
@@ -23380,7 +23462,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -23419,7 +23501,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B32">
         <f>100/$L31*B31</f>
@@ -23464,7 +23546,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B34">
         <v>268</v>
@@ -23503,7 +23585,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B35">
         <f t="shared" ref="B35:K35" si="1">100/$L34*B34</f>
@@ -23587,28 +23669,28 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="86" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C1" s="87" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E1" s="87" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G1" s="87" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="I1" s="87" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K1" s="87" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M1" s="87" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="P1" s="54" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="Q1" s="54"/>
       <c r="R1" s="54"/>
@@ -23617,836 +23699,836 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="88" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G2" s="89" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="I2" s="89" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J2" s="90" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K2" s="89" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="L2" s="90" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="M2" s="89" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="N2" s="88" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="P2" s="91" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="Q2" s="91" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="R2" s="91" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="S2" s="91" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="E3" s="87" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="F3" s="86" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G3" s="87" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="H3" s="86" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I3" s="87" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="J3" s="86" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="K3" s="87" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L3" s="86" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M3" s="87" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="N3" s="86" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="P3" s="86" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="Q3" s="93" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="S3" s="27" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="T3" s="27" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="86" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F4" s="86" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="G4" s="87" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="H4" s="86" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="I4" s="87" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="J4" s="86" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="K4" s="87" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="L4" s="86" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="M4" s="87" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="N4" s="86" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="P4" s="86" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="93" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="S4" s="27" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="T4" s="27" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="86" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E5" s="87" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="F5" s="86" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G5" s="87" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="H5" s="86" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I5" s="87" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="J5" s="86" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="K5" s="87" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="L5" s="86" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="M5" s="87" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="N5" s="86" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="P5" s="86" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="93" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="R5" s="27" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="S5" s="27" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="T5" s="27" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="U5" s="27"/>
       <c r="V5" s="27"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="86" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="F6" s="86" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="H6" s="86" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="I6" s="87" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="J6" s="86" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="K6" s="87" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="L6" s="86" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="M6" s="87" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="N6" s="86" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="P6" s="86" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="Q6" s="93" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="S6" s="27" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="T6" s="27" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="U6" s="27"/>
       <c r="V6" s="27"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="86" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E7" s="87" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F7" s="86" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="G7" s="87" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="H7" s="86" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="I7" s="87" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="J7" s="86" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="K7" s="87" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="L7" s="86" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="M7" s="87" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="N7" s="86" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="P7" s="86" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="Q7" s="86" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="86" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E8" s="87" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="F8" s="86" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="H8" s="86" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="I8" s="87" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="J8" s="86" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="K8" s="87" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="L8" s="86" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="M8" s="87" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="N8" s="86" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="P8" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Q8" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="R8" s="86" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="S8" s="86" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="T8" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="U8" s="27"/>
       <c r="V8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="86" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="E9" s="87" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="F9" s="86" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G9" s="87" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="H9" s="86" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="I9" s="87" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="J9" s="86" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="K9" s="87" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="L9" s="86" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="M9" s="87" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="N9" s="86" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="P9" s="86" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="Q9" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="R9" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="S9" s="86" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="T9" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="U9" s="27"/>
       <c r="V9" s="27"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="86" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B10" s="86" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C10" s="87" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F10" s="86" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="I10" s="87" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="J10" s="86" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="K10" s="87" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="L10" s="86" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="M10" s="87" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="N10" s="86" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="P10" s="86" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="Q10" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="R10" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="T10" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="86" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B11" s="86" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="F11" s="86" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="I11" s="87" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="J11" s="86" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="K11" s="87" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L11" s="86" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="M11" s="92" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="N11" s="86" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="P11" s="86" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="86" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="R11" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="T11" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="86" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="F12" s="86" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="I12" s="87" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="J12" s="86" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="K12" s="87" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="M12" s="87" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="N12" s="86" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="P12" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="Q12" s="86"/>
       <c r="R12" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="86" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B13" s="86" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="E13" s="87" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="F13" s="86" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="J13" s="86" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="K13" s="87" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="M13" s="87" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="N13" s="86" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="P13" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="86"/>
       <c r="R13" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="86" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="B14" s="86" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="F14" s="86" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="J14" s="86" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="K14" s="87" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="M14" s="87" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="N14" s="86" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="P14" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="R14" s="86"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="86" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B15" s="86" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="D15" s="86" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="F15" s="86" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="N15" s="86" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="86" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="N16" s="86" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="O16"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="86" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="B17" s="86" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="N17" s="86" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="O17"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="86" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="B18" s="86" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="L18"/>
       <c r="N18" s="86" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="O18"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="86" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="B19" s="86" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="L19"/>
       <c r="N19" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="O19"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="86" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="B20" s="86" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="L20"/>
       <c r="N20" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="O20"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="86" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="L21"/>
       <c r="O21"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="86" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="B22" s="86" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="L22"/>
       <c r="O22"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="86" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="B23" s="86" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="L23"/>
       <c r="O23"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="86" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="B24" s="86" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="L24"/>
       <c r="O24"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="86" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="B25" s="86" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="L25"/>
       <c r="N25"/>
@@ -24454,10 +24536,10 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="86" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B26" s="86" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="L26"/>
       <c r="N26"/>
@@ -24465,10 +24547,10 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="86" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="B27" s="86" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="L27"/>
       <c r="N27"/>
@@ -24476,10 +24558,10 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="86" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="B28" s="86" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="L28"/>
       <c r="N28"/>
@@ -24487,10 +24569,10 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="86" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="B29" s="86" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="L29"/>
       <c r="N29"/>
@@ -24498,10 +24580,10 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="86" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="B30" s="86" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="L30"/>
       <c r="N30"/>
@@ -24509,10 +24591,10 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B31" s="86" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="K31" s="92"/>
       <c r="L31" s="2"/>
@@ -24527,10 +24609,10 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="B32" s="86" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="K32" s="92"/>
       <c r="L32" s="2"/>
@@ -24545,10 +24627,10 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="B33" s="86" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="K33" s="92"/>
       <c r="L33" s="2"/>
@@ -24563,30 +24645,30 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="B34" s="86" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="86" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="86" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="86" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="86" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -24619,34 +24701,34 @@
         <v>115</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="C1" s="75" t="s">
         <v>117</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="G1" s="75" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="H1" s="75" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="I1" s="75" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="K1" s="85" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -24664,7 +24746,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="76" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B3" s="77">
         <v>0</v>
@@ -24700,7 +24782,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="76" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B4" s="77">
         <v>1</v>
@@ -24736,7 +24818,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="76" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B5" s="77">
         <v>2</v>
@@ -24772,7 +24854,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="76" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B6" s="77">
         <v>3</v>
@@ -24808,7 +24890,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="76" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="B7" s="77">
         <v>4</v>
@@ -24852,301 +24934,301 @@
     </row>
     <row r="19" spans="12:21">
       <c r="L19" s="2" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>115</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>115</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="12:22">
       <c r="L20" s="2" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="U20" s="2" t="s">
         <v>128</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="12:22">
       <c r="L21" s="2" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>123</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="12:22">
       <c r="L22" s="2" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="80" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="B23" s="80"/>
       <c r="C23" s="81" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="81" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="F23" s="81"/>
       <c r="G23" s="81" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="H23" s="81"/>
       <c r="L23" s="2" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="80"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="D24" s="80" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="E24" s="80" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="F24" s="80" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="G24" s="80" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="H24" s="80" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="82" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="B25" s="82"/>
       <c r="C25" s="83" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="D25" s="84"/>
       <c r="E25" s="83" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="F25" s="84" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="G25" s="83" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="H25" s="84" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>124</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="82" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="B26" s="82"/>
       <c r="C26" s="83" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="D26" s="84"/>
       <c r="E26" s="83" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="F26" s="84" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="G26" s="83" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="H26" s="84" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="82" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="B27" s="82"/>
       <c r="C27" s="83" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="D27" s="84"/>
       <c r="E27" s="83" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="F27" s="84" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="G27" s="83" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="H27" s="84" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="82" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="B28" s="82"/>
       <c r="C28" s="83" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="D28" s="84"/>
       <c r="E28" s="83" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="F28" s="84"/>
       <c r="G28" s="83" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="H28" s="84" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -25158,30 +25240,30 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="82" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="B29" s="82"/>
       <c r="C29" s="83" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="D29" s="84"/>
       <c r="E29" s="83" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="F29" s="84"/>
       <c r="G29" s="83" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="H29" s="84" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -25196,25 +25278,25 @@
         <v>126</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="82" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="B30" s="82"/>
       <c r="C30" s="83" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="D30" s="84"/>
       <c r="E30" s="83"/>
       <c r="F30" s="84"/>
       <c r="G30" s="83" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="H30" s="84" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -25226,25 +25308,25 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="82" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="B31" s="82"/>
       <c r="C31" s="83" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="D31" s="84"/>
       <c r="E31" s="83"/>
       <c r="F31" s="84"/>
       <c r="G31" s="83" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="H31" s="84"/>
       <c r="L31" s="2"/>
@@ -25257,47 +25339,47 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="82" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="B32" s="82"/>
       <c r="C32" s="83" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="D32" s="84"/>
       <c r="E32" s="83"/>
       <c r="F32" s="84"/>
       <c r="G32" s="83" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="H32" s="84"/>
       <c r="L32" s="2" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="82" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="B33" s="82"/>
       <c r="C33" s="83" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="D33" s="84"/>
       <c r="E33" s="83"/>
       <c r="F33" s="84"/>
       <c r="G33" s="83" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="H33" s="84"/>
       <c r="L33" s="2"/>
@@ -25310,12 +25392,12 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="82" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="B34" s="82"/>
       <c r="C34" s="83"/>
@@ -25323,22 +25405,22 @@
       <c r="E34" s="83"/>
       <c r="F34" s="84"/>
       <c r="G34" s="83" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="H34" s="84"/>
       <c r="L34" s="2" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="82" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="B35" s="82"/>
       <c r="C35" s="83"/>
@@ -25346,7 +25428,7 @@
       <c r="E35" s="83"/>
       <c r="F35" s="84"/>
       <c r="G35" s="83" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="H35" s="84"/>
       <c r="L35" s="2"/>
@@ -25359,12 +25441,12 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="82" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="B36" s="82"/>
       <c r="C36" s="83"/>
@@ -25372,7 +25454,7 @@
       <c r="E36" s="83"/>
       <c r="F36" s="84"/>
       <c r="G36" s="83" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="H36" s="84"/>
       <c r="L36" s="2"/>
@@ -25394,7 +25476,7 @@
       <c r="E37" s="83"/>
       <c r="F37" s="84"/>
       <c r="G37" s="83" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="H37" s="84"/>
       <c r="L37" s="2"/>
@@ -25416,7 +25498,7 @@
       <c r="E38" s="83"/>
       <c r="F38" s="84"/>
       <c r="G38" s="83" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="H38" s="84"/>
     </row>
@@ -25428,7 +25510,7 @@
       <c r="E39" s="83"/>
       <c r="F39" s="84"/>
       <c r="G39" s="83" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="H39" s="84"/>
     </row>
@@ -25498,28 +25580,28 @@
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
       <c r="D1" s="54" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
       <c r="G1" s="54"/>
       <c r="H1" s="54" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="J1" s="71" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="K1" s="71" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="L1" s="71" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="M1" s="54" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="N1" s="54"/>
     </row>
@@ -25528,16 +25610,16 @@
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
       <c r="D2" s="30" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="H2" s="54"/>
       <c r="I2" s="71"/>
@@ -25549,13 +25631,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="B3" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="C3" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -25590,18 +25672,18 @@
         <v>3</v>
       </c>
       <c r="M3" s="73" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="C4" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="D4" s="8">
         <v>4</v>
@@ -25639,13 +25721,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="C5" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
@@ -25680,18 +25762,18 @@
         <v>3.3</v>
       </c>
       <c r="M5" s="73" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="B6" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="C6" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -25729,13 +25811,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="B7" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="C7" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="D7" s="8">
         <v>4</v>
@@ -25773,13 +25855,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="D8" s="8">
         <v>3</v>
@@ -25814,18 +25896,18 @@
         <v>3.6</v>
       </c>
       <c r="M8" s="73" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B9" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="C9" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="D9" s="8">
         <v>6</v>
@@ -25863,10 +25945,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="B10" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="D10" s="8">
         <v>3</v>
@@ -25904,7 +25986,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="16" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -25941,7 +26023,7 @@
         <v>3.9</v>
       </c>
       <c r="M11" s="73" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:10">
@@ -25960,7 +26042,7 @@
     <row r="14" s="16" customFormat="1"/>
     <row r="16" spans="1:1">
       <c r="A16" s="16" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -25970,25 +26052,25 @@
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
       <c r="D17" s="54" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="E17" s="54"/>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
       <c r="H17" s="54" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="I17" s="71" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="K17" s="71" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="L17" s="71" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -25996,16 +26078,16 @@
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
       <c r="D18" s="30" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="H18" s="54"/>
       <c r="I18" s="71"/>
@@ -26015,13 +26097,13 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="B19" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="C19" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="D19" s="54">
         <f>D3+10</f>
@@ -26062,13 +26144,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="B20" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="C20" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="D20" s="54">
         <f t="shared" ref="D20:D27" si="13">D4+10</f>
@@ -26109,13 +26191,13 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="B21" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="C21" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="D21" s="54">
         <f t="shared" si="13"/>
@@ -26156,13 +26238,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="B22" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="C22" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="D22" s="54">
         <f t="shared" si="13"/>
@@ -26203,13 +26285,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="B23" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="C23" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="D23" s="54">
         <f t="shared" si="13"/>
@@ -26250,13 +26332,13 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="B24" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="D24" s="54">
         <f t="shared" si="13"/>
@@ -26297,13 +26379,13 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="C25" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="D25" s="54">
         <f t="shared" si="13"/>
@@ -26344,10 +26426,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="B26" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="D26" s="54">
         <f t="shared" si="13"/>
@@ -26388,7 +26470,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="16" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -26431,52 +26513,52 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -26532,34 +26614,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="56" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="57" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="56" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="56"/>
       <c r="D3" s="58" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -26570,26 +26652,26 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="61" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="B5" s="61" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="62" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="61" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="B6" s="61" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="62" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="I6" s="54"/>
     </row>
@@ -26601,26 +26683,26 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="56" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="B8" s="56" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="57" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="56" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="B9" s="56" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="56"/>
       <c r="D9" s="57" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -26631,26 +26713,26 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="61" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="B11" s="61" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="62" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="61" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="B12" s="61" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="62" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -26661,26 +26743,26 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="56" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="B14" s="56" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="57" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="56" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="B15" s="56" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="57" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -26691,26 +26773,26 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="63" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C17" s="63"/>
       <c r="D17" s="64" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="63" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C18" s="63"/>
       <c r="D18" s="64" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -26721,26 +26803,26 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="63" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="C20" s="63"/>
       <c r="D20" s="64" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="63" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="C21" s="63"/>
       <c r="D21" s="64" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -26751,26 +26833,26 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="67" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="C23" s="67"/>
       <c r="D23" s="68" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="67" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="C24" s="67"/>
       <c r="D24" s="68" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -26781,26 +26863,26 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="63" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="C26" s="63"/>
       <c r="D26" s="64" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="63" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="C27" s="63"/>
       <c r="D27" s="64" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -26811,26 +26893,26 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="67" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="C29" s="67"/>
       <c r="D29" s="68" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="67" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="C30" s="67"/>
       <c r="D30" s="68" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -26841,26 +26923,26 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="63" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="C32" s="63"/>
       <c r="D32" s="64" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="63" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="C33" s="63"/>
       <c r="D33" s="64" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -26871,26 +26953,26 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="67" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="B35" s="67" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="C35" s="67"/>
       <c r="D35" s="68" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="67" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="B36" s="67" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="C36" s="67"/>
       <c r="D36" s="68" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -26901,26 +26983,26 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="63" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="C38" s="63"/>
       <c r="D38" s="64" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="63" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="C39" s="63"/>
       <c r="D39" s="64" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -26931,26 +27013,26 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="67" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="B41" s="67" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="C41" s="67"/>
       <c r="D41" s="68" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="67" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="B42" s="67" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="C42" s="67"/>
       <c r="D42" s="68" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -26964,8 +27046,8 @@
   <sheetPr/>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -26986,77 +27068,75 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="45" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="46" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="D1" s="46"/>
       <c r="E1" s="47" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="48"/>
       <c r="B2" s="49" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="C2" s="49" t="s">
         <v>115</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>115</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>627</v>
-      </c>
-      <c r="H2" t="s">
-        <v>626</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="H2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="50" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="52" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -27065,302 +27145,302 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="50" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="52" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="50" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="52" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="50" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="52" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="50" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="52" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="50" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="52" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="50" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="52" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="50" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="52" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="50" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
     </row>
     <row r="50" spans="4:4">

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13185" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="28695" windowHeight="13185" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon Data v1" sheetId="2" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969">
   <si>
     <t>Type</t>
   </si>
@@ -400,6 +400,12 @@
     <t>Particles</t>
   </si>
   <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
     <t>Rain</t>
   </si>
   <si>
@@ -412,6 +418,9 @@
     <t>Hail</t>
   </si>
   <si>
+    <t>Wind</t>
+  </si>
+  <si>
     <t>Sun</t>
   </si>
   <si>
@@ -421,9 +430,6 @@
     <t>it is drizzling</t>
   </si>
   <si>
-    <t>Phenomena</t>
-  </si>
-  <si>
     <t>it it raining</t>
   </si>
   <si>
@@ -473,9 +479,6 @@
   </si>
   <si>
     <t>a dust storm rages</t>
-  </si>
-  <si>
-    <t>Event</t>
   </si>
   <si>
     <t>Lightning</t>
@@ -2944,9 +2947,9 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="27">
@@ -3009,6 +3012,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -3016,15 +3026,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3047,16 +3056,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3064,7 +3081,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3080,43 +3097,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3137,9 +3134,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3274,7 +3277,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3286,67 +3409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3358,13 +3427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3376,85 +3439,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3860,21 +3863,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3900,6 +3888,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3916,11 +3930,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3948,162 +3960,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4132,13 +4135,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4207,10 +4210,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4306,7 +4309,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4399,6 +4402,9 @@
     <xf numFmtId="179" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4410,9 +4416,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -12931,7 +12934,7 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -12944,13 +12947,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="35" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -12960,101 +12963,101 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="39" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="39" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="39" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="39" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="39" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="39" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="39" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>762</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>760</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>761</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="39" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -13097,42 +13100,42 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="30" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M1" s="1"/>
       <c r="P1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -13142,21 +13145,21 @@
       <c r="D2" s="30"/>
       <c r="E2" s="16"/>
       <c r="J2" s="32" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="K2" t="s">
+        <v>777</v>
+      </c>
+      <c r="L2" t="s">
         <v>776</v>
       </c>
-      <c r="L2" t="s">
-        <v>775</v>
-      </c>
       <c r="M2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -13172,7 +13175,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -13181,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J3" s="33">
         <f t="shared" ref="J3:J24" si="0">B3/25</f>
@@ -13200,12 +13203,12 @@
         <v>5.45454545454545</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -13221,7 +13224,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -13230,7 +13233,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J4" s="33">
         <f t="shared" si="0"/>
@@ -13249,12 +13252,12 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -13270,7 +13273,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -13279,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J5" s="33">
         <f t="shared" si="0"/>
@@ -13298,12 +13301,12 @@
         <v>5.90909090909091</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -13319,7 +13322,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -13328,7 +13331,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J6" s="33">
         <f t="shared" si="0"/>
@@ -13347,12 +13350,12 @@
         <v>5.45454545454545</v>
       </c>
       <c r="O6" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -13368,7 +13371,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -13377,7 +13380,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" si="0"/>
@@ -13396,12 +13399,12 @@
         <v>6.36363636363636</v>
       </c>
       <c r="O7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B8">
         <v>300</v>
@@ -13417,7 +13420,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -13426,7 +13429,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J8" s="33">
         <f t="shared" si="0"/>
@@ -13445,12 +13448,12 @@
         <v>7.27272727272727</v>
       </c>
       <c r="O8" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B9">
         <v>25</v>
@@ -13466,7 +13469,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -13475,7 +13478,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J9" s="33">
         <f t="shared" si="0"/>
@@ -13494,18 +13497,18 @@
         <v>4.77272727272727</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Q9" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="R9" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B10">
         <v>150</v>
@@ -13521,7 +13524,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -13530,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J10" s="33">
         <f t="shared" si="0"/>
@@ -13549,7 +13552,7 @@
         <v>5.90909090909091</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -13569,7 +13572,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="31" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B11" s="31">
         <v>25</v>
@@ -13585,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -13594,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J11" s="34">
         <f t="shared" si="0"/>
@@ -13613,7 +13616,7 @@
         <v>4.77272727272727</v>
       </c>
       <c r="O11" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -13633,7 +13636,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="31" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B12" s="31">
         <v>150</v>
@@ -13649,7 +13652,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -13658,7 +13661,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J12" s="34">
         <f t="shared" si="0"/>
@@ -13677,7 +13680,7 @@
         <v>5.90909090909091</v>
       </c>
       <c r="O12" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Q12">
         <v>0.2</v>
@@ -13697,7 +13700,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="31" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B13" s="31">
         <v>150</v>
@@ -13713,7 +13716,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -13722,7 +13725,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J13" s="34">
         <f t="shared" si="0"/>
@@ -13741,7 +13744,7 @@
         <v>5.90909090909091</v>
       </c>
       <c r="O13" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="Q13">
         <v>0.3</v>
@@ -13761,7 +13764,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="31" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B14" s="31">
         <v>100</v>
@@ -13777,7 +13780,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -13786,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J14" s="34">
         <f t="shared" si="0"/>
@@ -13805,7 +13808,7 @@
         <v>5.45454545454545</v>
       </c>
       <c r="O14" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Q14">
         <v>0.4</v>
@@ -13825,7 +13828,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="31" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B15" s="31">
         <v>60</v>
@@ -13841,7 +13844,7 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -13850,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J15" s="34">
         <f t="shared" si="0"/>
@@ -13869,7 +13872,7 @@
         <v>5.09090909090909</v>
       </c>
       <c r="O15" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="Q15">
         <v>0.5</v>
@@ -13889,7 +13892,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="31" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B16" s="31">
         <v>400</v>
@@ -13905,7 +13908,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -13914,7 +13917,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J16" s="34">
         <f t="shared" si="0"/>
@@ -13933,7 +13936,7 @@
         <v>8.18181818181818</v>
       </c>
       <c r="O16" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Q16">
         <v>0.6</v>
@@ -13953,7 +13956,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="31" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B17" s="31">
         <v>100</v>
@@ -13969,7 +13972,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -13978,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J17" s="34">
         <f t="shared" si="0"/>
@@ -13997,7 +14000,7 @@
         <v>5.45454545454545</v>
       </c>
       <c r="O17" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="Q17">
         <v>0.7</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="31" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B18" s="31">
         <v>1</v>
@@ -14039,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J18" s="34">
         <f t="shared" si="0"/>
@@ -14075,7 +14078,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="31" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B19" s="31">
         <v>20</v>
@@ -14097,7 +14100,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J19" s="34">
         <f t="shared" si="0"/>
@@ -14133,7 +14136,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B20">
         <v>75</v>
@@ -14149,7 +14152,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -14158,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J20" s="33">
         <f t="shared" si="0"/>
@@ -14177,7 +14180,7 @@
         <v>5.22727272727273</v>
       </c>
       <c r="O20" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -14197,7 +14200,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B21">
         <v>50</v>
@@ -14213,7 +14216,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -14222,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J21" s="33">
         <f t="shared" si="0"/>
@@ -14241,12 +14244,12 @@
         <v>5</v>
       </c>
       <c r="O21" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -14262,7 +14265,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -14271,7 +14274,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J22" s="33">
         <f t="shared" si="0"/>
@@ -14290,12 +14293,12 @@
         <v>5.45454545454545</v>
       </c>
       <c r="O22" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B23">
         <v>25</v>
@@ -14311,7 +14314,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -14320,7 +14323,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J23" s="33">
         <f t="shared" si="0"/>
@@ -14339,7 +14342,7 @@
         <v>4.77272727272727</v>
       </c>
       <c r="O23" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="24" spans="10:13">
@@ -14384,13 +14387,13 @@
         <v>115</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
@@ -14406,7 +14409,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="23" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>3</v>
@@ -14431,10 +14434,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="23" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C3" s="25">
         <v>0.1</v>
@@ -14456,10 +14459,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="23" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C4" s="25">
         <v>0.1</v>
@@ -14481,7 +14484,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="23" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>4</v>
@@ -14506,7 +14509,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="23" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>6</v>
@@ -14522,10 +14525,10 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="J6" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -14535,7 +14538,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="23" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>8</v>
@@ -14551,10 +14554,10 @@
       <c r="G7" s="22"/>
       <c r="H7" s="27"/>
       <c r="I7" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J7" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
@@ -14564,7 +14567,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="23" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>10</v>
@@ -14580,10 +14583,10 @@
       <c r="G8" s="27"/>
       <c r="H8" s="22"/>
       <c r="I8" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J8" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
@@ -14593,10 +14596,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="23" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C9" s="25">
         <v>0.1</v>
@@ -14609,10 +14612,10 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
@@ -14622,10 +14625,10 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="23" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C10" s="25">
         <v>0.1</v>
@@ -14638,10 +14641,10 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -14651,10 +14654,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="23" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C11" s="25">
         <v>0.1</v>
@@ -14676,10 +14679,10 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="23" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C12" s="25">
         <v>1</v>
@@ -14701,10 +14704,10 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="23" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C13" s="25">
         <v>1</v>
@@ -14726,10 +14729,10 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="23" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C14" s="25">
         <v>1</v>
@@ -14751,10 +14754,10 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="23" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C15" s="25">
         <v>1</v>
@@ -15037,12 +15040,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="16" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B2" s="17">
         <v>1</v>
@@ -15050,7 +15053,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F2" s="17">
         <v>1</v>
@@ -15058,19 +15061,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B3" s="17">
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F3" s="17">
         <v>2</v>
@@ -15078,7 +15081,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="17" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B4" s="17">
         <v>10</v>
@@ -15086,7 +15089,7 @@
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F4" s="17">
         <v>1</v>
@@ -15094,13 +15097,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="17" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B5" s="17">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
@@ -15114,19 +15117,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="17" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B6" s="17">
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F6" s="17">
         <v>1</v>
@@ -15134,7 +15137,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="17" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B7" s="17">
         <v>5</v>
@@ -15142,7 +15145,7 @@
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F7" s="17">
         <v>1</v>
@@ -15150,19 +15153,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="18" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B10" s="18">
         <v>10</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D10" s="18">
         <v>5</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F10" s="18">
         <v>1</v>
@@ -15170,42 +15173,42 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B11" s="18">
         <v>15</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D11" s="18">
         <v>5</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F11" s="18">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="18" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B12" s="18">
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D12" s="18">
         <v>1</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F12" s="18">
         <v>2</v>
@@ -15214,19 +15217,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="18" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B13" s="18">
         <v>5</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D13" s="18">
         <v>5</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F13" s="18">
         <v>1</v>
@@ -15238,42 +15241,42 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="17" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B15" s="17">
         <v>10</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D15" s="17">
         <v>10</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F15" s="17">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="17" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F16" s="17">
         <v>1</v>
@@ -15281,19 +15284,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="17" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B17" s="17">
         <v>3</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D17" s="17">
         <v>3</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F17" s="17">
         <v>1</v>
@@ -15304,19 +15307,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="18" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B20" s="18">
         <v>2</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D20" s="18">
         <v>1</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F20" s="18">
         <v>1</v>
@@ -15324,43 +15327,43 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="18" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B21" s="18">
         <v>5</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D21" s="18">
         <v>5</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F21" s="18">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="18" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B22" s="18">
         <v>3</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D22" s="18">
         <v>3</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F22" s="18">
         <v>1</v>
@@ -15368,19 +15371,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="18" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B23" s="18">
         <v>2</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D23" s="18">
         <v>20</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F23" s="18">
         <v>1</v>
@@ -15428,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -15436,18 +15439,18 @@
         <v>121</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="13" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
@@ -15458,7 +15461,7 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>76</v>
@@ -15466,36 +15469,36 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L2" s="3"/>
       <c r="N2" s="7"/>
       <c r="O2" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q2" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="R2" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>174</v>
-      </c>
       <c r="S2" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -15553,19 +15556,19 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7">
@@ -15588,7 +15591,7 @@
         <v>1.6</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="O4" s="7">
         <f>SUM(G7:G9)</f>
@@ -15613,19 +15616,19 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="7">
@@ -15648,7 +15651,7 @@
         <v>0.45</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="O5" s="7">
         <f>SUM(G10:G22)</f>
@@ -15673,19 +15676,19 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="7">
@@ -15708,7 +15711,7 @@
         <v>0.45</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="O6" s="7">
         <f>SUM(G23:G33)</f>
@@ -15733,19 +15736,19 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="7">
@@ -15770,10 +15773,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -15801,19 +15804,19 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="7">
@@ -15838,19 +15841,19 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="7">
@@ -15875,19 +15878,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="7">
@@ -15912,19 +15915,19 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="7">
@@ -15949,19 +15952,19 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="7">
@@ -15986,19 +15989,19 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="7">
@@ -16023,19 +16026,19 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="7">
@@ -16060,19 +16063,19 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>890</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>901</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="7">
@@ -16097,22 +16100,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D17" s="9">
         <v>0.1</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -16136,22 +16139,22 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D18" s="9">
         <v>0.1</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -16175,19 +16178,19 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D19" s="9">
         <v>0.1</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="7">
@@ -16212,22 +16215,22 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D20" s="9">
         <v>0.1</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -16251,22 +16254,22 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D21" s="9">
         <v>0.1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -16290,10 +16293,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -16302,10 +16305,10 @@
         <v>0.05</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -16329,10 +16332,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -16356,10 +16359,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -16380,10 +16383,10 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -16405,10 +16408,10 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12">
@@ -16431,10 +16434,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="5" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -16455,10 +16458,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -16479,10 +16482,10 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -16504,10 +16507,10 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="4" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -16529,10 +16532,10 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -16554,10 +16557,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -16578,10 +16581,10 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G33" s="7">
         <v>0</v>
@@ -16664,15 +16667,15 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -16686,77 +16689,77 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>916</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>916</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C5" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B6" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C6" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B7" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C7" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B8" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C8" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16764,151 +16767,151 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C9" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B10" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C10" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B11" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C11" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B12" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C12" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B13" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B14" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B15" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B17" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B18" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B19" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B20" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B21" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B22" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B23" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -16970,7 +16973,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -17008,7 +17011,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -17046,7 +17049,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -17084,7 +17087,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -17122,7 +17125,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -22609,10 +22612,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -22623,10 +22626,11 @@
     <col min="4" max="4" width="13.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="9.42857142857143" customWidth="1"/>
     <col min="6" max="6" width="7.14285714285714" customWidth="1"/>
-    <col min="20" max="20" width="16.7142857142857" customWidth="1"/>
+    <col min="19" max="20" width="12.8571428571429"/>
+    <col min="21" max="21" width="16.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:20">
       <c r="A1" s="91" t="s">
         <v>115</v>
       </c>
@@ -22634,1010 +22638,1220 @@
         <v>116</v>
       </c>
       <c r="C1" s="92" t="s">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D1" s="92" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F1" s="92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G1" s="92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H1" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="92" t="s">
         <v>122</v>
       </c>
+      <c r="I1" s="92"/>
       <c r="J1" s="92"/>
       <c r="K1" s="92"/>
       <c r="L1" s="92"/>
       <c r="M1" s="92"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="Q1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
+      <c r="C2" s="92"/>
       <c r="D2" s="92"/>
       <c r="E2" s="92"/>
       <c r="F2" s="92"/>
       <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
+      <c r="H2" s="92" t="s">
+        <v>125</v>
+      </c>
       <c r="I2" s="92" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J2" s="92" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K2" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2">
+        <v>18</v>
+      </c>
+      <c r="R2">
+        <f>ABS(Q2-24)</f>
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <f>1-R2/6</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="95">
+        <v>-5</v>
+      </c>
+      <c r="D3" s="96">
+        <v>1</v>
+      </c>
+      <c r="E3" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="96">
+        <v>0</v>
+      </c>
+      <c r="G3" s="95">
+        <v>2</v>
+      </c>
+      <c r="H3" s="97">
+        <v>0.3</v>
+      </c>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="97">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>19</v>
+      </c>
+      <c r="R3">
+        <f>ABS(Q3-24)</f>
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S14" si="0">1-R3/6</f>
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="M2" s="92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="93" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="94" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="95">
+      <c r="B4" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="95">
         <v>-5</v>
       </c>
-      <c r="E3" s="96">
-        <v>1</v>
-      </c>
-      <c r="F3" s="96">
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="96">
+      <c r="D4" s="96">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="96">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="96">
         <v>0</v>
       </c>
-      <c r="H3" s="95">
+      <c r="G4" s="95">
         <v>2</v>
       </c>
-      <c r="I3" s="101">
+      <c r="H4" s="97">
+        <v>0.7</v>
+      </c>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97">
+        <v>0.8</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="R4">
+        <f>ABS(Q4-24)</f>
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="95">
+        <v>-5</v>
+      </c>
+      <c r="D5" s="96">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="96">
         <v>0.3</v>
       </c>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="95">
-        <v>-5</v>
-      </c>
-      <c r="E4" s="96">
-        <v>0.9</v>
-      </c>
-      <c r="F4" s="96">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="96">
+      <c r="F5" s="96">
         <v>0</v>
       </c>
-      <c r="H4" s="95">
+      <c r="G5" s="95">
         <v>2</v>
       </c>
-      <c r="I4" s="101">
-        <v>0.7</v>
-      </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="93" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="95">
-        <v>-5</v>
-      </c>
-      <c r="E5" s="96">
-        <v>0.8</v>
-      </c>
-      <c r="F5" s="96">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="96">
+      <c r="H5" s="97">
+        <v>1</v>
+      </c>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97">
+        <v>0.6</v>
+      </c>
+      <c r="Q5">
+        <v>21</v>
+      </c>
+      <c r="R5">
+        <f>ABS(Q5-24)</f>
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="T5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="95">
         <v>0</v>
       </c>
-      <c r="H5" s="95">
-        <v>2</v>
-      </c>
-      <c r="I5" s="101">
-        <v>1</v>
-      </c>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101">
+      <c r="D6" s="96">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="95">
+      <c r="E6" s="96">
         <v>0</v>
-      </c>
-      <c r="E6" s="96">
-        <v>0.6</v>
       </c>
       <c r="F6" s="96">
         <v>0</v>
       </c>
-      <c r="G6" s="96">
+      <c r="G6" s="95">
+        <v>2</v>
+      </c>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97">
+        <v>0.3</v>
+      </c>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>22</v>
+      </c>
+      <c r="R6">
+        <f>ABS(Q6-24)</f>
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="95">
+        <v>-5</v>
+      </c>
+      <c r="D7" s="96">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="96">
         <v>0</v>
-      </c>
-      <c r="H6" s="95">
-        <v>2</v>
-      </c>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101">
-        <v>0.3</v>
-      </c>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="95">
-        <v>-5</v>
-      </c>
-      <c r="E7" s="96">
-        <v>0.4</v>
       </c>
       <c r="F7" s="96">
         <v>0</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="95">
+        <v>2</v>
+      </c>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97">
+        <v>0.7</v>
+      </c>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>23</v>
+      </c>
+      <c r="R7">
+        <f>ABS(Q7-24)</f>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:20">
+      <c r="A8" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="95">
+        <v>-5</v>
+      </c>
+      <c r="D8" s="96">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="96">
         <v>0</v>
       </c>
-      <c r="H7" s="95">
+      <c r="G8" s="95">
         <v>2</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101">
-        <v>0.7</v>
-      </c>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101">
+      <c r="H8" s="97"/>
+      <c r="I8" s="97">
+        <v>1</v>
+      </c>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="95">
+        <v>5</v>
+      </c>
+      <c r="D9" s="96">
+        <v>1</v>
+      </c>
+      <c r="E9" s="96">
+        <v>0</v>
+      </c>
+      <c r="F9" s="96">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="95">
+        <v>2</v>
+      </c>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="95">
+        <v>0</v>
+      </c>
+      <c r="D10" s="96">
+        <v>1</v>
+      </c>
+      <c r="E10" s="96">
+        <v>0</v>
+      </c>
+      <c r="F10" s="96">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="95">
+        <v>2</v>
+      </c>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97">
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="97">
+        <v>0.65</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="95">
+        <v>0</v>
+      </c>
+      <c r="D11" s="96">
+        <v>1</v>
+      </c>
+      <c r="E11" s="96">
+        <v>0</v>
+      </c>
+      <c r="F11" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="95">
+        <v>2</v>
+      </c>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97">
+        <v>0.4</v>
+      </c>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="97">
+        <v>0.4</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="T11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="95">
+        <v>-10</v>
+      </c>
+      <c r="D12" s="96">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:13">
-      <c r="A8" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="95">
-        <v>-5</v>
-      </c>
-      <c r="E8" s="96">
+      <c r="E12" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="96">
+        <v>0</v>
+      </c>
+      <c r="G12" s="95">
+        <v>1</v>
+      </c>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97">
+        <v>1</v>
+      </c>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97">
+        <v>0.6</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:19">
+      <c r="A13" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="95">
+        <v>5</v>
+      </c>
+      <c r="D13" s="96">
         <v>0.2</v>
       </c>
-      <c r="F8" s="96">
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="96">
+      <c r="E13" s="96">
         <v>0</v>
       </c>
-      <c r="H8" s="95">
-        <v>2</v>
-      </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101">
-        <v>1</v>
-      </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="95">
+      <c r="F13" s="96">
+        <v>-0.1</v>
+      </c>
+      <c r="G13" s="95">
+        <v>6</v>
+      </c>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97">
+        <v>1</v>
+      </c>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97">
+        <v>1</v>
+      </c>
+      <c r="M13" s="97">
+        <v>0.2</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="Q13">
         <v>5</v>
       </c>
-      <c r="E9" s="96">
-        <v>1</v>
-      </c>
-      <c r="F9" s="96">
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="95">
         <v>0</v>
       </c>
-      <c r="G9" s="96">
-        <v>0.3</v>
-      </c>
-      <c r="H9" s="95">
-        <v>2</v>
-      </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="93" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="95">
+      <c r="D14" s="96">
+        <v>1</v>
+      </c>
+      <c r="E14" s="96">
         <v>0</v>
-      </c>
-      <c r="E10" s="96">
-        <v>1</v>
-      </c>
-      <c r="F10" s="96">
-        <v>0</v>
-      </c>
-      <c r="G10" s="96">
-        <v>0.2</v>
-      </c>
-      <c r="H10" s="95">
-        <v>2</v>
-      </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101">
-        <v>0.2</v>
-      </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="95">
-        <v>0</v>
-      </c>
-      <c r="E11" s="96">
-        <v>1</v>
-      </c>
-      <c r="F11" s="96">
-        <v>0</v>
-      </c>
-      <c r="G11" s="96">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="95">
-        <v>2</v>
-      </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101">
-        <v>0.4</v>
-      </c>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="93" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="95">
-        <v>-10</v>
-      </c>
-      <c r="E12" s="96">
-        <v>0.8</v>
-      </c>
-      <c r="F12" s="96">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="96">
-        <v>0</v>
-      </c>
-      <c r="H12" s="95">
-        <v>1</v>
-      </c>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101">
-        <v>1</v>
-      </c>
-      <c r="M12" s="101">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="94" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="95">
-        <v>5</v>
-      </c>
-      <c r="E13" s="96">
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="96">
-        <v>0</v>
-      </c>
-      <c r="G13" s="96">
-        <v>-0.1</v>
-      </c>
-      <c r="H13" s="95">
-        <v>6</v>
-      </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101">
-        <v>1</v>
-      </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101">
-        <v>0.4</v>
-      </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="94" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="95">
-        <v>0</v>
-      </c>
-      <c r="E14" s="96">
-        <v>1</v>
       </c>
       <c r="F14" s="96">
         <v>0</v>
       </c>
-      <c r="G14" s="96">
+      <c r="G14" s="95">
+        <v>1</v>
+      </c>
+      <c r="H14" s="97">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97">
+        <v>0.4</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="95">
-        <v>1</v>
-      </c>
-      <c r="I14" s="101">
-        <v>0.5</v>
-      </c>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101">
-        <v>0.2</v>
-      </c>
-      <c r="M14" s="101">
-        <v>0.4</v>
-      </c>
-      <c r="N14" s="2"/>
+      <c r="T14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="93" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B15" s="94" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="95">
+        <v>153</v>
+      </c>
+      <c r="C15" s="95">
         <v>10</v>
       </c>
+      <c r="D15" s="96">
+        <v>1</v>
+      </c>
       <c r="E15" s="96">
-        <v>1</v>
+        <v>-0.2</v>
       </c>
       <c r="F15" s="96">
+        <v>0</v>
+      </c>
+      <c r="G15" s="95">
+        <v>3</v>
+      </c>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="93" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="95">
+        <v>20</v>
+      </c>
+      <c r="D16" s="96">
+        <v>1</v>
+      </c>
+      <c r="E16" s="96">
+        <v>-0.3</v>
+      </c>
+      <c r="F16" s="96">
         <v>-0.2</v>
       </c>
-      <c r="G15" s="96">
+      <c r="G16" s="95">
+        <v>3</v>
+      </c>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97">
+        <v>0.4</v>
+      </c>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="Q16" t="s">
+        <v>123</v>
+      </c>
+      <c r="R16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="95">
+        <v>-20</v>
+      </c>
+      <c r="D17" s="96">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="96">
         <v>0</v>
       </c>
-      <c r="H15" s="95">
+      <c r="F17" s="96">
+        <v>-0.2</v>
+      </c>
+      <c r="G17" s="95">
         <v>3</v>
       </c>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101">
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97">
+        <v>1</v>
+      </c>
+      <c r="L17" s="97">
+        <v>0.8</v>
+      </c>
+      <c r="M17" s="97">
+        <v>0.6</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="95">
+        <v>-5</v>
+      </c>
+      <c r="D18" s="96">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="96">
+        <v>-0.2</v>
+      </c>
+      <c r="F18" s="96">
+        <v>-0.3</v>
+      </c>
+      <c r="G18" s="95">
+        <v>2</v>
+      </c>
+      <c r="H18" s="97">
         <v>0.5</v>
       </c>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="94" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="95">
-        <v>20</v>
-      </c>
-      <c r="E16" s="96">
-        <v>1</v>
-      </c>
-      <c r="F16" s="96">
-        <v>-0.3</v>
-      </c>
-      <c r="G16" s="96">
-        <v>-0.2</v>
-      </c>
-      <c r="H16" s="95">
-        <v>3</v>
-      </c>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101">
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97">
+        <v>0.2</v>
+      </c>
+      <c r="L18" s="97">
+        <v>1</v>
+      </c>
+      <c r="M18" s="97">
         <v>0.4</v>
       </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="94" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="95">
-        <v>-20</v>
-      </c>
-      <c r="E17" s="96">
-        <v>0.8</v>
-      </c>
-      <c r="F17" s="96">
+      <c r="N18" s="2"/>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="17:17">
+      <c r="Q19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="98"/>
+      <c r="B20" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="98"/>
+      <c r="Q20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="100">
         <v>0</v>
       </c>
-      <c r="G17" s="96">
-        <v>-0.2</v>
-      </c>
-      <c r="H17" s="95">
-        <v>3</v>
-      </c>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101">
-        <v>1</v>
-      </c>
-      <c r="M17" s="101">
-        <v>0.6</v>
-      </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="94" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="95">
-        <v>-5</v>
-      </c>
-      <c r="E18" s="96">
-        <v>0.6</v>
-      </c>
-      <c r="F18" s="96">
-        <v>-0.2</v>
-      </c>
-      <c r="G18" s="96">
-        <v>-0.3</v>
-      </c>
-      <c r="H18" s="95">
-        <v>2</v>
-      </c>
-      <c r="I18" s="101">
-        <v>0.5</v>
-      </c>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101">
+      <c r="C21" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="E21" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="H21" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="J21" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="K21" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="L21" s="101"/>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="100">
+        <v>0.15</v>
+      </c>
+      <c r="C22" s="101">
+        <v>0</v>
+      </c>
+      <c r="D22" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="101">
+        <v>0</v>
+      </c>
+      <c r="F22" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="H22" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="I22" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="J22" s="101">
         <v>0.2</v>
       </c>
-      <c r="M18" s="101">
-        <v>0.4</v>
-      </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="97"/>
-      <c r="B20" s="97" t="s">
+      <c r="K22" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="101"/>
+      <c r="Q22">
+        <v>11</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="100">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="D23" s="101">
+        <v>0</v>
+      </c>
+      <c r="E23" s="101">
+        <v>0</v>
+      </c>
+      <c r="F23" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="J23" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="K23" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="L23" s="101"/>
+      <c r="Q23">
+        <v>12</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="100">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="101">
+        <v>0</v>
+      </c>
+      <c r="D24" s="101">
+        <v>0</v>
+      </c>
+      <c r="E24" s="101">
+        <v>0</v>
+      </c>
+      <c r="F24" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="101">
+        <v>0</v>
+      </c>
+      <c r="H24" s="101">
+        <v>0.35</v>
+      </c>
+      <c r="I24" s="101">
+        <v>0.3</v>
+      </c>
+      <c r="J24" s="101">
+        <v>0.2</v>
+      </c>
+      <c r="K24" s="101">
+        <v>0</v>
+      </c>
+      <c r="L24" s="101"/>
+      <c r="Q24">
+        <v>13</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="100">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="E25" s="101">
+        <v>0</v>
+      </c>
+      <c r="F25" s="101">
+        <v>0</v>
+      </c>
+      <c r="G25" s="101">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="I25" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="J25" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="K25" s="101">
+        <v>0</v>
+      </c>
+      <c r="L25" s="101"/>
+      <c r="Q25">
+        <v>14</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="100">
+        <v>0.25</v>
+      </c>
+      <c r="C26" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="D26" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="101">
+        <v>0</v>
+      </c>
+      <c r="F26" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="G26" s="101">
+        <v>0</v>
+      </c>
+      <c r="H26" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="K26" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="L26" s="101"/>
+      <c r="Q26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="100">
+        <v>0.15</v>
+      </c>
+      <c r="C27" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="E27" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="F27" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="H27" s="101">
+        <v>0</v>
+      </c>
+      <c r="I27" s="101">
+        <v>0.2</v>
+      </c>
+      <c r="J27" s="101">
+        <v>0.2</v>
+      </c>
+      <c r="K27" s="101">
+        <v>0</v>
+      </c>
+      <c r="L27" s="101"/>
+      <c r="Q27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="100">
+        <v>0.2</v>
+      </c>
+      <c r="C28" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="D28" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="H28" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="I28" s="101">
+        <v>0</v>
+      </c>
+      <c r="J28" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="K28" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="L28" s="101"/>
+      <c r="Q28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="99" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="100">
+        <v>0.25</v>
+      </c>
+      <c r="C29" s="101">
+        <v>0.2</v>
+      </c>
+      <c r="D29" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="F29" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="H29" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="101">
+        <v>0</v>
+      </c>
+      <c r="K29" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="L29" s="101"/>
+      <c r="Q29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="I20" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="K20" s="97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="99">
+      <c r="B30" s="100">
+        <v>0.15</v>
+      </c>
+      <c r="C30" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="D30" s="101">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="101">
         <v>0</v>
       </c>
-      <c r="C21" s="100">
-        <v>0.25</v>
-      </c>
-      <c r="D21" s="100">
+      <c r="F30" s="101">
+        <v>0</v>
+      </c>
+      <c r="G30" s="101">
+        <v>0</v>
+      </c>
+      <c r="H30" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="I30" s="101">
         <v>0.15</v>
       </c>
-      <c r="E21" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="F21" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="100">
-        <v>0.05</v>
-      </c>
-      <c r="H21" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="I21" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="J21" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="K21" s="100">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="99">
-        <v>0.15</v>
-      </c>
-      <c r="C22" s="100">
+      <c r="J30" s="101">
+        <v>0.2</v>
+      </c>
+      <c r="K30" s="101">
         <v>0</v>
       </c>
-      <c r="D22" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="100">
-        <v>0</v>
-      </c>
-      <c r="F22" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="100">
-        <v>0.05</v>
-      </c>
-      <c r="H22" s="100">
-        <v>0.15</v>
-      </c>
-      <c r="I22" s="100">
-        <v>0.15</v>
-      </c>
-      <c r="J22" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="K22" s="100">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="98" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="99">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="100">
-        <v>0.15</v>
-      </c>
-      <c r="D23" s="100">
-        <v>0</v>
-      </c>
-      <c r="E23" s="100">
-        <v>0</v>
-      </c>
-      <c r="F23" s="100">
-        <v>0.05</v>
-      </c>
-      <c r="G23" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="H23" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="I23" s="100">
-        <v>0.15</v>
-      </c>
-      <c r="J23" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="K23" s="100">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="99">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="100">
-        <v>0</v>
-      </c>
-      <c r="D24" s="100">
-        <v>0</v>
-      </c>
-      <c r="E24" s="100">
-        <v>0</v>
-      </c>
-      <c r="F24" s="100">
-        <v>0.05</v>
-      </c>
-      <c r="G24" s="100">
-        <v>0</v>
-      </c>
-      <c r="H24" s="100">
-        <v>0.35</v>
-      </c>
-      <c r="I24" s="100">
-        <v>0.3</v>
-      </c>
-      <c r="J24" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="K24" s="100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="98" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="99">
-        <v>0.2</v>
-      </c>
-      <c r="C25" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="D25" s="100">
-        <v>0.05</v>
-      </c>
-      <c r="E25" s="100">
-        <v>0</v>
-      </c>
-      <c r="F25" s="100">
-        <v>0</v>
-      </c>
-      <c r="G25" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="H25" s="100">
-        <v>0.15</v>
-      </c>
-      <c r="I25" s="100">
-        <v>0.15</v>
-      </c>
-      <c r="J25" s="100">
-        <v>0.15</v>
-      </c>
-      <c r="K25" s="100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="99">
-        <v>0.25</v>
-      </c>
-      <c r="C26" s="100">
-        <v>0.15</v>
-      </c>
-      <c r="D26" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="E26" s="100">
-        <v>0</v>
-      </c>
-      <c r="F26" s="100">
-        <v>0.15</v>
-      </c>
-      <c r="G26" s="100">
-        <v>0</v>
-      </c>
-      <c r="H26" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="I26" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="J26" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="K26" s="100">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="99">
-        <v>0.15</v>
-      </c>
-      <c r="C27" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="D27" s="100">
-        <v>0.05</v>
-      </c>
-      <c r="E27" s="100">
-        <v>0.15</v>
-      </c>
-      <c r="F27" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="G27" s="100">
-        <v>0.05</v>
-      </c>
-      <c r="H27" s="100">
-        <v>0</v>
-      </c>
-      <c r="I27" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="J27" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="K27" s="100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="99">
-        <v>0.2</v>
-      </c>
-      <c r="C28" s="100">
-        <v>0.15</v>
-      </c>
-      <c r="D28" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="E28" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="F28" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="100">
-        <v>0.05</v>
-      </c>
-      <c r="H28" s="100">
-        <v>0.15</v>
-      </c>
-      <c r="I28" s="100">
-        <v>0</v>
-      </c>
-      <c r="J28" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="K28" s="100">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="99">
-        <v>0.25</v>
-      </c>
-      <c r="C29" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="D29" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="E29" s="100">
-        <v>0.05</v>
-      </c>
-      <c r="F29" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="G29" s="100">
-        <v>0.05</v>
-      </c>
-      <c r="H29" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="I29" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="J29" s="100">
-        <v>0</v>
-      </c>
-      <c r="K29" s="100">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="98" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="99">
-        <v>0.15</v>
-      </c>
-      <c r="C30" s="100">
-        <v>0.25</v>
-      </c>
-      <c r="D30" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="E30" s="100">
-        <v>0</v>
-      </c>
-      <c r="F30" s="100">
-        <v>0</v>
-      </c>
-      <c r="G30" s="100">
-        <v>0</v>
-      </c>
-      <c r="H30" s="100">
-        <v>0.05</v>
-      </c>
-      <c r="I30" s="100">
-        <v>0.15</v>
-      </c>
-      <c r="J30" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="K30" s="100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="L30" s="101"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -23669,59 +23883,59 @@
       <c r="K31">
         <v>12</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <f>SUM(B31:K31)</f>
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B32">
-        <f>100/$L31*B31</f>
+        <f>100/$M31*B31</f>
         <v>14.5</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:K32" si="0">100/$L31*C31</f>
+        <f t="shared" ref="C32:K32" si="1">100/$M31*C31</f>
         <v>13.5</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B34">
         <v>268</v>
@@ -23753,59 +23967,59 @@
       <c r="K34">
         <v>110</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <f>SUM(B34:K34)</f>
         <v>2000</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35:K35" si="1">100/$L34*B34</f>
+        <f t="shared" ref="B35:K35" si="2">100/$M34*B34</f>
         <v>13.4</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.05</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.55</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.45</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.7</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.75</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -23844,28 +24058,28 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G1" s="84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I1" s="84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K1" s="84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M1" s="84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P1" s="51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
@@ -23874,836 +24088,836 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B2" s="85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="86" t="s">
-        <v>170</v>
-      </c>
       <c r="D2" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="86" t="s">
-        <v>170</v>
-      </c>
       <c r="F2" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="86" t="s">
-        <v>170</v>
-      </c>
       <c r="H2" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="86" t="s">
-        <v>170</v>
-      </c>
       <c r="J2" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="86" t="s">
-        <v>170</v>
-      </c>
       <c r="L2" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="M2" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="M2" s="86" t="s">
-        <v>170</v>
-      </c>
       <c r="N2" s="85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P2" s="88" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q2" s="88" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R2" s="88" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S2" s="88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="83" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F3" s="83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G3" s="84" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H3" s="83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I3" s="84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J3" s="83" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K3" s="84" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L3" s="83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M3" s="84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N3" s="83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P3" s="83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q3" s="90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S3" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T3" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F4" s="83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H4" s="83" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J4" s="83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K4" s="84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M4" s="84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N4" s="83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P4" s="83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S4" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T4" s="27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E5" s="84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F5" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="84" t="s">
-        <v>221</v>
-      </c>
-      <c r="H5" s="83" t="s">
-        <v>222</v>
-      </c>
-      <c r="I5" s="84" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>219</v>
-      </c>
       <c r="K5" s="84" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L5" s="83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M5" s="84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N5" s="83" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P5" s="83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="90" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R5" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="S5" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T5" s="27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U5" s="27"/>
       <c r="V5" s="27"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="83" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C6" s="84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G6" s="84" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I6" s="84" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J6" s="83" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K6" s="84" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L6" s="83" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M6" s="84" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N6" s="83" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P6" s="83" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q6" s="90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S6" s="27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T6" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="U6" s="27"/>
       <c r="V6" s="27"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C7" s="84" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F7" s="83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G7" s="84" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H7" s="83" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I7" s="84" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K7" s="84" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L7" s="83" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M7" s="84" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N7" s="83" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P7" s="83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="83" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E8" s="84" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F8" s="83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L8" s="83" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M8" s="84" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N8" s="83" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R8" s="83" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S8" s="83" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="T8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="U8" s="27"/>
       <c r="V8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="83" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E9" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F9" s="83" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G9" s="84" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H9" s="83" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I9" s="84" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K9" s="84" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L9" s="83" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M9" s="84" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N9" s="83" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P9" s="83" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="R9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S9" s="83" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="U9" s="27"/>
       <c r="V9" s="27"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="83" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E10" s="84" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I10" s="84" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K10" s="84" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L10" s="83" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M10" s="84" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N10" s="83" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P10" s="83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="83" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E11" s="84" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F11" s="83" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I11" s="84" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J11" s="83" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K11" s="84" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L11" s="83" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M11" s="89" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N11" s="83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P11" s="83" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="83" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="83" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F12" s="83" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I12" s="84" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J12" s="83" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K12" s="84" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M12" s="84" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N12" s="83" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q12" s="83"/>
       <c r="R12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="83" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E13" s="84" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F13" s="83" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J13" s="83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K13" s="84" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M13" s="84" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N13" s="83" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q13" s="83"/>
       <c r="R13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="83" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E14" s="84" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F14" s="83" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J14" s="83" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K14" s="84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M14" s="84" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N14" s="83" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R14" s="83"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="83" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D15" s="83" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F15" s="83" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N15" s="83" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="83" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N16" s="83" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O16"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="83" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N17" s="83" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O17"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="83" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L18"/>
       <c r="N18" s="83" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O18"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="83" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L19"/>
       <c r="N19" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O19"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="83" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L20"/>
       <c r="N20" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O20"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="83" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L21"/>
       <c r="O21"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="83" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L22"/>
       <c r="O22"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="83" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L23"/>
       <c r="O23"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="83" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L24"/>
       <c r="O24"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="83" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L25"/>
       <c r="N25"/>
@@ -24711,10 +24925,10 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="83" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L26"/>
       <c r="N26"/>
@@ -24722,10 +24936,10 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="83" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B27" s="83" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L27"/>
       <c r="N27"/>
@@ -24733,10 +24947,10 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="83" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B28" s="83" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L28"/>
       <c r="N28"/>
@@ -24744,10 +24958,10 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="83" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L29"/>
       <c r="N29"/>
@@ -24755,10 +24969,10 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="83" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L30"/>
       <c r="N30"/>
@@ -24766,10 +24980,10 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K31" s="89"/>
       <c r="L31" s="2"/>
@@ -24784,10 +24998,10 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B32" s="83" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K32" s="89"/>
       <c r="L32" s="2"/>
@@ -24802,10 +25016,10 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B33" s="83" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K33" s="89"/>
       <c r="L33" s="2"/>
@@ -24820,30 +25034,30 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="83" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="83" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="83" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="83" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -24876,34 +25090,34 @@
         <v>115</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C1" s="72" t="s">
         <v>117</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E1" s="72" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G1" s="72" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I1" s="72" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J1" s="82" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K1" s="82" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -24921,7 +25135,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B3" s="74">
         <v>0</v>
@@ -24957,7 +25171,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="73" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B4" s="74">
         <v>1</v>
@@ -24993,7 +25207,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B5" s="74">
         <v>2</v>
@@ -25029,7 +25243,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B6" s="74">
         <v>3</v>
@@ -25065,7 +25279,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="73" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B7" s="74">
         <v>4</v>
@@ -25109,301 +25323,301 @@
     </row>
     <row r="19" spans="12:21">
       <c r="L19" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>115</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>115</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="12:22">
       <c r="L20" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="12:22">
       <c r="L21" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="12:22">
       <c r="L22" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="77" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B23" s="77"/>
       <c r="C23" s="78" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D23" s="78"/>
       <c r="E23" s="78" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F23" s="78"/>
       <c r="G23" s="78" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H23" s="78"/>
       <c r="L23" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="77"/>
       <c r="B24" s="77"/>
       <c r="C24" s="77" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D24" s="77" t="s">
+        <v>458</v>
+      </c>
+      <c r="E24" s="77" t="s">
         <v>457</v>
       </c>
-      <c r="E24" s="77" t="s">
-        <v>456</v>
-      </c>
       <c r="F24" s="77" t="s">
+        <v>458</v>
+      </c>
+      <c r="G24" s="77" t="s">
         <v>457</v>
       </c>
-      <c r="G24" s="77" t="s">
-        <v>456</v>
-      </c>
       <c r="H24" s="77" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="79" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B25" s="79"/>
       <c r="C25" s="80" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D25" s="81"/>
       <c r="E25" s="80" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F25" s="81" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G25" s="80" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H25" s="81" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="79" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B26" s="79"/>
       <c r="C26" s="80" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D26" s="81"/>
       <c r="E26" s="80" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F26" s="81" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G26" s="80" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H26" s="81" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="79" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B27" s="79"/>
       <c r="C27" s="80" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D27" s="81"/>
       <c r="E27" s="80" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F27" s="81" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G27" s="80" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H27" s="81" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="79" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B28" s="79"/>
       <c r="C28" s="80" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D28" s="81"/>
       <c r="E28" s="80" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F28" s="81"/>
       <c r="G28" s="80" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H28" s="81" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -25415,30 +25629,30 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="79" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B29" s="79"/>
       <c r="C29" s="80" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D29" s="81"/>
       <c r="E29" s="80" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F29" s="81"/>
       <c r="G29" s="80" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H29" s="81" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -25450,28 +25664,28 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B30" s="79"/>
       <c r="C30" s="80" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D30" s="81"/>
       <c r="E30" s="80"/>
       <c r="F30" s="81"/>
       <c r="G30" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H30" s="81" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -25483,25 +25697,25 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="79" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B31" s="79"/>
       <c r="C31" s="80" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D31" s="81"/>
       <c r="E31" s="80"/>
       <c r="F31" s="81"/>
       <c r="G31" s="80" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H31" s="81"/>
       <c r="L31" s="2"/>
@@ -25514,47 +25728,47 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="79" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B32" s="79"/>
       <c r="C32" s="80" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D32" s="81"/>
       <c r="E32" s="80"/>
       <c r="F32" s="81"/>
       <c r="G32" s="80" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H32" s="81"/>
       <c r="L32" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="79" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B33" s="79"/>
       <c r="C33" s="80" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D33" s="81"/>
       <c r="E33" s="80"/>
       <c r="F33" s="81"/>
       <c r="G33" s="80" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H33" s="81"/>
       <c r="L33" s="2"/>
@@ -25567,12 +25781,12 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="79" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B34" s="79"/>
       <c r="C34" s="80"/>
@@ -25580,22 +25794,22 @@
       <c r="E34" s="80"/>
       <c r="F34" s="81"/>
       <c r="G34" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H34" s="81"/>
       <c r="L34" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="79" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B35" s="79"/>
       <c r="C35" s="80"/>
@@ -25603,7 +25817,7 @@
       <c r="E35" s="80"/>
       <c r="F35" s="81"/>
       <c r="G35" s="80" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H35" s="81"/>
       <c r="L35" s="2"/>
@@ -25616,12 +25830,12 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="79" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B36" s="79"/>
       <c r="C36" s="80"/>
@@ -25629,7 +25843,7 @@
       <c r="E36" s="80"/>
       <c r="F36" s="81"/>
       <c r="G36" s="80" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H36" s="81"/>
       <c r="L36" s="2"/>
@@ -25651,7 +25865,7 @@
       <c r="E37" s="80"/>
       <c r="F37" s="81"/>
       <c r="G37" s="80" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H37" s="81"/>
       <c r="L37" s="2"/>
@@ -25673,7 +25887,7 @@
       <c r="E38" s="80"/>
       <c r="F38" s="81"/>
       <c r="G38" s="80" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H38" s="81"/>
     </row>
@@ -25685,7 +25899,7 @@
       <c r="E39" s="80"/>
       <c r="F39" s="81"/>
       <c r="G39" s="80" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H39" s="81"/>
     </row>
@@ -25755,28 +25969,28 @@
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="D1" s="51" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
       <c r="H1" s="51" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I1" s="68" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L1" s="68" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N1" s="51"/>
     </row>
@@ -25785,16 +25999,16 @@
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="68"/>
@@ -25806,13 +26020,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -25847,18 +26061,18 @@
         <v>3</v>
       </c>
       <c r="M3" s="70" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D4" s="8">
         <v>4</v>
@@ -25896,13 +26110,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
@@ -25937,18 +26151,18 @@
         <v>3.3</v>
       </c>
       <c r="M5" s="70" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -25986,13 +26200,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D7" s="8">
         <v>4</v>
@@ -26030,13 +26244,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D8" s="8">
         <v>3</v>
@@ -26071,18 +26285,18 @@
         <v>3.6</v>
       </c>
       <c r="M8" s="70" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D9" s="8">
         <v>6</v>
@@ -26120,10 +26334,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D10" s="8">
         <v>3</v>
@@ -26161,7 +26375,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="16" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -26198,7 +26412,7 @@
         <v>3.9</v>
       </c>
       <c r="M11" s="70" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:10">
@@ -26217,7 +26431,7 @@
     <row r="14" s="16" customFormat="1"/>
     <row r="16" spans="1:1">
       <c r="A16" s="16" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -26227,25 +26441,25 @@
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I17" s="68" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J17" s="68" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K17" s="68" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L17" s="68" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -26253,16 +26467,16 @@
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="68"/>
@@ -26272,13 +26486,13 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B19" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C19" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D19" s="51">
         <f>D3+10</f>
@@ -26319,13 +26533,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B20" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C20" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D20" s="51">
         <f t="shared" ref="D20:D27" si="13">D4+10</f>
@@ -26366,13 +26580,13 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B21" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D21" s="51">
         <f t="shared" si="13"/>
@@ -26413,13 +26627,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B22" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C22" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D22" s="51">
         <f t="shared" si="13"/>
@@ -26460,13 +26674,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B23" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C23" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D23" s="51">
         <f t="shared" si="13"/>
@@ -26507,13 +26721,13 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C24" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D24" s="51">
         <f t="shared" si="13"/>
@@ -26554,13 +26768,13 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C25" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D25" s="51">
         <f t="shared" si="13"/>
@@ -26601,10 +26815,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B26" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D26" s="51">
         <f t="shared" si="13"/>
@@ -26645,7 +26859,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="16" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -26688,52 +26902,52 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -26789,34 +27003,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="53" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="54" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="53" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="53"/>
       <c r="D3" s="55" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -26827,26 +27041,26 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="58" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="58"/>
       <c r="D5" s="59" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="58" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="58"/>
       <c r="D6" s="59" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I6" s="51"/>
     </row>
@@ -26858,26 +27072,26 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="53" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B8" s="53" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="54" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="53" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="54" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -26888,26 +27102,26 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="58" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B11" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="59" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="58" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="59" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -26918,26 +27132,26 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B14" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="53" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B15" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="54" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -26948,26 +27162,26 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="60" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="61" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="60" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="61" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -26978,26 +27192,26 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="60" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C20" s="60"/>
       <c r="D20" s="61" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="60" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="61" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -27008,26 +27222,26 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="64" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C23" s="64"/>
       <c r="D23" s="65" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="64" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="65" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -27038,26 +27252,26 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="60" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C26" s="60"/>
       <c r="D26" s="61" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="60" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C27" s="60"/>
       <c r="D27" s="61" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -27068,26 +27282,26 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="64" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="65" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="64" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C30" s="64"/>
       <c r="D30" s="65" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -27098,26 +27312,26 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="60" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C32" s="60"/>
       <c r="D32" s="61" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="60" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C33" s="60"/>
       <c r="D33" s="61" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -27128,26 +27342,26 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="64" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="65" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="64" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C36" s="64"/>
       <c r="D36" s="65" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -27158,26 +27372,26 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="60" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C38" s="60"/>
       <c r="D38" s="61" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="60" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C39" s="60"/>
       <c r="D39" s="61" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -27188,26 +27402,26 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="64" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B41" s="64" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C41" s="64"/>
       <c r="D41" s="65" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="64" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C42" s="64"/>
       <c r="D42" s="65" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -27243,75 +27457,75 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="42" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D1" s="43"/>
       <c r="E1" s="44" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="45"/>
       <c r="B2" s="46" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>115</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E2" s="46" t="s">
         <v>115</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="47" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="49" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -27320,302 +27534,302 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="47" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="49" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="47" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="49" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="47" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="49" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="47" t="s">
+        <v>692</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>693</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>694</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>695</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>696</v>
+      </c>
+      <c r="F11" s="47" t="s">
         <v>691</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>692</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>693</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>694</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>695</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="49" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="47" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="49" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="47" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="49" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="47" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="49" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="47" t="s">
+        <v>738</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>739</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>740</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>741</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>742</v>
+      </c>
+      <c r="F19" s="48" t="s">
         <v>737</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>738</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>739</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>740</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>741</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="50" spans="4:4">

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13185" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13185" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon Data v1" sheetId="2" state="hidden" r:id="rId1"/>
@@ -2935,11 +2935,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
@@ -3002,8 +3002,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3018,114 +3123,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3139,10 +3139,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3268,13 +3268,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3292,7 +3376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3304,31 +3388,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3346,37 +3424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3388,67 +3442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3855,16 +3855,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3873,17 +3873,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3905,25 +3894,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3937,17 +3943,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3956,7 +3956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3974,130 +3974,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21614,8 +21614,8 @@
   <sheetPr/>
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -22070,7 +22070,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="119">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="119">
         <v>2.5</v>
@@ -22090,11 +22090,11 @@
       </c>
       <c r="K9" s="143">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L9" s="143">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M9" s="143">
         <f t="shared" si="3"/>
@@ -22102,7 +22102,7 @@
       </c>
       <c r="N9" s="144">
         <f t="shared" si="4"/>
-        <v>51.4285714285714</v>
+        <v>45</v>
       </c>
       <c r="P9">
         <f t="shared" si="5"/>
@@ -22179,7 +22179,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="125">
         <v>2.5</v>
@@ -22199,11 +22199,11 @@
       </c>
       <c r="K11" s="145">
         <f t="shared" si="1"/>
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="L11" s="145">
         <f t="shared" si="2"/>
-        <v>3.16666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="M11" s="145">
         <f t="shared" si="3"/>
@@ -22211,7 +22211,7 @@
       </c>
       <c r="N11" s="146">
         <f t="shared" si="4"/>
-        <v>50.5263157894737</v>
+        <v>45.7142857142857</v>
       </c>
       <c r="P11">
         <f t="shared" si="5"/>
@@ -22236,7 +22236,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="119">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12" s="119">
         <v>1</v>
@@ -22256,11 +22256,11 @@
       </c>
       <c r="K12" s="143">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L12" s="143">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M12" s="143">
         <f t="shared" si="3"/>
@@ -22268,7 +22268,7 @@
       </c>
       <c r="N12" s="144">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>42.8571428571429</v>
       </c>
       <c r="P12">
         <f t="shared" si="5"/>
@@ -22290,7 +22290,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="119">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="119">
         <v>1.25</v>
@@ -22310,11 +22310,11 @@
       </c>
       <c r="K13" s="143">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L13" s="143">
         <f t="shared" si="2"/>
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M13" s="143">
         <f t="shared" si="3"/>
@@ -22322,7 +22322,7 @@
       </c>
       <c r="N13" s="144">
         <f t="shared" si="4"/>
-        <v>49.2307692307692</v>
+        <v>42.6666666666667</v>
       </c>
       <c r="P13">
         <f t="shared" si="5"/>
@@ -22344,7 +22344,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="125">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14" s="125">
         <v>1</v>
@@ -22364,11 +22364,11 @@
       </c>
       <c r="K14" s="145">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L14" s="145">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M14" s="145">
         <f t="shared" si="3"/>
@@ -22376,7 +22376,7 @@
       </c>
       <c r="N14" s="146">
         <f t="shared" si="4"/>
-        <v>51.4285714285714</v>
+        <v>45</v>
       </c>
       <c r="P14">
         <f t="shared" si="5"/>
@@ -22397,10 +22397,10 @@
         <v>58</v>
       </c>
       <c r="D15" s="118">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15" s="119">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F15" s="119">
         <v>5</v>
@@ -22416,28 +22416,28 @@
       </c>
       <c r="J15" s="143">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K15" s="143">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="L15" s="143">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="M15" s="143">
         <f t="shared" si="3"/>
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="N15" s="144">
         <f t="shared" si="4"/>
-        <v>49.4117647058824</v>
+        <v>36.8421052631579</v>
       </c>
       <c r="O15" s="82"/>
       <c r="P15">
         <f t="shared" si="5"/>
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="Q15"/>
       <c r="R15" t="s">
@@ -25062,7 +25062,7 @@
   <sheetPr/>
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13185" firstSheet="3" activeTab="14"/>
+    <workbookView windowWidth="28695" windowHeight="13185" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon Data v1" sheetId="2" state="hidden" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="Resources" sheetId="25" r:id="rId14"/>
     <sheet name="Sounds" sheetId="27" r:id="rId15"/>
     <sheet name="Sheet1" sheetId="28" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="29" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989">
   <si>
     <t>Type</t>
   </si>
@@ -967,7 +968,7 @@
     <t>Channel</t>
   </si>
   <si>
-    <t>Abhorrent</t>
+    <t>Betrayer</t>
   </si>
   <si>
     <t>Woe</t>
@@ -1015,7 +1016,7 @@
     <t>Drift</t>
   </si>
   <si>
-    <t>Betrayer</t>
+    <t>Maverick</t>
   </si>
   <si>
     <t>Grief</t>
@@ -1063,7 +1064,7 @@
     <t>Crater</t>
   </si>
   <si>
-    <t>Maverick</t>
+    <t>Failure</t>
   </si>
   <si>
     <t>Affliction</t>
@@ -1102,7 +1103,7 @@
     <t>Gorge</t>
   </si>
   <si>
-    <t>Failure</t>
+    <t>Deceiver</t>
   </si>
   <si>
     <t>Damnation</t>
@@ -1132,7 +1133,7 @@
     <t>Trench</t>
   </si>
   <si>
-    <t>Deceiver</t>
+    <t>Downfall</t>
   </si>
   <si>
     <t>Haunt</t>
@@ -1159,7 +1160,7 @@
     <t>Flow</t>
   </si>
   <si>
-    <t>Downfall</t>
+    <t>Hell</t>
   </si>
   <si>
     <t>Seeker</t>
@@ -1174,7 +1175,7 @@
     <t>Resolution</t>
   </si>
   <si>
-    <t>Hell</t>
+    <t>Vandal</t>
   </si>
   <si>
     <t>Carcass</t>
@@ -1186,7 +1187,7 @@
     <t>Dignity</t>
   </si>
   <si>
-    <t>Vandal</t>
+    <t>Juggernaut</t>
   </si>
   <si>
     <t>Remains</t>
@@ -1195,7 +1196,7 @@
     <t>Rescue</t>
   </si>
   <si>
-    <t>Juggernaut</t>
+    <t>Leviathan</t>
   </si>
   <si>
     <t>Loss</t>
@@ -1204,96 +1205,93 @@
     <t>Seraph</t>
   </si>
   <si>
-    <t>Leviathan</t>
-  </si>
-  <si>
     <t>Decay</t>
   </si>
   <si>
     <t>Angel</t>
   </si>
   <si>
+    <t>Behemoth</t>
+  </si>
+  <si>
     <t>Hulk</t>
   </si>
   <si>
     <t>Paragon</t>
   </si>
   <si>
-    <t>Behemoth</t>
+    <t>Glutton</t>
   </si>
   <si>
     <t>Shell</t>
   </si>
   <si>
-    <t>Glutton</t>
+    <t>Hellion</t>
   </si>
   <si>
     <t>Wreck</t>
   </si>
   <si>
-    <t>Hellion</t>
+    <t>Demon</t>
   </si>
   <si>
     <t>Waste</t>
   </si>
   <si>
-    <t>Demon</t>
-  </si>
-  <si>
     <t>Beast</t>
   </si>
   <si>
+    <t>Devil</t>
+  </si>
+  <si>
     <t>Collapse</t>
   </si>
   <si>
-    <t>Devil</t>
+    <t>Monstrosity</t>
   </si>
   <si>
     <t>Sorrow</t>
   </si>
   <si>
-    <t>Monstrosity</t>
-  </si>
-  <si>
     <t>Titan</t>
   </si>
   <si>
+    <t>Carrion</t>
+  </si>
+  <si>
     <t>Heartache</t>
   </si>
   <si>
-    <t>Carrion</t>
+    <t>Gargantua</t>
   </si>
   <si>
     <t>Pity</t>
   </si>
   <si>
-    <t>Gargantua</t>
+    <t>Fiend</t>
   </si>
   <si>
     <t>Heresy</t>
   </si>
   <si>
-    <t>Fiend</t>
+    <t>Demagogue</t>
   </si>
   <si>
     <t>Torment</t>
   </si>
   <si>
-    <t>Demagogue</t>
+    <t>Dissident</t>
   </si>
   <si>
     <t>Terminus</t>
   </si>
   <si>
-    <t>Dissident</t>
+    <t>Apostate</t>
   </si>
   <si>
     <t>Dusk</t>
   </si>
   <si>
-    <t>Apostate</t>
-  </si>
-  <si>
     <t>Pit</t>
   </si>
   <si>
@@ -2863,13 +2861,16 @@
     <t>LMG Reload</t>
   </si>
   <si>
+    <t>Explosion</t>
+  </si>
+  <si>
     <t>Gentle wind</t>
   </si>
   <si>
     <t>Shell Hit Floor</t>
   </si>
   <si>
-    <t>Explosion</t>
+    <t>Fire Crackling</t>
   </si>
   <si>
     <t>Heavy rain</t>
@@ -2878,90 +2879,84 @@
     <t>Rifle cock</t>
   </si>
   <si>
-    <t>Fire Crackling</t>
+    <t>Fire swoosh</t>
   </si>
   <si>
     <t>Muffled mist</t>
   </si>
   <si>
-    <t>Pistol cock</t>
-  </si>
-  <si>
-    <t>Fire swoosh</t>
+    <t>Shotgun cock</t>
+  </si>
+  <si>
+    <t>Melee thud</t>
   </si>
   <si>
     <t>Insects</t>
   </si>
   <si>
-    <t>Shotgun cock</t>
-  </si>
-  <si>
-    <t>Knockback Thud</t>
+    <t>Decay crack</t>
   </si>
   <si>
     <t>Animal braying</t>
   </si>
   <si>
-    <t>Decay crack</t>
+    <t>Sickness noise</t>
   </si>
   <si>
     <t>Wolves</t>
   </si>
   <si>
-    <t>Sickness noise</t>
+    <t>Bullet impact</t>
   </si>
   <si>
     <t>Sandstorm</t>
   </si>
   <si>
-    <t>Bullet impact</t>
-  </si>
-  <si>
     <t>Gun cock</t>
   </si>
   <si>
+    <t>Heal</t>
+  </si>
+  <si>
     <t>Dripping</t>
   </si>
   <si>
-    <t>Heal</t>
+    <t>Shrine timer</t>
   </si>
   <si>
     <t>Rocks falling</t>
   </si>
   <si>
-    <t>Shrine timer</t>
+    <t>Temple shock wave</t>
   </si>
   <si>
     <t>Button click</t>
   </si>
   <si>
-    <t>Temple shock wave</t>
+    <t>Armour break</t>
   </si>
   <si>
     <t>Heavy muted zoom in out</t>
   </si>
   <si>
-    <t>Armour break</t>
+    <t>Heart beat</t>
   </si>
   <si>
     <t>Heavy muted menu change</t>
   </si>
   <si>
-    <t>Heart beat</t>
+    <t>Dash</t>
   </si>
   <si>
     <t>Button change</t>
   </si>
   <si>
-    <t>Dash</t>
+    <t>Item find</t>
   </si>
   <si>
     <t>Brand unlock</t>
   </si>
   <si>
-    <t>Item find</t>
-  </si>
-  <si>
     <t>Human shouting</t>
   </si>
   <si>
@@ -2969,6 +2964,39 @@
   </si>
   <si>
     <t>Nightmares</t>
+  </si>
+  <si>
+    <t>Major Breaks</t>
+  </si>
+  <si>
+    <t>Shoot self</t>
+  </si>
+  <si>
+    <t>Shoot other</t>
+  </si>
+  <si>
+    <t>Smash building</t>
+  </si>
+  <si>
+    <t>Get lost</t>
+  </si>
+  <si>
+    <t>Break weapon</t>
+  </si>
+  <si>
+    <t>Minor Breaks</t>
+  </si>
+  <si>
+    <t>Eat food</t>
+  </si>
+  <si>
+    <t>Trash resources</t>
+  </si>
+  <si>
+    <t>Beat self</t>
+  </si>
+  <si>
+    <t>Beat other</t>
   </si>
 </sst>
 </file>
@@ -2976,11 +3004,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
@@ -3044,10 +3072,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3065,8 +3094,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3080,24 +3118,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3110,40 +3147,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3166,8 +3172,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3177,14 +3213,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3310,7 +3338,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3322,13 +3380,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3340,7 +3458,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3352,55 +3506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3412,85 +3518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3896,21 +3924,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3936,6 +3949,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3950,17 +3978,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3984,21 +4021,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4016,130 +4044,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4147,13 +4175,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -12977,13 +13005,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>754</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>755</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -12993,101 +13021,101 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>757</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>758</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="39" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="39" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="39" t="s">
+        <v>763</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>764</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>765</v>
-      </c>
       <c r="C7" s="41" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="39" t="s">
+        <v>765</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>766</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>767</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>769</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="C9" s="41" t="s">
         <v>770</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="39" t="s">
+        <v>771</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>772</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>773</v>
-      </c>
       <c r="C10" s="41" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="39" t="s">
+        <v>773</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>774</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>775</v>
-      </c>
       <c r="C11" s="41" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -13130,42 +13158,42 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>776</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>777</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>778</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2"/>
+      <c r="P1" t="s">
         <v>786</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="P1" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -13173,23 +13201,23 @@
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
-      <c r="E2" s="3"/>
-      <c r="J2" s="2" t="s">
+      <c r="E2" s="1"/>
+      <c r="J2" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="K2" t="s">
         <v>788</v>
       </c>
-      <c r="K2" t="s">
-        <v>789</v>
-      </c>
       <c r="L2" t="s">
+        <v>787</v>
+      </c>
+      <c r="M2" t="s">
         <v>788</v>
-      </c>
-      <c r="M2" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -13205,16 +13233,16 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>789</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>790</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>791</v>
       </c>
       <c r="J3" s="33">
         <f t="shared" ref="J3:J24" si="0">B3/25</f>
@@ -13232,13 +13260,13 @@
         <f t="shared" ref="M3:M24" si="3">C3/110</f>
         <v>5.45454545454545</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>792</v>
+      <c r="O3" s="1" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -13254,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -13263,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J4" s="33">
         <f t="shared" si="0"/>
@@ -13282,12 +13310,12 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -13303,7 +13331,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -13312,7 +13340,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J5" s="33">
         <f t="shared" si="0"/>
@@ -13330,13 +13358,13 @@
         <f t="shared" si="3"/>
         <v>5.90909090909091</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>797</v>
+      <c r="O5" s="1" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -13352,7 +13380,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -13361,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J6" s="33">
         <f t="shared" si="0"/>
@@ -13380,12 +13408,12 @@
         <v>5.45454545454545</v>
       </c>
       <c r="O6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -13401,7 +13429,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -13410,7 +13438,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" si="0"/>
@@ -13429,12 +13457,12 @@
         <v>6.36363636363636</v>
       </c>
       <c r="O7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B8">
         <v>300</v>
@@ -13450,7 +13478,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -13459,7 +13487,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J8" s="33">
         <f t="shared" si="0"/>
@@ -13478,12 +13506,12 @@
         <v>7.27272727272727</v>
       </c>
       <c r="O8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B9">
         <v>25</v>
@@ -13499,7 +13527,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -13508,7 +13536,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J9" s="33">
         <f t="shared" si="0"/>
@@ -13526,19 +13554,19 @@
         <f t="shared" si="3"/>
         <v>4.77272727272727</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q9" t="s">
         <v>807</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>808</v>
-      </c>
-      <c r="R9" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B10">
         <v>150</v>
@@ -13554,7 +13582,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -13563,7 +13591,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J10" s="33">
         <f t="shared" si="0"/>
@@ -13581,8 +13609,8 @@
         <f t="shared" si="3"/>
         <v>5.90909090909091</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>811</v>
+      <c r="O10" s="1" t="s">
+        <v>810</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -13602,7 +13630,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="32" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B11" s="32">
         <v>25</v>
@@ -13618,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -13627,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J11" s="34">
         <f t="shared" si="0"/>
@@ -13646,7 +13674,7 @@
         <v>4.77272727272727</v>
       </c>
       <c r="O11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -13666,7 +13694,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="32" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B12" s="32">
         <v>150</v>
@@ -13682,7 +13710,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -13691,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J12" s="34">
         <f t="shared" si="0"/>
@@ -13710,7 +13738,7 @@
         <v>5.90909090909091</v>
       </c>
       <c r="O12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Q12">
         <v>0.2</v>
@@ -13730,7 +13758,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="32" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B13" s="32">
         <v>150</v>
@@ -13746,7 +13774,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -13755,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J13" s="34">
         <f t="shared" si="0"/>
@@ -13774,7 +13802,7 @@
         <v>5.90909090909091</v>
       </c>
       <c r="O13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q13">
         <v>0.3</v>
@@ -13794,7 +13822,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="32" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B14" s="32">
         <v>100</v>
@@ -13810,7 +13838,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -13819,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J14" s="34">
         <f t="shared" si="0"/>
@@ -13838,7 +13866,7 @@
         <v>5.45454545454545</v>
       </c>
       <c r="O14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Q14">
         <v>0.4</v>
@@ -13858,7 +13886,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="32" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B15" s="32">
         <v>60</v>
@@ -13874,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -13883,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J15" s="34">
         <f t="shared" si="0"/>
@@ -13902,7 +13930,7 @@
         <v>5.09090909090909</v>
       </c>
       <c r="O15" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Q15">
         <v>0.5</v>
@@ -13922,7 +13950,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="32" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B16" s="32">
         <v>400</v>
@@ -13938,7 +13966,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -13947,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J16" s="34">
         <f t="shared" si="0"/>
@@ -13966,7 +13994,7 @@
         <v>8.18181818181818</v>
       </c>
       <c r="O16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Q16">
         <v>0.6</v>
@@ -13986,7 +14014,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="32" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B17" s="32">
         <v>100</v>
@@ -14002,7 +14030,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -14011,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J17" s="34">
         <f t="shared" si="0"/>
@@ -14030,7 +14058,7 @@
         <v>5.45454545454545</v>
       </c>
       <c r="O17" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Q17">
         <v>0.7</v>
@@ -14050,7 +14078,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="32" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B18" s="32">
         <v>1</v>
@@ -14072,7 +14100,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J18" s="34">
         <f t="shared" si="0"/>
@@ -14108,7 +14136,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="32" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B19" s="32">
         <v>20</v>
@@ -14130,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J19" s="34">
         <f t="shared" si="0"/>
@@ -14166,7 +14194,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B20">
         <v>75</v>
@@ -14182,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -14210,7 +14238,7 @@
         <v>5.22727272727273</v>
       </c>
       <c r="O20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -14230,7 +14258,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B21">
         <v>50</v>
@@ -14246,7 +14274,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -14274,12 +14302,12 @@
         <v>5</v>
       </c>
       <c r="O21" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -14295,7 +14323,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -14323,12 +14351,12 @@
         <v>5.45454545454545</v>
       </c>
       <c r="O22" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B23">
         <v>25</v>
@@ -14344,7 +14372,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -14372,7 +14400,7 @@
         <v>4.77272727272727</v>
       </c>
       <c r="O23" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="24" spans="10:13">
@@ -14417,13 +14445,13 @@
         <v>118</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
@@ -14439,7 +14467,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="24" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>3</v>
@@ -14464,10 +14492,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="24" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C3" s="26">
         <v>0.1</v>
@@ -14489,10 +14517,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="24" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C4" s="26">
         <v>0.1</v>
@@ -14514,7 +14542,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="24" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>4</v>
@@ -14539,7 +14567,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="24" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>6</v>
@@ -14555,10 +14583,10 @@
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" t="s">
+        <v>848</v>
+      </c>
+      <c r="J6" t="s">
         <v>849</v>
-      </c>
-      <c r="J6" t="s">
-        <v>850</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -14568,7 +14596,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="24" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>8</v>
@@ -14584,10 +14612,10 @@
       <c r="G7" s="23"/>
       <c r="H7" s="28"/>
       <c r="I7" t="s">
+        <v>851</v>
+      </c>
+      <c r="J7" t="s">
         <v>852</v>
-      </c>
-      <c r="J7" t="s">
-        <v>853</v>
       </c>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
@@ -14597,7 +14625,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="24" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>10</v>
@@ -14613,10 +14641,10 @@
       <c r="G8" s="28"/>
       <c r="H8" s="23"/>
       <c r="I8" t="s">
+        <v>854</v>
+      </c>
+      <c r="J8" t="s">
         <v>855</v>
-      </c>
-      <c r="J8" t="s">
-        <v>856</v>
       </c>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -14626,10 +14654,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="24" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C9" s="26">
         <v>0.1</v>
@@ -14642,10 +14670,10 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" t="s">
+        <v>857</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>858</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>859</v>
       </c>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
@@ -14655,10 +14683,10 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="24" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C10" s="26">
         <v>0.1</v>
@@ -14671,10 +14699,10 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" t="s">
+        <v>860</v>
+      </c>
+      <c r="J10" s="23" t="s">
         <v>861</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>862</v>
       </c>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
@@ -14684,10 +14712,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="24" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C11" s="26">
         <v>0.1</v>
@@ -14709,10 +14737,10 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="24" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C12" s="26">
         <v>1</v>
@@ -14734,7 +14762,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="24" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>241</v>
@@ -14759,10 +14787,10 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="24" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C14" s="26">
         <v>1</v>
@@ -14784,10 +14812,10 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="24" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C15" s="26">
         <v>1</v>
@@ -15069,13 +15097,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>867</v>
+      <c r="A1" s="1" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="18" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
@@ -15083,7 +15111,7 @@
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F2" s="18">
         <v>1</v>
@@ -15091,19 +15119,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>870</v>
       </c>
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>871</v>
-      </c>
-      <c r="D3" s="18">
-        <v>1</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>872</v>
       </c>
       <c r="F3" s="18">
         <v>2</v>
@@ -15111,7 +15139,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="18" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B4" s="18">
         <v>10</v>
@@ -15127,13 +15155,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="18" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B5" s="18">
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D5" s="18">
         <v>1</v>
@@ -15147,19 +15175,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F6" s="18">
         <v>1</v>
@@ -15167,7 +15195,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="18" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B7" s="18">
         <v>5</v>
@@ -15175,7 +15203,7 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F7" s="18">
         <v>1</v>
@@ -15183,19 +15211,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B8" s="19">
         <v>10</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D8" s="19">
         <v>5</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F8" s="19">
         <v>1</v>
@@ -15203,42 +15231,42 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B9" s="19">
         <v>15</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D9" s="19">
         <v>5</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>878</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>879</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="B10" s="19">
-        <v>1</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>869</v>
-      </c>
       <c r="D10" s="19">
         <v>1</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F10" s="19">
         <v>2</v>
@@ -15246,19 +15274,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B11" s="19">
         <v>5</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D11" s="19">
         <v>5</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F11" s="19">
         <v>1</v>
@@ -15266,43 +15294,43 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="18" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B12" s="18">
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D12" s="18">
         <v>10</v>
       </c>
       <c r="E12" s="18" t="s">
+        <v>883</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>884</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>885</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="18" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B13" s="18">
         <v>2</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D13" s="18">
         <v>1</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F13" s="18">
         <v>1</v>
@@ -15311,19 +15339,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B14" s="18">
         <v>3</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D14" s="18">
         <v>3</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F14" s="18">
         <v>1</v>
@@ -15332,19 +15360,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="19" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B15" s="19">
         <v>2</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>887</v>
-      </c>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>888</v>
       </c>
       <c r="F15" s="19">
         <v>1</v>
@@ -15352,42 +15380,42 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B16" s="19">
         <v>5</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D16" s="19">
         <v>5</v>
       </c>
       <c r="E16" s="19" t="s">
+        <v>888</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>889</v>
-      </c>
-      <c r="F16" s="19">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B17" s="19">
         <v>3</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D17" s="19">
         <v>3</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F17" s="19">
         <v>1</v>
@@ -15395,19 +15423,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B18" s="19">
         <v>2</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D18" s="19">
         <v>20</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F18" s="19">
         <v>1</v>
@@ -15461,7 +15489,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -15469,18 +15497,18 @@
         <v>124</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
@@ -15491,7 +15519,7 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>76</v>
@@ -15586,19 +15614,19 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>898</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>899</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="9">
@@ -15621,7 +15649,7 @@
         <v>1.6</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O4" s="9">
         <f>SUM(G7:G9)</f>
@@ -15646,19 +15674,19 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>898</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>899</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="9">
@@ -15681,7 +15709,7 @@
         <v>0.45</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O5" s="9">
         <f>SUM(G10:G22)</f>
@@ -15706,19 +15734,19 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="9">
@@ -15741,7 +15769,7 @@
         <v>0.45</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="O6" s="9">
         <f>SUM(G23:G33)</f>
@@ -15766,19 +15794,19 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>241</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>898</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>899</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="9">
@@ -15803,10 +15831,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
@@ -15834,19 +15862,19 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="9">
@@ -15871,19 +15899,19 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>898</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>899</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="9">
@@ -15908,19 +15936,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="9">
@@ -15945,19 +15973,19 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>241</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="9">
@@ -15982,19 +16010,19 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>898</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>899</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="9">
@@ -16019,19 +16047,19 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="9">
@@ -16056,19 +16084,19 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>902</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>913</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="9">
@@ -16093,19 +16121,19 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>898</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>899</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="9">
@@ -16130,22 +16158,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D17" s="11">
         <v>0.1</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>916</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>917</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -16169,22 +16197,22 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D18" s="11">
         <v>0.1</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>916</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>917</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -16208,19 +16236,19 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D19" s="11">
         <v>0.1</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="9">
@@ -16245,22 +16273,22 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>920</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>902</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>921</v>
       </c>
       <c r="D20" s="11">
         <v>0.1</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>916</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>917</v>
       </c>
       <c r="G20" s="9">
         <v>0</v>
@@ -16284,22 +16312,22 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>922</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>902</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>923</v>
       </c>
       <c r="D21" s="11">
         <v>0.1</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>916</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>917</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -16323,10 +16351,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>3</v>
@@ -16335,10 +16363,10 @@
         <v>0.05</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>916</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>917</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -16362,10 +16390,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -16389,10 +16417,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
@@ -16413,10 +16441,10 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G25" s="9">
         <v>0</v>
@@ -16438,10 +16466,10 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="14">
@@ -16464,10 +16492,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G27" s="9">
         <v>0</v>
@@ -16488,10 +16516,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G28" s="9">
         <v>0</v>
@@ -16512,10 +16540,10 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G29" s="9">
         <v>0</v>
@@ -16537,10 +16565,10 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G30" s="9">
         <v>0</v>
@@ -16562,10 +16590,10 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G31" s="9">
         <v>0</v>
@@ -16587,10 +16615,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G32" s="9">
         <v>0</v>
@@ -16611,10 +16639,10 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G33" s="9">
         <v>0</v>
@@ -16679,10 +16707,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -16696,105 +16724,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" t="s">
         <v>932</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="B6" t="s">
         <v>935</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>938</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="C7" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>940</v>
+      </c>
+      <c r="B8" t="s">
         <v>941</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>943</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>944</v>
@@ -16804,13 +16832,13 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>946</v>
       </c>
       <c r="B10" t="s">
         <v>947</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>948</v>
       </c>
     </row>
@@ -16821,48 +16849,45 @@
       <c r="B11" t="s">
         <v>950</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>952</v>
       </c>
       <c r="B12" t="s">
         <v>953</v>
       </c>
-      <c r="C12" t="s">
-        <v>954</v>
-      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>954</v>
+      </c>
+      <c r="B13" t="s">
         <v>955</v>
-      </c>
-      <c r="B13" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>956</v>
+      </c>
+      <c r="B14" t="s">
         <v>957</v>
-      </c>
-      <c r="B14" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>958</v>
+      </c>
+      <c r="B15" t="s">
         <v>959</v>
-      </c>
-      <c r="B15" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B16" t="s">
         <v>131</v>
@@ -16870,78 +16895,73 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>961</v>
+      </c>
+      <c r="B17" t="s">
         <v>962</v>
-      </c>
-      <c r="B17" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>963</v>
+      </c>
+      <c r="B18" t="s">
         <v>964</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>966</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>968</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>970</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>972</v>
-      </c>
-      <c r="B22" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>973</v>
+      </c>
+      <c r="B23" t="s">
         <v>974</v>
-      </c>
-      <c r="B23" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>
@@ -17003,7 +17023,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -17041,7 +17061,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -17079,7 +17099,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -17117,7 +17137,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -17155,7 +17175,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -17241,6 +17261,86 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -24106,7 +24206,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -24215,7 +24315,7 @@
       <c r="S2" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -24922,20 +25022,20 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="82" t="s">
+        <v>382</v>
+      </c>
+      <c r="B19" s="82" t="s">
         <v>391</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>392</v>
       </c>
       <c r="L19"/>
       <c r="N19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O19"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="82" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B20" s="82" t="s">
         <v>394</v>
@@ -24981,7 +25081,7 @@
         <v>402</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="L24"/>
       <c r="O24"/>
@@ -25042,7 +25142,7 @@
       <c r="O29"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="82" t="s">
+      <c r="A30" t="s">
         <v>412</v>
       </c>
       <c r="B30" s="82" t="s">
@@ -25106,32 +25206,29 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="82" t="s">
         <v>420</v>
-      </c>
-      <c r="B34" s="82" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="82" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="82" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="82" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="82" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -25167,13 +25264,13 @@
         <v>118</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1" s="72" t="s">
         <v>120</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E1" s="72" t="s">
         <v>171</v>
@@ -25194,7 +25291,7 @@
         <v>166</v>
       </c>
       <c r="K1" s="72" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -25372,7 +25469,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="73" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B7" s="74">
         <v>4</v>
@@ -25420,36 +25517,36 @@
     </row>
     <row r="19" spans="13:22">
       <c r="M19" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>118</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>118</v>
       </c>
       <c r="S19" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="V19" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="20" spans="13:23">
       <c r="M20" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="Q20" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>436</v>
       </c>
       <c r="S20" s="4" t="s">
         <v>176</v>
@@ -25458,41 +25555,41 @@
         <v>134</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="13:23">
       <c r="M21" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="Q21" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>441</v>
-      </c>
       <c r="S21" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="V21" s="4" t="s">
         <v>128</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="13:23">
       <c r="M22" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="S22" s="4" t="s">
         <v>179</v>
@@ -25501,37 +25598,37 @@
         <v>137</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="77" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B23" s="77"/>
       <c r="C23" s="78" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D23" s="78"/>
       <c r="E23" s="78" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F23" s="78"/>
       <c r="G23" s="78" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H23" s="78"/>
       <c r="M23" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="S23" s="4" t="s">
         <v>177</v>
@@ -25540,38 +25637,38 @@
         <v>139</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="77"/>
       <c r="B24" s="77"/>
       <c r="C24" s="77" t="s">
+        <v>455</v>
+      </c>
+      <c r="D24" s="77" t="s">
         <v>456</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="E24" s="77" t="s">
+        <v>455</v>
+      </c>
+      <c r="F24" s="77" t="s">
+        <v>456</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>455</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>456</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="E24" s="77" t="s">
-        <v>456</v>
-      </c>
-      <c r="F24" s="77" t="s">
-        <v>457</v>
-      </c>
-      <c r="G24" s="77" t="s">
-        <v>456</v>
-      </c>
-      <c r="H24" s="77" t="s">
-        <v>457</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>419</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S24" s="4" t="s">
         <v>178</v>
@@ -25580,141 +25677,141 @@
         <v>141</v>
       </c>
       <c r="W24" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="79" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B25" s="79"/>
       <c r="C25" s="80" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D25" s="81"/>
       <c r="E25" s="80" t="s">
+        <v>462</v>
+      </c>
+      <c r="F25" s="81" t="s">
         <v>463</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="G25" s="80" t="s">
         <v>464</v>
       </c>
-      <c r="G25" s="80" t="s">
+      <c r="H25" s="81" t="s">
         <v>465</v>
       </c>
-      <c r="H25" s="81" t="s">
+      <c r="M25" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="P25" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="Q25" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>470</v>
       </c>
       <c r="V25" s="4" t="s">
         <v>129</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="79" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B26" s="79"/>
       <c r="C26" s="80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D26" s="81"/>
       <c r="E26" s="80" t="s">
+        <v>473</v>
+      </c>
+      <c r="F26" s="81" t="s">
         <v>474</v>
       </c>
-      <c r="F26" s="81" t="s">
+      <c r="G26" s="80" t="s">
         <v>475</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="H26" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="H26" s="81" t="s">
+      <c r="M26" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="Q26" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="V26" s="4" t="s">
         <v>144</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="79" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B27" s="79"/>
       <c r="C27" s="80" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D27" s="81"/>
       <c r="E27" s="80" t="s">
+        <v>484</v>
+      </c>
+      <c r="F27" s="81" t="s">
         <v>485</v>
       </c>
-      <c r="F27" s="81" t="s">
+      <c r="G27" s="80" t="s">
         <v>486</v>
       </c>
-      <c r="G27" s="80" t="s">
+      <c r="H27" s="81" t="s">
         <v>487</v>
       </c>
-      <c r="H27" s="81" t="s">
+      <c r="M27" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="V27" s="4" t="s">
         <v>146</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="79" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B28" s="79"/>
       <c r="C28" s="80" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D28" s="81"/>
       <c r="E28" s="80" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F28" s="81"/>
       <c r="G28" s="80" t="s">
+        <v>494</v>
+      </c>
+      <c r="H28" s="81" t="s">
         <v>495</v>
-      </c>
-      <c r="H28" s="81" t="s">
-        <v>496</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -25729,27 +25826,27 @@
         <v>148</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="79" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B29" s="79"/>
       <c r="C29" s="80" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D29" s="81"/>
       <c r="E29" s="80" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F29" s="81"/>
       <c r="G29" s="80" t="s">
+        <v>500</v>
+      </c>
+      <c r="H29" s="81" t="s">
         <v>501</v>
-      </c>
-      <c r="H29" s="81" t="s">
-        <v>502</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -25764,25 +25861,25 @@
         <v>131</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="79" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B30" s="79"/>
       <c r="C30" s="80" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D30" s="81"/>
       <c r="E30" s="80"/>
       <c r="F30" s="81"/>
       <c r="G30" s="80" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H30" s="81" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -25797,22 +25894,22 @@
         <v>151</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="79" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B31" s="79"/>
       <c r="C31" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D31" s="81"/>
       <c r="E31" s="80"/>
       <c r="F31" s="81"/>
       <c r="G31" s="80" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H31" s="81"/>
       <c r="M31" s="4"/>
@@ -25828,26 +25925,26 @@
         <v>153</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="79" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B32" s="79"/>
       <c r="C32" s="80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D32" s="81"/>
       <c r="E32" s="80"/>
       <c r="F32" s="81"/>
       <c r="G32" s="80" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H32" s="81"/>
       <c r="M32" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="V32" s="4" t="s">
         <v>155</v>
@@ -25855,17 +25952,17 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="79" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B33" s="79"/>
       <c r="C33" s="80" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D33" s="81"/>
       <c r="E33" s="80"/>
       <c r="F33" s="81"/>
       <c r="G33" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H33" s="81"/>
       <c r="M33" s="4"/>
@@ -25883,7 +25980,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="79" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B34" s="79"/>
       <c r="C34" s="80"/>
@@ -25891,22 +25988,22 @@
       <c r="E34" s="80"/>
       <c r="F34" s="81"/>
       <c r="G34" s="80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H34" s="81"/>
       <c r="M34" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="V34" s="4" t="s">
         <v>159</v>
       </c>
       <c r="W34" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="79" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B35" s="79"/>
       <c r="C35" s="80"/>
@@ -25914,7 +26011,7 @@
       <c r="E35" s="80"/>
       <c r="F35" s="81"/>
       <c r="G35" s="80" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H35" s="81"/>
       <c r="M35" s="4"/>
@@ -25932,7 +26029,7 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="79" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B36" s="79"/>
       <c r="C36" s="80"/>
@@ -25940,7 +26037,7 @@
       <c r="E36" s="80"/>
       <c r="F36" s="81"/>
       <c r="G36" s="80" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H36" s="81"/>
       <c r="M36" s="4"/>
@@ -25962,7 +26059,7 @@
       <c r="E37" s="80"/>
       <c r="F37" s="81"/>
       <c r="G37" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H37" s="81"/>
       <c r="M37" s="4"/>
@@ -25984,7 +26081,7 @@
       <c r="E38" s="80"/>
       <c r="F38" s="81"/>
       <c r="G38" s="80" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H38" s="81"/>
     </row>
@@ -25996,7 +26093,7 @@
       <c r="E39" s="80"/>
       <c r="F39" s="81"/>
       <c r="G39" s="80" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H39" s="81"/>
     </row>
@@ -26066,28 +26163,28 @@
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="D1" s="51" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
       <c r="H1" s="51" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1" s="68" t="s">
         <v>529</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="J1" s="68" t="s">
         <v>530</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="K1" s="68" t="s">
         <v>531</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="L1" s="68" t="s">
         <v>532</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="M1" s="51" t="s">
         <v>533</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>534</v>
       </c>
       <c r="N1" s="51"/>
     </row>
@@ -26099,13 +26196,13 @@
         <v>241</v>
       </c>
       <c r="E2" s="31" t="s">
+        <v>534</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>535</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>536</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>537</v>
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="68"/>
@@ -26117,13 +26214,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" t="s">
         <v>538</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>539</v>
-      </c>
-      <c r="C3" t="s">
-        <v>540</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
@@ -26158,18 +26255,18 @@
         <v>3</v>
       </c>
       <c r="M3" s="70" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4" t="s">
         <v>542</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>543</v>
-      </c>
-      <c r="C4" t="s">
-        <v>544</v>
       </c>
       <c r="D4" s="10">
         <v>4</v>
@@ -26207,13 +26304,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C5" t="s">
         <v>545</v>
-      </c>
-      <c r="C5" t="s">
-        <v>546</v>
       </c>
       <c r="D5" s="10">
         <v>2</v>
@@ -26248,18 +26345,18 @@
         <v>3.3</v>
       </c>
       <c r="M5" s="70" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" t="s">
         <v>548</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>549</v>
-      </c>
-      <c r="C6" t="s">
-        <v>550</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -26297,13 +26394,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B7" t="s">
         <v>551</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>552</v>
-      </c>
-      <c r="C7" t="s">
-        <v>553</v>
       </c>
       <c r="D7" s="10">
         <v>4</v>
@@ -26341,13 +26438,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B8" t="s">
         <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D8" s="10">
         <v>3</v>
@@ -26382,7 +26479,7 @@
         <v>3.6</v>
       </c>
       <c r="M8" s="70" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -26390,10 +26487,10 @@
         <v>257</v>
       </c>
       <c r="B9" t="s">
+        <v>556</v>
+      </c>
+      <c r="C9" t="s">
         <v>557</v>
-      </c>
-      <c r="C9" t="s">
-        <v>558</v>
       </c>
       <c r="D9" s="10">
         <v>6</v>
@@ -26431,10 +26528,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B10" t="s">
         <v>559</v>
-      </c>
-      <c r="B10" t="s">
-        <v>560</v>
       </c>
       <c r="D10" s="10">
         <v>3</v>
@@ -26471,11 +26568,11 @@
       <c r="M10" s="71"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="66">
         <v>4</v>
       </c>
@@ -26509,26 +26606,26 @@
         <v>3.9</v>
       </c>
       <c r="M11" s="70" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:10">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" s="1" customFormat="1"/>
+    <row r="14" s="1" customFormat="1"/>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" s="3" customFormat="1"/>
-    <row r="14" s="3" customFormat="1"/>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -26538,25 +26635,25 @@
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51" t="s">
+        <v>528</v>
+      </c>
+      <c r="I17" s="68" t="s">
         <v>529</v>
       </c>
-      <c r="I17" s="68" t="s">
+      <c r="J17" s="68" t="s">
         <v>530</v>
       </c>
-      <c r="J17" s="68" t="s">
+      <c r="K17" s="68" t="s">
         <v>531</v>
       </c>
-      <c r="K17" s="68" t="s">
+      <c r="L17" s="68" t="s">
         <v>532</v>
-      </c>
-      <c r="L17" s="68" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -26567,13 +26664,13 @@
         <v>241</v>
       </c>
       <c r="E18" s="31" t="s">
+        <v>534</v>
+      </c>
+      <c r="F18" s="31" t="s">
         <v>535</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="G18" s="31" t="s">
         <v>536</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>537</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="68"/>
@@ -26583,13 +26680,13 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
+        <v>537</v>
+      </c>
+      <c r="B19" t="s">
         <v>538</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>539</v>
-      </c>
-      <c r="C19" t="s">
-        <v>540</v>
       </c>
       <c r="D19" s="51">
         <f>D3+10</f>
@@ -26630,13 +26727,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
+        <v>541</v>
+      </c>
+      <c r="B20" t="s">
         <v>542</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>543</v>
-      </c>
-      <c r="C20" t="s">
-        <v>544</v>
       </c>
       <c r="D20" s="51">
         <f t="shared" ref="D20:D27" si="13">D4+10</f>
@@ -26677,13 +26774,13 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B21" t="s">
+        <v>544</v>
+      </c>
+      <c r="C21" t="s">
         <v>545</v>
-      </c>
-      <c r="C21" t="s">
-        <v>546</v>
       </c>
       <c r="D21" s="51">
         <f t="shared" si="13"/>
@@ -26724,13 +26821,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
+        <v>547</v>
+      </c>
+      <c r="B22" t="s">
         <v>548</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>549</v>
-      </c>
-      <c r="C22" t="s">
-        <v>550</v>
       </c>
       <c r="D22" s="51">
         <f t="shared" si="13"/>
@@ -26771,13 +26868,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
+        <v>550</v>
+      </c>
+      <c r="B23" t="s">
         <v>551</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>552</v>
-      </c>
-      <c r="C23" t="s">
-        <v>553</v>
       </c>
       <c r="D23" s="51">
         <f t="shared" si="13"/>
@@ -26818,13 +26915,13 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B24" t="s">
         <v>293</v>
       </c>
       <c r="C24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D24" s="51">
         <f t="shared" si="13"/>
@@ -26868,10 +26965,10 @@
         <v>257</v>
       </c>
       <c r="B25" t="s">
+        <v>556</v>
+      </c>
+      <c r="C25" t="s">
         <v>557</v>
-      </c>
-      <c r="C25" t="s">
-        <v>558</v>
       </c>
       <c r="D25" s="51">
         <f t="shared" si="13"/>
@@ -26912,10 +27009,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
+        <v>558</v>
+      </c>
+      <c r="B26" t="s">
         <v>559</v>
-      </c>
-      <c r="B26" t="s">
-        <v>560</v>
       </c>
       <c r="D26" s="51">
         <f t="shared" si="13"/>
@@ -26955,24 +27052,24 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="1">
+      <c r="A27" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
@@ -26999,52 +27096,52 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -27081,7 +27178,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -27101,24 +27198,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="52" t="s">
+        <v>573</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="E1" s="52" t="s">
         <v>575</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="F1" s="52" t="s">
         <v>576</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="52" t="s">
         <v>577</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="53" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>28</v>
@@ -27134,12 +27231,12 @@
         <v>5</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="53" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>28</v>
@@ -27155,7 +27252,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -27169,7 +27266,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>35</v>
@@ -27185,12 +27282,12 @@
         <v>4</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="58" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>35</v>
@@ -27206,7 +27303,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L6" s="51"/>
     </row>
@@ -27221,7 +27318,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="53" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B8" s="53" t="s">
         <v>49</v>
@@ -27237,12 +27334,12 @@
         <v>3</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="53" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>49</v>
@@ -27258,7 +27355,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -27272,7 +27369,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="58" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B11" s="58" t="s">
         <v>42</v>
@@ -27288,12 +27385,12 @@
         <v>4</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="58" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>42</v>
@@ -27309,7 +27406,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -27339,12 +27436,12 @@
         <v>4</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="53" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B15" s="53" t="s">
         <v>20</v>
@@ -27360,7 +27457,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -27374,13 +27471,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="60" t="s">
+        <v>597</v>
+      </c>
+      <c r="B17" s="60" t="s">
         <v>598</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="C17" s="60" t="s">
         <v>599</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>600</v>
       </c>
       <c r="D17" s="60" t="b">
         <v>1</v>
@@ -27392,15 +27489,15 @@
         <v>3</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="60" t="b">
@@ -27413,7 +27510,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -27427,13 +27524,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="60" t="s">
+        <v>603</v>
+      </c>
+      <c r="B20" s="60" t="s">
         <v>604</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="C20" s="60" t="s">
         <v>605</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>606</v>
       </c>
       <c r="D20" s="60" t="b">
         <v>1</v>
@@ -27445,15 +27542,15 @@
         <v>4</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="60" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="60" t="b">
@@ -27466,7 +27563,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -27480,13 +27577,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="64" t="s">
+        <v>609</v>
+      </c>
+      <c r="B23" s="64" t="s">
         <v>610</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="C23" s="64" t="s">
         <v>611</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>612</v>
       </c>
       <c r="D23" s="64" t="b">
         <v>1</v>
@@ -27498,15 +27595,15 @@
         <v>1</v>
       </c>
       <c r="G23" s="65" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="64" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="64" t="b">
@@ -27519,7 +27616,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="65" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -27533,13 +27630,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="60" t="s">
+        <v>615</v>
+      </c>
+      <c r="B26" s="60" t="s">
         <v>616</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="C26" s="60" t="s">
         <v>617</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>618</v>
       </c>
       <c r="D26" s="60" t="b">
         <v>0</v>
@@ -27551,15 +27648,15 @@
         <v>3</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="60" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C27" s="60"/>
       <c r="D27" s="60" t="b">
@@ -27572,7 +27669,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="61" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -27586,13 +27683,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B29" s="64" t="s">
         <v>622</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="C29" s="64" t="s">
         <v>623</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>624</v>
       </c>
       <c r="D29" s="64" t="b">
         <v>0</v>
@@ -27604,15 +27701,15 @@
         <v>3</v>
       </c>
       <c r="G29" s="65" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="64" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C30" s="64"/>
       <c r="D30" s="64" t="b">
@@ -27625,7 +27722,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -27639,13 +27736,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="60" t="s">
+        <v>627</v>
+      </c>
+      <c r="B32" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="C32" s="60" t="s">
         <v>629</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>630</v>
       </c>
       <c r="D32" s="60" t="b">
         <v>0</v>
@@ -27657,15 +27754,15 @@
         <v>1</v>
       </c>
       <c r="G32" s="61" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="60" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C33" s="60"/>
       <c r="D33" s="60" t="b">
@@ -27678,7 +27775,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -27692,13 +27789,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="64" t="s">
+        <v>633</v>
+      </c>
+      <c r="B35" s="64" t="s">
         <v>634</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="C35" s="64" t="s">
         <v>635</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>636</v>
       </c>
       <c r="D35" s="64" t="b">
         <v>0</v>
@@ -27710,15 +27807,15 @@
         <v>4</v>
       </c>
       <c r="G35" s="65" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="64" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C36" s="64"/>
       <c r="D36" s="64" t="b">
@@ -27731,7 +27828,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="65" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -27745,13 +27842,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="B38" s="60" t="s">
         <v>640</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="C38" s="60" t="s">
         <v>641</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>642</v>
       </c>
       <c r="D38" s="60" t="b">
         <v>0</v>
@@ -27763,15 +27860,15 @@
         <v>3</v>
       </c>
       <c r="G38" s="61" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="60" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C39" s="60"/>
       <c r="D39" s="60" t="b">
@@ -27784,7 +27881,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="61" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -27798,13 +27895,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="64" t="s">
+        <v>645</v>
+      </c>
+      <c r="B41" s="64" t="s">
         <v>646</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="C41" s="64" t="s">
         <v>647</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>648</v>
       </c>
       <c r="D41" s="64" t="b">
         <v>0</v>
@@ -27816,15 +27913,15 @@
         <v>4</v>
       </c>
       <c r="G41" s="65" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="64" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C42" s="64"/>
       <c r="D42" s="64" t="b">
@@ -27837,7 +27934,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="65" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -27873,7 +27970,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="42" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="43" t="s">
@@ -27881,67 +27978,67 @@
       </c>
       <c r="D1" s="43"/>
       <c r="E1" s="44" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="45"/>
       <c r="B2" s="46" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>118</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E2" s="46" t="s">
         <v>118</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>656</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="C3" s="47" t="s">
         <v>657</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="D3" s="48" t="s">
         <v>658</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="E3" s="47" t="s">
         <v>659</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="48" t="s">
         <v>660</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="49" t="s">
+        <v>661</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>662</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="C4" s="49" t="s">
         <v>663</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="D4" s="50" t="s">
         <v>664</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="E4" s="49" t="s">
         <v>665</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="F4" s="50" t="s">
         <v>666</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>667</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -27953,299 +28050,299 @@
         <v>380</v>
       </c>
       <c r="B5" s="47" t="s">
+        <v>667</v>
+      </c>
+      <c r="C5" s="47" t="s">
         <v>668</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="D5" s="48" t="s">
         <v>669</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="E5" s="47" t="s">
         <v>670</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="F5" s="48" t="s">
         <v>671</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="49" t="s">
+        <v>672</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>673</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="C6" s="49" t="s">
         <v>674</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="D6" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>676</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="F6" s="50" t="s">
         <v>677</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="47" t="s">
+        <v>678</v>
+      </c>
+      <c r="B7" s="47" t="s">
         <v>679</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="C7" s="47" t="s">
         <v>680</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>681</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="E7" s="47" t="s">
         <v>682</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>683</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>685</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="C8" s="49" t="s">
         <v>686</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="D8" s="50" t="s">
         <v>687</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="E8" s="49" t="s">
         <v>688</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="F8" s="50" t="s">
         <v>689</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="47" t="s">
+        <v>690</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>691</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="C9" s="47" t="s">
         <v>692</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="D9" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="E9" s="47" t="s">
         <v>694</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="F9" s="47" t="s">
         <v>695</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="49" t="s">
+        <v>696</v>
+      </c>
+      <c r="B10" s="49" t="s">
         <v>697</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="C10" s="49" t="s">
         <v>698</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="D10" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="E10" s="49" t="s">
         <v>700</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="F10" s="50" t="s">
         <v>701</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="47" t="s">
+        <v>702</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>703</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="C11" s="47" t="s">
         <v>704</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="D11" s="47" t="s">
         <v>705</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="E11" s="47" t="s">
         <v>706</v>
       </c>
-      <c r="E11" s="47" t="s">
-        <v>707</v>
-      </c>
       <c r="F11" s="47" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="49" t="s">
+        <v>707</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>708</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="C12" s="49" t="s">
+        <v>663</v>
+      </c>
+      <c r="D12" s="49" t="s">
         <v>709</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>664</v>
-      </c>
-      <c r="D12" s="49" t="s">
+      <c r="E12" s="49" t="s">
         <v>710</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="F12" s="49" t="s">
         <v>711</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="47" t="s">
+        <v>712</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>713</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="C13" s="47" t="s">
         <v>714</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="D13" s="47" t="s">
         <v>715</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="E13" s="47" t="s">
         <v>716</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="F13" s="47" t="s">
         <v>717</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="49" t="s">
+        <v>718</v>
+      </c>
+      <c r="B14" s="49" t="s">
         <v>719</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="C14" s="49" t="s">
         <v>720</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="D14" s="49" t="s">
         <v>721</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="E14" s="49" t="s">
         <v>722</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="F14" s="50" t="s">
         <v>723</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="47" t="s">
+        <v>724</v>
+      </c>
+      <c r="B15" s="47" t="s">
         <v>725</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="C15" s="47" t="s">
         <v>726</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="D15" s="48" t="s">
         <v>727</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="E15" s="47" t="s">
         <v>728</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="F15" s="48" t="s">
         <v>729</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="49" t="s">
+        <v>730</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>731</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="C16" s="49" t="s">
         <v>732</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="D16" s="50" t="s">
         <v>733</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="E16" s="49" t="s">
         <v>734</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="F16" s="50" t="s">
         <v>735</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="47" t="s">
+        <v>736</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>737</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="C17" s="47" t="s">
         <v>738</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="D17" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="E17" s="47" t="s">
         <v>740</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="F17" s="48" t="s">
         <v>741</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="49" t="s">
+        <v>742</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>743</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="C18" s="49" t="s">
         <v>744</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="D18" s="50" t="s">
         <v>745</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="E18" s="49" t="s">
         <v>746</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="F18" s="50" t="s">
         <v>747</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="47" t="s">
+        <v>748</v>
+      </c>
+      <c r="B19" s="47" t="s">
         <v>749</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="C19" s="47" t="s">
         <v>750</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="D19" s="48" t="s">
         <v>751</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="E19" s="47" t="s">
         <v>752</v>
       </c>
-      <c r="E19" s="47" t="s">
-        <v>753</v>
-      </c>
       <c r="F19" s="48" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="50" spans="4:4">

--- a/Desolation Balance Files.xlsx
+++ b/Desolation Balance Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13185" firstSheet="4" activeTab="14"/>
+    <workbookView windowWidth="28695" windowHeight="13185" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon Data v1" sheetId="2" state="hidden" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990">
   <si>
     <t>Type</t>
   </si>
@@ -377,13 +377,16 @@
     <t>unpredictable fire rate</t>
   </si>
   <si>
-    <t>minute</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>week</t>
+    <t>d</t>
+  </si>
+  <si>
+    <t>d/10</t>
+  </si>
+  <si>
+    <t>d/25</t>
+  </si>
+  <si>
+    <t>d/33</t>
   </si>
   <si>
     <t>Name</t>
@@ -13005,13 +13008,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="35" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13021,101 +13024,101 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="39" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="39" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="39" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="39" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="39" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="39" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="39" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="39" t="s">
+        <v>772</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>773</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>771</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>772</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="39" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -13158,42 +13161,42 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="31" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M1" s="2"/>
       <c r="P1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -13203,21 +13206,21 @@
       <c r="D2" s="31"/>
       <c r="E2" s="1"/>
       <c r="J2" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="K2" t="s">
+        <v>789</v>
+      </c>
+      <c r="L2" t="s">
         <v>788</v>
       </c>
-      <c r="L2" t="s">
-        <v>787</v>
-      </c>
       <c r="M2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -13233,7 +13236,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -13242,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="J3" s="33">
         <f t="shared" ref="J3:J24" si="0">B3/25</f>
@@ -13261,12 +13264,12 @@
         <v>5.45454545454545</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -13282,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -13291,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="J4" s="33">
         <f t="shared" si="0"/>
@@ -13310,12 +13313,12 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -13331,7 +13334,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -13340,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="J5" s="33">
         <f t="shared" si="0"/>
@@ -13359,12 +13362,12 @@
         <v>5.90909090909091</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -13380,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -13389,7 +13392,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="J6" s="33">
         <f t="shared" si="0"/>
@@ -13408,12 +13411,12 @@
         <v>5.45454545454545</v>
       </c>
       <c r="O6" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -13429,7 +13432,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -13438,7 +13441,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" si="0"/>
@@ -13457,12 +13460,12 @@
         <v>6.36363636363636</v>
       </c>
       <c r="O7" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B8">
         <v>300</v>
@@ -13478,7 +13481,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -13487,7 +13490,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="J8" s="33">
         <f t="shared" si="0"/>
@@ -13506,12 +13509,12 @@
         <v>7.27272727272727</v>
       </c>
       <c r="O8" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B9">
         <v>25</v>
@@ -13527,7 +13530,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -13536,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="J9" s="33">
         <f t="shared" si="0"/>
@@ -13555,18 +13558,18 @@
         <v>4.77272727272727</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Q9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="R9" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B10">
         <v>150</v>
@@ -13582,7 +13585,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -13591,7 +13594,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="J10" s="33">
         <f t="shared" si="0"/>
@@ -13610,7 +13613,7 @@
         <v>5.90909090909091</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -13630,7 +13633,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="32" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B11" s="32">
         <v>25</v>
@@ -13646,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -13655,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J11" s="34">
         <f t="shared" si="0"/>
@@ -13674,7 +13677,7 @@
         <v>4.77272727272727</v>
       </c>
       <c r="O11" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -13694,7 +13697,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="32" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B12" s="32">
         <v>150</v>
@@ -13710,7 +13713,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -13719,7 +13722,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J12" s="34">
         <f t="shared" si="0"/>
@@ -13738,7 +13741,7 @@
         <v>5.90909090909091</v>
       </c>
       <c r="O12" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Q12">
         <v>0.2</v>
@@ -13758,7 +13761,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="32" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B13" s="32">
         <v>150</v>
@@ -13774,7 +13777,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -13783,7 +13786,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J13" s="34">
         <f t="shared" si="0"/>
@@ -13802,7 +13805,7 @@
         <v>5.90909090909091</v>
       </c>
       <c r="O13" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="Q13">
         <v>0.3</v>
@@ -13822,7 +13825,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="32" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B14" s="32">
         <v>100</v>
@@ -13838,7 +13841,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -13847,7 +13850,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J14" s="34">
         <f t="shared" si="0"/>
@@ -13866,7 +13869,7 @@
         <v>5.45454545454545</v>
       </c>
       <c r="O14" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Q14">
         <v>0.4</v>
@@ -13886,7 +13889,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="32" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B15" s="32">
         <v>60</v>
@@ -13902,7 +13905,7 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -13911,7 +13914,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J15" s="34">
         <f t="shared" si="0"/>
@@ -13930,7 +13933,7 @@
         <v>5.09090909090909</v>
       </c>
       <c r="O15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Q15">
         <v>0.5</v>
@@ -13950,7 +13953,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="32" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B16" s="32">
         <v>400</v>
@@ -13966,7 +13969,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -13975,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J16" s="34">
         <f t="shared" si="0"/>
@@ -13994,7 +13997,7 @@
         <v>8.18181818181818</v>
       </c>
       <c r="O16" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Q16">
         <v>0.6</v>
@@ -14014,7 +14017,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="32" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B17" s="32">
         <v>100</v>
@@ -14030,7 +14033,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -14039,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J17" s="34">
         <f t="shared" si="0"/>
@@ -14058,7 +14061,7 @@
         <v>5.45454545454545</v>
       </c>
       <c r="O17" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="Q17">
         <v>0.7</v>
@@ -14078,7 +14081,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="32" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B18" s="32">
         <v>1</v>
@@ -14100,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J18" s="34">
         <f t="shared" si="0"/>
@@ -14136,7 +14139,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="32" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B19" s="32">
         <v>20</v>
@@ -14158,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J19" s="34">
         <f t="shared" si="0"/>
@@ -14194,7 +14197,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B20">
         <v>75</v>
@@ -14210,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -14219,7 +14222,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J20" s="33">
         <f t="shared" si="0"/>
@@ -14238,7 +14241,7 @@
         <v>5.22727272727273</v>
       </c>
       <c r="O20" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -14258,7 +14261,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B21">
         <v>50</v>
@@ -14274,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -14283,7 +14286,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J21" s="33">
         <f t="shared" si="0"/>
@@ -14302,12 +14305,12 @@
         <v>5</v>
       </c>
       <c r="O21" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -14323,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -14332,7 +14335,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J22" s="33">
         <f t="shared" si="0"/>
@@ -14351,12 +14354,12 @@
         <v>5.45454545454545</v>
       </c>
       <c r="O22" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B23">
         <v>25</v>
@@ -14372,7 +14375,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -14381,7 +14384,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J23" s="33">
         <f t="shared" si="0"/>
@@ -14400,7 +14403,7 @@
         <v>4.77272727272727</v>
       </c>
       <c r="O23" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="24" spans="10:13">
@@ -14442,16 +14445,16 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="24" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>3</v>
@@ -14492,10 +14495,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="24" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C3" s="26">
         <v>0.1</v>
@@ -14517,10 +14520,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="24" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C4" s="26">
         <v>0.1</v>
@@ -14542,7 +14545,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="24" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>4</v>
@@ -14567,7 +14570,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="24" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>6</v>
@@ -14583,10 +14586,10 @@
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J6" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -14596,7 +14599,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="24" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>8</v>
@@ -14612,10 +14615,10 @@
       <c r="G7" s="23"/>
       <c r="H7" s="28"/>
       <c r="I7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="J7" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
@@ -14625,7 +14628,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="24" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>10</v>
@@ -14641,10 +14644,10 @@
       <c r="G8" s="28"/>
       <c r="H8" s="23"/>
       <c r="I8" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="J8" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -14654,10 +14657,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="24" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C9" s="26">
         <v>0.1</v>
@@ -14670,10 +14673,10 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
@@ -14683,10 +14686,10 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="24" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C10" s="26">
         <v>0.1</v>
@@ -14699,10 +14702,10 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
@@ -14712,10 +14715,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="24" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C11" s="26">
         <v>0.1</v>
@@ -14737,10 +14740,10 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="24" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C12" s="26">
         <v>1</v>
@@ -14762,10 +14765,10 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="24" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C13" s="26">
         <v>1</v>
@@ -14787,10 +14790,10 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="24" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C14" s="26">
         <v>1</v>
@@ -14812,10 +14815,10 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="24" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C15" s="26">
         <v>1</v>
@@ -15098,12 +15101,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="18" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
@@ -15111,7 +15114,7 @@
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F2" s="18">
         <v>1</v>
@@ -15119,19 +15122,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="18" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B3" s="18">
         <v>1</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D3" s="18">
         <v>1</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F3" s="18">
         <v>2</v>
@@ -15139,7 +15142,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="18" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B4" s="18">
         <v>10</v>
@@ -15147,7 +15150,7 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F4" s="18">
         <v>1</v>
@@ -15155,19 +15158,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="18" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B5" s="18">
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D5" s="18">
         <v>1</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F5" s="18">
         <v>1</v>
@@ -15175,19 +15178,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="18" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F6" s="18">
         <v>1</v>
@@ -15195,7 +15198,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="18" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B7" s="18">
         <v>5</v>
@@ -15203,7 +15206,7 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F7" s="18">
         <v>1</v>
@@ -15211,19 +15214,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="19" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B8" s="19">
         <v>10</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D8" s="19">
         <v>5</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F8" s="19">
         <v>1</v>
@@ -15231,42 +15234,42 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="19" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B9" s="19">
         <v>15</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D9" s="19">
         <v>5</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F9" s="19">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="19" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B10" s="19">
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D10" s="19">
         <v>1</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F10" s="19">
         <v>2</v>
@@ -15274,19 +15277,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B11" s="19">
         <v>5</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D11" s="19">
         <v>5</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F11" s="19">
         <v>1</v>
@@ -15294,43 +15297,43 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="18" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B12" s="18">
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D12" s="18">
         <v>10</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F12" s="18">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="18" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B13" s="18">
         <v>2</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D13" s="18">
         <v>1</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F13" s="18">
         <v>1</v>
@@ -15339,19 +15342,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B14" s="18">
         <v>3</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D14" s="18">
         <v>3</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F14" s="18">
         <v>1</v>
@@ -15360,19 +15363,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="19" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B15" s="19">
         <v>2</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D15" s="19">
         <v>1</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F15" s="19">
         <v>1</v>
@@ -15380,42 +15383,42 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="19" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B16" s="19">
         <v>5</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D16" s="19">
         <v>5</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F16" s="19">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="19" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B17" s="19">
         <v>3</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D17" s="19">
         <v>3</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F17" s="19">
         <v>1</v>
@@ -15423,19 +15426,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="19" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B18" s="19">
         <v>2</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D18" s="19">
         <v>20</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F18" s="19">
         <v>1</v>
@@ -15483,32 +15486,32 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="15" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
@@ -15519,7 +15522,7 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>76</v>
@@ -15527,44 +15530,44 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L2" s="5"/>
       <c r="N2" s="9"/>
       <c r="O2" s="16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q2" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="R2" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="R2" s="16" t="s">
-        <v>178</v>
-      </c>
       <c r="S2" s="16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -15589,7 +15592,7 @@
         <v>2.5</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O3" s="9">
         <f>SUM(G3:G6)</f>
@@ -15614,19 +15617,19 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="9">
@@ -15649,7 +15652,7 @@
         <v>1.6</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="O4" s="9">
         <f>SUM(G7:G9)</f>
@@ -15674,19 +15677,19 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>899</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>898</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="9">
@@ -15709,7 +15712,7 @@
         <v>0.45</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="O5" s="9">
         <f>SUM(G10:G22)</f>
@@ -15734,19 +15737,19 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="9">
@@ -15769,7 +15772,7 @@
         <v>0.45</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="O6" s="9">
         <f>SUM(G23:G33)</f>
@@ -15794,19 +15797,19 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="9">
@@ -15831,10 +15834,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
@@ -15862,19 +15865,19 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="9">
@@ -15899,19 +15902,19 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="9">
@@ -15936,19 +15939,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="9">
@@ -15973,19 +15976,19 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="6" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="9">
@@ -16010,19 +16013,19 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="9">
@@ -16047,19 +16050,19 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="9">
@@ -16084,19 +16087,19 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="9">
@@ -16121,19 +16124,19 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>901</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>912</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="9">
@@ -16158,22 +16161,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="6" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D17" s="11">
         <v>0.1</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -16197,22 +16200,22 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="6" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D18" s="11">
         <v>0.1</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -16236,19 +16239,19 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="6" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D19" s="11">
         <v>0.1</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="9">
@@ -16273,22 +16276,22 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="6" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D20" s="11">
         <v>0.1</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G20" s="9">
         <v>0</v>
@@ -16312,22 +16315,22 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="6" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D21" s="11">
         <v>0.1</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -16351,10 +16354,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="6" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>3</v>
@@ -16363,10 +16366,10 @@
         <v>0.05</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -16390,10 +16393,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -16417,10 +16420,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="4" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
@@ -16441,10 +16444,10 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G25" s="9">
         <v>0</v>
@@ -16466,10 +16469,10 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="6" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="14">
@@ -16492,10 +16495,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="7" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G27" s="9">
         <v>0</v>
@@ -16516,10 +16519,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="6" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G28" s="9">
         <v>0</v>
@@ -16540,10 +16543,10 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="4" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G29" s="9">
         <v>0</v>
@@ -16565,10 +16568,10 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="6" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G30" s="9">
         <v>0</v>
@@ -16590,10 +16593,10 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G31" s="9">
         <v>0</v>
@@ -16615,10 +16618,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G32" s="9">
         <v>0</v>
@@ -16639,10 +16642,10 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G33" s="9">
         <v>0</v>
@@ -16709,8 +16712,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -16725,15 +16728,15 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -16747,221 +16750,221 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>927</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>927</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>931</v>
+      <c r="A5" s="1" t="s">
+        <v>932</v>
       </c>
       <c r="B5" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B6" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B7" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B8" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B9" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C9" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B10" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B11" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B12" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B13" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B14" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B15" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B17" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B18" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B19" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B20" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B21" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B22" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B23" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>
@@ -17023,7 +17026,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -17061,7 +17064,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -17099,7 +17102,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -17137,7 +17140,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -17175,7 +17178,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -17280,62 +17283,62 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -21754,10 +21757,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -21866,7 +21869,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="113">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E3" s="114">
         <v>3</v>
@@ -21875,7 +21878,7 @@
         <v>0.5</v>
       </c>
       <c r="G3" s="115">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H3" s="116">
         <v>70</v>
@@ -21885,7 +21888,7 @@
       </c>
       <c r="J3" s="143">
         <f>D3*1</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K3" s="143">
         <f>I3/E3</f>
@@ -21897,15 +21900,15 @@
       </c>
       <c r="M3" s="143">
         <f>J3*I3</f>
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N3" s="144">
         <f>M3/L3</f>
-        <v>26.0869565217391</v>
+        <v>49.5652173913044</v>
       </c>
       <c r="P3">
         <f>(J3/F3)/200</f>
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="R3" t="s">
         <v>102</v>
@@ -21920,10 +21923,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="118">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E4" s="119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="119">
         <v>0.5</v>
@@ -21938,27 +21941,27 @@
         <v>12</v>
       </c>
       <c r="J4" s="143">
-        <f t="shared" ref="J4:J17" si="0">D4*1</f>
+        <f>D4*2</f>
         <v>14</v>
       </c>
       <c r="K4" s="143">
-        <f t="shared" ref="K4:K17" si="1">I4/E4</f>
-        <v>6</v>
+        <f t="shared" ref="K4:K17" si="0">I4/E4</f>
+        <v>3</v>
       </c>
       <c r="L4" s="143">
-        <f t="shared" ref="L4:L17" si="2">K4+F4</f>
-        <v>6.5</v>
+        <f t="shared" ref="L4:L17" si="1">K4+F4</f>
+        <v>3.5</v>
       </c>
       <c r="M4" s="143">
-        <f t="shared" ref="M4:M17" si="3">J4*I4</f>
+        <f t="shared" ref="M4:M17" si="2">J4*I4</f>
         <v>168</v>
       </c>
       <c r="N4" s="144">
-        <f t="shared" ref="N4:N17" si="4">M4/L4</f>
-        <v>25.8461538461538</v>
+        <f t="shared" ref="N4:N17" si="3">M4/L4</f>
+        <v>48</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P17" si="5">(J4/F4)/200</f>
+        <f t="shared" ref="P4:P17" si="4">(J4/F4)/200</f>
         <v>0.14</v>
       </c>
       <c r="R4" t="s">
@@ -21992,27 +21995,27 @@
         <v>6</v>
       </c>
       <c r="J5" s="145">
+        <f t="shared" ref="J4:J17" si="5">D5*1</f>
+        <v>25</v>
+      </c>
+      <c r="K5" s="145">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K5" s="145">
+        <v>1</v>
+      </c>
+      <c r="L5" s="145">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L5" s="145">
+        <v>3</v>
+      </c>
+      <c r="M5" s="145">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M5" s="145">
+        <v>150</v>
+      </c>
+      <c r="N5" s="146">
         <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="N5" s="146">
+        <v>50</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="5"/>
         <v>0.0625</v>
       </c>
       <c r="R5" t="s">
@@ -22053,27 +22056,27 @@
         <v>6</v>
       </c>
       <c r="J6" s="143">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="K6" s="143">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="K6" s="143">
+        <v>6</v>
+      </c>
+      <c r="L6" s="143">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L6" s="143">
+        <v>9</v>
+      </c>
+      <c r="M6" s="143">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M6" s="143">
+        <v>450</v>
+      </c>
+      <c r="N6" s="144">
         <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="N6" s="144">
+        <v>50</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
       <c r="R6" t="s">
@@ -22113,27 +22116,27 @@
         <v>6</v>
       </c>
       <c r="J7" s="143">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="K7" s="143">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L7" s="143">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M7" s="143">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="N7" s="144">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K7" s="143">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L7" s="143">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M7" s="143">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="N7" s="144">
+      <c r="P7">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="5"/>
         <v>0.0833333333333333</v>
       </c>
       <c r="R7" t="s">
@@ -22169,27 +22172,27 @@
         <v>6</v>
       </c>
       <c r="J8" s="145">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="K8" s="145">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="K8" s="145">
+        <v>6</v>
+      </c>
+      <c r="L8" s="145">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L8" s="145">
+        <v>11</v>
+      </c>
+      <c r="M8" s="145">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="M8" s="145">
+        <v>540</v>
+      </c>
+      <c r="N8" s="146">
         <f t="shared" si="3"/>
-        <v>540</v>
-      </c>
-      <c r="N8" s="146">
+        <v>49.0909090909091</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="4"/>
-        <v>49.0909090909091</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="5"/>
         <v>0.09</v>
       </c>
       <c r="R8" t="s">
@@ -22215,7 +22218,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="119">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G9" s="120">
         <v>20</v>
@@ -22231,24 +22234,24 @@
         <v>30</v>
       </c>
       <c r="K9" s="143">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="143">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="L9" s="143">
+        <v>3.5</v>
+      </c>
+      <c r="M9" s="143">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M9" s="143">
+        <v>180</v>
+      </c>
+      <c r="N9" s="144">
         <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="N9" s="144">
+        <v>51.4285714285714</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="5"/>
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="R9" t="s">
         <v>108</v>
@@ -22285,23 +22288,23 @@
         <v>50</v>
       </c>
       <c r="K10" s="143">
+        <f t="shared" si="0"/>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="L10" s="143">
         <f t="shared" si="1"/>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="L10" s="143">
+        <v>10.1666666666667</v>
+      </c>
+      <c r="M10" s="143">
         <f t="shared" si="2"/>
-        <v>10.1666666666667</v>
-      </c>
-      <c r="M10" s="143">
+        <v>500</v>
+      </c>
+      <c r="N10" s="144">
         <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="N10" s="144">
+        <v>49.1803278688525</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="4"/>
-        <v>49.1803278688525</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="5"/>
         <v>0.0714285714285714</v>
       </c>
       <c r="R10" t="s">
@@ -22321,7 +22324,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="125">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11" s="125">
         <v>2.5</v>
@@ -22340,23 +22343,23 @@
         <v>80</v>
       </c>
       <c r="K11" s="145">
+        <f t="shared" si="0"/>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L11" s="145">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="145">
+        <v>2.83333333333333</v>
+      </c>
+      <c r="M11" s="145">
         <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="M11" s="145">
+        <v>160</v>
+      </c>
+      <c r="N11" s="146">
         <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="N11" s="146">
+        <v>56.4705882352941</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="4"/>
-        <v>45.7142857142857</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="5"/>
         <v>0.16</v>
       </c>
       <c r="R11" t="s">
@@ -22375,7 +22378,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="118">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="119">
         <v>12</v>
@@ -22393,28 +22396,28 @@
         <v>30</v>
       </c>
       <c r="J12" s="143">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K12" s="143">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K12" s="143">
+        <v>2.5</v>
+      </c>
+      <c r="L12" s="143">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="L12" s="143">
+        <v>3.5</v>
+      </c>
+      <c r="M12" s="143">
         <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="M12" s="143">
+        <v>180</v>
+      </c>
+      <c r="N12" s="144">
         <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="N12" s="144">
+        <v>51.4285714285714</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="4"/>
-        <v>42.8571428571429</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="5"/>
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="R12" t="s">
         <v>111</v>
@@ -22429,7 +22432,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="118">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="119">
         <v>8</v>
@@ -22447,28 +22450,28 @@
         <v>20</v>
       </c>
       <c r="J13" s="143">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="143">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K13" s="143">
+        <v>2.5</v>
+      </c>
+      <c r="L13" s="143">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="L13" s="143">
+        <v>3.75</v>
+      </c>
+      <c r="M13" s="143">
         <f t="shared" si="2"/>
-        <v>3.75</v>
-      </c>
-      <c r="M13" s="143">
+        <v>180</v>
+      </c>
+      <c r="N13" s="144">
         <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="N13" s="144">
+        <v>48</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="4"/>
-        <v>42.6666666666667</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="5"/>
-        <v>0.032</v>
+        <v>0.036</v>
       </c>
       <c r="R13" t="s">
         <v>105</v>
@@ -22486,7 +22489,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="125">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="125">
         <v>1</v>
@@ -22501,27 +22504,27 @@
         <v>30</v>
       </c>
       <c r="J14" s="145">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="145">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K14" s="145">
+        <v>2.72727272727273</v>
+      </c>
+      <c r="L14" s="145">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L14" s="145">
+        <v>3.72727272727273</v>
+      </c>
+      <c r="M14" s="145">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M14" s="145">
+        <v>180</v>
+      </c>
+      <c r="N14" s="146">
         <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="N14" s="146">
+        <v>48.2926829268293</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
       <c r="R14" t="s">
@@ -22539,7 +22542,7 @@
         <v>58</v>
       </c>
       <c r="D15" s="118">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E15" s="119">
         <v>5</v>
@@ -22557,29 +22560,29 @@
         <v>70</v>
       </c>
       <c r="J15" s="143">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="K15" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K15" s="143">
+        <v>14</v>
+      </c>
+      <c r="L15" s="143">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L15" s="143">
+        <v>19</v>
+      </c>
+      <c r="M15" s="143">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="M15" s="143">
+        <v>980</v>
+      </c>
+      <c r="N15" s="144">
         <f t="shared" si="3"/>
-        <v>700</v>
-      </c>
-      <c r="N15" s="144">
-        <f t="shared" si="4"/>
-        <v>36.8421052631579</v>
+        <v>51.5789473684211</v>
       </c>
       <c r="O15" s="82"/>
       <c r="P15">
-        <f t="shared" si="5"/>
-        <v>0.01</v>
+        <f t="shared" si="4"/>
+        <v>0.014</v>
       </c>
       <c r="Q15"/>
       <c r="R15" t="s">
@@ -22619,27 +22622,27 @@
         <v>50</v>
       </c>
       <c r="J16" s="143">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="K16" s="143">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="K16" s="143">
+        <v>10</v>
+      </c>
+      <c r="L16" s="143">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L16" s="143">
+        <v>17</v>
+      </c>
+      <c r="M16" s="143">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="M16" s="143">
+        <v>900</v>
+      </c>
+      <c r="N16" s="144">
         <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="N16" s="144">
+        <v>52.9411764705882</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="4"/>
-        <v>52.9411764705882</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="5"/>
         <v>0.0128571428571429</v>
       </c>
       <c r="R16" t="s">
@@ -22673,28 +22676,28 @@
         <v>50</v>
       </c>
       <c r="J17" s="147">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="K17" s="147">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K17" s="147">
+        <v>7.14285714285714</v>
+      </c>
+      <c r="L17" s="147">
         <f t="shared" si="1"/>
-        <v>7.14285714285714</v>
-      </c>
-      <c r="L17" s="147">
+        <v>12.1428571428571</v>
+      </c>
+      <c r="M17" s="147">
         <f t="shared" si="2"/>
-        <v>12.1428571428571</v>
-      </c>
-      <c r="M17" s="147">
+        <v>600</v>
+      </c>
+      <c r="N17" s="148">
         <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="N17" s="148">
-        <f t="shared" si="4"/>
         <v>49.4117647058824</v>
       </c>
       <c r="O17" s="82"/>
       <c r="P17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.012</v>
       </c>
       <c r="Q17"/>
@@ -22712,71 +22715,921 @@
     <row r="18" customFormat="1" spans="2:2">
       <c r="B18" s="71"/>
     </row>
-    <row r="23" spans="6:8">
-      <c r="F23" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
         <v>115</v>
       </c>
-      <c r="G23" t="s">
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" t="s">
         <v>116</v>
       </c>
-      <c r="H23" t="s">
+      <c r="E20" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="24" spans="6:8">
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <f>F24*12*24</f>
+      <c r="F20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21">
+        <f>0.08*C19+1</f>
+        <v>1.8</v>
+      </c>
+      <c r="E21">
+        <f>0.02*C19+1</f>
+        <v>1.2</v>
+      </c>
+      <c r="F21">
+        <f>1/E21</f>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G21">
+        <f>0.01*C19+1</f>
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="138" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="107"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="140"/>
+      <c r="N23" s="142"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="113">
+        <f>D3*D$21</f>
+        <v>34.2</v>
+      </c>
+      <c r="E24" s="114">
+        <f>E3*E$21</f>
+        <v>3.6</v>
+      </c>
+      <c r="F24" s="114">
+        <f>F3*F$21</f>
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G24" s="115">
+        <f>G3*G$21</f>
+        <v>66</v>
+      </c>
+      <c r="H24" s="116">
+        <v>70</v>
+      </c>
+      <c r="I24" s="114">
+        <v>10</v>
+      </c>
+      <c r="J24" s="143">
+        <f t="shared" ref="J24:J29" si="6">D24*1</f>
+        <v>34.2</v>
+      </c>
+      <c r="K24" s="143">
+        <f t="shared" ref="K24:K38" si="7">I24/E24</f>
+        <v>2.77777777777778</v>
+      </c>
+      <c r="L24" s="143">
+        <f t="shared" ref="L24:L38" si="8">K24+F24</f>
+        <v>3.19444444444444</v>
+      </c>
+      <c r="M24" s="143">
+        <f t="shared" ref="M24:M38" si="9">J24*I24</f>
+        <v>342</v>
+      </c>
+      <c r="N24" s="144">
+        <f t="shared" ref="N24:N38" si="10">M24/L24</f>
+        <v>107.060869565217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="117"/>
+      <c r="B25" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="118">
+        <f t="shared" ref="D25:D38" si="11">D4*D$21</f>
+        <v>12.6</v>
+      </c>
+      <c r="E25" s="119">
+        <f t="shared" ref="E25:E38" si="12">E4*E$21</f>
+        <v>4.8</v>
+      </c>
+      <c r="F25" s="119">
+        <f t="shared" ref="F25:F38" si="13">F4*F$21</f>
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G25" s="120">
+        <f t="shared" ref="G25:G38" si="14">G4*G$21</f>
+        <v>55</v>
+      </c>
+      <c r="H25" s="121">
+        <v>80</v>
+      </c>
+      <c r="I25" s="119">
+        <v>12</v>
+      </c>
+      <c r="J25" s="143">
+        <f>D25*2</f>
+        <v>25.2</v>
+      </c>
+      <c r="K25" s="143">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="L25" s="143">
+        <f t="shared" si="8"/>
+        <v>2.91666666666667</v>
+      </c>
+      <c r="M25" s="143">
+        <f t="shared" si="9"/>
+        <v>302.4</v>
+      </c>
+      <c r="N25" s="144">
+        <f t="shared" si="10"/>
+        <v>103.68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="122"/>
+      <c r="B26" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="122" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="124">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="E26" s="125">
+        <f t="shared" si="12"/>
+        <v>7.2</v>
+      </c>
+      <c r="F26" s="125">
+        <f t="shared" si="13"/>
+        <v>1.66666666666667</v>
+      </c>
+      <c r="G26" s="126">
+        <f t="shared" si="14"/>
+        <v>82.5</v>
+      </c>
+      <c r="H26" s="127">
+        <v>90</v>
+      </c>
+      <c r="I26" s="125">
+        <v>6</v>
+      </c>
+      <c r="J26" s="145">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="K26" s="145">
+        <f t="shared" si="7"/>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L26" s="145">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="M26" s="145">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+      <c r="N26" s="146">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="118">
+        <f t="shared" si="11"/>
+        <v>135</v>
+      </c>
+      <c r="E27" s="119">
+        <f t="shared" si="12"/>
+        <v>1.2</v>
+      </c>
+      <c r="F27" s="119">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="G27" s="128">
+        <f t="shared" si="14"/>
+        <v>99</v>
+      </c>
+      <c r="H27" s="121">
+        <v>20</v>
+      </c>
+      <c r="I27" s="119">
+        <v>6</v>
+      </c>
+      <c r="J27" s="143">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="K27" s="143">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L27" s="143">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+      <c r="M27" s="143">
+        <f t="shared" si="9"/>
+        <v>810</v>
+      </c>
+      <c r="N27" s="144">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="117"/>
+      <c r="B28" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="118">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="E28" s="119">
+        <f t="shared" si="12"/>
+        <v>2.4</v>
+      </c>
+      <c r="F28" s="119">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="G28" s="120">
+        <f t="shared" si="14"/>
+        <v>99</v>
+      </c>
+      <c r="H28" s="121">
+        <v>0</v>
+      </c>
+      <c r="I28" s="119">
+        <v>6</v>
+      </c>
+      <c r="J28" s="143">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="K28" s="143">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="L28" s="143">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M28" s="143">
+        <f t="shared" si="9"/>
+        <v>540</v>
+      </c>
+      <c r="N28" s="144">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="122"/>
+      <c r="B29" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="124">
+        <f t="shared" si="11"/>
+        <v>162</v>
+      </c>
+      <c r="E29" s="125">
+        <f t="shared" si="12"/>
+        <v>1.2</v>
+      </c>
+      <c r="F29" s="125">
+        <f t="shared" si="13"/>
+        <v>4.16666666666667</v>
+      </c>
+      <c r="G29" s="126">
+        <f t="shared" si="14"/>
+        <v>99</v>
+      </c>
+      <c r="H29" s="127">
+        <v>20</v>
+      </c>
+      <c r="I29" s="125">
+        <v>6</v>
+      </c>
+      <c r="J29" s="145">
+        <f t="shared" si="6"/>
+        <v>162</v>
+      </c>
+      <c r="K29" s="145">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L29" s="145">
+        <f t="shared" si="8"/>
+        <v>9.16666666666667</v>
+      </c>
+      <c r="M29" s="145">
+        <f t="shared" si="9"/>
+        <v>972</v>
+      </c>
+      <c r="N29" s="146">
+        <f t="shared" si="10"/>
+        <v>106.036363636364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="117" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="118">
+        <f t="shared" si="11"/>
+        <v>5.4</v>
+      </c>
+      <c r="E30" s="119">
+        <f t="shared" si="12"/>
+        <v>4.8</v>
+      </c>
+      <c r="F30" s="119">
+        <f t="shared" si="13"/>
+        <v>1.66666666666667</v>
+      </c>
+      <c r="G30" s="120">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="H30" s="121">
+        <v>35</v>
+      </c>
+      <c r="I30" s="119">
+        <v>6</v>
+      </c>
+      <c r="J30" s="143">
+        <f t="shared" ref="J30:J32" si="15">D30*10</f>
+        <v>54</v>
+      </c>
+      <c r="K30" s="143">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
+      </c>
+      <c r="L30" s="143">
+        <f t="shared" si="8"/>
+        <v>2.91666666666667</v>
+      </c>
+      <c r="M30" s="143">
+        <f t="shared" si="9"/>
+        <v>324</v>
+      </c>
+      <c r="N30" s="144">
+        <f t="shared" si="10"/>
+        <v>111.085714285714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="117"/>
+      <c r="B31" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="117" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="118">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="E31" s="119">
+        <f t="shared" si="12"/>
+        <v>1.8</v>
+      </c>
+      <c r="F31" s="119">
+        <f t="shared" si="13"/>
+        <v>2.91666666666667</v>
+      </c>
+      <c r="G31" s="120